--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="538">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1319" uniqueCount="539">
   <si>
     <t>ClassName</t>
   </si>
@@ -617,10 +617,6 @@
 WG Approval 07/03/2019 15:33:37</t>
   </si>
   <si>
-    <t>mmmm                                              The tenderer to whom the contract is awarded.
-(WG approval 20/11/2018)</t>
-  </si>
-  <si>
     <t>A collection of people organized together into a community or other social, commercial or political structure. The group has some common purpose or reason for existence which goes beyond the set of people belonging to it and can act as an Agent. Organizations are often decomposable into hierarchical structures.
 (WG approval 23/11/2018).</t>
   </si>
@@ -1363,13 +1359,6 @@
   </si>
   <si>
     <t>The textual description of the Weighting Description.</t>
-  </si>
-  <si>
-    <t>Relative importance assigned to a given criterion.
-Additional Information: This is modeled as a Quantity because quantities have an attribute named unitCode, which allows to explain what the numeric value is about. In the case of Award Criteria this unitCode could use the Code List defined by eForms defining different types of evaluation award criteria, e.g. 
-A rule should nevertheless be imposed: these Quantities should be of the form x.y, where x &amp;lt; 0  so they can be used to represent percentages).
-(WG approval 15/06/2018
-reviewed on 23-01-2019)</t>
   </si>
   <si>
     <t>Identifies unambiguously and uniquely a particular structure of data inside the group and across all procurement procedures.</t>
@@ -1462,10 +1451,6 @@
 Additional Information: These clauses usually refer to financial and payment provisions.
 This type of information should be structured instead of a free text in order to reuse it an ideal world. Unfortunately this is an information that in the real life no one is willing to provide pro-actively.
 WG Pending of discussion with eForms</t>
-  </si>
-  <si>
-    <t>&lt;font color="#24292e"&gt;The execution of the contract is restricted to the framework of sheltered employment programmes&lt;/font&gt;.
-Pending of approval</t>
   </si>
   <si>
     <t>There are other restrictions on the place of performance (e.g. "anywhere in the European Economic Area", "anywhere in the given country").</t>
@@ -1852,6 +1837,25 @@
   <si>
     <t>The deadline for submitting Tenders.
 (Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> The tenderer to whom the contract is awarded.
+(WG approval 20/11/2018)</t>
+  </si>
+  <si>
+    <t>The tenderer to whom the contract is awarded.
+(WG approval 20/11/2018)</t>
+  </si>
+  <si>
+    <t>The execution of the contract is restricted to the framework of sheltered employment programmes.
+Pending of approval</t>
+  </si>
+  <si>
+    <t>Relative importance assigned to a given criterion.
+Additional Information: This is modeled as a Quantity because quantities have an attribute named unitCode, which allows to explain what the numeric value is about. In the case of Award Criteria this unitCode could use the Code List defined by eForms defining different types of evaluation award criteria, e.g. 
+A rule should nevertheless be imposed: these Quantities should be of the form x.y, where x &lt; 0  so they can be used to represent percentages).
+(WG approval 15/06/2018
+reviewed on 23-01-2019)</t>
   </si>
 </sst>
 </file>
@@ -1970,25 +1974,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E332" tableType="xml" totalsRowShown="0" headerRowDxfId="1" dataDxfId="0" connectionId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E332" tableType="xml" totalsRowShown="0" headerRowDxfId="6" dataDxfId="5" connectionId="1">
   <autoFilter ref="A1:E332"/>
   <sortState ref="A2:E332">
     <sortCondition ref="A1:A332"/>
   </sortState>
   <tableColumns count="5">
-    <tableColumn id="1" uniqueName="ClassName" name="ClassName" dataDxfId="6">
+    <tableColumn id="1" uniqueName="ClassName" name="ClassName" dataDxfId="4">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/ClassName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="2" uniqueName="ClassDefinition" name="ClassDefinition" dataDxfId="5">
+    <tableColumn id="2" uniqueName="ClassDefinition" name="ClassDefinition" dataDxfId="3">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/ClassDefinition" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="3" uniqueName="AttributeName" name="AttributeName" dataDxfId="4">
+    <tableColumn id="3" uniqueName="AttributeName" name="AttributeName" dataDxfId="2">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/Attribute/AttributeName" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="4" uniqueName="AttributeDefinition" name="AttributeDefinition" dataDxfId="3">
+    <tableColumn id="4" uniqueName="AttributeDefinition" name="AttributeDefinition" dataDxfId="1">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/Attribute/AttributeDefinition" xmlDataType="string"/>
     </tableColumn>
-    <tableColumn id="5" uniqueName="AttributeType" name="AttributeType" dataDxfId="2">
+    <tableColumn id="5" uniqueName="AttributeType" name="AttributeType" dataDxfId="0">
       <xmlColumnPr mapId="1" xpath="/Glossary/Class/Attribute/AttributeType" xmlDataType="string"/>
     </tableColumn>
   </tableColumns>
@@ -2262,7 +2266,7 @@
   <dimension ref="A1:E332"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="H62" sqref="H62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2308,11 +2312,11 @@
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2334,13 +2338,13 @@
         <v>116</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="E5" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2351,11 +2355,11 @@
         <v>116</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2366,11 +2370,11 @@
         <v>116</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2381,11 +2385,11 @@
         <v>116</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2396,11 +2400,11 @@
         <v>117</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2411,11 +2415,11 @@
         <v>117</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2426,11 +2430,11 @@
         <v>117</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2441,11 +2445,11 @@
         <v>117</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2456,11 +2460,11 @@
         <v>118</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2471,11 +2475,11 @@
         <v>118</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2486,11 +2490,11 @@
         <v>118</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2501,11 +2505,11 @@
         <v>118</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2516,13 +2520,13 @@
         <v>118</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
@@ -2531,11 +2535,11 @@
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -2544,13 +2548,13 @@
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2561,11 +2565,11 @@
         <v>119</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2576,11 +2580,11 @@
         <v>119</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2591,13 +2595,13 @@
         <v>120</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2630,13 +2634,13 @@
         <v>123</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2647,13 +2651,13 @@
         <v>123</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -2664,13 +2668,13 @@
         <v>123</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2681,11 +2685,11 @@
         <v>124</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -2705,13 +2709,13 @@
         <v>125</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="E30" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="31" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2722,13 +2726,13 @@
         <v>125</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="E31" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="32" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2739,11 +2743,11 @@
         <v>125</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2765,11 +2769,11 @@
         <v>127</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="D34" s="2"/>
       <c r="E34" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="35" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2780,11 +2784,11 @@
         <v>127</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="D35" s="2"/>
       <c r="E35" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2795,11 +2799,11 @@
         <v>127</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -2810,11 +2814,11 @@
         <v>127</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2825,11 +2829,11 @@
         <v>128</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D38" s="2"/>
       <c r="E38" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="39" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2840,13 +2844,13 @@
         <v>128</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="E39" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2866,13 +2870,13 @@
         <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="E41" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2883,13 +2887,13 @@
         <v>129</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="E42" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -2900,13 +2904,13 @@
         <v>129</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="E43" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2917,13 +2921,13 @@
         <v>129</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2934,13 +2938,13 @@
         <v>129</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="E45" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2951,11 +2955,11 @@
         <v>129</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="D46" s="2"/>
       <c r="E46" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2966,13 +2970,13 @@
         <v>129</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="E47" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -2983,13 +2987,13 @@
         <v>129</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="E48" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3000,11 +3004,11 @@
         <v>129</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3015,13 +3019,13 @@
         <v>129</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="E50" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -3032,13 +3036,13 @@
         <v>129</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="E51" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3049,13 +3053,13 @@
         <v>129</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>442</v>
+        <v>537</v>
       </c>
       <c r="E52" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3066,13 +3070,13 @@
         <v>129</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>443</v>
+        <v>440</v>
       </c>
       <c r="E53" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
@@ -3081,11 +3085,11 @@
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="D54" s="2"/>
       <c r="E54" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3093,14 +3097,14 @@
         <v>104</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D55" s="2"/>
       <c r="E55" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3108,14 +3112,14 @@
         <v>104</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D56" s="2"/>
       <c r="E56" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3123,14 +3127,14 @@
         <v>104</v>
       </c>
       <c r="B57" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C57" s="2" t="s">
         <v>104</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3141,13 +3145,13 @@
         <v>109</v>
       </c>
       <c r="C58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D58" s="2" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3158,13 +3162,13 @@
         <v>109</v>
       </c>
       <c r="C59" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D59" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E59" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3175,13 +3179,13 @@
         <v>109</v>
       </c>
       <c r="C60" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E60" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3192,13 +3196,13 @@
         <v>109</v>
       </c>
       <c r="C61" s="2" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E61" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -3209,13 +3213,13 @@
         <v>109</v>
       </c>
       <c r="C62" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>418</v>
+        <v>538</v>
       </c>
       <c r="E62" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3226,11 +3230,11 @@
         <v>109</v>
       </c>
       <c r="C63" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="D63" s="2"/>
       <c r="E63" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3241,11 +3245,11 @@
         <v>109</v>
       </c>
       <c r="C64" s="2" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="D64" s="2"/>
       <c r="E64" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3256,11 +3260,11 @@
         <v>109</v>
       </c>
       <c r="C65" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="D65" s="2"/>
       <c r="E65" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3271,13 +3275,13 @@
         <v>110</v>
       </c>
       <c r="C66" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="E66" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3288,13 +3292,13 @@
         <v>110</v>
       </c>
       <c r="C67" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E67" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3305,13 +3309,13 @@
         <v>110</v>
       </c>
       <c r="C68" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E68" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3322,11 +3326,11 @@
         <v>111</v>
       </c>
       <c r="C69" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3337,11 +3341,11 @@
         <v>111</v>
       </c>
       <c r="C70" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3352,11 +3356,11 @@
         <v>111</v>
       </c>
       <c r="C71" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3367,11 +3371,11 @@
         <v>111</v>
       </c>
       <c r="C72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3382,11 +3386,11 @@
         <v>111</v>
       </c>
       <c r="C73" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3397,11 +3401,11 @@
         <v>111</v>
       </c>
       <c r="C74" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" s="2" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3412,11 +3416,11 @@
         <v>111</v>
       </c>
       <c r="C75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3427,11 +3431,11 @@
         <v>111</v>
       </c>
       <c r="C76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="77" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3457,11 +3461,11 @@
         <v>111</v>
       </c>
       <c r="C78" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="79" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3472,13 +3476,13 @@
         <v>112</v>
       </c>
       <c r="C79" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="E79" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3489,13 +3493,13 @@
         <v>112</v>
       </c>
       <c r="C80" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E80" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3506,13 +3510,13 @@
         <v>112</v>
       </c>
       <c r="C81" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E81" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="82" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3523,11 +3527,11 @@
         <v>112</v>
       </c>
       <c r="C82" s="2" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="83" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3535,7 +3539,7 @@
         <v>31</v>
       </c>
       <c r="B83" s="2" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
       <c r="C83" s="2"/>
       <c r="D83" s="2"/>
@@ -3547,11 +3551,11 @@
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="85" spans="1:5" x14ac:dyDescent="0.25">
@@ -3560,11 +3564,11 @@
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
@@ -3573,11 +3577,11 @@
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
@@ -3586,11 +3590,11 @@
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
@@ -3599,11 +3603,11 @@
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:5" x14ac:dyDescent="0.25">
@@ -3612,11 +3616,11 @@
       </c>
       <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3625,11 +3629,11 @@
       </c>
       <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -3640,11 +3644,11 @@
         <v>130</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -3655,13 +3659,13 @@
         <v>130</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>444</v>
+        <v>441</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -3672,13 +3676,13 @@
         <v>130</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>445</v>
+        <v>442</v>
       </c>
       <c r="E93" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="94" spans="1:5" ht="225" x14ac:dyDescent="0.25">
@@ -3689,13 +3693,13 @@
         <v>130</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="E94" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -3715,13 +3719,13 @@
         <v>131</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>447</v>
+        <v>444</v>
       </c>
       <c r="E96" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="97" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3732,11 +3736,11 @@
         <v>131</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="98" spans="1:5" x14ac:dyDescent="0.25">
@@ -3745,11 +3749,11 @@
       </c>
       <c r="B98" s="2"/>
       <c r="C98" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="99" spans="1:5" x14ac:dyDescent="0.25">
@@ -3758,13 +3762,13 @@
       </c>
       <c r="B99" s="2"/>
       <c r="C99" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>448</v>
+        <v>445</v>
       </c>
       <c r="E99" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3797,11 +3801,11 @@
         <v>134</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3812,13 +3816,13 @@
         <v>134</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>449</v>
+        <v>446</v>
       </c>
       <c r="E103" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3829,11 +3833,11 @@
         <v>134</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3844,13 +3848,13 @@
         <v>134</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>450</v>
+        <v>447</v>
       </c>
       <c r="E105" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3861,11 +3865,11 @@
         <v>134</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3876,13 +3880,13 @@
         <v>135</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E107" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -3893,13 +3897,13 @@
         <v>136</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="E108" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -3910,11 +3914,11 @@
         <v>136</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="270" x14ac:dyDescent="0.25">
@@ -3925,11 +3929,11 @@
         <v>136</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="111" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3960,11 +3964,11 @@
       </c>
       <c r="B113" s="2"/>
       <c r="C113" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="114" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3975,13 +3979,13 @@
         <v>139</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>452</v>
+        <v>449</v>
       </c>
       <c r="E114" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3992,11 +3996,11 @@
         <v>139</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="D115" s="2"/>
       <c r="E115" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4007,13 +4011,13 @@
         <v>139</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>453</v>
+        <v>450</v>
       </c>
       <c r="E116" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4024,11 +4028,11 @@
         <v>139</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4039,11 +4043,11 @@
         <v>140</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -4054,13 +4058,13 @@
         <v>141</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>454</v>
+        <v>451</v>
       </c>
       <c r="E119" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -4071,13 +4075,13 @@
         <v>141</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>455</v>
+        <v>452</v>
       </c>
       <c r="E120" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="121" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4088,13 +4092,13 @@
         <v>141</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>456</v>
+        <v>453</v>
       </c>
       <c r="E121" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="122" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4105,11 +4109,11 @@
         <v>141</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="123" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4120,11 +4124,11 @@
         <v>141</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4144,11 +4148,11 @@
         <v>151</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
@@ -4159,11 +4163,11 @@
         <v>151</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
@@ -4174,13 +4178,13 @@
         <v>151</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E127" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4191,11 +4195,11 @@
         <v>151</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="129" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4217,11 +4221,11 @@
         <v>143</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4232,11 +4236,11 @@
         <v>143</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4247,11 +4251,11 @@
         <v>143</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4262,11 +4266,11 @@
         <v>143</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.25">
@@ -4277,11 +4281,11 @@
         <v>143</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.25">
@@ -4292,11 +4296,11 @@
         <v>143</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.25">
@@ -4307,11 +4311,11 @@
         <v>143</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4325,10 +4329,10 @@
         <v>104</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>457</v>
+        <v>454</v>
       </c>
       <c r="E137" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:5" x14ac:dyDescent="0.25">
@@ -4361,11 +4365,11 @@
         <v>145</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="141" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -4376,13 +4380,13 @@
         <v>145</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="E141" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -4393,13 +4397,13 @@
         <v>145</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>459</v>
+        <v>456</v>
       </c>
       <c r="E142" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -4410,13 +4414,13 @@
         <v>145</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>460</v>
+        <v>457</v>
       </c>
       <c r="E143" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
@@ -4427,11 +4431,11 @@
         <v>146</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
@@ -4442,13 +4446,13 @@
         <v>146</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="D145" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E145" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="146" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4459,13 +4463,13 @@
         <v>146</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>461</v>
+        <v>458</v>
       </c>
       <c r="E146" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
@@ -4474,11 +4478,11 @@
       </c>
       <c r="B147" s="2"/>
       <c r="C147" s="2" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
@@ -4487,11 +4491,11 @@
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -4500,11 +4504,11 @@
       </c>
       <c r="B149" s="2"/>
       <c r="C149" s="2" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="D149" s="2"/>
       <c r="E149" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
@@ -4513,11 +4517,11 @@
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4526,11 +4530,11 @@
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="D151" s="2"/>
       <c r="E151" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
@@ -4548,11 +4552,11 @@
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4572,11 +4576,11 @@
       </c>
       <c r="B155" s="2"/>
       <c r="C155" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -4585,11 +4589,11 @@
       </c>
       <c r="B156" s="2"/>
       <c r="C156" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -4598,13 +4602,13 @@
       </c>
       <c r="B157" s="2"/>
       <c r="C157" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E157" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
@@ -4613,11 +4617,11 @@
       </c>
       <c r="B158" s="2"/>
       <c r="C158" s="2" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -4626,11 +4630,11 @@
       </c>
       <c r="B159" s="2"/>
       <c r="C159" s="2" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4641,11 +4645,11 @@
         <v>113</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D160" s="2"/>
       <c r="E160" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="161" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4656,13 +4660,13 @@
         <v>113</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E161" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -4673,13 +4677,13 @@
         <v>113</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="E162" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="163" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4690,11 +4694,11 @@
         <v>113</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="164" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4705,11 +4709,11 @@
         <v>113</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="D164" s="2"/>
       <c r="E164" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="165" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4720,11 +4724,11 @@
         <v>113</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4733,11 +4737,11 @@
       </c>
       <c r="B166" s="2"/>
       <c r="C166" s="2" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4746,11 +4750,11 @@
       </c>
       <c r="B167" s="2"/>
       <c r="C167" s="2" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D167" s="2"/>
       <c r="E167" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
@@ -4759,11 +4763,11 @@
       </c>
       <c r="B168" s="2"/>
       <c r="C168" s="2" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
@@ -4772,11 +4776,11 @@
       </c>
       <c r="B169" s="2"/>
       <c r="C169" s="2" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="D169" s="2"/>
       <c r="E169" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
@@ -4785,11 +4789,11 @@
       </c>
       <c r="B170" s="2"/>
       <c r="C170" s="2" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="D170" s="2"/>
       <c r="E170" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
@@ -4798,11 +4802,11 @@
       </c>
       <c r="B171" s="2"/>
       <c r="C171" s="2" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D171" s="2"/>
       <c r="E171" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
@@ -4811,11 +4815,11 @@
       </c>
       <c r="B172" s="2"/>
       <c r="C172" s="2" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
@@ -4824,11 +4828,11 @@
       </c>
       <c r="B173" s="2"/>
       <c r="C173" s="2" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D173" s="2"/>
       <c r="E173" s="2" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="174" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4839,13 +4843,13 @@
         <v>147</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E174" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4856,11 +4860,11 @@
         <v>147</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4871,11 +4875,11 @@
         <v>147</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D176" s="2"/>
       <c r="E176" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4886,11 +4890,11 @@
         <v>147</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="D177" s="2"/>
       <c r="E177" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="178" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4901,13 +4905,13 @@
         <v>147</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>462</v>
+        <v>459</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4918,11 +4922,11 @@
         <v>147</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="180" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4933,11 +4937,11 @@
         <v>147</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="181" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4948,11 +4952,11 @@
         <v>148</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4963,13 +4967,13 @@
         <v>148</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E182" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="183" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4980,11 +4984,11 @@
         <v>148</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D183" s="2"/>
       <c r="E183" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -4995,13 +4999,13 @@
         <v>149</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>463</v>
+        <v>460</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5012,11 +5016,11 @@
         <v>149</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="186" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5027,11 +5031,11 @@
         <v>150</v>
       </c>
       <c r="C186" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D186" s="2"/>
       <c r="E186" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5040,13 +5044,13 @@
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>464</v>
+        <v>461</v>
       </c>
       <c r="E187" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="188" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5055,13 +5059,13 @@
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="D188" s="2" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E188" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -5069,7 +5073,7 @@
         <v>101</v>
       </c>
       <c r="B189" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C189" s="2"/>
       <c r="D189" s="2"/>
@@ -5080,16 +5084,16 @@
         <v>106</v>
       </c>
       <c r="B190" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C190" s="2" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>513</v>
+        <v>510</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5097,16 +5101,16 @@
         <v>106</v>
       </c>
       <c r="B191" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C191" s="2" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>514</v>
+        <v>511</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5114,16 +5118,16 @@
         <v>106</v>
       </c>
       <c r="B192" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C192" s="2" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5131,16 +5135,16 @@
         <v>106</v>
       </c>
       <c r="B193" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C193" s="2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5148,16 +5152,16 @@
         <v>106</v>
       </c>
       <c r="B194" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C194" s="2" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5165,16 +5169,16 @@
         <v>106</v>
       </c>
       <c r="B195" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C195" s="2" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="196" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5182,16 +5186,16 @@
         <v>106</v>
       </c>
       <c r="B196" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
       <c r="C196" s="2" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="E196" s="2" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
@@ -5209,11 +5213,11 @@
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="D198" s="2"/>
       <c r="E198" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
@@ -5222,11 +5226,11 @@
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="D199" s="2"/>
       <c r="E199" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
@@ -5235,11 +5239,11 @@
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="D200" s="2"/>
       <c r="E200" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
@@ -5248,11 +5252,11 @@
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="D201" s="2"/>
       <c r="E201" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
@@ -5261,11 +5265,11 @@
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="D202" s="2"/>
       <c r="E202" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
@@ -5274,11 +5278,11 @@
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="D203" s="2"/>
       <c r="E203" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
@@ -5287,11 +5291,11 @@
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="D204" s="2"/>
       <c r="E204" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
@@ -5300,11 +5304,11 @@
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="D205" s="2"/>
       <c r="E205" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
@@ -5313,11 +5317,11 @@
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="D206" s="2"/>
       <c r="E206" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
@@ -5326,11 +5330,11 @@
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D207" s="2"/>
       <c r="E207" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
@@ -5339,11 +5343,11 @@
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="D208" s="2"/>
       <c r="E208" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
@@ -5352,11 +5356,11 @@
       </c>
       <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D209" s="2"/>
       <c r="E209" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
@@ -5365,11 +5369,11 @@
       </c>
       <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
@@ -5378,11 +5382,11 @@
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
@@ -5391,11 +5395,11 @@
       </c>
       <c r="B212" s="2"/>
       <c r="C212" s="2" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
@@ -5404,11 +5408,11 @@
       </c>
       <c r="B213" s="2"/>
       <c r="C213" s="2" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
@@ -5417,11 +5421,11 @@
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
@@ -5430,11 +5434,11 @@
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
@@ -5443,11 +5447,11 @@
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
@@ -5456,11 +5460,11 @@
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
@@ -5469,11 +5473,11 @@
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
@@ -5482,11 +5486,11 @@
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
@@ -5495,11 +5499,11 @@
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
@@ -5530,11 +5534,11 @@
         <v>152</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="224" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5545,13 +5549,13 @@
         <v>153</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
       <c r="E224" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5562,13 +5566,13 @@
         <v>153</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="E225" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5579,11 +5583,11 @@
         <v>153</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="D226" s="2"/>
       <c r="E226" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5594,13 +5598,13 @@
         <v>153</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>467</v>
+        <v>464</v>
       </c>
       <c r="E227" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5611,13 +5615,13 @@
         <v>153</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>468</v>
+        <v>465</v>
       </c>
       <c r="E228" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5628,13 +5632,13 @@
         <v>153</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="D229" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5645,13 +5649,13 @@
         <v>153</v>
       </c>
       <c r="C230" s="2" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="D230" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5662,11 +5666,11 @@
         <v>153</v>
       </c>
       <c r="C231" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D231" s="2"/>
       <c r="E231" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5677,13 +5681,13 @@
         <v>153</v>
       </c>
       <c r="C232" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5694,11 +5698,11 @@
         <v>153</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="234" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5709,11 +5713,11 @@
         <v>153</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="D234" s="2"/>
       <c r="E234" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5724,13 +5728,13 @@
         <v>153</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>469</v>
+        <v>466</v>
       </c>
       <c r="E235" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5741,11 +5745,11 @@
         <v>153</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -5756,13 +5760,13 @@
         <v>153</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>470</v>
+        <v>467</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5773,11 +5777,11 @@
         <v>154</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5788,13 +5792,13 @@
         <v>154</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>471</v>
+        <v>468</v>
       </c>
       <c r="E239" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5805,13 +5809,13 @@
         <v>154</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="D240" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="241" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5822,13 +5826,13 @@
         <v>154</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>472</v>
+        <v>469</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="242" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5839,13 +5843,13 @@
         <v>154</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>473</v>
+        <v>470</v>
       </c>
       <c r="E242" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
@@ -5889,13 +5893,13 @@
         <v>155</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5906,13 +5910,13 @@
         <v>156</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>475</v>
+        <v>472</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5923,13 +5927,13 @@
         <v>156</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>476</v>
+        <v>473</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5940,13 +5944,13 @@
         <v>156</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>477</v>
+        <v>474</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5957,13 +5961,13 @@
         <v>156</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>478</v>
+        <v>475</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5974,11 +5978,11 @@
         <v>156</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="D251" s="2"/>
       <c r="E251" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="252" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5989,13 +5993,13 @@
         <v>156</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>479</v>
+        <v>476</v>
       </c>
       <c r="E252" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="253" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6006,13 +6010,13 @@
         <v>156</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>480</v>
+        <v>477</v>
       </c>
       <c r="E253" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="254" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6023,13 +6027,13 @@
         <v>156</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>481</v>
+        <v>478</v>
       </c>
       <c r="E254" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="255" spans="1:5" x14ac:dyDescent="0.25">
@@ -6049,13 +6053,13 @@
         <v>157</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="E256" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6066,13 +6070,13 @@
         <v>157</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="D257" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E257" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6083,11 +6087,11 @@
         <v>157</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6098,13 +6102,13 @@
         <v>157</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="D259" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E259" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6115,13 +6119,13 @@
         <v>157</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="E260" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6132,13 +6136,13 @@
         <v>157</v>
       </c>
       <c r="C261" s="2" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>484</v>
+        <v>481</v>
       </c>
       <c r="E261" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="262" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6149,13 +6153,13 @@
         <v>114</v>
       </c>
       <c r="C262" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D262" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E262" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6166,11 +6170,11 @@
         <v>114</v>
       </c>
       <c r="C263" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="264" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6181,11 +6185,11 @@
         <v>114</v>
       </c>
       <c r="C264" s="2" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="265" spans="1:5" x14ac:dyDescent="0.25">
@@ -6207,13 +6211,13 @@
         <v>158</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>485</v>
+        <v>482</v>
       </c>
       <c r="E266" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="267" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6224,13 +6228,13 @@
         <v>158</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>486</v>
+        <v>483</v>
       </c>
       <c r="E267" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="268" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6241,13 +6245,13 @@
         <v>158</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>487</v>
+        <v>484</v>
       </c>
       <c r="E268" s="2" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6258,13 +6262,13 @@
         <v>158</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>488</v>
+        <v>485</v>
       </c>
       <c r="E269" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6275,13 +6279,13 @@
         <v>158</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="D270" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E270" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6292,13 +6296,13 @@
         <v>158</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>489</v>
+        <v>486</v>
       </c>
       <c r="E271" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6309,11 +6313,11 @@
         <v>158</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6324,13 +6328,13 @@
         <v>158</v>
       </c>
       <c r="C273" s="2" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>490</v>
+        <v>487</v>
       </c>
       <c r="E273" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="274" spans="1:5" x14ac:dyDescent="0.25">
@@ -6352,13 +6356,13 @@
         <v>159</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="D275" s="2" t="s">
         <v>151</v>
       </c>
       <c r="E275" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6369,11 +6373,11 @@
         <v>159</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="277" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6384,11 +6388,11 @@
         <v>159</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6399,11 +6403,11 @@
         <v>160</v>
       </c>
       <c r="C278" s="2" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" s="2" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="279" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6414,13 +6418,13 @@
         <v>160</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E279" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6431,11 +6435,11 @@
         <v>161</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="281" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6446,11 +6450,11 @@
         <v>161</v>
       </c>
       <c r="C281" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="282" spans="1:5" x14ac:dyDescent="0.25">
@@ -6479,11 +6483,11 @@
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="285" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -6494,13 +6498,13 @@
         <v>162</v>
       </c>
       <c r="C285" s="2" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E285" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="286" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6511,13 +6515,13 @@
         <v>163</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6528,13 +6532,13 @@
         <v>163</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
       <c r="E287" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6545,13 +6549,13 @@
         <v>163</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>491</v>
+        <v>488</v>
       </c>
       <c r="E288" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6562,13 +6566,13 @@
         <v>163</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>492</v>
+        <v>489</v>
       </c>
       <c r="E289" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6579,13 +6583,13 @@
         <v>163</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>493</v>
+        <v>490</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6596,13 +6600,13 @@
         <v>163</v>
       </c>
       <c r="C291" s="2" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>494</v>
+        <v>491</v>
       </c>
       <c r="E291" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6613,13 +6617,13 @@
         <v>163</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6630,13 +6634,13 @@
         <v>163</v>
       </c>
       <c r="C293" s="2" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>496</v>
+        <v>493</v>
       </c>
       <c r="E293" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="294" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6647,13 +6651,13 @@
         <v>164</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>497</v>
+        <v>494</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6664,13 +6668,13 @@
         <v>164</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>498</v>
+        <v>495</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6681,13 +6685,13 @@
         <v>164</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>499</v>
+        <v>496</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6698,13 +6702,13 @@
         <v>164</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E297" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="298" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6715,11 +6719,11 @@
         <v>164</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6730,11 +6734,11 @@
         <v>164</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6745,11 +6749,11 @@
         <v>164</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6760,11 +6764,11 @@
         <v>164</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6775,11 +6779,11 @@
         <v>165</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6790,13 +6794,13 @@
         <v>165</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6807,13 +6811,13 @@
         <v>165</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>501</v>
+        <v>498</v>
       </c>
       <c r="E304" s="2" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6824,11 +6828,11 @@
         <v>165</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6839,13 +6843,13 @@
         <v>165</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>502</v>
+        <v>499</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6856,13 +6860,13 @@
         <v>165</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>503</v>
+        <v>500</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6877,7 +6881,7 @@
       </c>
       <c r="D308" s="2"/>
       <c r="E308" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6888,13 +6892,13 @@
         <v>165</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>504</v>
+        <v>501</v>
       </c>
       <c r="E309" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6905,11 +6909,11 @@
         <v>165</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6920,11 +6924,11 @@
         <v>165</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="180" x14ac:dyDescent="0.25">
@@ -6935,13 +6939,13 @@
         <v>165</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>505</v>
+        <v>502</v>
       </c>
       <c r="E312" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="313" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6952,13 +6956,13 @@
         <v>151</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>506</v>
+        <v>503</v>
       </c>
       <c r="E313" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="314" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6969,13 +6973,13 @@
         <v>151</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="E314" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="315" spans="1:5" x14ac:dyDescent="0.25">
@@ -6997,13 +7001,13 @@
         <v>166</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E316" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="317" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7014,11 +7018,11 @@
         <v>166</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="318" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7029,13 +7033,13 @@
         <v>167</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>508</v>
+        <v>505</v>
       </c>
       <c r="E318" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="319" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7046,13 +7050,13 @@
         <v>167</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="E319" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7063,11 +7067,11 @@
         <v>167</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7078,13 +7082,13 @@
         <v>167</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>510</v>
+        <v>507</v>
       </c>
       <c r="E321" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="322" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7095,11 +7099,11 @@
         <v>167</v>
       </c>
       <c r="C322" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" s="2" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
@@ -7119,11 +7123,11 @@
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" s="2" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
@@ -7132,13 +7136,13 @@
       </c>
       <c r="B325" s="2"/>
       <c r="C325" s="2" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D325" s="2" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="E325" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7147,11 +7151,11 @@
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="2" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
@@ -7160,13 +7164,13 @@
       </c>
       <c r="B327" s="2"/>
       <c r="C327" s="2" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>511</v>
+        <v>508</v>
       </c>
       <c r="E327" s="2" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="328" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7188,11 +7192,11 @@
         <v>169</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="330" spans="1:5" x14ac:dyDescent="0.25">
@@ -7209,31 +7213,31 @@
         <v>97</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>170</v>
+        <v>535</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="D331" s="2" t="s">
-        <v>512</v>
+        <v>509</v>
       </c>
       <c r="E331" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="332" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
         <v>97</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>170</v>
+        <v>536</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>

--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11235"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1343" uniqueCount="539">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="540">
   <si>
     <t>ClassName</t>
   </si>
@@ -62,274 +62,274 @@
     <t>Value</t>
   </si>
   <si>
+    <t>Project Procurement</t>
+  </si>
+  <si>
+    <t>Additional Document</t>
+  </si>
+  <si>
+    <t>Agent</t>
+  </si>
+  <si>
+    <t>Award Criterion</t>
+  </si>
+  <si>
+    <t>Award Criterion Evaluation Dimension</t>
+  </si>
+  <si>
+    <t>Award Decision</t>
+  </si>
+  <si>
+    <t>Award Terms</t>
+  </si>
+  <si>
+    <t>Buyer</t>
+  </si>
+  <si>
+    <t>Buyer Profile</t>
+  </si>
+  <si>
+    <t>Call for Competition</t>
+  </si>
+  <si>
+    <t>Call for Expression of Interest</t>
+  </si>
+  <si>
+    <t>Candidate Short List</t>
+  </si>
+  <si>
+    <t>Central Purchasing Body</t>
+  </si>
+  <si>
+    <t>Change</t>
+  </si>
+  <si>
+    <t>Contract</t>
+  </si>
+  <si>
+    <t>Contract Award Notice</t>
+  </si>
+  <si>
+    <t>Contract Modification Notice</t>
+  </si>
+  <si>
+    <t>Contract Notice</t>
+  </si>
+  <si>
+    <t>Contract Template</t>
+  </si>
+  <si>
+    <t>Contract Terms</t>
+  </si>
+  <si>
+    <t>Corrigendum Notice</t>
+  </si>
+  <si>
+    <t>Descriptive Document</t>
+  </si>
+  <si>
+    <t>Design Contest</t>
+  </si>
+  <si>
+    <t>Document</t>
+  </si>
+  <si>
+    <t>Draft CV</t>
+  </si>
+  <si>
+    <t>Dynamic Purchase System</t>
+  </si>
+  <si>
+    <t>eAccess Terms</t>
+  </si>
+  <si>
+    <t>EAuction</t>
+  </si>
+  <si>
+    <t>eCatalogue</t>
+  </si>
+  <si>
+    <t>Economic Operator</t>
+  </si>
+  <si>
+    <t>Economic Operator Short List</t>
+  </si>
+  <si>
+    <t>Electronic Means of Communication</t>
+  </si>
+  <si>
+    <t>Element</t>
+  </si>
+  <si>
+    <t>ESPD Request</t>
+  </si>
+  <si>
+    <t>ESPD Response</t>
+  </si>
+  <si>
+    <t>Evaluation Board</t>
+  </si>
+  <si>
+    <t>Evaluation Report</t>
+  </si>
+  <si>
+    <t>Evaluation System</t>
+  </si>
+  <si>
+    <t>Evaluation Terms</t>
+  </si>
+  <si>
+    <t>Evaluator</t>
+  </si>
+  <si>
+    <t>Exclusion Ground</t>
+  </si>
+  <si>
+    <t>Financial Account</t>
+  </si>
+  <si>
+    <t>Financial Tender Document</t>
+  </si>
+  <si>
+    <t>Framework Agreement</t>
+  </si>
+  <si>
+    <t>Framework Agreement Terms</t>
+  </si>
+  <si>
+    <t>Fund</t>
+  </si>
+  <si>
+    <t>Green Procurement</t>
+  </si>
+  <si>
     <t>Innovative Procurement</t>
   </si>
   <si>
+    <t>Invitation to Tender</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>Lot</t>
+  </si>
+  <si>
+    <t>Lot Group</t>
+  </si>
+  <si>
+    <t>Non Published Element</t>
+  </si>
+  <si>
+    <t>Notice</t>
+  </si>
+  <si>
+    <t>Official Language</t>
+  </si>
+  <si>
+    <t>Opening Terms</t>
+  </si>
+  <si>
+    <t>Pre-award catalogue</t>
+  </si>
+  <si>
+    <t>Pre-award catalogue request</t>
+  </si>
+  <si>
+    <t>Prior Information Notice</t>
+  </si>
+  <si>
+    <t>Procedure</t>
+  </si>
+  <si>
+    <t>Procedure Terms</t>
+  </si>
+  <si>
+    <t>Procurement Criterion</t>
+  </si>
+  <si>
+    <t>Procurement Criterion Property</t>
+  </si>
+  <si>
+    <t>Procurement Criterion Property Group</t>
+  </si>
+  <si>
+    <t>Procurement Document</t>
+  </si>
+  <si>
+    <t>Procurement Information</t>
+  </si>
+  <si>
+    <t>Procurement Service Provider</t>
+  </si>
+  <si>
+    <t>Procurement Value</t>
+  </si>
+  <si>
+    <t>Purchase Contract</t>
+  </si>
+  <si>
+    <t>Purpose</t>
+  </si>
+  <si>
+    <t>Request for Participation</t>
+  </si>
+  <si>
+    <t>Review Terms</t>
+  </si>
+  <si>
+    <t>Security Clearance Terms</t>
+  </si>
+  <si>
+    <t>Selection Criterion</t>
+  </si>
+  <si>
+    <t>Selection Criterion Property</t>
+  </si>
+  <si>
     <t>Social Procurement</t>
   </si>
   <si>
-    <t>Green Procurement</t>
-  </si>
-  <si>
     <t>Strategic Procurement</t>
   </si>
   <si>
-    <t>Item</t>
-  </si>
-  <si>
-    <t>Opening Terms</t>
-  </si>
-  <si>
-    <t>eAccess Terms</t>
+    <t>Subcontract</t>
+  </si>
+  <si>
+    <t>Subcontract Terms</t>
+  </si>
+  <si>
+    <t>Submission Terms</t>
+  </si>
+  <si>
+    <t>Technical Specifications</t>
+  </si>
+  <si>
+    <t>Technical Tender Document</t>
+  </si>
+  <si>
+    <t>Technique</t>
+  </si>
+  <si>
+    <t>Tender</t>
+  </si>
+  <si>
+    <t>Tender Document</t>
+  </si>
+  <si>
+    <t>Tender Evaluation</t>
+  </si>
+  <si>
+    <t>Tender Evaluation Rank</t>
+  </si>
+  <si>
+    <t>Tenderer</t>
   </si>
   <si>
     <t>Unofficial Language</t>
   </si>
   <si>
-    <t>Official Language</t>
-  </si>
-  <si>
-    <t>Corrigendum Notice</t>
-  </si>
-  <si>
-    <t>Submission Terms</t>
-  </si>
-  <si>
-    <t>Tender Evaluation</t>
-  </si>
-  <si>
-    <t>Evaluator</t>
-  </si>
-  <si>
-    <t>Design Contest</t>
-  </si>
-  <si>
-    <t>Lot Group</t>
-  </si>
-  <si>
-    <t>Draft CV</t>
-  </si>
-  <si>
-    <t>Contract Template</t>
-  </si>
-  <si>
-    <t>Evaluation System</t>
-  </si>
-  <si>
-    <t>Evaluation Board</t>
-  </si>
-  <si>
-    <t>Tender Evaluation Rank</t>
-  </si>
-  <si>
-    <t>Award Terms</t>
-  </si>
-  <si>
-    <t>Security Clearance Terms</t>
-  </si>
-  <si>
-    <t>Project Procurement</t>
-  </si>
-  <si>
-    <t>Buyer</t>
-  </si>
-  <si>
-    <t>Procurement Criterion</t>
-  </si>
-  <si>
-    <t>Pre-award catalogue</t>
-  </si>
-  <si>
-    <t>Call for Expression of Interest</t>
-  </si>
-  <si>
-    <t>Tenderer</t>
-  </si>
-  <si>
-    <t>Contract Terms</t>
-  </si>
-  <si>
-    <t>Evaluation Terms</t>
-  </si>
-  <si>
-    <t>Procedure Terms</t>
-  </si>
-  <si>
-    <t>ESPD Response</t>
-  </si>
-  <si>
-    <t>ESPD Request</t>
-  </si>
-  <si>
     <t>Winner</t>
-  </si>
-  <si>
-    <t>Subcontract Terms</t>
-  </si>
-  <si>
-    <t>Review Terms</t>
-  </si>
-  <si>
-    <t>Additional Document</t>
-  </si>
-  <si>
-    <t>Agent</t>
-  </si>
-  <si>
-    <t>Financial Account</t>
-  </si>
-  <si>
-    <t>Document</t>
-  </si>
-  <si>
-    <t>Contract</t>
-  </si>
-  <si>
-    <t>Framework Agreement Terms</t>
-  </si>
-  <si>
-    <t>Dynamic Purchase System</t>
-  </si>
-  <si>
-    <t>Procurement Criterion Property</t>
-  </si>
-  <si>
-    <t>Procurement Document</t>
-  </si>
-  <si>
-    <t>Procurement Criterion Property Group</t>
-  </si>
-  <si>
-    <t>Prior Information Notice</t>
-  </si>
-  <si>
-    <t>Invitation to Tender</t>
-  </si>
-  <si>
-    <t>Fund</t>
-  </si>
-  <si>
-    <t>Candidate Short List</t>
-  </si>
-  <si>
-    <t>Procurement Value</t>
-  </si>
-  <si>
-    <t>Award Criterion</t>
-  </si>
-  <si>
-    <t>Economic Operator</t>
-  </si>
-  <si>
-    <t>Purchase Contract</t>
-  </si>
-  <si>
-    <t>Lot</t>
-  </si>
-  <si>
-    <t>Framework Agreement</t>
-  </si>
-  <si>
-    <t>Buyer Profile</t>
-  </si>
-  <si>
-    <t>Procurement Service Provider</t>
-  </si>
-  <si>
-    <t>eCatalogue</t>
-  </si>
-  <si>
-    <t>Request for Participation</t>
-  </si>
-  <si>
-    <t>Award Criterion Evaluation Dimension</t>
-  </si>
-  <si>
-    <t>Selection Criterion Property</t>
-  </si>
-  <si>
-    <t>Technical Specifications</t>
-  </si>
-  <si>
-    <t>Notice</t>
-  </si>
-  <si>
-    <t>EAuction</t>
-  </si>
-  <si>
-    <t>Element</t>
-  </si>
-  <si>
-    <t>Subcontract</t>
-  </si>
-  <si>
-    <t>Descriptive Document</t>
-  </si>
-  <si>
-    <t>Contract Award Notice</t>
-  </si>
-  <si>
-    <t>Contract Notice</t>
-  </si>
-  <si>
-    <t>Call for Competition</t>
-  </si>
-  <si>
-    <t>Selection Criterion</t>
-  </si>
-  <si>
-    <t>Evaluation Report</t>
-  </si>
-  <si>
-    <t>Electronic Means of Communication</t>
-  </si>
-  <si>
-    <t>Contract Modification Notice</t>
-  </si>
-  <si>
-    <t>Award Decision</t>
-  </si>
-  <si>
-    <t>Change</t>
-  </si>
-  <si>
-    <t>Economic Operator Short List</t>
-  </si>
-  <si>
-    <t>Financial Tender Document</t>
-  </si>
-  <si>
-    <t>Technical Tender Document</t>
-  </si>
-  <si>
-    <t>Tender Document</t>
-  </si>
-  <si>
-    <t>Exclusion Ground</t>
-  </si>
-  <si>
-    <t>Non Published Element</t>
-  </si>
-  <si>
-    <t>Central Purchasing Body</t>
-  </si>
-  <si>
-    <t>Technique</t>
-  </si>
-  <si>
-    <t>Pre-award catalogue request</t>
-  </si>
-  <si>
-    <t>Procurement Information</t>
-  </si>
-  <si>
-    <t>Purpose</t>
-  </si>
-  <si>
-    <t>Tender</t>
-  </si>
-  <si>
-    <t>Procedure</t>
   </si>
   <si>
     <t>Group</t>
@@ -387,115 +387,41 @@
 (WG approval 22/06/2018)</t>
   </si>
   <si>
-    <t>Condition that aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
-Additional Information: The conditions must be achieved via either  technical specifications, selection criteria, award criteria and contract terms.
-WG Approval 02/04/2019 15:39:57</t>
-  </si>
-  <si>
-    <t>The procurement documents (or their parts) are also available in the following languages. These versions are not an official translation, they are provided only for information.
-WG Approval 07/03/2019 15:33:37</t>
-  </si>
-  <si>
-    <t>The language(s) in which these procurement documents are officially available. These linguistic versions are equally legally valid.
-WG Approval 07/03/2019 15:31:58</t>
-  </si>
-  <si>
-    <t>Use of electronic submission.
-WG Approval 07/03/2019 16:45:58</t>
-  </si>
-  <si>
-    <t>Shared context amongst several lots that can be treated together.
-Additional Information: e.g. same budget for several lots in a Framework Agreement.</t>
-  </si>
-  <si>
-    <t>An automated solution that assesses structured information in tenders and proposes results.
-WG approval 20/11/2018</t>
-  </si>
-  <si>
-    <t>Status requested to individuals allowing them access to classified information (state or organizational secrets) or to restricted areas, after completion of a thorough background check.
-WG Approval 2015-02-26</t>
-  </si>
-  <si>
     <t>A set of linked procurement activities.
 WG 12/09/2018</t>
   </si>
   <si>
+    <t>Members of an evaluation committee (e.g..: jury members) that take into account the requirements, specifications and conditions of the tenders in order to evaluate them. 
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>Describes a rule or a condition to be taken into account for the award decision.
+(WG approval 27/04/2018)</t>
+  </si>
+  <si>
+    <t>The information needed to ponder award criteria dimensions, 
+The award is computed on the basis of different several dimensions such as quality, price and cost. 
+One dimension, e.g. quality, provides the information necessary to measure how the overall quality criteria will be evaluated, as opposed to the individual quality criterion (which has its own weight and threshold).</t>
+  </si>
+  <si>
+    <t>Resolution of the buyer as to the result of the procurement procedure.
+(WG approval 14/11/2018)</t>
+  </si>
+  <si>
     <t>Organisation that manages the budget allocated for the procedure and pays for the items being procured.
 WG  14/11/2018</t>
   </si>
   <si>
+    <t>Website address where the buyer publishes information on its procurement procedures and general information.
+WG approval 04/05/2018</t>
+  </si>
+  <si>
+    <t>A public announcement of the launch of a procurement procedure.
+(WG approval 14/05/2017)</t>
+  </si>
+  <si>
     <t>A call to potential providers of goods and/or services to register interest in supplying them. It is a document that describes a set of requirements or specifications and that service providers have to demonstrate their ability to meet those requirements. 
 (Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>An economic operator that has submitted a tender.
-(WG approval 07/11/2018)</t>
-  </si>
-  <si>
-    <t>Conditions and stipulations defining particularities of the post award phase.
-(WG decision 23/11/2018)</t>
-  </si>
-  <si>
-    <t>Conditions and stipulations defining particularities of the tender evaluation.
-(WG approval 23/11/2018)</t>
-  </si>
-  <si>
-    <t>Conditions and stipulations defining particularities of the procedure.
-(WG approval 23/11/2018)</t>
-  </si>
-  <si>
-    <t>European Single Procurement Document Response. The declaration of the Economic Operator that it meets all the exclusion and selection criteria specified in the ESPD Request.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>European Single Procurement Document Request. Specification by the Procuring Entity of the exclusion and selection criteria for a Procurement Procedure. 
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>A concept to describe the main information regarding the share of parts of the contract to third parties.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Conditions and stipulations defining particularities of the review.
-(WG approval 23/11/2018)</t>
-  </si>
-  <si>
-    <t>Members of an evaluation committee (e.g..: jury members) that take into account the requirements, specifications and conditions of the tenders in order to evaluate them. 
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>(To be discussed during eSubmission WG decision 28/11/2018)</t>
-  </si>
-  <si>
-    <t>A voluntary, deliberate, and legally binding agreement between two or more competent parties.
-(WG approval 01/06/2018)</t>
-  </si>
-  <si>
-    <t>Reason for extending time limits.
-Additional Information: in exceptional cases related, for example, to framework agreements that exceed the legal limits, these limits need to be justified.. (Four years in the case of the general procurement directive, seven years in the case of the defence directive, and eight years in the case of the sectoral directive.).
-WG Approval 2019-19-02</t>
-  </si>
-  <si>
-    <t>An electronic system that is set up by a procuring entity which lists the economic operators that satisfy the selection and exclusion criteria.   This technique then allows the purchase via consultation of the listed tenderers using award criteria.
-(WG approval 13/07/2018)</t>
-  </si>
-  <si>
-    <t>(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>A set of interrelated business information produced or referred to by a buyer to describe the requirements and conditions of a procurement procedure.
-(WG approval 07/11/2018)</t>
-  </si>
-  <si>
-    <t>Notice which sets out the contracting authority's purchasing intentions. It is used by contracting authorities to provide suppliers with information about a procurement process. 
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>A financial resource used to support the procurement.
-Additional Information:
-In the context of EU, funds can be divided into programmes, actions and projects.
-Examples of EU funds are: the European Structural and Investment Funds, European Social Fund (ESF), the Connecting Europe Facility (CEF) programme, or the ISA2 programme and its actions (e.g. Action 2016.05 European Public Procurement Initiative, which supports the eProcurement Ontology under sub-action 3).
-WG Approved 14/05/2019</t>
   </si>
   <si>
     <t>The tenderers that have been selected in a two stage procedure.
@@ -503,69 +429,48 @@
 (WG approval 27/07/2018)</t>
   </si>
   <si>
-    <t>Monetary amount related to a procurement.
-(WG approval 05/12/2018)</t>
-  </si>
-  <si>
-    <t>Describes a rule or a condition to be taken into account for the award decision.
-(WG approval 27/04/2018)</t>
+    <t>A procuring entity that provides centralised purchasing activities and, possibly, ancillary purchasing activities for other procuring entities.
+WG approval 18/05/2018</t>
+  </si>
+  <si>
+    <t>A voluntary, deliberate, and legally binding agreement between two or more competent parties.
+(WG approval 01/06/2018)</t>
+  </si>
+  <si>
+    <t>An announcement of the award or non-award of a contract by a procuring entity.
+(WG approval 27/03/2019 9:41:42)</t>
+  </si>
+  <si>
+    <t>An announcement of the modification of a contract/concession during during its term by a procuring entity.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>An announcement of the launch of a procurement procedure by a procuring entity.
+(WG approval 18/05/2018)</t>
+  </si>
+  <si>
+    <t>Conditions and stipulations defining particularities of the post award phase.
+(WG decision 23/11/2018)</t>
+  </si>
+  <si>
+    <t>An electronic system that is set up by a procuring entity which lists the economic operators that satisfy the selection and exclusion criteria.   This technique then allows the purchase via consultation of the listed tenderers using award criteria.
+(WG approval 13/07/2018)</t>
+  </si>
+  <si>
+    <t>A repetitive technique in which new prices, revised downwards, and/or new values concerning certain elements of tenders are bid on-line.
+(WG approval 20/07/2018)</t>
+  </si>
+  <si>
+    <t>Structured electronic format which allows for  automatic and electronic processing of listed information regarding goods and services.
+(WG approval 10/08/2018)</t>
   </si>
   <si>
     <t>Any natural or legal person or public entity or group of such persons and/or entities, including any temporary association of undertakings, which offers the execution of works and/or a work, the supply of products or the provision of services on the market.
 (WG approval 07/09/2018)</t>
   </si>
   <si>
-    <t>A qualitative, quantitative or strategic subdivision of the goods, services or works to be procured, allowing the award of one or more contracts.
-WG approval 12/09/2018</t>
-  </si>
-  <si>
-    <t>The terms governing contracts, reached between one more buyers and one or more economic operators during a given period.
-(WG approval 05/12/2018)</t>
-  </si>
-  <si>
-    <t>Website address where the buyer publishes information on its procurement procedures and general information.
-WG approval 04/05/2018</t>
-  </si>
-  <si>
-    <t>Structured electronic format which allows for  automatic and electronic processing of listed information regarding goods and services.
-(WG approval 10/08/2018)</t>
-  </si>
-  <si>
-    <t>The information needed to ponder award criteria dimensions, 
-The award is computed on the basis of different several dimensions such as quality, price and cost. 
-One dimension, e.g. quality, provides the information necessary to measure how the overall quality criteria will be evaluated, as opposed to the individual quality criterion (which has its own weight and threshold).</t>
-  </si>
-  <si>
-    <t>Notification or a formal declaration of someone's intention to end an agreement, typically one concerning employment or tenancy, at a specified time.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>A repetitive technique in which new prices, revised downwards, and/or new values concerning certain elements of tenders are bid on-line.
-(WG approval 20/07/2018)</t>
-  </si>
-  <si>
-    <t>A contract between a contractor of an original contract and another economic operator to fulfil the original contract.
-WG Approval 07/05/2019</t>
-  </si>
-  <si>
-    <t>An announcement of the award or non-award of a contract by a procuring entity.
-(WG approval 27/03/2019 9:41:42)</t>
-  </si>
-  <si>
-    <t>An announcement of the launch of a procurement procedure by a procuring entity.
-(WG approval 18/05/2018)</t>
-  </si>
-  <si>
-    <t>A public announcement of the launch of a procurement procedure.
-(WG approval 14/05/2017)</t>
-  </si>
-  <si>
-    <t>Describes a capacity requirement that the economic operator needs to fulfill to participate in the procedure.
-WG approval 31/10/2018</t>
-  </si>
-  <si>
-    <t>The Evaluation Board publishes the result of tenders after completion of its evaluation.
-(Pending to review by the WG)</t>
+    <t>The candidates and tenders that are considered for a given procedure.
+(WG approval 27/07/2018)</t>
   </si>
   <si>
     <t>Software solutions and electronic devices for communication and exchange of information between contracting authorities and economic operators.
@@ -579,20 +484,55 @@
 WG Approval 2019-02-05</t>
   </si>
   <si>
-    <t>An announcement of the modification of a contract/concession during during its term by a procuring entity.
+    <t>European Single Procurement Document Request. Specification by the Procuring Entity of the exclusion and selection criteria for a Procurement Procedure. 
 (Pending to review by the WG)</t>
   </si>
   <si>
-    <t>Resolution of the buyer as to the result of the procurement procedure.
-(WG approval 14/11/2018)</t>
-  </si>
-  <si>
-    <t>The candidates and tenders that are considered for a given procedure.
-(WG approval 27/07/2018)</t>
+    <t>European Single Procurement Document Response. The declaration of the Economic Operator that it meets all the exclusion and selection criteria specified in the ESPD Request.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The Evaluation Board publishes the result of tenders after completion of its evaluation.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>An automated solution that assesses structured information in tenders and proposes results.
+WG approval 20/11/2018</t>
+  </si>
+  <si>
+    <t>Conditions and stipulations defining particularities of the tender evaluation.
+(WG approval 23/11/2018)</t>
   </si>
   <si>
     <t>Describes a legal requirement to be met by the economic operator to be a candidate in the procurement procedure.
 WG approval 31/10/2018</t>
+  </si>
+  <si>
+    <t>(To be discussed during eSubmission WG decision 28/11/2018)</t>
+  </si>
+  <si>
+    <t>The terms governing contracts, reached between one more buyers and one or more economic operators during a given period.
+(WG approval 05/12/2018)</t>
+  </si>
+  <si>
+    <t>Reason for extending time limits.
+Additional Information: in exceptional cases related, for example, to framework agreements that exceed the legal limits, these limits need to be justified.. (Four years in the case of the general procurement directive, seven years in the case of the defence directive, and eight years in the case of the sectoral directive.).
+WG Approval 2019-19-02</t>
+  </si>
+  <si>
+    <t>A financial resource used to support the procurement.
+Additional Information:
+In the context of EU, funds can be divided into programmes, actions and projects.
+Examples of EU funds are: the European Structural and Investment Funds, European Social Fund (ESF), the Connecting Europe Facility (CEF) programme, or the ISA2 programme and its actions (e.g. Action 2016.05 European Public Procurement Initiative, which supports the eProcurement Ontology under sub-action 3).
+WG Approved 14/05/2019</t>
+  </si>
+  <si>
+    <t>A qualitative, quantitative or strategic subdivision of the goods, services or works to be procured, allowing the award of one or more contracts.
+WG approval 12/09/2018</t>
+  </si>
+  <si>
+    <t>Shared context amongst several lots that can be treated together.
+Additional Information: e.g. same budget for several lots in a Framework Agreement.</t>
   </si>
   <si>
     <t>Information about fields not intended for publication. 
@@ -602,16 +542,39 @@
 WG Approve 16/05/2019</t>
   </si>
   <si>
-    <t>A procuring entity that provides centralised purchasing activities and, possibly, ancillary purchasing activities for other procuring entities.
-WG approval 18/05/2018</t>
-  </si>
-  <si>
-    <t>Method by which a procurement contract is established.
+    <t>Notification or a formal declaration of someone's intention to end an agreement, typically one concerning employment or tenancy, at a specified time.
 (Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The language(s) in which these procurement documents are officially available. These linguistic versions are equally legally valid.
+WG Approval 07/03/2019 15:31:58</t>
+  </si>
+  <si>
+    <t>(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>Notice which sets out the contracting authority's purchasing intentions. It is used by contracting authorities to provide suppliers with information about a procurement process. 
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>A series of legally defined administrative steps conducted  to conclude one or more contracts.
+(WG approval 07/09/2018)</t>
+  </si>
+  <si>
+    <t>Conditions and stipulations defining particularities of the procedure.
+(WG approval 23/11/2018)</t>
+  </si>
+  <si>
+    <t>A set of interrelated business information produced or referred to by a buyer to describe the requirements and conditions of a procurement procedure.
+(WG approval 07/11/2018)</t>
   </si>
   <si>
     <t>Statistical data on the procedure and the lot. Also used to emphasize the suitability of the procurement for the SMEs or other purposes.
 Pending to review by the WG</t>
+  </si>
+  <si>
+    <t>Monetary amount related to a procurement.
+(WG approval 05/12/2018)</t>
   </si>
   <si>
     <t>The quantification of the objectives related to a procurement.
@@ -622,12 +585,49 @@
 (WG approval 05/12/2018)</t>
   </si>
   <si>
+    <t>Conditions and stipulations defining particularities of the review.
+(WG approval 23/11/2018)</t>
+  </si>
+  <si>
+    <t>Status requested to individuals allowing them access to classified information (state or organizational secrets) or to restricted areas, after completion of a thorough background check.
+WG Approval 2015-02-26</t>
+  </si>
+  <si>
+    <t>Describes a capacity requirement that the economic operator needs to fulfill to participate in the procedure.
+WG approval 31/10/2018</t>
+  </si>
+  <si>
+    <t>Condition that aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
+Additional Information: The conditions must be achieved via either  technical specifications, selection criteria, award criteria and contract terms.
+WG Approval 02/04/2019 15:39:57</t>
+  </si>
+  <si>
+    <t>A contract between a contractor of an original contract and another economic operator to fulfil the original contract.
+WG Approval 07/05/2019</t>
+  </si>
+  <si>
+    <t>A concept to describe the main information regarding the share of parts of the contract to third parties.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>Use of electronic submission.
+WG Approval 07/03/2019 16:45:58</t>
+  </si>
+  <si>
+    <t>Method by which a procurement contract is established.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
     <t>Information submitted by the economic operator to specify its offer regarding one or more lots or the whole procedure, in response to the call for tender.
 (WG approval 07/11/2018)</t>
   </si>
   <si>
-    <t>A series of legally defined administrative steps conducted  to conclude one or more contracts.
-(WG approval 07/09/2018)</t>
+    <t>An economic operator that has submitted a tender.
+(WG approval 07/11/2018)</t>
+  </si>
+  <si>
+    <t>The procurement documents (or their parts) are also available in the following languages. These versions are not an official translation, they are provided only for information.
+WG Approval 07/03/2019 15:33:37</t>
   </si>
   <si>
     <t>A collection of people organized together into a community or other social, commercial or political structure. The group has some common purpose or reason for existence which goes beyond the set of people belonging to it and can act as an Agent. Organizations are often decomposable into hierarchical structures.
@@ -711,6 +711,258 @@
     <t>Text</t>
   </si>
   <si>
+    <t>Award Criterion Type</t>
+  </si>
+  <si>
+    <t>Threshold Type</t>
+  </si>
+  <si>
+    <t>Threshold Value</t>
+  </si>
+  <si>
+    <t>Price Cost Threshold Type</t>
+  </si>
+  <si>
+    <t>Dimension Type</t>
+  </si>
+  <si>
+    <t>Threshold</t>
+  </si>
+  <si>
+    <t>Fixed Value</t>
+  </si>
+  <si>
+    <t>Non-Award Justification Type</t>
+  </si>
+  <si>
+    <t>Award Decision Date</t>
+  </si>
+  <si>
+    <t>Justification</t>
+  </si>
+  <si>
+    <t>AwardTypeCode</t>
+  </si>
+  <si>
+    <t>Award Indicator</t>
+  </si>
+  <si>
+    <t>Direct Award Justification Type</t>
+  </si>
+  <si>
+    <t>Direct Award Justification</t>
+  </si>
+  <si>
+    <t>Buyer Legal Type</t>
+  </si>
+  <si>
+    <t>Main Activity</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Maximum Number of Candidates</t>
+  </si>
+  <si>
+    <t>Minimum Number of Candidates</t>
+  </si>
+  <si>
+    <t>Expected Candidates</t>
+  </si>
+  <si>
+    <t>Change Description</t>
+  </si>
+  <si>
+    <t>Change Reason Code</t>
+  </si>
+  <si>
+    <t>Change Date</t>
+  </si>
+  <si>
+    <t>Change Reason</t>
+  </si>
+  <si>
+    <t>Contract Signature Date</t>
+  </si>
+  <si>
+    <t>Entry into Force Date</t>
+  </si>
+  <si>
+    <t>Recurrence</t>
+  </si>
+  <si>
+    <t>Recurrence Description</t>
+  </si>
+  <si>
+    <t>Maximum Number of Renewals</t>
+  </si>
+  <si>
+    <t>Follow Up Contract</t>
+  </si>
+  <si>
+    <t>Performance Conditions</t>
+  </si>
+  <si>
+    <t>eOrdering</t>
+  </si>
+  <si>
+    <t>ePayment</t>
+  </si>
+  <si>
+    <t>eInvoicing</t>
+  </si>
+  <si>
+    <t>Renewal Description</t>
+  </si>
+  <si>
+    <t>Contractor Legal Form Requirement</t>
+  </si>
+  <si>
+    <t>Renewal Indicator</t>
+  </si>
+  <si>
+    <t>Contract Legal Form Requirement Description</t>
+  </si>
+  <si>
+    <t>Payment Arrangements</t>
+  </si>
+  <si>
+    <t>Sheltered Employement Usage</t>
+  </si>
+  <si>
+    <t>Other Place of Performance</t>
+  </si>
+  <si>
+    <t>Notice Corrigendum Justification</t>
+  </si>
+  <si>
+    <t>Prize Rank</t>
+  </si>
+  <si>
+    <t>Prize Value</t>
+  </si>
+  <si>
+    <t>Follow-up Contract</t>
+  </si>
+  <si>
+    <t>Follow-up Contract Information</t>
+  </si>
+  <si>
+    <t>Participant Name</t>
+  </si>
+  <si>
+    <t>Jury Decision Binding</t>
+  </si>
+  <si>
+    <t>Participation Payment</t>
+  </si>
+  <si>
+    <t>Reception Date</t>
+  </si>
+  <si>
+    <t>Dispatch Date</t>
+  </si>
+  <si>
+    <t>Restricted Communication Justification</t>
+  </si>
+  <si>
+    <t>DPS Termination</t>
+  </si>
+  <si>
+    <t>DPS Usage</t>
+  </si>
+  <si>
+    <t>Access Restriction</t>
+  </si>
+  <si>
+    <t>Additional Information Deadline</t>
+  </si>
+  <si>
+    <t>EO Role Type</t>
+  </si>
+  <si>
+    <t>Legal Form Type</t>
+  </si>
+  <si>
+    <t>Economic Operator Size</t>
+  </si>
+  <si>
+    <t>Beneficiary Owner Nationality</t>
+  </si>
+  <si>
+    <t>EO Group Type</t>
+  </si>
+  <si>
+    <t>Limitation Description</t>
+  </si>
+  <si>
+    <t>Additional Information</t>
+  </si>
+  <si>
+    <t>Communication Type</t>
+  </si>
+  <si>
+    <t>Percentage evaluated</t>
+  </si>
+  <si>
+    <t>No Result Reason</t>
+  </si>
+  <si>
+    <t>Number Awarded Contract</t>
+  </si>
+  <si>
+    <t>Is Abnormally Low</t>
+  </si>
+  <si>
+    <t>Is Abnormally Low Justification</t>
+  </si>
+  <si>
+    <t>Percentage of Evaluation</t>
+  </si>
+  <si>
+    <t>Successive Reduction</t>
+  </si>
+  <si>
+    <t>Award Criteria Evaluation Formula</t>
+  </si>
+  <si>
+    <t>Overall Quality Award Criteria Ponderation</t>
+  </si>
+  <si>
+    <t>Overall Price Award Criteria Ponderation</t>
+  </si>
+  <si>
+    <t>Overall Cost Award Criteria Ponderation</t>
+  </si>
+  <si>
+    <t>Alias Name</t>
+  </si>
+  <si>
+    <t>Account Type</t>
+  </si>
+  <si>
+    <t>Account Format</t>
+  </si>
+  <si>
+    <t>Currency</t>
+  </si>
+  <si>
+    <t>Payment Note</t>
+  </si>
+  <si>
+    <t>Framework Agreement Type</t>
+  </si>
+  <si>
+    <t>Buyer Coverage</t>
+  </si>
+  <si>
+    <t>Duration Extension Justification</t>
+  </si>
+  <si>
+    <t>Maximum Number of Awarded Tenderers</t>
+  </si>
+  <si>
     <t>Environmental Label</t>
   </si>
   <si>
@@ -723,31 +975,208 @@
     <t>Energy Efficiency</t>
   </si>
   <si>
+    <t>Classification</t>
+  </si>
+  <si>
+    <t>Country Of Origin</t>
+  </si>
+  <si>
+    <t>Award Date Scheduled</t>
+  </si>
+  <si>
+    <t>Participation Reserved</t>
+  </si>
+  <si>
+    <t>Reserved Procurement</t>
+  </si>
+  <si>
+    <t>Variants Permission</t>
+  </si>
+  <si>
+    <t>Justification Description</t>
+  </si>
+  <si>
+    <t>Availability Date</t>
+  </si>
+  <si>
+    <t>Publication Date</t>
+  </si>
+  <si>
+    <t>DPS scope</t>
+  </si>
+  <si>
+    <t>Document Language</t>
+  </si>
+  <si>
+    <t>Opening DateTime</t>
+  </si>
+  <si>
+    <t>Opening Description</t>
+  </si>
+  <si>
+    <t>Accelerated Procedure Further Justification</t>
+  </si>
+  <si>
+    <t>GPA Usage</t>
+  </si>
+  <si>
+    <t>Procedure Choice Justification</t>
+  </si>
+  <si>
+    <t>Procedure Main Features</t>
+  </si>
+  <si>
+    <t>Procurement Procedure Type</t>
+  </si>
+  <si>
+    <t>Procurement Regime Type</t>
+  </si>
+  <si>
+    <t>Accelerated Procedure Justification Type</t>
+  </si>
+  <si>
+    <t>Accelerated</t>
+  </si>
+  <si>
+    <t>Lot Submission Limit</t>
+  </si>
+  <si>
+    <t>Maximum Number of Lots Awarded To One Tenderer</t>
+  </si>
+  <si>
+    <t>Competition Termination</t>
+  </si>
+  <si>
+    <t>Estimated Interest Invitation Date</t>
+  </si>
+  <si>
+    <t>Estimated Tender Invitation Date</t>
+  </si>
+  <si>
+    <t>Receipt Expressions Deadline</t>
+  </si>
+  <si>
+    <t>Lot Award Limit</t>
+  </si>
+  <si>
+    <t>Free e-Access</t>
+  </si>
+  <si>
+    <t>EEA Received Tenders</t>
+  </si>
+  <si>
+    <t>Received Requests for Participation</t>
+  </si>
+  <si>
+    <t>EU Received Tenders</t>
+  </si>
+  <si>
+    <t>Tender Variants Awarded</t>
+  </si>
+  <si>
+    <t>NON-EU Received Tenders</t>
+  </si>
+  <si>
+    <t>Review Requests Received</t>
+  </si>
+  <si>
+    <t>SME Suitable</t>
+  </si>
+  <si>
+    <t>Overall Amount</t>
+  </si>
+  <si>
+    <t>Total Amount</t>
+  </si>
+  <si>
+    <t>Tax Included Indicator</t>
+  </si>
+  <si>
+    <t>Minimum Amount</t>
+  </si>
+  <si>
+    <t>Maximum Amount</t>
+  </si>
+  <si>
+    <t>Calculation Method</t>
+  </si>
+  <si>
+    <t>Options</t>
+  </si>
+  <si>
+    <t>Main Classification</t>
+  </si>
+  <si>
+    <t>Total Magnitude Quantity</t>
+  </si>
+  <si>
+    <t>Contract Nature</t>
+  </si>
+  <si>
+    <t>Subject Matter</t>
+  </si>
+  <si>
+    <t>NUTS Type</t>
+  </si>
+  <si>
+    <t>Additional Classifications</t>
+  </si>
+  <si>
+    <t>Options Description</t>
+  </si>
+  <si>
+    <t>Review Procedure</t>
+  </si>
+  <si>
+    <t>Review Deadline</t>
+  </si>
+  <si>
+    <t>Review Deadline Information</t>
+  </si>
+  <si>
+    <t>Deadline</t>
+  </si>
+  <si>
     <t>Strategic Procurement Description</t>
   </si>
   <si>
-    <t>Classification</t>
-  </si>
-  <si>
-    <t>Country Of Origin</t>
-  </si>
-  <si>
-    <t>Opening DateTime</t>
-  </si>
-  <si>
-    <t>Opening Description</t>
-  </si>
-  <si>
-    <t>Access Restriction</t>
-  </si>
-  <si>
-    <t>Additional Information Deadline</t>
-  </si>
-  <si>
-    <t>Document Language</t>
-  </si>
-  <si>
-    <t>Notice Corrigendum Justification</t>
+    <t>Estimated Share</t>
+  </si>
+  <si>
+    <t>Subcontracting Usage</t>
+  </si>
+  <si>
+    <t>Estimated Value</t>
+  </si>
+  <si>
+    <t>Estimated Share Known</t>
+  </si>
+  <si>
+    <t>Estimated Value Known</t>
+  </si>
+  <si>
+    <t>Share</t>
+  </si>
+  <si>
+    <t>Maximum Share</t>
+  </si>
+  <si>
+    <t>Minimum Share</t>
+  </si>
+  <si>
+    <t>Subcontracting involved</t>
+  </si>
+  <si>
+    <t>Minimum Share Subject Matter</t>
+  </si>
+  <si>
+    <t>Minimum Subcontractors Proposed Obligation</t>
+  </si>
+  <si>
+    <t>Subcontract Restriction</t>
+  </si>
+  <si>
+    <t>Subcontractors Proposed Above Obligation</t>
   </si>
   <si>
     <t>Submission Document Type</t>
@@ -777,468 +1206,39 @@
     <t>eSubmission Electronic Signature</t>
   </si>
   <si>
+    <t>Accessibility Criteria</t>
+  </si>
+  <si>
+    <t>Non-Accessibility Criteria Justification</t>
+  </si>
+  <si>
+    <t>Electronic Submission</t>
+  </si>
+  <si>
+    <t>Non Electronic Submission Justification</t>
+  </si>
+  <si>
+    <t>Has Variants</t>
+  </si>
+  <si>
+    <t>Tender Value</t>
+  </si>
+  <si>
     <t>Score</t>
   </si>
   <si>
-    <t>Prize Rank</t>
-  </si>
-  <si>
-    <t>Prize Value</t>
-  </si>
-  <si>
-    <t>Follow-up Contract</t>
-  </si>
-  <si>
-    <t>Follow-up Contract Information</t>
-  </si>
-  <si>
-    <t>Participant Name</t>
-  </si>
-  <si>
-    <t>Jury Decision Binding</t>
-  </si>
-  <si>
-    <t>Participation Payment</t>
-  </si>
-  <si>
-    <t>Percentage of Evaluation</t>
-  </si>
-  <si>
-    <t>Percentage evaluated</t>
-  </si>
-  <si>
     <t>RankingInFirstStage</t>
   </si>
   <si>
     <t>FinalRanking</t>
   </si>
   <si>
-    <t>Direct Award Justification Type</t>
-  </si>
-  <si>
-    <t>Direct Award Justification</t>
-  </si>
-  <si>
-    <t>Deadline</t>
-  </si>
-  <si>
-    <t>Buyer Legal Type</t>
-  </si>
-  <si>
-    <t>Main Activity</t>
-  </si>
-  <si>
-    <t>Maximum Number of Renewals</t>
-  </si>
-  <si>
-    <t>Follow Up Contract</t>
-  </si>
-  <si>
-    <t>Performance Conditions</t>
-  </si>
-  <si>
-    <t>eOrdering</t>
-  </si>
-  <si>
-    <t>ePayment</t>
-  </si>
-  <si>
-    <t>eInvoicing</t>
-  </si>
-  <si>
-    <t>Renewal Description</t>
-  </si>
-  <si>
-    <t>Contractor Legal Form Requirement</t>
-  </si>
-  <si>
-    <t>Renewal Indicator</t>
-  </si>
-  <si>
-    <t>Contract Legal Form Requirement Description</t>
-  </si>
-  <si>
-    <t>Payment Arrangements</t>
-  </si>
-  <si>
-    <t>Sheltered Employement Usage</t>
-  </si>
-  <si>
-    <t>Other Place of Performance</t>
-  </si>
-  <si>
-    <t>Successive Reduction</t>
-  </si>
-  <si>
-    <t>Award Criteria Evaluation Formula</t>
-  </si>
-  <si>
-    <t>Overall Quality Award Criteria Ponderation</t>
-  </si>
-  <si>
-    <t>Overall Price Award Criteria Ponderation</t>
-  </si>
-  <si>
-    <t>Overall Cost Award Criteria Ponderation</t>
-  </si>
-  <si>
-    <t>Estimated Interest Invitation Date</t>
-  </si>
-  <si>
-    <t>Estimated Tender Invitation Date</t>
-  </si>
-  <si>
-    <t>Receipt Expressions Deadline</t>
-  </si>
-  <si>
-    <t>Lot Award Limit</t>
-  </si>
-  <si>
     <t>Winner Rank</t>
   </si>
   <si>
     <t>Winner Listed</t>
   </si>
   <si>
-    <t>Maximum Share</t>
-  </si>
-  <si>
-    <t>Minimum Share</t>
-  </si>
-  <si>
-    <t>Subcontracting involved</t>
-  </si>
-  <si>
-    <t>Minimum Share Subject Matter</t>
-  </si>
-  <si>
-    <t>Minimum Subcontractors Proposed Obligation</t>
-  </si>
-  <si>
-    <t>Subcontract Restriction</t>
-  </si>
-  <si>
-    <t>Subcontractors Proposed Above Obligation</t>
-  </si>
-  <si>
-    <t>Review Procedure</t>
-  </si>
-  <si>
-    <t>Review Deadline</t>
-  </si>
-  <si>
-    <t>Review Deadline Information</t>
-  </si>
-  <si>
-    <t>Alias Name</t>
-  </si>
-  <si>
-    <t>Account Type</t>
-  </si>
-  <si>
-    <t>Account Format</t>
-  </si>
-  <si>
-    <t>Currency</t>
-  </si>
-  <si>
-    <t>Payment Note</t>
-  </si>
-  <si>
-    <t>Reception Date</t>
-  </si>
-  <si>
-    <t>Dispatch Date</t>
-  </si>
-  <si>
-    <t>Restricted Communication Justification</t>
-  </si>
-  <si>
-    <t>Contract Signature Date</t>
-  </si>
-  <si>
-    <t>Entry into Force Date</t>
-  </si>
-  <si>
-    <t>Framework Agreement Type</t>
-  </si>
-  <si>
-    <t>Buyer Coverage</t>
-  </si>
-  <si>
-    <t>Duration Extension Justification</t>
-  </si>
-  <si>
-    <t>Maximum Number of Awarded Tenderers</t>
-  </si>
-  <si>
-    <t>DPS Termination</t>
-  </si>
-  <si>
-    <t>DPS Usage</t>
-  </si>
-  <si>
-    <t>Free e-Access</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Maximum Number of Candidates</t>
-  </si>
-  <si>
-    <t>Minimum Number of Candidates</t>
-  </si>
-  <si>
-    <t>Expected Candidates</t>
-  </si>
-  <si>
-    <t>Overall Amount</t>
-  </si>
-  <si>
-    <t>Total Amount</t>
-  </si>
-  <si>
-    <t>Tax Included Indicator</t>
-  </si>
-  <si>
-    <t>Minimum Amount</t>
-  </si>
-  <si>
-    <t>Maximum Amount</t>
-  </si>
-  <si>
-    <t>Calculation Method</t>
-  </si>
-  <si>
-    <t>Award Criterion Type</t>
-  </si>
-  <si>
-    <t>Threshold Type</t>
-  </si>
-  <si>
-    <t>Threshold Value</t>
-  </si>
-  <si>
-    <t>Price Cost Threshold Type</t>
-  </si>
-  <si>
-    <t>EO Role Type</t>
-  </si>
-  <si>
-    <t>Legal Form Type</t>
-  </si>
-  <si>
-    <t>Economic Operator Size</t>
-  </si>
-  <si>
-    <t>Beneficiary Owner Nationality</t>
-  </si>
-  <si>
-    <t>EO Group Type</t>
-  </si>
-  <si>
-    <t>Award Date Scheduled</t>
-  </si>
-  <si>
-    <t>Participation Reserved</t>
-  </si>
-  <si>
-    <t>Reserved Procurement</t>
-  </si>
-  <si>
-    <t>Variants Permission</t>
-  </si>
-  <si>
-    <t>Dimension Type</t>
-  </si>
-  <si>
-    <t>Threshold</t>
-  </si>
-  <si>
-    <t>Fixed Value</t>
-  </si>
-  <si>
-    <t>Accessibility Criteria</t>
-  </si>
-  <si>
-    <t>Non-Accessibility Criteria Justification</t>
-  </si>
-  <si>
-    <t>Publication Date</t>
-  </si>
-  <si>
-    <t>DPS scope</t>
-  </si>
-  <si>
-    <t>Estimated Share</t>
-  </si>
-  <si>
-    <t>Subcontracting Usage</t>
-  </si>
-  <si>
-    <t>Estimated Value</t>
-  </si>
-  <si>
-    <t>Estimated Share Known</t>
-  </si>
-  <si>
-    <t>Estimated Value Known</t>
-  </si>
-  <si>
-    <t>Share</t>
-  </si>
-  <si>
-    <t>Recurrence</t>
-  </si>
-  <si>
-    <t>Recurrence Description</t>
-  </si>
-  <si>
-    <t>No Result Reason</t>
-  </si>
-  <si>
-    <t>Number Awarded Contract</t>
-  </si>
-  <si>
-    <t>Is Abnormally Low</t>
-  </si>
-  <si>
-    <t>Is Abnormally Low Justification</t>
-  </si>
-  <si>
-    <t>Additional Information</t>
-  </si>
-  <si>
-    <t>Communication Type</t>
-  </si>
-  <si>
-    <t>Justification</t>
-  </si>
-  <si>
-    <t>Non-Award Justification Type</t>
-  </si>
-  <si>
-    <t>Award Decision Date</t>
-  </si>
-  <si>
-    <t>AwardTypeCode</t>
-  </si>
-  <si>
-    <t>Award Indicator</t>
-  </si>
-  <si>
-    <t>Change Description</t>
-  </si>
-  <si>
-    <t>Change Reason Code</t>
-  </si>
-  <si>
-    <t>Change Date</t>
-  </si>
-  <si>
-    <t>Change Reason</t>
-  </si>
-  <si>
-    <t>Limitation Description</t>
-  </si>
-  <si>
-    <t>Justification Description</t>
-  </si>
-  <si>
-    <t>Availability Date</t>
-  </si>
-  <si>
-    <t>EEA Received Tenders</t>
-  </si>
-  <si>
-    <t>Received Requests for Participation</t>
-  </si>
-  <si>
-    <t>EU Received Tenders</t>
-  </si>
-  <si>
-    <t>Tender Variants Awarded</t>
-  </si>
-  <si>
-    <t>NON-EU Received Tenders</t>
-  </si>
-  <si>
-    <t>Review Requests Received</t>
-  </si>
-  <si>
-    <t>SME Suitable</t>
-  </si>
-  <si>
-    <t>Options</t>
-  </si>
-  <si>
-    <t>Main Classification</t>
-  </si>
-  <si>
-    <t>Total Magnitude Quantity</t>
-  </si>
-  <si>
-    <t>Contract Nature</t>
-  </si>
-  <si>
-    <t>Subject Matter</t>
-  </si>
-  <si>
-    <t>NUTS Type</t>
-  </si>
-  <si>
-    <t>Additional Classifications</t>
-  </si>
-  <si>
-    <t>Options Description</t>
-  </si>
-  <si>
-    <t>Electronic Submission</t>
-  </si>
-  <si>
-    <t>Non Electronic Submission Justification</t>
-  </si>
-  <si>
-    <t>Has Variants</t>
-  </si>
-  <si>
-    <t>Tender Value</t>
-  </si>
-  <si>
-    <t>Accelerated Procedure Further Justification</t>
-  </si>
-  <si>
-    <t>GPA Coverage</t>
-  </si>
-  <si>
-    <t>Procedure Choice Justification</t>
-  </si>
-  <si>
-    <t>Procedure Main Features</t>
-  </si>
-  <si>
-    <t>Procurement Procedure Type</t>
-  </si>
-  <si>
-    <t>Procurement Regime Type</t>
-  </si>
-  <si>
-    <t>Accelerated Procedure Justification Type</t>
-  </si>
-  <si>
-    <t>Accelerated</t>
-  </si>
-  <si>
-    <t>Lot Submission Limit</t>
-  </si>
-  <si>
-    <t>Maximum Number of Lots Awarded To One Tenderer</t>
-  </si>
-  <si>
-    <t>Competition Termination</t>
-  </si>
-  <si>
     <t>Line</t>
   </si>
   <si>
@@ -1354,9 +1354,6 @@
   </si>
   <si>
     <t>Timezone Offset</t>
-  </si>
-  <si>
-    <t>Identifies the criterion unambiguously and uniquely across all  procurement procedures..</t>
   </si>
   <si>
     <t>A short text representing the group of properties inside a criterion.</t>
@@ -1385,45 +1382,12 @@
 Local</t>
   </si>
   <si>
-    <t>Date and time for the opening of tenders.
-WG Approval 12/03/2019 16:11:39</t>
-  </si>
-  <si>
-    <t>Further information about the opening of tenders. (For example, who may participate in the opening and whether any authorisation is needed.)
-WG Approval 12/03/2019 16:10:50</t>
-  </si>
-  <si>
-    <t>The time limit for requesting additional information about the procurement procedure.</t>
-  </si>
-  <si>
-    <t>The period during which tenders submitted for this procurement procedure must remain valid.
+    <t>The category of the criterion whether it be concerned with the quality of the offer or the financial offer.
 (Pending to review by the WG)</t>
   </si>
   <si>
-    <t>Including the financial modality and request for commitment reserved to be used in case of default.
-Additional Information:
-1. Usual modalities are bonds, cheques, loans, other.
-2. Guarantees can be used to cover the risks that:
-- the winner refuses to sign the contract;
-- the contractor does not execute the contract according to the terms of the contract.
-WG Approval 2019-02-26</t>
-  </si>
-  <si>
-    <t>Textual explanation on the required guarantee.
-WG Approval 2019-05-26</t>
-  </si>
-  <si>
-    <t>Use of electronic submission.</t>
-  </si>
-  <si>
-    <t>The tender is required to be signed electronically.
-Additional Information: 
-Signature can be defined as "data in electronic form which is attached to or logically associated with other data in electronic form and which is used by the signatory to sign. 
-For more details on the meaning and uses of electronic signature you may consult different authoritative sources, a relevant one being for instance the Regulation (EU) 910/2014 on electronic identification and trust services for electronic transactions in the internal market.
-WG Approval 12/03/2019 15:46:34</t>
-  </si>
-  <si>
-    <t>If there's no first stage then there is only a final stage.</t>
+    <t>An indication whether any tenderer has been chosen for a contract or framework agreement.
+WG Approval 19/03/2019 15:57:43</t>
   </si>
   <si>
     <t>The justification for using a procedure which allows directly awarding contracts.
@@ -1432,6 +1396,28 @@
 e.g. a procedure that does not require publishing a call for competition in the Official Journal of the European Union.</t>
   </si>
   <si>
+    <t>World wide web uniform resource locator that identifies the location and addresses to the Buyer Profile web site. See "Buyer Profile" class.</t>
+  </si>
+  <si>
+    <t>Maximum number of candidates to be invited for the second stage of the procedure.</t>
+  </si>
+  <si>
+    <t>Minimum number of candidates to be invited for the second stage of the procedure.</t>
+  </si>
+  <si>
+    <t>The number of economic operators expected to be on the short list.</t>
+  </si>
+  <si>
+    <t>Contract title</t>
+  </si>
+  <si>
+    <t>The date of conclusion of the Contract.</t>
+  </si>
+  <si>
+    <t>Any additional information about recurrence (e.g. estimated timing).
+(WG approval 2019-01-16)</t>
+  </si>
+  <si>
     <t>The maximum number of contract extensions foreseen for this contract.</t>
   </si>
   <si>
@@ -1472,6 +1458,46 @@
   </si>
   <si>
     <t>There are other restrictions on the place of performance (e.g. "anywhere in the European Economic Area", "anywhere in the given country").</t>
+  </si>
+  <si>
+    <t>Indicates whether the procuring entity is bound to apply the decision of the jury.</t>
+  </si>
+  <si>
+    <t>Date of reception of a record by an organisation.</t>
+  </si>
+  <si>
+    <t>Date of transmission of a record to an organisation.</t>
+  </si>
+  <si>
+    <t>Access to procurement document is restricted.
+The property Document.Restricted Access of type code is kept for now as it is interesting that a document confidentiality policy is self contained in the document but we need to address the consistency with the Access Restriction indicator property.
+To be reviewed (07/03/2019 15:40:05)</t>
+  </si>
+  <si>
+    <t>Closure of the DPS. 
+Additional Information: This property can be used even if no contracts are awarded in the contract award notice.</t>
+  </si>
+  <si>
+    <t>The time limit for requesting additional information about the procurement procedure.</t>
+  </si>
+  <si>
+    <t>Identity that a organisation legally assumes taking into account its ownership and the responsibility that its owners have in legal terms.
+Examples: Limited Liability Company; GBHM;  SLU; Cooperativa; Société Anonime; etc.</t>
+  </si>
+  <si>
+    <t>Needs to be defined ... ITALY could help a lot....Do not they have a high-featured system to identify owners?</t>
+  </si>
+  <si>
+    <t>The URL of the tools and devices.</t>
+  </si>
+  <si>
+    <t>The Element may identify any type of elements, including documents, e.g. a Procurement Document that has changed.</t>
+  </si>
+  <si>
+    <t>Justification why the contract has and will not have a winner.</t>
+  </si>
+  <si>
+    <t>A tender that is judged abnormally low based on technically, economically or legally unsound assumptions or practices.</t>
   </si>
   <si>
     <t>The number of solutions or tenders will be reduced in iterative evaluations for multiple staged procedures.
@@ -1498,6 +1524,61 @@
     <t>WG Approval 23-01-2019</t>
   </si>
   <si>
+    <t>A country is one of the political units which the world is divided into, covering a particular area of land.
+(WG approval 8/06/2018)</t>
+  </si>
+  <si>
+    <t>Buyers that can use the Framework Agreement not mentioned by name.
+Additional Information: e.g. "all hospitals in the Tuscany region
+WG Approval 2019-05-06</t>
+  </si>
+  <si>
+    <t>In the case of a framework agreement, the reasons for any duration exceeding four years.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>Maximum number of tenderers who may be awarded a contract within the framework agreement.
+Additional Information: the number is a positive integer.
+WG Approval 2019-02-05</t>
+  </si>
+  <si>
+    <t>The participation is reserved to organisations pursuing a public service mission and fulfilling other relevant conditions in the legislation.
+WG TBD</t>
+  </si>
+  <si>
+    <t>The date when a record is made publically available.
+(WG approval 01/06/2018)</t>
+  </si>
+  <si>
+    <t>Date and time for the opening of tenders.
+WG Approval 12/03/2019 16:11:39</t>
+  </si>
+  <si>
+    <t>Further information about the opening of tenders. (For example, who may participate in the opening and whether any authorisation is needed.)
+WG Approval 12/03/2019 16:10:50</t>
+  </si>
+  <si>
+    <t>Specifies whether the GPA applies.
+Additional information: the GPA aims to establish a multilateral framework of balanced rights and obligations relating to public contracts with a view to achieving the liberalization and expansion of world trade.
+Reason: the ISO/IEC 11179 Recommends not to over-define the terms but instead to separate extra information when the general concept (in this case GPA) is not defined in the glossary.</t>
+  </si>
+  <si>
+    <t>Main features of the procedure and information about where the full rules for the procedure can be found. This information should be given when the procedure is not one of those mentioned in the procurement directives. This can be the case for example for concessions, for social and other specific services, and in case of voluntary publication of procurement procedures below the EU procurement thresholds.</t>
+  </si>
+  <si>
+    <t>The nature of what is acquired.
+(WG approval 01/06/2018)</t>
+  </si>
+  <si>
+    <t>The total number of lots for which one tenderer can submit tenders..
+(WG decision 12/12/2018)</t>
+  </si>
+  <si>
+    <t>No further contracts will be awarded in this competition.
+This field can be used even if no contracts are awarded in the contract award notice.
+Additional Information: PIN for Competition and DPS, for example, are cases where the termination needs to be signaled.</t>
+  </si>
+  <si>
     <t>Estimated time of transmission of invitation to submit tenders.
 (Pending to review by the WG)</t>
   </si>
@@ -1510,9 +1591,103 @@
 (WG Decision 12/12/2018)</t>
   </si>
   <si>
-    <t>The position of the winner, i.e. whether the economic operator ended up first, second, third, etc.
-Additional information: This is specially the case of design contests, some framework agreements with multiple winners (e.g. cascades) or innovation partnerships.
-WG Approval 25/04/2019 16:28:00</t>
+    <t>Indicates whether the procurement documents are electronically available for unrestricted and full direct access, free of charge.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The amount of bids received by the buyer from economic operators from other EU countries.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The amount of applications to participate from economic operators.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The amount of bids submitted by tenders.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The winning tenderer has submited multiple additional proposals in response to a given set of requirements specified by the buyer in the procurement documents.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The number of economic operators that requested the buyer to review any of its decisions (e.g. the technical specifications, award decision), as set out in Art. 1(5) of Directive 89/665/EEC and Directive 92/13/EEC.
+WG Approval 11/04/2019 15:58:37</t>
+  </si>
+  <si>
+    <t>The buyer emphasizes that this procurement is also suitable for small and medium enterprises (SMEs).
+WG Approval 11/04/2019 16:04:43</t>
+  </si>
+  <si>
+    <t>Any information not mentioned elsewhere.
+WG Approval 11/04/2019 16:58:18</t>
+  </si>
+  <si>
+    <t>In the case of a procurement procedure it includes options and renewals.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The highest amount which can be spent within a procurement over its whole duration.
+Additional Information: beware that the procurement can be organised based on different Techniques, e.g. Framework Agreements.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The description of the system used for calculating the estimated value of procurement.
+Additional information: e.g. the method used to calculate the estimated value of a concession and any other relevant information.
+WG Approval 25/04/2019 17:01:13</t>
+  </si>
+  <si>
+    <t>The buyer reserves the right (not an obligation) for additional purchases from the contractor (while the contract is valid).
+WG Approval 09/04/2019 14:45:05
+The old definition we had in ePO reads as follows (and never was approved by the WG:
+"Statement by the Procuring Entity about whether it may apply modifications to the procurement procedure that would alter the overall nature of the contract or the framework agreement."
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The CPV establishes a single classification system for public procurement aimed at standardising the references used by procuring entities to describe the purpose of procurement contracts and procurement projects.
+(WG approval 25/05/2018)</t>
+  </si>
+  <si>
+    <t>ISO 15000 ebXML CCTS QuantityType uses the attribute "unitCode" to specify what the quantity is about.
+Example: 3 months; 131 printers; 1,000 tones; etc.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The nature of the contract, which corresponds to the main subject of the contract.
+(Pending to review by the WG))</t>
+  </si>
+  <si>
+    <t>The common classification of territorial units for statistics.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The motivation and details about additional purchases that the buyer may undertake while the contract is valid.
+WG Approval 09/04/2019 14:48:06</t>
+  </si>
+  <si>
+    <t>Whether subcontracting will be used or not (or not known yet).
+WG Approved 08/05/2019</t>
+  </si>
+  <si>
+    <t>The estimated value of the part of the contract to be subcontracted.
+WG Approval 08/05/2019</t>
+  </si>
+  <si>
+    <t>The estimated share of the subcontracting can be calculated.
+WG Approval 07/05/2019 16:06:30</t>
+  </si>
+  <si>
+    <t>The estimated value of the subcontracting can be calculated.
+WG Approval 08/05/2019</t>
+  </si>
+  <si>
+    <t>The actual value of the contract to be subcontracted to third parties.
+WG Approval 08/05/2019</t>
+  </si>
+  <si>
+    <t>The proportion of something to be distributed.
+Additional Information:
+In the case of subcontracting the share refers to the proportion of works, services or supplies being subcontracted.</t>
   </si>
   <si>
     <t>Self-explanatory text about a concept.
@@ -1535,88 +1710,31 @@
 WG Approval 28/02/2019 16:41:59</t>
   </si>
   <si>
-    <t>A country is one of the political units which the world is divided into, covering a particular area of land.
-(WG approval 8/06/2018)</t>
-  </si>
-  <si>
-    <t>Date of reception of a record by an organisation.</t>
-  </si>
-  <si>
-    <t>Date of transmission of a record to an organisation.</t>
-  </si>
-  <si>
-    <t>Access to procurement document is restricted.
-The property Document.Restricted Access of type code is kept for now as it is interesting that a document confidentiality policy is self contained in the document but we need to address the consistency with the Access Restriction indicator property.
-To be reviewed (07/03/2019 15:40:05)</t>
-  </si>
-  <si>
-    <t>Contract title</t>
-  </si>
-  <si>
-    <t>The date of conclusion of the Contract.</t>
-  </si>
-  <si>
-    <t>Buyers that can use the Framework Agreement not mentioned by name.
-Additional Information: e.g. "all hospitals in the Tuscany region
-WG Approval 2019-05-06</t>
-  </si>
-  <si>
-    <t>In the case of a framework agreement, the reasons for any duration exceeding four years.
+    <t>The period during which tenders submitted for this procurement procedure must remain valid.
 (Pending to review by the WG)</t>
   </si>
   <si>
-    <t>Maximum number of tenderers who may be awarded a contract within the framework agreement.
-Additional Information: the number is a positive integer.
-WG Approval 2019-02-05</t>
-  </si>
-  <si>
-    <t>Closure of the DPS. 
-Additional Information: This property can be used even if no contracts are awarded in the contract award notice.</t>
-  </si>
-  <si>
-    <t>Indicates whether the procurement documents are electronically available for unrestricted and full direct access, free of charge.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Maximum number of candidates to be invited for the second stage of the procedure.</t>
-  </si>
-  <si>
-    <t>Minimum number of candidates to be invited for the second stage of the procedure.</t>
-  </si>
-  <si>
-    <t>The number of economic operators expected to be on the short list.</t>
-  </si>
-  <si>
-    <t>In the case of a procurement procedure it includes options and renewals.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The highest amount which can be spent within a procurement over its whole duration.
-Additional Information: beware that the procurement can be organised based on different Techniques, e.g. Framework Agreements.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The description of the system used for calculating the estimated value of procurement.
-Additional information: e.g. the method used to calculate the estimated value of a concession and any other relevant information.
-WG Approval 25/04/2019 17:01:13</t>
-  </si>
-  <si>
-    <t>The category of the criterion whether it be concerned with the quality of the offer or the financial offer.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Identity that a organisation legally assumes taking into account its ownership and the responsibility that its owners have in legal terms.
-Examples: Limited Liability Company; GBHM;  SLU; Cooperativa; Société Anonime; etc.</t>
-  </si>
-  <si>
-    <t>Needs to be defined ... ITALY could help a lot....Do not they have a high-featured system to identify owners?</t>
-  </si>
-  <si>
-    <t>The participation is reserved to organisations pursuing a public service mission and fulfilling other relevant conditions in the legislation.
-WG TBD</t>
-  </si>
-  <si>
-    <t>World wide web uniform resource locator that identifies the location and addresses to the Buyer Profile web site. See "Buyer Profile" class.</t>
+    <t>Including the financial modality and request for commitment reserved to be used in case of default.
+Additional Information:
+1. Usual modalities are bonds, cheques, loans, other.
+2. Guarantees can be used to cover the risks that:
+- the winner refuses to sign the contract;
+- the contractor does not execute the contract according to the terms of the contract.
+WG Approval 2019-02-26</t>
+  </si>
+  <si>
+    <t>Textual explanation on the required guarantee.
+WG Approval 2019-05-26</t>
+  </si>
+  <si>
+    <t>Use of electronic submission.</t>
+  </si>
+  <si>
+    <t>The tender is required to be signed electronically.
+Additional Information: 
+Signature can be defined as "data in electronic form which is attached to or logically associated with other data in electronic form and which is used by the signatory to sign. 
+For more details on the meaning and uses of electronic signature you may consult different authoritative sources, a relevant one being for instance the Regulation (EU) 910/2014 on electronic identification and trust services for electronic transactions in the internal market.
+WG Approval 12/03/2019 15:46:34</t>
   </si>
   <si>
     <t>Procurement criteria for persons with disabilities applied.
@@ -1625,111 +1743,6 @@
   <si>
     <t>Reason for not applying accessibility criteria.
 WG Approval 05/03/2019 15:52:31</t>
-  </si>
-  <si>
-    <t>The date when a record is made publically available.
-(WG approval 01/06/2018)</t>
-  </si>
-  <si>
-    <t>The Element may identify any type of elements, including documents, e.g. a Procurement Document that has changed.</t>
-  </si>
-  <si>
-    <t>Whether subcontracting will be used or not (or not known yet).
-WG Approved 08/05/2019</t>
-  </si>
-  <si>
-    <t>The estimated value of the part of the contract to be subcontracted.
-WG Approval 08/05/2019</t>
-  </si>
-  <si>
-    <t>The estimated share of the subcontracting can be calculated.
-WG Approval 07/05/2019 16:06:30</t>
-  </si>
-  <si>
-    <t>The estimated value of the subcontracting can be calculated.
-WG Approval 08/05/2019</t>
-  </si>
-  <si>
-    <t>The actual value of the contract to be subcontracted to third parties.
-WG Approval 08/05/2019</t>
-  </si>
-  <si>
-    <t>The proportion of something to be distributed.
-Additional Information:
-In the case of subcontracting the share refers to the proportion of works, services or supplies being subcontracted.</t>
-  </si>
-  <si>
-    <t>Any additional information about recurrence (e.g. estimated timing).
-(WG approval 2019-01-16)</t>
-  </si>
-  <si>
-    <t>Justification why the contract has and will not have a winner.</t>
-  </si>
-  <si>
-    <t>A tender that is judged abnormally low based on technically, economically or legally unsound assumptions or practices.</t>
-  </si>
-  <si>
-    <t>The URL of the tools and devices.</t>
-  </si>
-  <si>
-    <t>An indication whether any tenderer has been chosen for a contract or framework agreement.
-WG Approval 19/03/2019 15:57:43</t>
-  </si>
-  <si>
-    <t>The amount of bids received by the buyer from economic operators from other EU countries.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The amount of applications to participate from economic operators.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The amount of bids submitted by tenders.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The winning tenderer has submited multiple additional proposals in response to a given set of requirements specified by the buyer in the procurement documents.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The number of economic operators that requested the buyer to review any of its decisions (e.g. the technical specifications, award decision), as set out in Art. 1(5) of Directive 89/665/EEC and Directive 92/13/EEC.
-WG Approval 11/04/2019 15:58:37</t>
-  </si>
-  <si>
-    <t>The buyer emphasizes that this procurement is also suitable for small and medium enterprises (SMEs).
-WG Approval 11/04/2019 16:04:43</t>
-  </si>
-  <si>
-    <t>Any information not mentioned elsewhere.
-WG Approval 11/04/2019 16:58:18</t>
-  </si>
-  <si>
-    <t>The buyer reserves the right (not an obligation) for additional purchases from the contractor (while the contract is valid).
-WG Approval 09/04/2019 14:45:05
-The old definition we had in ePO reads as follows (and never was approved by the WG=:
-"Statement by the Procuring Entity about whether it may apply modifications to the procurement procedure that would alter the overall nature of the contract or the framework agreement."
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The CPV establishes a single classification system for public procurement aimed at standardising the references used by procuring entities to describe the purpose of procurement contracts and procurement projects.
-(WG approval 25/05/2018)</t>
-  </si>
-  <si>
-    <t>ISO 15000 ebXML CCTS QuantityType uses the attribute "unitCode" to specify what the quantity is about.
-Example: 3 months; 131 printers; 1,000 tones; etc.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The nature of the contract, which corresponds to the main subject of the contract.
-(Pending to review by the WG))</t>
-  </si>
-  <si>
-    <t>The common classification of territorial units for statistics.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The motivation and details about additional purchases that the buyer may undertake while the contract is valid.
-WG Approval 09/04/2019 14:48:06</t>
   </si>
   <si>
     <t>Transmission of tenders is possible by electronic means of communication. 
@@ -1746,24 +1759,12 @@
 TO BE DISCUSSED FURTHER</t>
   </si>
   <si>
-    <t>The procurement is covered by the Government Procurement Agreement (GPA).
-WG Approval 11/04/2019 16:08:49</t>
-  </si>
-  <si>
-    <t>Main features of the procedure and information about where the full rules for the procedure can be found. This information should be given when the procedure is not one of those mentioned in the procurement directives. This can be the case for example for concessions, for social and other specific services, and in case of voluntary publication of procurement procedures below the EU procurement thresholds.</t>
-  </si>
-  <si>
-    <t>The nature of what is acquired.
-(WG approval 01/06/2018)</t>
-  </si>
-  <si>
-    <t>The total number of lots for which one tenderer can submit tenders..
-(WG decision 12/12/2018)</t>
-  </si>
-  <si>
-    <t>No further contracts will be awarded in this competition.
-This field can be used even if no contracts are awarded in the contract award notice.
-Additional Information: PIN for Competition and DPS, for example, are cases where the termination needs to be signaled.</t>
+    <t>If there's no first stage then there is only a final stage.</t>
+  </si>
+  <si>
+    <t>The position of the winner, i.e. whether the economic operator ended up first, second, third, etc.
+Additional information: This is specially the case of design contests, some framework agreements with multiple winners (e.g. cascades) or innovation partnerships.
+WG Approval 25/04/2019 16:28:00</t>
   </si>
   <si>
     <t>The date on which this period begins.</t>
@@ -1790,24 +1791,24 @@
     <t>Numeric</t>
   </si>
   <si>
+    <t>int</t>
+  </si>
+  <si>
+    <t>ccts:Identifier</t>
+  </si>
+  <si>
+    <t>dateTime</t>
+  </si>
+  <si>
     <t>Identier</t>
   </si>
   <si>
-    <t>dateTime</t>
+    <t>Percent</t>
   </si>
   <si>
     <t>DateTime</t>
   </si>
   <si>
-    <t>int</t>
-  </si>
-  <si>
-    <t>Percent</t>
-  </si>
-  <si>
-    <t>ccts:Identifier</t>
-  </si>
-  <si>
     <t>Measure</t>
   </si>
   <si>
@@ -1824,6 +1825,13 @@
   </si>
   <si>
     <t>xsd:string</t>
+  </si>
+  <si>
+    <t>The execution of the contract is restricted to the framework of sheltered employment programmes.
+Pending of approval</t>
+  </si>
+  <si>
+    <t>Identifies the criterion unambiguously and uniquely across all  procurement procedures.</t>
   </si>
   <si>
     <t>Relative importance assigned to a given criterion.
@@ -1833,10 +1841,6 @@
 reviewed on 23-01-2019)</t>
   </si>
   <si>
-    <t>The execution of the contract is restricted to the framework of sheltered employment programmes.
-Pending of approval</t>
-  </si>
-  <si>
     <t>Describes the object of the procurement and the properties of the procedure.
 (Pending to review by the WG)</t>
   </si>
@@ -1852,16 +1856,16 @@
 (Pending to review by the WG)</t>
   </si>
   <si>
+    <t>The estimated proportion foreseen to be subcontracted.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
+    <t>The deadline for submitting Tenders.
+(Pending to review by the WG)</t>
+  </si>
+  <si>
     <t>The tenderer to whom the contract is awarded.
 (WG approval 20/11/2018)</t>
-  </si>
-  <si>
-    <t>The estimated proportion foreseen to be subcontracted.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The deadline for submitting Tenders.
-(Pending to review by the WG)</t>
   </si>
 </sst>
 </file>
@@ -2272,7 +2276,7 @@
   <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B315" sqref="B315"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2304,10 +2308,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
@@ -2328,10 +2332,10 @@
     </row>
     <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>48</v>
+        <v>13</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>135</v>
+        <v>118</v>
       </c>
       <c r="C4" s="2"/>
       <c r="D4" s="2"/>
@@ -2339,16 +2343,16 @@
     </row>
     <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>299</v>
+        <v>199</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>470</v>
+        <v>421</v>
       </c>
       <c r="E5" s="2" t="s">
         <v>194</v>
@@ -2356,13 +2360,13 @@
     </row>
     <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2" t="s">
@@ -2371,13 +2375,13 @@
     </row>
     <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
@@ -2386,13 +2390,13 @@
     </row>
     <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>62</v>
+        <v>14</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>119</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>302</v>
+        <v>202</v>
       </c>
       <c r="D8" s="2"/>
       <c r="E8" s="2" t="s">
@@ -2401,10 +2405,10 @@
     </row>
     <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>180</v>
@@ -2416,13 +2420,13 @@
     </row>
     <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>312</v>
+        <v>203</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2" t="s">
@@ -2431,13 +2435,13 @@
     </row>
     <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>313</v>
+        <v>204</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
@@ -2446,13 +2450,13 @@
     </row>
     <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>71</v>
+        <v>15</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>152</v>
+        <v>120</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>314</v>
+        <v>205</v>
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
@@ -2461,13 +2465,13 @@
     </row>
     <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>334</v>
+        <v>206</v>
       </c>
       <c r="D13" s="2"/>
       <c r="E13" s="2" t="s">
@@ -2476,13 +2480,13 @@
     </row>
     <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>335</v>
+        <v>207</v>
       </c>
       <c r="D14" s="2"/>
       <c r="E14" s="2" t="s">
@@ -2491,13 +2495,13 @@
     </row>
     <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="D15" s="2"/>
       <c r="E15" s="2" t="s">
@@ -2506,13 +2510,13 @@
     </row>
     <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>336</v>
+        <v>209</v>
       </c>
       <c r="D16" s="2"/>
       <c r="E16" s="2" t="s">
@@ -2521,16 +2525,16 @@
     </row>
     <row r="17" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>86</v>
+        <v>16</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>163</v>
+        <v>121</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>337</v>
+        <v>210</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>489</v>
+        <v>422</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>197</v>
@@ -2538,11 +2542,11 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>233</v>
+        <v>211</v>
       </c>
       <c r="D18" s="2"/>
       <c r="E18" s="2" t="s">
@@ -2551,14 +2555,14 @@
     </row>
     <row r="19" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>234</v>
+        <v>212</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>431</v>
+        <v>423</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>198</v>
@@ -2566,13 +2570,13 @@
     </row>
     <row r="20" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D20" s="2"/>
       <c r="E20" s="2" t="s">
@@ -2581,13 +2585,13 @@
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>34</v>
+        <v>18</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
       <c r="D21" s="2"/>
       <c r="E21" s="2" t="s">
@@ -2596,16 +2600,16 @@
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>150</v>
+        <v>123</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>474</v>
+        <v>424</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>190</v>
@@ -2613,10 +2617,10 @@
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>81</v>
+        <v>20</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>158</v>
+        <v>124</v>
       </c>
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
@@ -2624,10 +2628,10 @@
     </row>
     <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
@@ -2635,16 +2639,16 @@
     </row>
     <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>290</v>
+        <v>216</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>464</v>
+        <v>425</v>
       </c>
       <c r="E25" s="2" t="s">
         <v>518</v>
@@ -2652,16 +2656,16 @@
     </row>
     <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>291</v>
+        <v>217</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>465</v>
+        <v>426</v>
       </c>
       <c r="E26" s="2" t="s">
         <v>518</v>
@@ -2669,16 +2673,16 @@
     </row>
     <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>60</v>
+        <v>22</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>144</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>292</v>
+        <v>218</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>466</v>
+        <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>518</v>
@@ -2686,13 +2690,13 @@
     </row>
     <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>94</v>
+        <v>23</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>167</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="D28" s="2"/>
       <c r="E28" s="2" t="s">
@@ -2701,11 +2705,11 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" s="2" t="s">
-        <v>338</v>
+        <v>219</v>
       </c>
       <c r="D29" s="2"/>
       <c r="E29" s="2" t="s">
@@ -2714,11 +2718,11 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" s="2" t="s">
-        <v>339</v>
+        <v>220</v>
       </c>
       <c r="D30" s="2"/>
       <c r="E30" s="2" t="s">
@@ -2727,11 +2731,11 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>340</v>
+        <v>221</v>
       </c>
       <c r="D31" s="2"/>
       <c r="E31" s="2" t="s">
@@ -2740,11 +2744,11 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>87</v>
+        <v>24</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>341</v>
+        <v>222</v>
       </c>
       <c r="D32" s="2"/>
       <c r="E32" s="2" t="s">
@@ -2762,16 +2766,16 @@
     </row>
     <row r="34" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C34" s="2" t="s">
         <v>186</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>457</v>
+        <v>428</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>198</v>
@@ -2779,16 +2783,16 @@
     </row>
     <row r="35" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>280</v>
+        <v>223</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>458</v>
+        <v>429</v>
       </c>
       <c r="E35" s="2" t="s">
         <v>195</v>
@@ -2796,13 +2800,13 @@
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>51</v>
+        <v>25</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>281</v>
+        <v>224</v>
       </c>
       <c r="D36" s="2"/>
       <c r="E36" s="2" t="s">
@@ -2811,10 +2815,10 @@
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>79</v>
+        <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>156</v>
+        <v>129</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
@@ -2822,10 +2826,10 @@
     </row>
     <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>178</v>
@@ -2837,13 +2841,13 @@
     </row>
     <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="D39" s="2"/>
       <c r="E39" s="2" t="s">
@@ -2852,13 +2856,13 @@
     </row>
     <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>85</v>
+        <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>162</v>
+        <v>130</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="D40" s="2"/>
       <c r="E40" s="2" t="s">
@@ -2867,13 +2871,13 @@
     </row>
     <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>325</v>
+        <v>225</v>
       </c>
       <c r="D41" s="2"/>
       <c r="E41" s="2" t="s">
@@ -2882,16 +2886,16 @@
     </row>
     <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>80</v>
+        <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>157</v>
+        <v>131</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>326</v>
+        <v>226</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>485</v>
+        <v>430</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>198</v>
@@ -2899,7 +2903,7 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2"/>
@@ -2908,16 +2912,16 @@
     </row>
     <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>518</v>
@@ -2925,16 +2929,16 @@
     </row>
     <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>197</v>
@@ -2942,16 +2946,16 @@
     </row>
     <row r="46" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>240</v>
+        <v>229</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>198</v>
@@ -2959,16 +2963,16 @@
     </row>
     <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>197</v>
@@ -2976,16 +2980,16 @@
     </row>
     <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>197</v>
@@ -2993,13 +2997,13 @@
     </row>
     <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>243</v>
+        <v>232</v>
       </c>
       <c r="D49" s="2"/>
       <c r="E49" s="2" t="s">
@@ -3008,16 +3012,16 @@
     </row>
     <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C50" s="2" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="D50" s="2" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E50" s="2" t="s">
         <v>198</v>
@@ -3025,16 +3029,16 @@
     </row>
     <row r="51" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E51" s="2" t="s">
         <v>197</v>
@@ -3042,13 +3046,13 @@
     </row>
     <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C52" s="2" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="D52" s="2"/>
       <c r="E52" s="2" t="s">
@@ -3057,16 +3061,16 @@
     </row>
     <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C53" s="2" t="s">
-        <v>247</v>
+        <v>236</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E53" s="2" t="s">
         <v>198</v>
@@ -3074,16 +3078,16 @@
     </row>
     <row r="54" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C54" s="2" t="s">
-        <v>248</v>
+        <v>237</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E54" s="2" t="s">
         <v>198</v>
@@ -3091,16 +3095,16 @@
     </row>
     <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C55" s="2" t="s">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>194</v>
@@ -3108,16 +3112,16 @@
     </row>
     <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>39</v>
+        <v>30</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="C56" s="2" t="s">
-        <v>250</v>
+        <v>239</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E56" s="2" t="s">
         <v>194</v>
@@ -3125,11 +3129,11 @@
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>211</v>
+        <v>240</v>
       </c>
       <c r="D57" s="2"/>
       <c r="E57" s="2" t="s">
@@ -3192,7 +3196,7 @@
         <v>176</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>414</v>
+        <v>532</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>176</v>
@@ -3209,7 +3213,7 @@
         <v>177</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E62" s="2" t="s">
         <v>198</v>
@@ -3226,7 +3230,7 @@
         <v>178</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E63" s="2" t="s">
         <v>198</v>
@@ -3243,7 +3247,7 @@
         <v>179</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="E64" s="2" t="s">
         <v>198</v>
@@ -3260,7 +3264,7 @@
         <v>180</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E65" s="2" t="s">
         <v>518</v>
@@ -3322,7 +3326,7 @@
         <v>176</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="E69" s="2" t="s">
         <v>176</v>
@@ -3339,7 +3343,7 @@
         <v>177</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E70" s="2" t="s">
         <v>198</v>
@@ -3356,7 +3360,7 @@
         <v>178</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E71" s="2" t="s">
         <v>198</v>
@@ -3373,7 +3377,7 @@
         <v>176</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="E72" s="2" t="s">
         <v>176</v>
@@ -3390,7 +3394,7 @@
         <v>177</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="E73" s="2" t="s">
         <v>198</v>
@@ -3407,7 +3411,7 @@
         <v>178</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="E74" s="2" t="s">
         <v>198</v>
@@ -3430,10 +3434,10 @@
     </row>
     <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
-        <v>78</v>
+        <v>32</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3441,24 +3445,24 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B77" s="2"/>
       <c r="C77" s="2" t="s">
-        <v>222</v>
+        <v>241</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B78" s="2"/>
       <c r="C78" s="2" t="s">
-        <v>223</v>
+        <v>242</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" s="2" t="s">
@@ -3467,11 +3471,11 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>224</v>
+        <v>243</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
@@ -3480,11 +3484,11 @@
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>225</v>
+        <v>244</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
@@ -3493,11 +3497,11 @@
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>226</v>
+        <v>245</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" s="2" t="s">
@@ -3506,91 +3510,93 @@
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>227</v>
-      </c>
-      <c r="D82" s="2"/>
+        <v>246</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>441</v>
+      </c>
       <c r="E82" s="2" t="s">
         <v>197</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>228</v>
+        <v>247</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="84" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>524</v>
+        <v>520</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C85" s="2" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>454</v>
+        <v>442</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C86" s="2" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>455</v>
+        <v>443</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>50</v>
+        <v>34</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C87" s="2" t="s">
-        <v>279</v>
+        <v>250</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>456</v>
+        <v>444</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>194</v>
@@ -3598,7 +3604,7 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
       <c r="B88" s="2"/>
       <c r="C88" s="2"/>
@@ -3607,16 +3613,16 @@
     </row>
     <row r="89" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B89" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>286</v>
+        <v>251</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>462</v>
+        <v>445</v>
       </c>
       <c r="E89" s="2" t="s">
         <v>197</v>
@@ -3624,13 +3630,13 @@
     </row>
     <row r="90" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>53</v>
+        <v>36</v>
       </c>
       <c r="B90" s="2" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
       <c r="C90" s="2" t="s">
-        <v>287</v>
+        <v>252</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" s="2" t="s">
@@ -3639,11 +3645,11 @@
     </row>
     <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B91" s="2"/>
       <c r="C91" s="2" t="s">
-        <v>208</v>
+        <v>253</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" s="2" t="s">
@@ -3652,25 +3658,25 @@
     </row>
     <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2" t="s">
-        <v>17</v>
+        <v>37</v>
       </c>
       <c r="B92" s="2"/>
       <c r="C92" s="2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>424</v>
+        <v>446</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="93" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
-        <v>75</v>
+        <v>38</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>154</v>
+        <v>134</v>
       </c>
       <c r="C93" s="2"/>
       <c r="D93" s="2"/>
@@ -3678,10 +3684,10 @@
     </row>
     <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>151</v>
+        <v>135</v>
       </c>
       <c r="C94" s="2"/>
       <c r="D94" s="2"/>
@@ -3689,13 +3695,13 @@
     </row>
     <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>303</v>
+        <v>255</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" s="2" t="s">
@@ -3704,16 +3710,16 @@
     </row>
     <row r="96" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>304</v>
+        <v>256</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>471</v>
+        <v>447</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>194</v>
@@ -3721,13 +3727,13 @@
     </row>
     <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>305</v>
+        <v>257</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" s="2" t="s">
@@ -3736,16 +3742,16 @@
     </row>
     <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>306</v>
+        <v>258</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>472</v>
+        <v>448</v>
       </c>
       <c r="E98" s="2" t="s">
         <v>194</v>
@@ -3753,13 +3759,13 @@
     </row>
     <row r="99" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
-        <v>63</v>
+        <v>40</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>147</v>
+        <v>136</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>307</v>
+        <v>259</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" s="2" t="s">
@@ -3768,16 +3774,16 @@
     </row>
     <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
-        <v>88</v>
+        <v>41</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>164</v>
+        <v>137</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>342</v>
+        <v>260</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E100" s="2" t="s">
         <v>198</v>
@@ -3785,16 +3791,16 @@
     </row>
     <row r="101" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>488</v>
+        <v>449</v>
       </c>
       <c r="E101" s="2" t="s">
         <v>198</v>
@@ -3802,10 +3808,10 @@
     </row>
     <row r="102" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C102" s="2" t="s">
         <v>190</v>
@@ -3817,13 +3823,13 @@
     </row>
     <row r="103" spans="1:5" ht="270" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>332</v>
+        <v>262</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
@@ -3832,14 +3838,14 @@
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A104" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B104" s="2"/>
       <c r="C104" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>478</v>
+        <v>450</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>176</v>
@@ -3847,7 +3853,7 @@
     </row>
     <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2" t="s">
-        <v>76</v>
+        <v>43</v>
       </c>
       <c r="B105" s="2"/>
       <c r="C105" s="2" t="s">
@@ -3860,10 +3866,10 @@
     </row>
     <row r="106" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>132</v>
+        <v>139</v>
       </c>
       <c r="C106" s="2"/>
       <c r="D106" s="2"/>
@@ -3871,10 +3877,10 @@
     </row>
     <row r="107" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>131</v>
+        <v>140</v>
       </c>
       <c r="C107" s="2"/>
       <c r="D107" s="2"/>
@@ -3882,11 +3888,11 @@
     </row>
     <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2" t="s">
-        <v>29</v>
+        <v>46</v>
       </c>
       <c r="B108" s="2"/>
       <c r="C108" s="2" t="s">
-        <v>230</v>
+        <v>263</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
@@ -3895,16 +3901,16 @@
     </row>
     <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>327</v>
+        <v>264</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>486</v>
+        <v>451</v>
       </c>
       <c r="E109" s="2" t="s">
         <v>198</v>
@@ -3912,13 +3918,13 @@
     </row>
     <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>328</v>
+        <v>265</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
@@ -3927,16 +3933,16 @@
     </row>
     <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>329</v>
+        <v>266</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>487</v>
+        <v>452</v>
       </c>
       <c r="E111" s="2" t="s">
         <v>197</v>
@@ -3944,13 +3950,13 @@
     </row>
     <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
-        <v>83</v>
+        <v>47</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>160</v>
+        <v>141</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>330</v>
+        <v>267</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" s="2" t="s">
@@ -3959,13 +3965,13 @@
     </row>
     <row r="113" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A113" s="2" t="s">
-        <v>28</v>
+        <v>48</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>122</v>
+        <v>142</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>229</v>
+        <v>268</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" s="2" t="s">
@@ -3974,16 +3980,16 @@
     </row>
     <row r="114" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>251</v>
+        <v>269</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>442</v>
+        <v>453</v>
       </c>
       <c r="E114" s="2" t="s">
         <v>197</v>
@@ -3991,16 +3997,16 @@
     </row>
     <row r="115" spans="1:5" ht="285" x14ac:dyDescent="0.25">
       <c r="A115" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>252</v>
+        <v>270</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>443</v>
+        <v>454</v>
       </c>
       <c r="E115" s="2" t="s">
         <v>198</v>
@@ -4008,16 +4014,16 @@
     </row>
     <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>253</v>
+        <v>271</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>444</v>
+        <v>455</v>
       </c>
       <c r="E116" s="2" t="s">
         <v>518</v>
@@ -4025,13 +4031,13 @@
     </row>
     <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>254</v>
+        <v>272</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
@@ -4040,13 +4046,13 @@
     </row>
     <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
-        <v>40</v>
+        <v>49</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>129</v>
+        <v>143</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>255</v>
+        <v>273</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
@@ -4055,7 +4061,7 @@
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2" t="s">
-        <v>23</v>
+        <v>50</v>
       </c>
       <c r="B119" s="2"/>
       <c r="C119" s="2"/>
@@ -4067,7 +4073,7 @@
         <v>8</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C120" s="2" t="s">
         <v>176</v>
@@ -4082,7 +4088,7 @@
         <v>8</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C121" s="2" t="s">
         <v>177</v>
@@ -4097,13 +4103,13 @@
         <v>8</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C122" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E122" s="2" t="s">
         <v>198</v>
@@ -4114,7 +4120,7 @@
         <v>8</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C123" s="2" t="s">
         <v>185</v>
@@ -4126,10 +4132,10 @@
     </row>
     <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
-        <v>92</v>
+        <v>51</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>165</v>
+        <v>144</v>
       </c>
       <c r="C124" s="2"/>
       <c r="D124" s="2"/>
@@ -4137,10 +4143,10 @@
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C125" s="2" t="s">
         <v>191</v>
@@ -4152,10 +4158,10 @@
     </row>
     <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C126" s="2" t="s">
         <v>177</v>
@@ -4167,13 +4173,13 @@
     </row>
     <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" s="2" t="s">
@@ -4182,13 +4188,13 @@
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" s="2" t="s">
@@ -4197,13 +4203,13 @@
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" s="2" t="s">
@@ -4212,13 +4218,13 @@
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" s="2" t="s">
@@ -4227,13 +4233,13 @@
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" s="2" t="s">
@@ -4242,16 +4248,16 @@
     </row>
     <row r="132" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A132" s="2" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>136</v>
+        <v>145</v>
       </c>
       <c r="C132" s="2" t="s">
         <v>107</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>194</v>
@@ -4259,10 +4265,10 @@
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2" t="s">
-        <v>89</v>
+        <v>53</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
@@ -4270,10 +4276,10 @@
     </row>
     <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
-        <v>66</v>
+        <v>54</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="C134" s="2"/>
       <c r="D134" s="2"/>
@@ -4281,13 +4287,13 @@
     </row>
     <row r="135" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" s="2" t="s">
@@ -4296,16 +4302,16 @@
     </row>
     <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>198</v>
@@ -4313,16 +4319,16 @@
     </row>
     <row r="137" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>198</v>
@@ -4330,16 +4336,16 @@
     </row>
     <row r="138" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>138</v>
+        <v>147</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>192</v>
@@ -4347,10 +4353,10 @@
     </row>
     <row r="139" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C139" s="2" t="s">
         <v>177</v>
@@ -4362,16 +4368,16 @@
     </row>
     <row r="140" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C140" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E140" s="2" t="s">
         <v>176</v>
@@ -4379,13 +4385,13 @@
     </row>
     <row r="141" spans="1:5" ht="225" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>289</v>
+        <v>215</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" s="2" t="s">
@@ -4394,11 +4400,11 @@
     </row>
     <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B142" s="2"/>
       <c r="C142" s="2" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" s="2" t="s">
@@ -4407,11 +4413,11 @@
     </row>
     <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B143" s="2"/>
       <c r="C143" s="2" t="s">
-        <v>200</v>
+        <v>284</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" s="2" t="s">
@@ -4420,11 +4426,11 @@
     </row>
     <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B144" s="2"/>
       <c r="C144" s="2" t="s">
-        <v>201</v>
+        <v>285</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" s="2" t="s">
@@ -4433,7 +4439,7 @@
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B145" s="2"/>
       <c r="C145" s="2" t="s">
@@ -4446,11 +4452,11 @@
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>13</v>
+        <v>57</v>
       </c>
       <c r="B146" s="2"/>
       <c r="C146" s="2" t="s">
-        <v>202</v>
+        <v>286</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" s="2" t="s">
@@ -4468,7 +4474,7 @@
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
-        <v>11</v>
+        <v>58</v>
       </c>
       <c r="B148" s="2"/>
       <c r="C148" s="2" t="s">
@@ -4481,10 +4487,10 @@
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B149" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
@@ -4492,7 +4498,7 @@
     </row>
     <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B150" s="2"/>
       <c r="C150" s="2" t="s">
@@ -4500,12 +4506,12 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>519</v>
+        <v>522</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B151" s="2"/>
       <c r="C151" s="2" t="s">
@@ -4518,14 +4524,14 @@
     </row>
     <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B152" s="2"/>
       <c r="C152" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D152" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E152" s="2" t="s">
         <v>198</v>
@@ -4533,11 +4539,11 @@
     </row>
     <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B153" s="2"/>
       <c r="C153" s="2" t="s">
-        <v>204</v>
+        <v>287</v>
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
@@ -4546,11 +4552,11 @@
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2" t="s">
-        <v>15</v>
+        <v>60</v>
       </c>
       <c r="B154" s="2"/>
       <c r="C154" s="2" t="s">
-        <v>205</v>
+        <v>288</v>
       </c>
       <c r="D154" s="2"/>
       <c r="E154" s="2" t="s">
@@ -4583,7 +4589,7 @@
         <v>178</v>
       </c>
       <c r="D156" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E156" s="2" t="s">
         <v>198</v>
@@ -4600,7 +4606,7 @@
         <v>187</v>
       </c>
       <c r="D157" s="2" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="E157" s="2" t="s">
         <v>194</v>
@@ -4757,16 +4763,16 @@
     </row>
     <row r="169" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C169" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>198</v>
@@ -4774,10 +4780,10 @@
     </row>
     <row r="170" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C170" s="2" t="s">
         <v>191</v>
@@ -4789,10 +4795,10 @@
     </row>
     <row r="171" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C171" s="2" t="s">
         <v>186</v>
@@ -4804,13 +4810,13 @@
     </row>
     <row r="172" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C172" s="2" t="s">
-        <v>308</v>
+        <v>289</v>
       </c>
       <c r="D172" s="2"/>
       <c r="E172" s="2" t="s">
@@ -4819,16 +4825,16 @@
     </row>
     <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B173" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>309</v>
+        <v>290</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>473</v>
+        <v>460</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>197</v>
@@ -4836,13 +4842,13 @@
     </row>
     <row r="174" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B174" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>310</v>
+        <v>291</v>
       </c>
       <c r="D174" s="2"/>
       <c r="E174" s="2" t="s">
@@ -4851,13 +4857,13 @@
     </row>
     <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="B175" s="2" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C175" s="2" t="s">
-        <v>311</v>
+        <v>292</v>
       </c>
       <c r="D175" s="2"/>
       <c r="E175" s="2" t="s">
@@ -4866,10 +4872,10 @@
     </row>
     <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B176" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C176" s="2" t="s">
         <v>191</v>
@@ -4881,16 +4887,16 @@
     </row>
     <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B177" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C177" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D177" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E177" s="2" t="s">
         <v>198</v>
@@ -4898,10 +4904,10 @@
     </row>
     <row r="178" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>25</v>
+        <v>62</v>
       </c>
       <c r="B178" s="2" t="s">
-        <v>121</v>
+        <v>150</v>
       </c>
       <c r="C178" s="2" t="s">
         <v>186</v>
@@ -4913,13 +4919,13 @@
     </row>
     <row r="179" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B179" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>333</v>
+        <v>208</v>
       </c>
       <c r="D179" s="2"/>
       <c r="E179" s="2" t="s">
@@ -4928,13 +4934,13 @@
     </row>
     <row r="180" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B180" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>343</v>
+        <v>293</v>
       </c>
       <c r="D180" s="2"/>
       <c r="E180" s="2" t="s">
@@ -4943,13 +4949,13 @@
     </row>
     <row r="181" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B181" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C181" s="2" t="s">
-        <v>344</v>
+        <v>294</v>
       </c>
       <c r="D181" s="2"/>
       <c r="E181" s="2" t="s">
@@ -4958,13 +4964,13 @@
     </row>
     <row r="182" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="B182" s="2" t="s">
-        <v>166</v>
+        <v>151</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>93</v>
+        <v>63</v>
       </c>
       <c r="D182" s="2"/>
       <c r="E182" s="2" t="s">
@@ -4973,16 +4979,16 @@
     </row>
     <row r="183" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B183" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C183" s="2" t="s">
-        <v>317</v>
+        <v>295</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>477</v>
+        <v>461</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>195</v>
@@ -4990,13 +4996,13 @@
     </row>
     <row r="184" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="B184" s="2" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="C184" s="2" t="s">
-        <v>318</v>
+        <v>296</v>
       </c>
       <c r="D184" s="2"/>
       <c r="E184" s="2" t="s">
@@ -5005,13 +5011,13 @@
     </row>
     <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>19</v>
+        <v>65</v>
       </c>
       <c r="B185" s="2" t="s">
-        <v>119</v>
+        <v>153</v>
       </c>
       <c r="C185" s="2" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="D185" s="2"/>
       <c r="E185" s="2" t="s">
@@ -5020,29 +5026,29 @@
     </row>
     <row r="186" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>206</v>
+        <v>298</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>422</v>
+        <v>462</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>16</v>
+        <v>66</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>207</v>
+        <v>299</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>423</v>
+        <v>463</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>198</v>
@@ -5488,7 +5494,7 @@
     </row>
     <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>36</v>
+        <v>67</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2"/>
@@ -5497,10 +5503,10 @@
     </row>
     <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2" t="s">
-        <v>96</v>
+        <v>68</v>
       </c>
       <c r="B221" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
@@ -5508,10 +5514,10 @@
     </row>
     <row r="222" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>142</v>
+        <v>155</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -5519,33 +5525,33 @@
     </row>
     <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A223" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C223" s="2" t="s">
-        <v>364</v>
+        <v>300</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="224" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A224" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C224" s="2" t="s">
-        <v>365</v>
+        <v>301</v>
       </c>
       <c r="D224" s="2" t="s">
-        <v>506</v>
+        <v>464</v>
       </c>
       <c r="E224" s="2" t="s">
         <v>197</v>
@@ -5553,13 +5559,13 @@
     </row>
     <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A225" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C225" s="2" t="s">
-        <v>366</v>
+        <v>302</v>
       </c>
       <c r="D225" s="2"/>
       <c r="E225" s="2" t="s">
@@ -5568,16 +5574,16 @@
     </row>
     <row r="226" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A226" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C226" s="2" t="s">
-        <v>367</v>
+        <v>303</v>
       </c>
       <c r="D226" s="2" t="s">
-        <v>507</v>
+        <v>465</v>
       </c>
       <c r="E226" s="2" t="s">
         <v>198</v>
@@ -5585,16 +5591,16 @@
     </row>
     <row r="227" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C227" s="2" t="s">
-        <v>368</v>
+        <v>304</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>508</v>
+        <v>466</v>
       </c>
       <c r="E227" s="2" t="s">
         <v>194</v>
@@ -5602,16 +5608,16 @@
     </row>
     <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C228" s="2" t="s">
-        <v>369</v>
+        <v>305</v>
       </c>
       <c r="D228" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E228" s="2" t="s">
         <v>194</v>
@@ -5619,16 +5625,16 @@
     </row>
     <row r="229" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C229" s="2" t="s">
-        <v>370</v>
+        <v>306</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E229" s="2" t="s">
         <v>194</v>
@@ -5636,10 +5642,10 @@
     </row>
     <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>191</v>
@@ -5651,16 +5657,16 @@
     </row>
     <row r="231" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E231" s="2" t="s">
         <v>198</v>
@@ -5668,10 +5674,10 @@
     </row>
     <row r="232" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>186</v>
@@ -5683,13 +5689,13 @@
     </row>
     <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C233" s="2" t="s">
-        <v>371</v>
+        <v>307</v>
       </c>
       <c r="D233" s="2"/>
       <c r="E233" s="2" t="s">
@@ -5698,16 +5704,16 @@
     </row>
     <row r="234" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C234" s="2" t="s">
-        <v>372</v>
+        <v>308</v>
       </c>
       <c r="D234" s="2" t="s">
-        <v>509</v>
+        <v>467</v>
       </c>
       <c r="E234" s="2" t="s">
         <v>518</v>
@@ -5715,13 +5721,13 @@
     </row>
     <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C235" s="2" t="s">
-        <v>373</v>
+        <v>309</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
@@ -5730,16 +5736,16 @@
     </row>
     <row r="236" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>172</v>
+        <v>156</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>374</v>
+        <v>310</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>510</v>
+        <v>468</v>
       </c>
       <c r="E236" s="2" t="s">
         <v>197</v>
@@ -5747,13 +5753,13 @@
     </row>
     <row r="237" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>209</v>
+        <v>254</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" s="2" t="s">
@@ -5762,16 +5768,16 @@
     </row>
     <row r="238" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>256</v>
+        <v>311</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>445</v>
+        <v>469</v>
       </c>
       <c r="E238" s="2" t="s">
         <v>195</v>
@@ -5779,16 +5785,16 @@
     </row>
     <row r="239" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>257</v>
+        <v>312</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>195</v>
@@ -5796,16 +5802,16 @@
     </row>
     <row r="240" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>258</v>
+        <v>313</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>446</v>
+        <v>470</v>
       </c>
       <c r="E240" s="2" t="s">
         <v>195</v>
@@ -5813,16 +5819,16 @@
     </row>
     <row r="241" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>41</v>
+        <v>71</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>130</v>
+        <v>157</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>259</v>
+        <v>314</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>447</v>
+        <v>471</v>
       </c>
       <c r="E241" s="2" t="s">
         <v>518</v>
@@ -5830,10 +5836,10 @@
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>35</v>
+        <v>72</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
@@ -5841,10 +5847,10 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>54</v>
+        <v>73</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
@@ -5852,10 +5858,10 @@
     </row>
     <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
@@ -5863,16 +5869,16 @@
     </row>
     <row r="245" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>55</v>
+        <v>75</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>141</v>
+        <v>158</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>288</v>
+        <v>315</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>463</v>
+        <v>472</v>
       </c>
       <c r="E245" s="2" t="s">
         <v>197</v>
@@ -5880,16 +5886,16 @@
     </row>
     <row r="246" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>345</v>
+        <v>316</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>490</v>
+        <v>473</v>
       </c>
       <c r="E246" s="2" t="s">
         <v>518</v>
@@ -5897,16 +5903,16 @@
     </row>
     <row r="247" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>346</v>
+        <v>317</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>491</v>
+        <v>474</v>
       </c>
       <c r="E247" s="2" t="s">
         <v>518</v>
@@ -5914,16 +5920,16 @@
     </row>
     <row r="248" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>347</v>
+        <v>318</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>492</v>
+        <v>475</v>
       </c>
       <c r="E248" s="2" t="s">
         <v>518</v>
@@ -5931,16 +5937,16 @@
     </row>
     <row r="249" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>348</v>
+        <v>319</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>493</v>
+        <v>476</v>
       </c>
       <c r="E249" s="2" t="s">
         <v>518</v>
@@ -5948,13 +5954,13 @@
     </row>
     <row r="250" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>349</v>
+        <v>320</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2" t="s">
@@ -5963,16 +5969,16 @@
     </row>
     <row r="251" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>350</v>
+        <v>321</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>494</v>
+        <v>477</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>518</v>
@@ -5980,16 +5986,16 @@
     </row>
     <row r="252" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>351</v>
+        <v>322</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>495</v>
+        <v>478</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>197</v>
@@ -5997,16 +6003,16 @@
     </row>
     <row r="253" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>97</v>
+        <v>76</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>331</v>
+        <v>261</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>496</v>
+        <v>479</v>
       </c>
       <c r="E253" s="2" t="s">
         <v>198</v>
@@ -6014,7 +6020,7 @@
     </row>
     <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>68</v>
+        <v>77</v>
       </c>
       <c r="B254" s="2"/>
       <c r="C254" s="2"/>
@@ -6023,16 +6029,16 @@
     </row>
     <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>293</v>
+        <v>323</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>467</v>
+        <v>480</v>
       </c>
       <c r="E255" s="2" t="s">
         <v>192</v>
@@ -6040,16 +6046,16 @@
     </row>
     <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C256" s="2" t="s">
-        <v>294</v>
+        <v>324</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E256" s="2" t="s">
         <v>192</v>
@@ -6057,13 +6063,13 @@
     </row>
     <row r="257" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C257" s="2" t="s">
-        <v>295</v>
+        <v>325</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" s="2" t="s">
@@ -6072,16 +6078,16 @@
     </row>
     <row r="258" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C258" s="2" t="s">
-        <v>296</v>
+        <v>326</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>192</v>
@@ -6089,16 +6095,16 @@
     </row>
     <row r="259" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C259" s="2" t="s">
-        <v>297</v>
+        <v>327</v>
       </c>
       <c r="D259" s="2" t="s">
-        <v>468</v>
+        <v>481</v>
       </c>
       <c r="E259" s="2" t="s">
         <v>192</v>
@@ -6106,16 +6112,16 @@
     </row>
     <row r="260" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>61</v>
+        <v>78</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="C260" s="2" t="s">
-        <v>298</v>
+        <v>328</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>469</v>
+        <v>482</v>
       </c>
       <c r="E260" s="2" t="s">
         <v>198</v>
@@ -6123,16 +6129,16 @@
     </row>
     <row r="261" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B261" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C261" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E261" s="2" t="s">
         <v>198</v>
@@ -6140,10 +6146,10 @@
     </row>
     <row r="262" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B262" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C262" s="2" t="s">
         <v>191</v>
@@ -6155,10 +6161,10 @@
     </row>
     <row r="263" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="B263" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="C263" s="2" t="s">
         <v>186</v>
@@ -6170,10 +6176,10 @@
     </row>
     <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>64</v>
+        <v>79</v>
       </c>
       <c r="B264" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
@@ -6181,16 +6187,16 @@
     </row>
     <row r="265" spans="1:5" ht="195" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C265" s="2" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>497</v>
+        <v>483</v>
       </c>
       <c r="E265" s="2" t="s">
         <v>197</v>
@@ -6198,16 +6204,16 @@
     </row>
     <row r="266" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C266" s="2" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>498</v>
+        <v>484</v>
       </c>
       <c r="E266" s="2" t="s">
         <v>194</v>
@@ -6215,16 +6221,16 @@
     </row>
     <row r="267" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C267" s="2" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>499</v>
+        <v>485</v>
       </c>
       <c r="E267" s="2" t="s">
         <v>193</v>
@@ -6232,16 +6238,16 @@
     </row>
     <row r="268" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C268" s="2" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>500</v>
+        <v>486</v>
       </c>
       <c r="E268" s="2" t="s">
         <v>194</v>
@@ -6249,16 +6255,16 @@
     </row>
     <row r="269" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C269" s="2" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>198</v>
@@ -6266,16 +6272,16 @@
     </row>
     <row r="270" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C270" s="2" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>501</v>
+        <v>487</v>
       </c>
       <c r="E270" s="2" t="s">
         <v>194</v>
@@ -6283,13 +6289,13 @@
     </row>
     <row r="271" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C271" s="2" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
       <c r="D271" s="2"/>
       <c r="E271" s="2" t="s">
@@ -6298,16 +6304,16 @@
     </row>
     <row r="272" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>98</v>
+        <v>80</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>170</v>
+        <v>161</v>
       </c>
       <c r="C272" s="2" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>502</v>
+        <v>488</v>
       </c>
       <c r="E272" s="2" t="s">
         <v>198</v>
@@ -6315,10 +6321,10 @@
     </row>
     <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>70</v>
+        <v>81</v>
       </c>
       <c r="B273" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
@@ -6326,16 +6332,16 @@
     </row>
     <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C274" s="2" t="s">
-        <v>269</v>
+        <v>337</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>198</v>
@@ -6343,28 +6349,28 @@
     </row>
     <row r="275" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C275" s="2" t="s">
-        <v>270</v>
+        <v>338</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2" t="s">
-        <v>520</v>
+        <v>521</v>
       </c>
     </row>
     <row r="276" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>46</v>
+        <v>82</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>134</v>
+        <v>162</v>
       </c>
       <c r="C276" s="2" t="s">
-        <v>271</v>
+        <v>339</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" s="2" t="s">
@@ -6373,13 +6379,13 @@
     </row>
     <row r="277" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C277" s="2" t="s">
-        <v>235</v>
+        <v>340</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" s="2" t="s">
@@ -6388,16 +6394,16 @@
     </row>
     <row r="278" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>32</v>
+        <v>83</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>123</v>
+        <v>163</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E278" s="2" t="s">
         <v>198</v>
@@ -6405,13 +6411,13 @@
     </row>
     <row r="279" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C279" s="2" t="s">
-        <v>300</v>
+        <v>200</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2" t="s">
@@ -6420,13 +6426,13 @@
     </row>
     <row r="280" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>159</v>
+        <v>164</v>
       </c>
       <c r="C280" s="2" t="s">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2" t="s">
@@ -6435,10 +6441,10 @@
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="B281" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
@@ -6455,7 +6461,7 @@
     </row>
     <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
@@ -6468,16 +6474,16 @@
     </row>
     <row r="284" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>14</v>
+        <v>87</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>117</v>
+        <v>165</v>
       </c>
       <c r="C284" s="2" t="s">
-        <v>203</v>
+        <v>341</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E284" s="2" t="s">
         <v>198</v>
@@ -6485,16 +6491,16 @@
     </row>
     <row r="285" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E285" s="2" t="s">
         <v>198</v>
@@ -6502,13 +6508,13 @@
     </row>
     <row r="286" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C286" s="2" t="s">
-        <v>319</v>
+        <v>342</v>
       </c>
       <c r="D286" s="2" t="s">
         <v>537</v>
@@ -6519,16 +6525,16 @@
     </row>
     <row r="287" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C287" s="2" t="s">
-        <v>320</v>
+        <v>343</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>479</v>
+        <v>489</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>194</v>
@@ -6536,16 +6542,16 @@
     </row>
     <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C288" s="2" t="s">
-        <v>321</v>
+        <v>344</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>192</v>
@@ -6553,16 +6559,16 @@
     </row>
     <row r="289" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C289" s="2" t="s">
-        <v>322</v>
+        <v>345</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>481</v>
+        <v>491</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>197</v>
@@ -6570,16 +6576,16 @@
     </row>
     <row r="290" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C290" s="2" t="s">
-        <v>323</v>
+        <v>346</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>482</v>
+        <v>492</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>197</v>
@@ -6587,16 +6593,16 @@
     </row>
     <row r="291" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>483</v>
+        <v>493</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>192</v>
@@ -6604,16 +6610,16 @@
     </row>
     <row r="292" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>77</v>
+        <v>88</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>155</v>
+        <v>166</v>
       </c>
       <c r="C292" s="2" t="s">
-        <v>324</v>
+        <v>347</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>523</v>
@@ -6621,16 +6627,16 @@
     </row>
     <row r="293" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>449</v>
+        <v>495</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>198</v>
@@ -6638,16 +6644,16 @@
     </row>
     <row r="294" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C294" s="2" t="s">
-        <v>262</v>
+        <v>348</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>450</v>
+        <v>496</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>523</v>
@@ -6655,16 +6661,16 @@
     </row>
     <row r="295" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C295" s="2" t="s">
-        <v>263</v>
+        <v>349</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>451</v>
+        <v>497</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>523</v>
@@ -6672,16 +6678,16 @@
     </row>
     <row r="296" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C296" s="2" t="s">
-        <v>264</v>
+        <v>350</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>452</v>
+        <v>498</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>197</v>
@@ -6689,13 +6695,13 @@
     </row>
     <row r="297" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C297" s="2" t="s">
-        <v>265</v>
+        <v>351</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" s="2" t="s">
@@ -6704,13 +6710,13 @@
     </row>
     <row r="298" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C298" s="2" t="s">
-        <v>266</v>
+        <v>352</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" s="2" t="s">
@@ -6719,13 +6725,13 @@
     </row>
     <row r="299" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C299" s="2" t="s">
-        <v>267</v>
+        <v>353</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" s="2" t="s">
@@ -6734,13 +6740,13 @@
     </row>
     <row r="300" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>133</v>
+        <v>167</v>
       </c>
       <c r="C300" s="2" t="s">
-        <v>268</v>
+        <v>354</v>
       </c>
       <c r="D300" s="2"/>
       <c r="E300" s="2" t="s">
@@ -6749,13 +6755,13 @@
     </row>
     <row r="301" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C301" s="2" t="s">
-        <v>212</v>
+        <v>355</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" s="2" t="s">
@@ -6764,47 +6770,47 @@
     </row>
     <row r="302" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C302" s="2" t="s">
-        <v>213</v>
+        <v>356</v>
       </c>
       <c r="D302" s="2" t="s">
         <v>538</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="303" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C303" s="2" t="s">
-        <v>214</v>
+        <v>357</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>425</v>
+        <v>499</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>521</v>
+        <v>524</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C304" s="2" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" s="2" t="s">
@@ -6813,16 +6819,16 @@
     </row>
     <row r="305" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C305" s="2" t="s">
-        <v>215</v>
+        <v>358</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>197</v>
@@ -6830,16 +6836,16 @@
     </row>
     <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C306" s="2" t="s">
-        <v>216</v>
+        <v>359</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>427</v>
+        <v>501</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>198</v>
@@ -6847,13 +6853,13 @@
     </row>
     <row r="307" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C307" s="2" t="s">
-        <v>69</v>
+        <v>39</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" s="2" t="s">
@@ -6862,16 +6868,16 @@
     </row>
     <row r="308" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C308" s="2" t="s">
-        <v>217</v>
+        <v>360</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>194</v>
@@ -6879,13 +6885,13 @@
     </row>
     <row r="309" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C309" s="2" t="s">
-        <v>218</v>
+        <v>361</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" s="2" t="s">
@@ -6894,13 +6900,13 @@
     </row>
     <row r="310" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C310" s="2" t="s">
-        <v>219</v>
+        <v>362</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" s="2" t="s">
@@ -6909,16 +6915,16 @@
     </row>
     <row r="311" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>21</v>
+        <v>90</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>120</v>
+        <v>168</v>
       </c>
       <c r="C311" s="2" t="s">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>429</v>
+        <v>503</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>197</v>
@@ -6926,16 +6932,16 @@
     </row>
     <row r="312" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B312" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C312" s="2" t="s">
-        <v>315</v>
+        <v>364</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>475</v>
+        <v>504</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>194</v>
@@ -6943,16 +6949,16 @@
     </row>
     <row r="313" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>73</v>
+        <v>91</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>316</v>
+        <v>365</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>476</v>
+        <v>505</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>198</v>
@@ -6960,10 +6966,10 @@
     </row>
     <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
@@ -6971,16 +6977,16 @@
     </row>
     <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>198</v>
@@ -6988,10 +6994,10 @@
     </row>
     <row r="316" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>176</v>
@@ -7003,16 +7009,16 @@
     </row>
     <row r="317" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>360</v>
+        <v>366</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>503</v>
+        <v>506</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>197</v>
@@ -7020,16 +7026,16 @@
     </row>
     <row r="318" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>361</v>
+        <v>367</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>504</v>
+        <v>507</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>194</v>
@@ -7037,13 +7043,13 @@
     </row>
     <row r="319" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>362</v>
+        <v>368</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" s="2" t="s">
@@ -7052,16 +7058,16 @@
     </row>
     <row r="320" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>363</v>
+        <v>369</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>518</v>
@@ -7069,10 +7075,10 @@
     </row>
     <row r="321" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>99</v>
+        <v>94</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>191</v>
@@ -7084,10 +7090,10 @@
     </row>
     <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="B322" s="2" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
@@ -7095,11 +7101,11 @@
     </row>
     <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B323" s="2"/>
       <c r="C323" s="2" t="s">
-        <v>221</v>
+        <v>370</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2" t="s">
@@ -7108,14 +7114,14 @@
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>22</v>
+        <v>96</v>
       </c>
       <c r="B324" s="2"/>
       <c r="C324" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D324" s="2" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="E324" s="2" t="s">
         <v>198</v>
@@ -7123,38 +7129,38 @@
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B325" s="2"/>
       <c r="C325" s="2" t="s">
-        <v>231</v>
+        <v>371</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>30</v>
+        <v>97</v>
       </c>
       <c r="B326" s="2"/>
       <c r="C326" s="2" t="s">
-        <v>232</v>
+        <v>372</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>430</v>
+        <v>509</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>38</v>
+        <v>98</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -7162,13 +7168,13 @@
     </row>
     <row r="328" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>18</v>
+        <v>99</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>118</v>
+        <v>172</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>210</v>
+        <v>297</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" s="2" t="s">
@@ -7321,16 +7327,16 @@
     </row>
     <row r="339" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>260</v>
+        <v>373</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>448</v>
+        <v>510</v>
       </c>
       <c r="E339" s="2" t="s">
         <v>518</v>
@@ -7338,13 +7344,13 @@
     </row>
     <row r="340" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>44</v>
+        <v>100</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>261</v>
+        <v>374</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" s="2" t="s">

--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1344" uniqueCount="540">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1317" uniqueCount="538">
   <si>
     <t>ClassName</t>
   </si>
@@ -379,8 +379,7 @@
 (WG approval 22/06/2018)</t>
   </si>
   <si>
-    <t>The provision which confers competence to adopt the act in question.
-(Pending to review by the WG)</t>
+    <t>The provision which confers competence to adopt the act in question.</t>
   </si>
   <si>
     <t>The value  provided for a criterion property.
@@ -391,8 +390,7 @@
 WG 12/09/2018</t>
   </si>
   <si>
-    <t>Members of an evaluation committee (e.g..: jury members) that take into account the requirements, specifications and conditions of the tenders in order to evaluate them. 
-(Pending to review by the WG)</t>
+    <t>Members of an evaluation committee (e.g..: jury members) that take into account the requirements, specifications and conditions of the tenders in order to evaluate them.</t>
   </si>
   <si>
     <t>Describes a rule or a condition to be taken into account for the award decision.
@@ -409,7 +407,7 @@
   </si>
   <si>
     <t>Organisation that manages the budget allocated for the procedure and pays for the items being procured.
-WG  14/11/2018</t>
+WG Approval  14/11/2018</t>
   </si>
   <si>
     <t>Website address where the buyer publishes information on its procurement procedures and general information.
@@ -420,8 +418,7 @@
 (WG approval 14/05/2017)</t>
   </si>
   <si>
-    <t>A call to potential providers of goods and/or services to register interest in supplying them. It is a document that describes a set of requirements or specifications and that service providers have to demonstrate their ability to meet those requirements. 
-(Pending to review by the WG)</t>
+    <t>A call to potential providers of goods and/or services to register interest in supplying them. It is a document that describes a set of requirements or specifications and that service providers have to demonstrate their ability to meet those requirements.</t>
   </si>
   <si>
     <t>The tenderers that have been selected in a two stage procedure.
@@ -437,12 +434,7 @@
 (WG approval 01/06/2018)</t>
   </si>
   <si>
-    <t>An announcement of the award or non-award of a contract by a procuring entity.
-(WG approval 27/03/2019 9:41:42)</t>
-  </si>
-  <si>
-    <t>An announcement of the modification of a contract/concession during during its term by a procuring entity.
-(Pending to review by the WG)</t>
+    <t>An announcement of the modification of a contract/concession during during its term by a procuring entity.</t>
   </si>
   <si>
     <t>An announcement of the launch of a procurement procedure by a procuring entity.
@@ -450,7 +442,10 @@
   </si>
   <si>
     <t>Conditions and stipulations defining particularities of the post award phase.
-(WG decision 23/11/2018)</t>
+(WG approval 23/11/2018)</t>
+  </si>
+  <si>
+    <t>Describes the object of the procurement and the properties of the procedure.</t>
   </si>
   <si>
     <t>An electronic system that is set up by a procuring entity which lists the economic operators that satisfy the selection and exclusion criteria.   This technique then allows the purchase via consultation of the listed tenderers using award criteria.
@@ -484,16 +479,13 @@
 WG Approval 2019-02-05</t>
   </si>
   <si>
-    <t>European Single Procurement Document Request. Specification by the Procuring Entity of the exclusion and selection criteria for a Procurement Procedure. 
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>European Single Procurement Document Response. The declaration of the Economic Operator that it meets all the exclusion and selection criteria specified in the ESPD Request.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The Evaluation Board publishes the result of tenders after completion of its evaluation.
-(Pending to review by the WG)</t>
+    <t>European Single Procurement Document Request. Specification by the Procuring Entity of the exclusion and selection criteria for a Procurement Procedure.</t>
+  </si>
+  <si>
+    <t>European Single Procurement Document Response. The declaration of the Economic Operator that it meets all the exclusion and selection criteria specified in the ESPD Request.</t>
+  </si>
+  <si>
+    <t>The Evaluation Board publishes the result of tenders after completion of its evaluation.</t>
   </si>
   <si>
     <t>An automated solution that assesses structured information in tenders and proposes results.
@@ -539,22 +531,17 @@
 Additional Information:
 The non-published information may become available at a later date and may differ from one element to another within a given document.
 Examples of fields that may not be immediately published are Winner, Tender and Procedure Lot Result, etc., e.g. for security reasons.
-WG Approve 16/05/2019</t>
-  </si>
-  <si>
-    <t>Notification or a formal declaration of someone's intention to end an agreement, typically one concerning employment or tenancy, at a specified time.
-(Pending to review by the WG)</t>
+WG Approval 16/05/2019</t>
+  </si>
+  <si>
+    <t>Notification or a formal declaration of someone's intention to end an agreement, typically one concerning employment or tenancy, at a specified time.</t>
   </si>
   <si>
     <t>The language(s) in which these procurement documents are officially available. These linguistic versions are equally legally valid.
-WG Approval 07/03/2019 15:31:58</t>
-  </si>
-  <si>
-    <t>(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Notice which sets out the contracting authority's purchasing intentions. It is used by contracting authorities to provide suppliers with information about a procurement process. 
-(Pending to review by the WG)</t>
+WG Approval 07/03/2019</t>
+  </si>
+  <si>
+    <t>Notice which sets out the contracting authority's purchasing intentions. It is used by contracting authorities to provide suppliers with information about a procurement process.</t>
   </si>
   <si>
     <t>A series of legally defined administrative steps conducted  to conclude one or more contracts.
@@ -569,8 +556,7 @@
 (WG approval 07/11/2018)</t>
   </si>
   <si>
-    <t>Statistical data on the procedure and the lot. Also used to emphasize the suitability of the procurement for the SMEs or other purposes.
-Pending to review by the WG</t>
+    <t>Statistical data on the procedure and the lot. Also used to emphasize the suitability of the procurement for the SMEs or other purposes.</t>
   </si>
   <si>
     <t>Monetary amount related to a procurement.
@@ -599,23 +585,21 @@
   <si>
     <t>Condition that aims to reduce the environmental impacts of the procurement, fulfil social objectives and/or buy an innovative work, supply or service.
 Additional Information: The conditions must be achieved via either  technical specifications, selection criteria, award criteria and contract terms.
-WG Approval 02/04/2019 15:39:57</t>
+WG Approval 02/04/2019</t>
   </si>
   <si>
     <t>A contract between a contractor of an original contract and another economic operator to fulfil the original contract.
 WG Approval 07/05/2019</t>
   </si>
   <si>
-    <t>A concept to describe the main information regarding the share of parts of the contract to third parties.
-(Pending to review by the WG)</t>
+    <t>A concept to describe the main information regarding the share of parts of the contract to third parties.</t>
   </si>
   <si>
     <t>Use of electronic submission.
-WG Approval 07/03/2019 16:45:58</t>
-  </si>
-  <si>
-    <t>Method by which a procurement contract is established.
-(Pending to review by the WG)</t>
+WG Approval 07/03/2019</t>
+  </si>
+  <si>
+    <t>Method by which a procurement contract is established.</t>
   </si>
   <si>
     <t>Information submitted by the economic operator to specify its offer regarding one or more lots or the whole procedure, in response to the call for tender.
@@ -627,7 +611,11 @@
   </si>
   <si>
     <t>The procurement documents (or their parts) are also available in the following languages. These versions are not an official translation, they are provided only for information.
-WG Approval 07/03/2019 15:33:37</t>
+WG Approval 07/03/2019</t>
+  </si>
+  <si>
+    <t>The tenderer to whom the contract is awarded.
+(WG approval 20/11/2018)</t>
   </si>
   <si>
     <t>A collection of people organized together into a community or other social, commercial or political structure. The group has some common purpose or reason for existence which goes beyond the set of people belonging to it and can act as an Agent. Organizations are often decomposable into hierarchical structures.
@@ -1382,12 +1370,11 @@
 Local</t>
   </si>
   <si>
-    <t>The category of the criterion whether it be concerned with the quality of the offer or the financial offer.
-(Pending to review by the WG)</t>
+    <t>The category of the criterion whether it be concerned with the quality of the offer or the financial offer.</t>
   </si>
   <si>
     <t>An indication whether any tenderer has been chosen for a contract or framework agreement.
-WG Approval 19/03/2019 15:57:43</t>
+WG Approval 19/03/2019</t>
   </si>
   <si>
     <t>The justification for using a procedure which allows directly awarding contracts.
@@ -1421,34 +1408,30 @@
     <t>The maximum number of contract extensions foreseen for this contract.</t>
   </si>
   <si>
-    <t>Indicates whether subsequent service contracts will be awarded to the winner or one of the winners of a design contest by a negotiated procedure without publication.
-(Pending to review by the WG)</t>
+    <t>Indicates whether subsequent service contracts will be awarded to the winner or one of the winners of a design contest by a negotiated procedure without publication.</t>
   </si>
   <si>
     <t>The particular conditions and additional information related to the execution of the contract.
 Additional Information: e.g. specific information about the place of performance, intermediary deliverables, compensation for damages, intellectual property rights.
-(WG approved 15-01-2019)</t>
-  </si>
-  <si>
-    <t>Electronic means are used for requesting and purchasing in the post-award process.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Electronic means are used for paying the winner of the contract in the post-award process.
-(Pending to review by the WG)</t>
+(WG approval 15-01-2019)</t>
+  </si>
+  <si>
+    <t>Electronic means are used for requesting and purchasing in the post-award process.</t>
+  </si>
+  <si>
+    <t>Electronic means are used for paying the winner of the contract in the post-award process.</t>
   </si>
   <si>
     <t>Any other information about the renewal(s).
-WG approval 16/04/2019 15:01:09</t>
+WG approval 16/04/2019</t>
   </si>
   <si>
     <t>A specific legal entity must be taken up by a tenderer composed of a group of economic operators once it has been awarded a contract.
 Additional information: this may be applied in the case of groups (e.g. a consortium) where the requirement is that they have to formalise the relationship of the group members as a legal entity itself once the contract is awarded.
-WG Approval 2019-01-29, 2019-01-30</t>
-  </si>
-  <si>
-    <t>A constraint concerning the legal form that must be adopted by a tenderer composed of a group of economic operators once it has been awarded a contract.
-CONCEPT UNDER DISCUSSION WITH eForms and WG</t>
+WG Approval 2019-01-29</t>
+  </si>
+  <si>
+    <t>A constraint concerning the legal form that must be adopted by a tenderer composed of a group of economic operators once it has been awarded a contract.</t>
   </si>
   <si>
     <t>Information about financial clauses that will govern some economic aspects of the execution of the contract.
@@ -1470,8 +1453,7 @@
   </si>
   <si>
     <t>Access to procurement document is restricted.
-The property Document.Restricted Access of type code is kept for now as it is interesting that a document confidentiality policy is self contained in the document but we need to address the consistency with the Access Restriction indicator property.
-To be reviewed (07/03/2019 15:40:05)</t>
+The property Document.Restricted Access of type code is kept for now as it is interesting that a document confidentiality policy is self contained in the document but we need to address the consistency with the Access Restriction indicator property.</t>
   </si>
   <si>
     <t>Closure of the DPS. 
@@ -1501,7 +1483,6 @@
   </si>
   <si>
     <t>The number of solutions or tenders will be reduced in iterative evaluations for multiple staged procedures.
-(Pending to review by the WG)
 Additional information:
 This refers to multiple-stage procedures (included two-stage procedures, at least). Open Procedures can be seen as one-stage procedures. In multiple-stage procedure the first stage (or round) is used for the selection of the candidates, whilst the rest of stages is about submitting tenders and warning (or not) about the right of the CA to award without further negotiations. See Article 29(4) of Directive 2014/24/EU.</t>
   </si>
@@ -1521,9 +1502,6 @@
 Overall award criteria Weight 20% Price, 60% Quality, 20% Cost</t>
   </si>
   <si>
-    <t>WG Approval 23-01-2019</t>
-  </si>
-  <si>
     <t>A country is one of the political units which the world is divided into, covering a particular area of land.
 (WG approval 8/06/2018)</t>
   </si>
@@ -1533,8 +1511,7 @@
 WG Approval 2019-05-06</t>
   </si>
   <si>
-    <t>In the case of a framework agreement, the reasons for any duration exceeding four years.
-(Pending to review by the WG)</t>
+    <t>In the case of a framework agreement, the reasons for any duration exceeding four years.</t>
   </si>
   <si>
     <t>Maximum number of tenderers who may be awarded a contract within the framework agreement.
@@ -1542,23 +1519,25 @@
 WG Approval 2019-02-05</t>
   </si>
   <si>
-    <t>The participation is reserved to organisations pursuing a public service mission and fulfilling other relevant conditions in the legislation.
-WG TBD</t>
-  </si>
-  <si>
-    <t>The date when a record is made publically available.
+    <t>The participation is reserved to organisations pursuing a public service mission and fulfilling other relevant conditions in the legislation.</t>
+  </si>
+  <si>
+    <t>The date when a record is made publicly available.
 (WG approval 01/06/2018)</t>
   </si>
   <si>
     <t>Date and time for the opening of tenders.
-WG Approval 12/03/2019 16:11:39</t>
-  </si>
-  <si>
-    <t>Further information about the opening of tenders. (For example, who may participate in the opening and whether any authorisation is needed.)
-WG Approval 12/03/2019 16:10:50</t>
-  </si>
-  <si>
-    <t>Specifies whether the GPA applies.
+WG Approval 12/03/2019</t>
+  </si>
+  <si>
+    <t>Further information about the opening of tenders. (For example, who may participate in the opening and whether any authorization is needed.)
+WG Approval 12/03/2019</t>
+  </si>
+  <si>
+    <t>Explanation about why the choice of an accelerated procedure is lawful.</t>
+  </si>
+  <si>
+    <t>Specifies whether the Agreement on Government Procurement (GPA) applies.
 Additional information: the GPA aims to establish a multilateral framework of balanced rights and obligations relating to public contracts with a view to achieving the liberalization and expansion of world trade.
 Reason: the ISO/IEC 11179 Recommends not to over-define the terms but instead to separate extra information when the general concept (in this case GPA) is not defined in the glossary.</t>
   </si>
@@ -1570,8 +1549,8 @@
 (WG approval 01/06/2018)</t>
   </si>
   <si>
-    <t>The total number of lots for which one tenderer can submit tenders..
-(WG decision 12/12/2018)</t>
+    <t>The total number of lots for which one tenderer can submit tenders.
+(WG approval 12/12/2018)</t>
   </si>
   <si>
     <t>No further contracts will be awarded in this competition.
@@ -1579,69 +1558,59 @@
 Additional Information: PIN for Competition and DPS, for example, are cases where the termination needs to be signaled.</t>
   </si>
   <si>
-    <t>Estimated time of transmission of invitation to submit tenders.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Time limit for receipt of expressions of interest.
-(Pending to review by the WG)</t>
+    <t>Estimated time of transmission of invitation to submit tenders.</t>
+  </si>
+  <si>
+    <t>Time limit for receipt of expressions of interest.</t>
   </si>
   <si>
     <t>The total number of lots for which contract(s) can be awarded to one tenderer.
-(WG Decision 12/12/2018)</t>
-  </si>
-  <si>
-    <t>Indicates whether the procurement documents are electronically available for unrestricted and full direct access, free of charge.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The amount of bids received by the buyer from economic operators from other EU countries.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The amount of applications to participate from economic operators.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The amount of bids submitted by tenders.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The winning tenderer has submited multiple additional proposals in response to a given set of requirements specified by the buyer in the procurement documents.
-(Pending to review by the WG)</t>
+(WG Approval 12/12/2018)</t>
+  </si>
+  <si>
+    <t>Indicates whether the procurement documents are electronically available for unrestricted and full direct access, free of charge.</t>
+  </si>
+  <si>
+    <t>The amount of bids received by the buyer from economic operators from other EU countries.</t>
+  </si>
+  <si>
+    <t>The amount of applications to participate from economic operators.</t>
+  </si>
+  <si>
+    <t>The amount of bids submitted by tenders.</t>
+  </si>
+  <si>
+    <t>The winning tenderer has submitted multiple additional proposals in response to a given set of requirements specified by the buyer in the procurement documents.</t>
   </si>
   <si>
     <t>The number of economic operators that requested the buyer to review any of its decisions (e.g. the technical specifications, award decision), as set out in Art. 1(5) of Directive 89/665/EEC and Directive 92/13/EEC.
-WG Approval 11/04/2019 15:58:37</t>
+WG Approval 11/04/2019</t>
   </si>
   <si>
     <t>The buyer emphasizes that this procurement is also suitable for small and medium enterprises (SMEs).
-WG Approval 11/04/2019 16:04:43</t>
+WG Approval 11/04/2019</t>
   </si>
   <si>
     <t>Any information not mentioned elsewhere.
-WG Approval 11/04/2019 16:58:18</t>
-  </si>
-  <si>
-    <t>In the case of a procurement procedure it includes options and renewals.
-(Pending to review by the WG)</t>
+WG Approval 11/04/2019</t>
+  </si>
+  <si>
+    <t>In the case of a procurement procedure it includes options and renewals.</t>
   </si>
   <si>
     <t>The highest amount which can be spent within a procurement over its whole duration.
-Additional Information: beware that the procurement can be organised based on different Techniques, e.g. Framework Agreements.
-(Pending to review by the WG)</t>
+Additional Information: beware that the procurement can be organised based on different Techniques, e.g. Framework Agreements.</t>
   </si>
   <si>
     <t>The description of the system used for calculating the estimated value of procurement.
 Additional information: e.g. the method used to calculate the estimated value of a concession and any other relevant information.
-WG Approval 25/04/2019 17:01:13</t>
+WG Approval 25/04/2019</t>
   </si>
   <si>
     <t>The buyer reserves the right (not an obligation) for additional purchases from the contractor (while the contract is valid).
 WG Approval 09/04/2019 14:45:05
 The old definition we had in ePO reads as follows (and never was approved by the WG:
-"Statement by the Procuring Entity about whether it may apply modifications to the procurement procedure that would alter the overall nature of the contract or the framework agreement."
-(Pending to review by the WG)</t>
+"Statement by the Procuring Entity about whether it may apply modifications to the procurement procedure that would alter the overall nature of the contract or the framework agreement."</t>
   </si>
   <si>
     <t>The CPV establishes a single classification system for public procurement aimed at standardising the references used by procuring entities to describe the purpose of procurement contracts and procurement projects.
@@ -1649,24 +1618,24 @@
   </si>
   <si>
     <t>ISO 15000 ebXML CCTS QuantityType uses the attribute "unitCode" to specify what the quantity is about.
-Example: 3 months; 131 printers; 1,000 tones; etc.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The nature of the contract, which corresponds to the main subject of the contract.
-(Pending to review by the WG))</t>
-  </si>
-  <si>
-    <t>The common classification of territorial units for statistics.
-(Pending to review by the WG)</t>
+Example: 3 months; 131 printers; 1,000 tones; etc.</t>
+  </si>
+  <si>
+    <t>The nature of the contract, which corresponds to the main subject of the contract.</t>
+  </si>
+  <si>
+    <t>The common classification of territorial units for statistics.</t>
   </si>
   <si>
     <t>The motivation and details about additional purchases that the buyer may undertake while the contract is valid.
-WG Approval 09/04/2019 14:48:06</t>
+WG Approval 09/04/2019</t>
+  </si>
+  <si>
+    <t>The estimated proportion foreseen to be subcontracted.</t>
   </si>
   <si>
     <t>Whether subcontracting will be used or not (or not known yet).
-WG Approved 08/05/2019</t>
+WG Approval 08/05/2019</t>
   </si>
   <si>
     <t>The estimated value of the part of the contract to be subcontracted.
@@ -1674,7 +1643,7 @@
   </si>
   <si>
     <t>The estimated share of the subcontracting can be calculated.
-WG Approval 07/05/2019 16:06:30</t>
+WG Approval 07/05/2019</t>
   </si>
   <si>
     <t>The estimated value of the subcontracting can be calculated.
@@ -1691,7 +1660,7 @@
   </si>
   <si>
     <t>Self-explanatory text about a concept.
-WG Approved 08/05/2019</t>
+WG Approval 08/05/2019</t>
   </si>
   <si>
     <t>The maximum proportion of something to be distributed.
@@ -1707,11 +1676,13 @@
     <t>List of Subcontractors and the subject matter they cover are required.
 Additional Information: 
 The tenderer will ned to supply this information in the tender.
-WG Approval 28/02/2019 16:41:59</t>
-  </si>
-  <si>
-    <t>The period during which tenders submitted for this procurement procedure must remain valid.
-(Pending to review by the WG)</t>
+WG Approval 28/02/2019</t>
+  </si>
+  <si>
+    <t>The deadline for submitting Tenders.</t>
+  </si>
+  <si>
+    <t>The period during which tenders submitted for this procurement procedure must remain valid.</t>
   </si>
   <si>
     <t>Including the financial modality and request for commitment reserved to be used in case of default.
@@ -1734,29 +1705,26 @@
 Additional Information: 
 Signature can be defined as "data in electronic form which is attached to or logically associated with other data in electronic form and which is used by the signatory to sign. 
 For more details on the meaning and uses of electronic signature you may consult different authoritative sources, a relevant one being for instance the Regulation (EU) 910/2014 on electronic identification and trust services for electronic transactions in the internal market.
-WG Approval 12/03/2019 15:46:34</t>
+WG Approval 12/03/2019</t>
   </si>
   <si>
     <t>Procurement criteria for persons with disabilities applied.
-WG Approval 05/03/2019 15:54:49</t>
+WG Approval 05/03/2019</t>
   </si>
   <si>
     <t>Reason for not applying accessibility criteria.
-WG Approval 05/03/2019 15:52:31</t>
-  </si>
-  <si>
-    <t>Transmission of tenders is possible by electronic means of communication. 
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>Basis for physical submission of tenders.
-(Pending to review by the WG)</t>
+WG Approval 05/03/2019</t>
+  </si>
+  <si>
+    <t>Transmission of tenders is possible by electronic means of communication.</t>
+  </si>
+  <si>
+    <t>Basis for physical submission of tenders.</t>
   </si>
   <si>
     <t>The value of the tender is needed for awarding purposes.
 max(Tender.Value) where Tender.eligible is True for a given Lot.
-Related to BT-710 and BT-711.
-TO BE DISCUSSED FURTHER</t>
+Related to BT-710 and BT-711.</t>
   </si>
   <si>
     <t>If there's no first stage then there is only a final stage.</t>
@@ -1764,7 +1732,7 @@
   <si>
     <t>The position of the winner, i.e. whether the economic operator ended up first, second, third, etc.
 Additional information: This is specially the case of design contests, some framework agreements with multiple winners (e.g. cascades) or innovation partnerships.
-WG Approval 25/04/2019 16:28:00</t>
+WG Approval 25/04/2019</t>
   </si>
   <si>
     <t>The date on which this period begins.</t>
@@ -1827,8 +1795,11 @@
     <t>xsd:string</t>
   </si>
   <si>
-    <t>The execution of the contract is restricted to the framework of sheltered employment programmes.
-Pending of approval</t>
+    <t>An announcement of the award or non-award of a contract by a procuring entity.
+(WG approval 27/03/2019)</t>
+  </si>
+  <si>
+    <t>The execution of the contract is restricted to the framework of sheltered employment programmers.</t>
   </si>
   <si>
     <t>Identifies the criterion unambiguously and uniquely across all  procurement procedures.</t>
@@ -1841,31 +1812,10 @@
 reviewed on 23-01-2019)</t>
   </si>
   <si>
-    <t>Describes the object of the procurement and the properties of the procedure.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
     <t>Active and dynamic files representing information.
-(Pending to review by the WG)
 This other definition comes from ISA2, we want to propose it for discussion to the WG: 
 The definition o eBusiness Document may be useful to refine our ePO definition. It goes as follows:
 "a set of interrelated Business Information representing the business facts, data, or opinions, in any medium or form, including textual, numerical, graphic, cartographic, narrative, or audio-visual forms that the capability exchanges with other capabilities to support the execution of value streams."</t>
-  </si>
-  <si>
-    <t>Explanation about why the choice of an accelerated procedure is lawful.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The estimated proportion foreseen to be subcontracted.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The deadline for submitting Tenders.
-(Pending to review by the WG)</t>
-  </si>
-  <si>
-    <t>The tenderer to whom the contract is awarded.
-(WG approval 20/11/2018)</t>
   </si>
 </sst>
 </file>
@@ -2276,13 +2226,13 @@
   <dimension ref="A1:E340"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C270" sqref="C270"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="48.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
@@ -2310,9 +2260,7 @@
       <c r="A2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="B2" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
@@ -2330,7 +2278,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
         <v>13</v>
       </c>
@@ -2341,7 +2289,7 @@
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
         <v>14</v>
       </c>
@@ -2358,7 +2306,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
         <v>14</v>
       </c>
@@ -2373,7 +2321,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="7" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>14</v>
       </c>
@@ -2385,10 +2333,10 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -2403,7 +2351,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>15</v>
       </c>
@@ -2415,10 +2363,10 @@
       </c>
       <c r="D9" s="2"/>
       <c r="E9" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
         <v>15</v>
       </c>
@@ -2433,7 +2381,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
         <v>15</v>
       </c>
@@ -2445,10 +2393,10 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
         <v>15</v>
       </c>
@@ -2460,10 +2408,10 @@
       </c>
       <c r="D12" s="2"/>
       <c r="E12" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
         <v>16</v>
       </c>
@@ -2478,7 +2426,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="14" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
         <v>16</v>
       </c>
@@ -2493,7 +2441,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="15" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
         <v>16</v>
       </c>
@@ -2508,7 +2456,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="16" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
         <v>16</v>
       </c>
@@ -2615,7 +2563,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
         <v>20</v>
       </c>
@@ -2626,7 +2574,7 @@
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
     </row>
-    <row r="24" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
         <v>21</v>
       </c>
@@ -2637,7 +2585,7 @@
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
     </row>
-    <row r="25" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
         <v>22</v>
       </c>
@@ -2651,10 +2599,10 @@
         <v>425</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
         <v>22</v>
       </c>
@@ -2668,10 +2616,10 @@
         <v>426</v>
       </c>
       <c r="E26" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
         <v>22</v>
       </c>
@@ -2685,10 +2633,10 @@
         <v>427</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
         <v>23</v>
       </c>
@@ -2813,23 +2761,23 @@
         <v>195</v>
       </c>
     </row>
-    <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
         <v>26</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>129</v>
+        <v>533</v>
       </c>
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
     </row>
-    <row r="38" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C38" s="2" t="s">
         <v>178</v>
@@ -2839,12 +2787,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="39" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C39" s="2" t="s">
         <v>208</v>
@@ -2854,12 +2802,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="40" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
         <v>27</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="C40" s="2" t="s">
         <v>208</v>
@@ -2869,12 +2817,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>225</v>
@@ -2884,12 +2832,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
         <v>28</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="C42" s="2" t="s">
         <v>226</v>
@@ -2910,12 +2858,12 @@
       <c r="D43" s="2"/>
       <c r="E43" s="2"/>
     </row>
-    <row r="44" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C44" s="2" t="s">
         <v>227</v>
@@ -2924,15 +2872,15 @@
         <v>431</v>
       </c>
       <c r="E44" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>228</v>
@@ -2949,7 +2897,7 @@
         <v>30</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C46" s="2" t="s">
         <v>229</v>
@@ -2961,12 +2909,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C47" s="2" t="s">
         <v>230</v>
@@ -2978,12 +2926,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C48" s="2" t="s">
         <v>231</v>
@@ -2995,12 +2943,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="49" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C49" s="2" t="s">
         <v>232</v>
@@ -3010,12 +2958,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="50" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C50" s="2" t="s">
         <v>233</v>
@@ -3032,7 +2980,7 @@
         <v>30</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C51" s="2" t="s">
         <v>234</v>
@@ -3044,12 +2992,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="52" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B52" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C52" s="2" t="s">
         <v>235</v>
@@ -3059,12 +3007,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="53" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B53" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C53" s="2" t="s">
         <v>236</v>
@@ -3081,7 +3029,7 @@
         <v>30</v>
       </c>
       <c r="B54" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C54" s="2" t="s">
         <v>237</v>
@@ -3093,29 +3041,29 @@
         <v>198</v>
       </c>
     </row>
-    <row r="55" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B55" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C55" s="2" t="s">
         <v>238</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>531</v>
+        <v>534</v>
       </c>
       <c r="E55" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="56" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
         <v>30</v>
       </c>
       <c r="B56" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C56" s="2" t="s">
         <v>239</v>
@@ -3185,7 +3133,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="61" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
         <v>5</v>
       </c>
@@ -3196,13 +3144,13 @@
         <v>176</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>532</v>
+        <v>535</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="62" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
         <v>5</v>
       </c>
@@ -3219,7 +3167,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="63" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
         <v>5</v>
       </c>
@@ -3236,7 +3184,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="64" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
         <v>5</v>
       </c>
@@ -3264,13 +3212,13 @@
         <v>180</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>533</v>
+        <v>536</v>
       </c>
       <c r="E65" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A66" s="2" t="s">
         <v>5</v>
       </c>
@@ -3285,7 +3233,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="67" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
         <v>5</v>
       </c>
@@ -3300,7 +3248,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="68" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
         <v>5</v>
       </c>
@@ -3432,12 +3380,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="76" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2" t="s">
         <v>32</v>
       </c>
       <c r="B76" s="2" t="s">
-        <v>534</v>
+        <v>132</v>
       </c>
       <c r="C76" s="2"/>
       <c r="D76" s="2"/>
@@ -3453,7 +3401,7 @@
       </c>
       <c r="D77" s="2"/>
       <c r="E77" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
@@ -3533,30 +3481,30 @@
       </c>
       <c r="D83" s="2"/>
       <c r="E83" s="2" t="s">
-        <v>519</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B84" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C84" s="2" t="s">
         <v>176</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" s="2" t="s">
-        <v>520</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B85" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C85" s="2" t="s">
         <v>248</v>
@@ -3565,15 +3513,15 @@
         <v>442</v>
       </c>
       <c r="E85" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B86" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C86" s="2" t="s">
         <v>249</v>
@@ -3582,15 +3530,15 @@
         <v>443</v>
       </c>
       <c r="E86" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="87" spans="1:5" ht="210" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" ht="150" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
         <v>34</v>
       </c>
       <c r="B87" s="2" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="C87" s="2" t="s">
         <v>250</v>
@@ -3611,7 +3559,7 @@
       <c r="D88" s="2"/>
       <c r="E88" s="2"/>
     </row>
-    <row r="89" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
         <v>36</v>
       </c>
@@ -3628,7 +3576,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="90" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
         <v>36</v>
       </c>
@@ -3668,10 +3616,10 @@
         <v>446</v>
       </c>
       <c r="E92" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="93" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A93" s="2" t="s">
         <v>38</v>
       </c>
@@ -3682,7 +3630,7 @@
       <c r="D93" s="2"/>
       <c r="E93" s="2"/>
     </row>
-    <row r="94" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A94" s="2" t="s">
         <v>39</v>
       </c>
@@ -3693,7 +3641,7 @@
       <c r="D94" s="2"/>
       <c r="E94" s="2"/>
     </row>
-    <row r="95" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A95" s="2" t="s">
         <v>40</v>
       </c>
@@ -3708,7 +3656,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="96" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A96" s="2" t="s">
         <v>40</v>
       </c>
@@ -3725,7 +3673,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="97" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A97" s="2" t="s">
         <v>40</v>
       </c>
@@ -3740,7 +3688,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="98" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A98" s="2" t="s">
         <v>40</v>
       </c>
@@ -3757,7 +3705,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="99" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A99" s="2" t="s">
         <v>40</v>
       </c>
@@ -3772,7 +3720,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="100" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A100" s="2" t="s">
         <v>41</v>
       </c>
@@ -3789,7 +3737,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="101" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A101" s="2" t="s">
         <v>42</v>
       </c>
@@ -3806,7 +3754,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="102" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A102" s="2" t="s">
         <v>42</v>
       </c>
@@ -3821,7 +3769,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="103" spans="1:5" ht="270" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" ht="210" x14ac:dyDescent="0.25">
       <c r="A103" s="2" t="s">
         <v>42</v>
       </c>
@@ -3864,7 +3812,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="106" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A106" s="2" t="s">
         <v>44</v>
       </c>
@@ -3875,7 +3823,7 @@
       <c r="D106" s="2"/>
       <c r="E106" s="2"/>
     </row>
-    <row r="107" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A107" s="2" t="s">
         <v>45</v>
       </c>
@@ -3899,7 +3847,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="109" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2" t="s">
         <v>47</v>
       </c>
@@ -3916,7 +3864,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="110" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2" t="s">
         <v>47</v>
       </c>
@@ -3928,10 +3876,10 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="111" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A111" s="2" t="s">
         <v>47</v>
       </c>
@@ -3948,7 +3896,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="112" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2" t="s">
         <v>47</v>
       </c>
@@ -3978,7 +3926,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="114" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A114" s="2" t="s">
         <v>49</v>
       </c>
@@ -4012,7 +3960,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A116" s="2" t="s">
         <v>49</v>
       </c>
@@ -4022,14 +3970,12 @@
       <c r="C116" s="2" t="s">
         <v>271</v>
       </c>
-      <c r="D116" s="2" t="s">
-        <v>455</v>
-      </c>
+      <c r="D116" s="2"/>
       <c r="E116" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="117" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A117" s="2" t="s">
         <v>49</v>
       </c>
@@ -4041,10 +3987,10 @@
       </c>
       <c r="D117" s="2"/>
       <c r="E117" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="118" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A118" s="2" t="s">
         <v>49</v>
       </c>
@@ -4056,7 +4002,7 @@
       </c>
       <c r="D118" s="2"/>
       <c r="E118" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="119" spans="1:5" x14ac:dyDescent="0.25">
@@ -4072,9 +4018,7 @@
       <c r="A120" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B120" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B120" s="2"/>
       <c r="C120" s="2" t="s">
         <v>176</v>
       </c>
@@ -4087,9 +4031,7 @@
       <c r="A121" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B121" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B121" s="2"/>
       <c r="C121" s="2" t="s">
         <v>177</v>
       </c>
@@ -4102,9 +4044,7 @@
       <c r="A122" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B122" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B122" s="2"/>
       <c r="C122" s="2" t="s">
         <v>178</v>
       </c>
@@ -4119,9 +4059,7 @@
       <c r="A123" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="B123" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B123" s="2"/>
       <c r="C123" s="2" t="s">
         <v>185</v>
       </c>
@@ -4130,7 +4068,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="124" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A124" s="2" t="s">
         <v>51</v>
       </c>
@@ -4257,7 +4195,7 @@
         <v>107</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>194</v>
@@ -4267,14 +4205,12 @@
       <c r="A133" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B133" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B133" s="2"/>
       <c r="C133" s="2"/>
       <c r="D133" s="2"/>
       <c r="E133" s="2"/>
     </row>
-    <row r="134" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A134" s="2" t="s">
         <v>54</v>
       </c>
@@ -4285,7 +4221,7 @@
       <c r="D134" s="2"/>
       <c r="E134" s="2"/>
     </row>
-    <row r="135" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A135" s="2" t="s">
         <v>55</v>
       </c>
@@ -4300,7 +4236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="136" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A136" s="2" t="s">
         <v>55</v>
       </c>
@@ -4311,13 +4247,13 @@
         <v>280</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="E136" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="137" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A137" s="2" t="s">
         <v>55</v>
       </c>
@@ -4328,13 +4264,13 @@
         <v>281</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="E137" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="138" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="2" t="s">
         <v>55</v>
       </c>
@@ -4345,13 +4281,13 @@
         <v>282</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="E138" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="139" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A139" s="2" t="s">
         <v>56</v>
       </c>
@@ -4366,7 +4302,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="140" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A140" s="2" t="s">
         <v>56</v>
       </c>
@@ -4376,14 +4312,12 @@
       <c r="C140" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="D140" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D140" s="2"/>
       <c r="E140" s="2" t="s">
         <v>176</v>
       </c>
     </row>
-    <row r="141" spans="1:5" ht="225" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A141" s="2" t="s">
         <v>56</v>
       </c>
@@ -4489,9 +4423,7 @@
       <c r="A149" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="B149" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B149" s="2"/>
       <c r="C149" s="2"/>
       <c r="D149" s="2"/>
       <c r="E149" s="2"/>
@@ -4506,7 +4438,7 @@
       </c>
       <c r="D150" s="2"/>
       <c r="E150" s="2" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
     </row>
     <row r="151" spans="1:5" x14ac:dyDescent="0.25">
@@ -4563,7 +4495,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="155" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2" t="s">
         <v>9</v>
       </c>
@@ -4578,7 +4510,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="156" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2" t="s">
         <v>9</v>
       </c>
@@ -4612,7 +4544,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="158" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
         <v>9</v>
       </c>
@@ -4627,7 +4559,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="159" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
         <v>9</v>
       </c>
@@ -4642,7 +4574,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="160" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
         <v>9</v>
       </c>
@@ -4680,7 +4612,7 @@
       </c>
       <c r="D162" s="2"/>
       <c r="E162" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="163" spans="1:5" x14ac:dyDescent="0.25">
@@ -4693,7 +4625,7 @@
       </c>
       <c r="D163" s="2"/>
       <c r="E163" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="164" spans="1:5" x14ac:dyDescent="0.25">
@@ -4719,7 +4651,7 @@
       </c>
       <c r="D165" s="2"/>
       <c r="E165" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
@@ -4732,7 +4664,7 @@
       </c>
       <c r="D166" s="2"/>
       <c r="E166" s="2" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
@@ -4758,10 +4690,10 @@
       </c>
       <c r="D168" s="2"/>
       <c r="E168" s="2" t="s">
-        <v>525</v>
-      </c>
-    </row>
-    <row r="169" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
         <v>61</v>
       </c>
@@ -4778,7 +4710,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="170" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
         <v>61</v>
       </c>
@@ -4793,7 +4725,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="171" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
         <v>61</v>
       </c>
@@ -4808,7 +4740,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="172" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
         <v>61</v>
       </c>
@@ -4823,7 +4755,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A173" s="2" t="s">
         <v>61</v>
       </c>
@@ -4834,13 +4766,13 @@
         <v>290</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="174" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A174" s="2" t="s">
         <v>61</v>
       </c>
@@ -4855,7 +4787,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="175" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="2" t="s">
         <v>61</v>
       </c>
@@ -4870,7 +4802,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="176" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A176" s="2" t="s">
         <v>62</v>
       </c>
@@ -4885,7 +4817,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A177" s="2" t="s">
         <v>62</v>
       </c>
@@ -4902,7 +4834,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="178" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
         <v>62</v>
       </c>
@@ -4917,7 +4849,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="179" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
         <v>63</v>
       </c>
@@ -4932,7 +4864,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="180" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
         <v>63</v>
       </c>
@@ -4947,7 +4879,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="181" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
         <v>63</v>
       </c>
@@ -4962,7 +4894,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="182" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
         <v>63</v>
       </c>
@@ -4977,7 +4909,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="183" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
         <v>64</v>
       </c>
@@ -4988,13 +4920,13 @@
         <v>295</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E183" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="184" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
         <v>64</v>
       </c>
@@ -5009,7 +4941,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="185" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
         <v>65</v>
       </c>
@@ -5033,10 +4965,10 @@
         <v>298</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>521</v>
+        <v>523</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5048,13 +4980,13 @@
         <v>299</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="188" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
         <v>104</v>
       </c>
@@ -5076,10 +5008,10 @@
         <v>385</v>
       </c>
       <c r="D189" s="2" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E189" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5093,10 +5025,10 @@
         <v>386</v>
       </c>
       <c r="D190" s="2" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E190" s="2" t="s">
-        <v>526</v>
+        <v>528</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5110,10 +5042,10 @@
         <v>387</v>
       </c>
       <c r="D191" s="2" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E191" s="2" t="s">
-        <v>527</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5127,10 +5059,10 @@
         <v>388</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E192" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5144,10 +5076,10 @@
         <v>389</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E193" s="2" t="s">
-        <v>528</v>
+        <v>530</v>
       </c>
     </row>
     <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5161,10 +5093,10 @@
         <v>390</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="E194" s="2" t="s">
-        <v>529</v>
+        <v>531</v>
       </c>
     </row>
     <row r="195" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5178,10 +5110,10 @@
         <v>391</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E195" s="2" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
@@ -5505,19 +5437,17 @@
       <c r="A221" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B221" s="2"/>
       <c r="C221" s="2"/>
       <c r="D221" s="2"/>
       <c r="E221" s="2"/>
     </row>
-    <row r="222" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A222" s="2" t="s">
         <v>69</v>
       </c>
       <c r="B222" s="2" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="C222" s="2"/>
       <c r="D222" s="2"/>
@@ -5528,13 +5458,13 @@
         <v>70</v>
       </c>
       <c r="B223" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C223" s="2" t="s">
         <v>300</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>536</v>
+        <v>463</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>198</v>
@@ -5545,7 +5475,7 @@
         <v>70</v>
       </c>
       <c r="B224" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C224" s="2" t="s">
         <v>301</v>
@@ -5562,7 +5492,7 @@
         <v>70</v>
       </c>
       <c r="B225" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C225" s="2" t="s">
         <v>302</v>
@@ -5577,7 +5507,7 @@
         <v>70</v>
       </c>
       <c r="B226" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C226" s="2" t="s">
         <v>303</v>
@@ -5594,7 +5524,7 @@
         <v>70</v>
       </c>
       <c r="B227" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C227" s="2" t="s">
         <v>304</v>
@@ -5611,14 +5541,12 @@
         <v>70</v>
       </c>
       <c r="B228" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C228" s="2" t="s">
         <v>305</v>
       </c>
-      <c r="D228" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D228" s="2"/>
       <c r="E228" s="2" t="s">
         <v>194</v>
       </c>
@@ -5628,14 +5556,12 @@
         <v>70</v>
       </c>
       <c r="B229" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C229" s="2" t="s">
         <v>306</v>
       </c>
-      <c r="D229" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D229" s="2"/>
       <c r="E229" s="2" t="s">
         <v>194</v>
       </c>
@@ -5645,7 +5571,7 @@
         <v>70</v>
       </c>
       <c r="B230" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C230" s="2" t="s">
         <v>191</v>
@@ -5660,7 +5586,7 @@
         <v>70</v>
       </c>
       <c r="B231" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C231" s="2" t="s">
         <v>178</v>
@@ -5677,7 +5603,7 @@
         <v>70</v>
       </c>
       <c r="B232" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C232" s="2" t="s">
         <v>186</v>
@@ -5692,7 +5618,7 @@
         <v>70</v>
       </c>
       <c r="B233" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C233" s="2" t="s">
         <v>307</v>
@@ -5707,7 +5633,7 @@
         <v>70</v>
       </c>
       <c r="B234" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C234" s="2" t="s">
         <v>308</v>
@@ -5716,7 +5642,7 @@
         <v>467</v>
       </c>
       <c r="E234" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="235" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -5724,22 +5650,22 @@
         <v>70</v>
       </c>
       <c r="B235" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C235" s="2" t="s">
         <v>309</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="236" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
         <v>70</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C236" s="2" t="s">
         <v>310</v>
@@ -5751,12 +5677,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="237" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C237" s="2" t="s">
         <v>254</v>
@@ -5766,12 +5692,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="238" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C238" s="2" t="s">
         <v>311</v>
@@ -5783,29 +5709,27 @@
         <v>195</v>
       </c>
     </row>
-    <row r="239" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C239" s="2" t="s">
         <v>312</v>
       </c>
-      <c r="D239" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D239" s="2"/>
       <c r="E239" s="2" t="s">
         <v>195</v>
       </c>
     </row>
-    <row r="240" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C240" s="2" t="s">
         <v>313</v>
@@ -5817,12 +5741,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="241" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
         <v>71</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="C241" s="2" t="s">
         <v>314</v>
@@ -5831,16 +5755,14 @@
         <v>471</v>
       </c>
       <c r="E241" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B242" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B242" s="2"/>
       <c r="C242" s="2"/>
       <c r="D242" s="2"/>
       <c r="E242" s="2"/>
@@ -5849,9 +5771,7 @@
       <c r="A243" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="B243" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B243" s="2"/>
       <c r="C243" s="2"/>
       <c r="D243" s="2"/>
       <c r="E243" s="2"/>
@@ -5860,19 +5780,17 @@
       <c r="A244" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="B244" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B244" s="2"/>
       <c r="C244" s="2"/>
       <c r="D244" s="2"/>
       <c r="E244" s="2"/>
     </row>
-    <row r="245" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
         <v>75</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="C245" s="2" t="s">
         <v>315</v>
@@ -5884,12 +5802,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="246" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C246" s="2" t="s">
         <v>316</v>
@@ -5898,15 +5816,15 @@
         <v>473</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="247" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C247" s="2" t="s">
         <v>317</v>
@@ -5915,15 +5833,15 @@
         <v>474</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="248" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C248" s="2" t="s">
         <v>318</v>
@@ -5932,15 +5850,15 @@
         <v>475</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="249" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C249" s="2" t="s">
         <v>319</v>
@@ -5949,22 +5867,22 @@
         <v>476</v>
       </c>
       <c r="E249" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C250" s="2" t="s">
         <v>320</v>
       </c>
       <c r="D250" s="2"/>
       <c r="E250" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -5972,7 +5890,7 @@
         <v>76</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C251" s="2" t="s">
         <v>321</v>
@@ -5981,15 +5899,15 @@
         <v>477</v>
       </c>
       <c r="E251" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C252" s="2" t="s">
         <v>322</v>
@@ -6001,12 +5919,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="253" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
         <v>76</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C253" s="2" t="s">
         <v>261</v>
@@ -6032,7 +5950,7 @@
         <v>78</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C255" s="2" t="s">
         <v>323</v>
@@ -6049,14 +5967,12 @@
         <v>78</v>
       </c>
       <c r="B256" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C256" s="2" t="s">
         <v>324</v>
       </c>
-      <c r="D256" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D256" s="2"/>
       <c r="E256" s="2" t="s">
         <v>192</v>
       </c>
@@ -6066,7 +5982,7 @@
         <v>78</v>
       </c>
       <c r="B257" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C257" s="2" t="s">
         <v>325</v>
@@ -6081,24 +5997,22 @@
         <v>78</v>
       </c>
       <c r="B258" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C258" s="2" t="s">
         <v>326</v>
       </c>
-      <c r="D258" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D258" s="2"/>
       <c r="E258" s="2" t="s">
         <v>192</v>
       </c>
     </row>
-    <row r="259" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
         <v>78</v>
       </c>
       <c r="B259" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C259" s="2" t="s">
         <v>327</v>
@@ -6115,7 +6029,7 @@
         <v>78</v>
       </c>
       <c r="B260" s="2" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="C260" s="2" t="s">
         <v>328</v>
@@ -6178,19 +6092,17 @@
       <c r="A264" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="B264" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B264" s="2"/>
       <c r="C264" s="2"/>
       <c r="D264" s="2"/>
       <c r="E264" s="2"/>
     </row>
-    <row r="265" spans="1:5" ht="195" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B265" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C265" s="2" t="s">
         <v>329</v>
@@ -6202,12 +6114,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="266" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B266" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C266" s="2" t="s">
         <v>330</v>
@@ -6219,12 +6131,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="267" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B267" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C267" s="2" t="s">
         <v>331</v>
@@ -6236,12 +6148,12 @@
         <v>193</v>
       </c>
     </row>
-    <row r="268" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B268" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C268" s="2" t="s">
         <v>332</v>
@@ -6253,29 +6165,27 @@
         <v>194</v>
       </c>
     </row>
-    <row r="269" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B269" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C269" s="2" t="s">
         <v>333</v>
       </c>
-      <c r="D269" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D269" s="2"/>
       <c r="E269" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="270" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B270" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C270" s="2" t="s">
         <v>334</v>
@@ -6287,12 +6197,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="271" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B271" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C271" s="2" t="s">
         <v>335</v>
@@ -6302,12 +6212,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="272" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
         <v>80</v>
       </c>
       <c r="B272" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C272" s="2" t="s">
         <v>336</v>
@@ -6323,51 +6233,47 @@
       <c r="A273" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="B273" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B273" s="2"/>
       <c r="C273" s="2"/>
       <c r="D273" s="2"/>
       <c r="E273" s="2"/>
     </row>
-    <row r="274" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B274" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C274" s="2" t="s">
         <v>337</v>
       </c>
-      <c r="D274" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="D274" s="2"/>
       <c r="E274" s="2" t="s">
         <v>198</v>
       </c>
     </row>
-    <row r="275" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B275" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C275" s="2" t="s">
         <v>338</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" s="2" t="s">
-        <v>521</v>
-      </c>
-    </row>
-    <row r="276" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
         <v>82</v>
       </c>
       <c r="B276" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C276" s="2" t="s">
         <v>339</v>
@@ -6377,12 +6283,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="277" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B277" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C277" s="2" t="s">
         <v>340</v>
@@ -6392,12 +6298,12 @@
         <v>195</v>
       </c>
     </row>
-    <row r="278" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
         <v>83</v>
       </c>
       <c r="B278" s="2" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C278" s="2" t="s">
         <v>178</v>
@@ -6414,7 +6320,7 @@
         <v>84</v>
       </c>
       <c r="B279" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C279" s="2" t="s">
         <v>200</v>
@@ -6429,23 +6335,21 @@
         <v>84</v>
       </c>
       <c r="B280" s="2" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C280" s="2" t="s">
         <v>201</v>
       </c>
       <c r="D280" s="2"/>
       <c r="E280" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
         <v>85</v>
       </c>
-      <c r="B281" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B281" s="2"/>
       <c r="C281" s="2"/>
       <c r="D281" s="2"/>
       <c r="E281" s="2"/>
@@ -6472,12 +6376,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="284" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
         <v>87</v>
       </c>
       <c r="B284" s="2" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C284" s="2" t="s">
         <v>341</v>
@@ -6494,7 +6398,7 @@
         <v>88</v>
       </c>
       <c r="B285" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C285" s="2" t="s">
         <v>178</v>
@@ -6511,16 +6415,16 @@
         <v>88</v>
       </c>
       <c r="B286" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C286" s="2" t="s">
         <v>342</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>537</v>
+        <v>489</v>
       </c>
       <c r="E286" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="287" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6528,13 +6432,13 @@
         <v>88</v>
       </c>
       <c r="B287" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C287" s="2" t="s">
         <v>343</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E287" s="2" t="s">
         <v>194</v>
@@ -6545,13 +6449,13 @@
         <v>88</v>
       </c>
       <c r="B288" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C288" s="2" t="s">
         <v>344</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E288" s="2" t="s">
         <v>192</v>
@@ -6562,13 +6466,13 @@
         <v>88</v>
       </c>
       <c r="B289" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C289" s="2" t="s">
         <v>345</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E289" s="2" t="s">
         <v>197</v>
@@ -6579,13 +6483,13 @@
         <v>88</v>
       </c>
       <c r="B290" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C290" s="2" t="s">
         <v>346</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E290" s="2" t="s">
         <v>197</v>
@@ -6596,13 +6500,13 @@
         <v>88</v>
       </c>
       <c r="B291" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C291" s="2" t="s">
         <v>10</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>192</v>
@@ -6613,30 +6517,30 @@
         <v>88</v>
       </c>
       <c r="B292" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C292" s="2" t="s">
         <v>347</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E292" s="2" t="s">
-        <v>523</v>
-      </c>
-    </row>
-    <row r="293" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B293" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C293" s="2" t="s">
         <v>178</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>198</v>
@@ -6647,16 +6551,16 @@
         <v>89</v>
       </c>
       <c r="B294" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C294" s="2" t="s">
         <v>348</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E294" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="295" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -6664,16 +6568,16 @@
         <v>89</v>
       </c>
       <c r="B295" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C295" s="2" t="s">
         <v>349</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E295" s="2" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
     </row>
     <row r="296" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -6681,24 +6585,24 @@
         <v>89</v>
       </c>
       <c r="B296" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C296" s="2" t="s">
         <v>350</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E296" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="297" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B297" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C297" s="2" t="s">
         <v>351</v>
@@ -6708,12 +6612,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="298" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B298" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C298" s="2" t="s">
         <v>352</v>
@@ -6723,12 +6627,12 @@
         <v>197</v>
       </c>
     </row>
-    <row r="299" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B299" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C299" s="2" t="s">
         <v>353</v>
@@ -6738,12 +6642,12 @@
         <v>194</v>
       </c>
     </row>
-    <row r="300" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
         <v>89</v>
       </c>
       <c r="B300" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="C300" s="2" t="s">
         <v>354</v>
@@ -6758,7 +6662,7 @@
         <v>90</v>
       </c>
       <c r="B301" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C301" s="2" t="s">
         <v>355</v>
@@ -6773,33 +6677,33 @@
         <v>90</v>
       </c>
       <c r="B302" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C302" s="2" t="s">
         <v>356</v>
       </c>
       <c r="D302" s="2" t="s">
-        <v>538</v>
+        <v>500</v>
       </c>
       <c r="E302" s="2" t="s">
-        <v>524</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
         <v>90</v>
       </c>
       <c r="B303" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C303" s="2" t="s">
         <v>357</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>499</v>
+        <v>501</v>
       </c>
       <c r="E303" s="2" t="s">
-        <v>524</v>
+        <v>526</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6807,7 +6711,7 @@
         <v>90</v>
       </c>
       <c r="B304" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C304" s="2" t="s">
         <v>297</v>
@@ -6822,13 +6726,13 @@
         <v>90</v>
       </c>
       <c r="B305" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C305" s="2" t="s">
         <v>358</v>
       </c>
       <c r="D305" s="2" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E305" s="2" t="s">
         <v>197</v>
@@ -6839,13 +6743,13 @@
         <v>90</v>
       </c>
       <c r="B306" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C306" s="2" t="s">
         <v>359</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E306" s="2" t="s">
         <v>198</v>
@@ -6856,7 +6760,7 @@
         <v>90</v>
       </c>
       <c r="B307" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C307" s="2" t="s">
         <v>39</v>
@@ -6871,13 +6775,13 @@
         <v>90</v>
       </c>
       <c r="B308" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C308" s="2" t="s">
         <v>360</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E308" s="2" t="s">
         <v>194</v>
@@ -6888,7 +6792,7 @@
         <v>90</v>
       </c>
       <c r="B309" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C309" s="2" t="s">
         <v>361</v>
@@ -6903,7 +6807,7 @@
         <v>90</v>
       </c>
       <c r="B310" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C310" s="2" t="s">
         <v>362</v>
@@ -6918,13 +6822,13 @@
         <v>90</v>
       </c>
       <c r="B311" s="2" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="C311" s="2" t="s">
         <v>363</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>197</v>
@@ -6934,14 +6838,12 @@
       <c r="A312" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B312" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
         <v>364</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="E312" s="2" t="s">
         <v>194</v>
@@ -6951,14 +6853,12 @@
       <c r="A313" s="2" t="s">
         <v>91</v>
       </c>
-      <c r="B313" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B313" s="2"/>
       <c r="C313" s="2" t="s">
         <v>365</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>505</v>
+        <v>507</v>
       </c>
       <c r="E313" s="2" t="s">
         <v>198</v>
@@ -6968,19 +6868,17 @@
       <c r="A314" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="B314" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B314" s="2"/>
       <c r="C314" s="2"/>
       <c r="D314" s="2"/>
       <c r="E314" s="2"/>
     </row>
-    <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C315" s="2" t="s">
         <v>178</v>
@@ -6992,12 +6890,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="316" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
         <v>93</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C316" s="2" t="s">
         <v>176</v>
@@ -7007,46 +6905,46 @@
         <v>176</v>
       </c>
     </row>
-    <row r="317" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C317" s="2" t="s">
         <v>366</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E317" s="2" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="318" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C318" s="2" t="s">
         <v>367</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E318" s="2" t="s">
         <v>194</v>
       </c>
     </row>
-    <row r="319" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C319" s="2" t="s">
         <v>368</v>
@@ -7056,29 +6954,29 @@
         <v>197</v>
       </c>
     </row>
-    <row r="320" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C320" s="2" t="s">
         <v>369</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E320" s="2" t="s">
-        <v>518</v>
-      </c>
-    </row>
-    <row r="321" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
         <v>94</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="C321" s="2" t="s">
         <v>191</v>
@@ -7092,9 +6990,7 @@
       <c r="A322" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="B322" s="2" t="s">
-        <v>154</v>
-      </c>
+      <c r="B322" s="2"/>
       <c r="C322" s="2"/>
       <c r="D322" s="2"/>
       <c r="E322" s="2"/>
@@ -7109,7 +7005,7 @@
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,7 +7033,7 @@
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -7149,10 +7045,10 @@
         <v>372</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7160,7 +7056,7 @@
         <v>98</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C327" s="2"/>
       <c r="D327" s="2"/>
@@ -7171,7 +7067,7 @@
         <v>99</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C328" s="2" t="s">
         <v>297</v>
@@ -7330,16 +7226,16 @@
         <v>100</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="C339" s="2" t="s">
         <v>373</v>
       </c>
       <c r="D339" s="2" t="s">
-        <v>510</v>
+        <v>512</v>
       </c>
       <c r="E339" s="2" t="s">
-        <v>518</v>
+        <v>520</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7347,7 +7243,7 @@
         <v>100</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>539</v>
+        <v>172</v>
       </c>
       <c r="C340" s="2" t="s">
         <v>374</v>

--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1340" uniqueCount="549">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1334" uniqueCount="554">
   <si>
     <t>ClassName</t>
   </si>
@@ -188,6 +188,9 @@
     <t>Financial Account</t>
   </si>
   <si>
+    <t>Financial Offer Value</t>
+  </si>
+  <si>
     <t>Financial Tender Document</t>
   </si>
   <si>
@@ -203,7 +206,7 @@
     <t>Green Procurement</t>
   </si>
   <si>
-    <t>GroupLot</t>
+    <t>Group Lot</t>
   </si>
   <si>
     <t>Innovative Procurement</t>
@@ -218,6 +221,9 @@
     <t>Lot</t>
   </si>
   <si>
+    <t>Lot Specification</t>
+  </si>
+  <si>
     <t>Notice</t>
   </si>
   <si>
@@ -323,7 +329,10 @@
     <t>Tender Evaluation Rank</t>
   </si>
   <si>
-    <t>Tender Value</t>
+    <t>Tender Group Lot</t>
+  </si>
+  <si>
+    <t>Tender Lot Part</t>
   </si>
   <si>
     <t>Tenderer</t>
@@ -525,6 +534,13 @@
     <t>(To be discussed during eSubmission WG decision 28/11/2018)</t>
   </si>
   <si>
+    <t>Monetary amount for which the tenderer commits to fulfil a given part of the tender.
+Additional Information:
+A value given for a group of lots may be different to the sum of the lots submitted individually (e.g. more advantageous).
+Separate classes are added in the ontology for different value types (e.g. Procurement Value, Financial Official Value, other) for tracking back the provenance and enabling the individual and total values to be cross-checked.
+WG Approval 28/05/2019</t>
+  </si>
+  <si>
     <t>The terms governing contracts, reached between one more buyers and one or more economic operators during a given period.
 (WG approval 05/12/2018)</t>
   </si>
@@ -584,8 +600,11 @@
     <t>Statistical data on the procedure and the lot. Also used to emphasize the suitability of the procurement for the SMEs or other purposes.</t>
   </si>
   <si>
-    <t>Monetary amount related to a procurement.
-(WG approval 05/12/2018)</t>
+    <t>Monetary requirements established by the buyer related to a procurement.
+Additional Information:
+A value given for a group of lots may be different to the sum of the lots submitted individually (e.g. more advantageous).
+Separate classes are added in the ontology for different value types (e.g. Procurement Value, Financial Official Value, other) for tracking back the provenance and enabling the individual and total values to be cross-checked.
+WG Approval 28/05/2019</t>
   </si>
   <si>
     <t>Information about fields not intended for publication. 
@@ -1257,9 +1276,6 @@
     <t>Non Electronic Submission Justification</t>
   </si>
   <si>
-    <t>Has Variants</t>
-  </si>
-  <si>
     <t>Score</t>
   </si>
   <si>
@@ -1269,6 +1285,9 @@
     <t>FinalRanking</t>
   </si>
   <si>
+    <t>Variant</t>
+  </si>
+  <si>
     <t>Total Amount Without VAT</t>
   </si>
   <si>
@@ -1411,13 +1430,6 @@
   </si>
   <si>
     <t>The textual description of the Weighting Description.</t>
-  </si>
-  <si>
-    <t>Relative importance assigned to a given criterion.
-Additional Information: This is modeled as a Quantity because quantities have an attribute named unitCode, which allows to explain what the numeric value is about. In the case of Award Criteria this unitCode could use the Code List defined by eForms defining different types of evaluation award criteria, e.g. 
-A rule should nevertheless be imposed: these Quantities should be of the form x.y, where x &amp;lt; 0  so they can be used to represent percentages).
-(WG approval 15/06/2018
-reviewed on 23-01-2019)</t>
   </si>
   <si>
     <t>Identifies unambiguously and uniquely a particular structure of data inside the group and across all procurement procedures.</t>
@@ -1505,9 +1517,6 @@
 Additional Information: These clauses usually refer to financial and payment provisions.
 This type of information should be structured instead of a free text in order to reuse it an ideal world. Unfortunately this is an information that in the real life no one is willing to provide pro-actively.
 WG Pending of discussion with eForms</t>
-  </si>
-  <si>
-    <t>&lt;font color="#24292e"&gt;The execution of the contract is restricted to the framework of sheltered employment programmers&lt;/font&gt;.</t>
   </si>
   <si>
     <t>There are other restrictions on the place of performance (e.g. "anywhere in the European Economic Area", "anywhere in the given country").</t>
@@ -1592,6 +1601,15 @@
     <t>The participation is reserved to organisations pursuing a public service mission and fulfilling other relevant conditions in the legislation.</t>
   </si>
   <si>
+    <t>The obligation or possibility for tenderers to submit variants or not.
+Additional Information:
+Variants are alternative ways to fulfil the buyer's needs as opposed to solutions indicated in the procurement documents.
+eForms: Whether tenderers are required, allowed or forbidden to submit tenders which fulfil the buyer's needs differently than as proposed in the procurement documents. 
+Additional Information:
+Further conditions for submitting variant tenders are in the procurement documents.
+(eForms)</t>
+  </si>
+  <si>
     <t>The date when a record is made publicly available.
 (WG approval 01/06/2018)</t>
   </si>
@@ -1795,12 +1813,14 @@
     <t>Basis for physical submission of tenders.</t>
   </si>
   <si>
-    <t>The value of the tender is needed for awarding purposes.
-max(Tender.Value) where Tender.eligible is True for a given Lot.
-Related to BT-710 and BT-711.</t>
-  </si>
-  <si>
     <t>If there's no first stage then there is only a final stage.</t>
+  </si>
+  <si>
+    <t>Tenders offer alternative ways to fulfil the buyer's needs as opposed to solutions indicated in the procurement documents.
+Additional Information:
+The permission to offer variants is only allowed if specified in a Contract Notice or a Prior Information Notice that used as a means for calling for a competition.
+The buyer lays out minimum requirements in the procurement documents that must be respected by tenderers submitting variants.
+WG Approval 29/05/2019</t>
   </si>
   <si>
     <t>The position of the winner, i.e. whether the economic operator ended up first, second, third, etc.
@@ -1866,6 +1886,16 @@
   </si>
   <si>
     <t>xsd:string</t>
+  </si>
+  <si>
+    <t>The execution of the contract is restricted to the framework of sheltered employment programmers.</t>
+  </si>
+  <si>
+    <t>Relative importance assigned to a given criterion.
+Additional Information: This is modeled as a Quantity because quantities have an attribute named unitCode, which allows to explain what the numeric value is about. In the case of Award Criteria this unitCode could use the Code List defined by eForms defining different types of evaluation award criteria, e.g. 
+A rule should nevertheless be imposed: these Quantities should be of the form x.y, where x &lt; 0  so they can be used to represent percentages).
+(WG approval 15/06/2018
+reviewed on 23-01-2019)</t>
   </si>
 </sst>
 </file>
@@ -2276,7 +2306,7 @@
   <dimension ref="A1:E347"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B262" sqref="B262"/>
+      <selection activeCell="D67" sqref="D67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2317,15 +2347,15 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
       <c r="D3" s="1"/>
       <c r="E3" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2333,7 +2363,7 @@
         <v>13</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="C4" s="1"/>
       <c r="D4" s="1"/>
@@ -2344,16 +2374,16 @@
         <v>14</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>205</v>
+        <v>209</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="E5" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2361,14 +2391,14 @@
         <v>14</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="D6" s="1"/>
       <c r="E6" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2376,14 +2406,14 @@
         <v>14</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2391,14 +2421,14 @@
         <v>14</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2406,14 +2436,14 @@
         <v>15</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="10" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2421,14 +2451,14 @@
         <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="11" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2436,14 +2466,14 @@
         <v>15</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="D11" s="1"/>
       <c r="E11" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -2451,14 +2481,14 @@
         <v>15</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>211</v>
+        <v>215</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2466,14 +2496,14 @@
         <v>16</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>212</v>
+        <v>216</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2481,14 +2511,14 @@
         <v>16</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>213</v>
+        <v>217</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="15" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2496,14 +2526,14 @@
         <v>16</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D15" s="1"/>
       <c r="E15" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="16" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2511,14 +2541,14 @@
         <v>16</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="D16" s="1"/>
       <c r="E16" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2526,14 +2556,14 @@
         <v>16</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D17" s="1"/>
       <c r="E17" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2541,16 +2571,16 @@
         <v>16</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>436</v>
+        <v>439</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
@@ -2559,11 +2589,11 @@
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -2572,13 +2602,13 @@
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="D20" s="1" t="s">
-        <v>437</v>
+        <v>440</v>
       </c>
       <c r="E20" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2586,14 +2616,14 @@
         <v>18</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2601,14 +2631,14 @@
         <v>18</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2616,16 +2646,16 @@
         <v>19</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>438</v>
+        <v>441</v>
       </c>
       <c r="E23" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2633,7 +2663,7 @@
         <v>20</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -2644,7 +2674,7 @@
         <v>21</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
@@ -2655,16 +2685,16 @@
         <v>22</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>439</v>
+        <v>442</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="27" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -2672,16 +2702,16 @@
         <v>22</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>440</v>
+        <v>443</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="28" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -2689,16 +2719,16 @@
         <v>22</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>441</v>
+        <v>444</v>
       </c>
       <c r="E28" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="29" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2706,14 +2736,14 @@
         <v>23</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
@@ -2722,11 +2752,11 @@
       </c>
       <c r="B30" s="1"/>
       <c r="C30" s="1" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
@@ -2735,11 +2765,11 @@
       </c>
       <c r="B31" s="1"/>
       <c r="C31" s="1" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
@@ -2748,11 +2778,11 @@
       </c>
       <c r="B32" s="1"/>
       <c r="C32" s="1" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
@@ -2761,16 +2791,16 @@
       </c>
       <c r="B33" s="1"/>
       <c r="C33" s="1" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B34" s="1"/>
       <c r="C34" s="1"/>
@@ -2782,16 +2812,16 @@
         <v>25</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>192</v>
+        <v>196</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>442</v>
+        <v>445</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2799,16 +2829,16 @@
         <v>25</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>443</v>
+        <v>446</v>
       </c>
       <c r="E36" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -2816,14 +2846,14 @@
         <v>25</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2831,7 +2861,7 @@
         <v>26</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="C38" s="1"/>
       <c r="D38" s="1"/>
@@ -2842,14 +2872,14 @@
         <v>27</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="40" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2857,14 +2887,14 @@
         <v>27</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C40" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D40" s="1"/>
       <c r="E40" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -2872,14 +2902,14 @@
         <v>27</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="D41" s="1"/>
       <c r="E41" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="42" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2887,14 +2917,14 @@
         <v>28</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="43" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2902,16 +2932,16 @@
         <v>28</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>444</v>
+        <v>447</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
@@ -2928,16 +2958,16 @@
         <v>30</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>445</v>
+        <v>448</v>
       </c>
       <c r="E45" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="46" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2945,16 +2975,16 @@
         <v>30</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="D46" s="1" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="E46" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="47" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -2962,16 +2992,16 @@
         <v>30</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="D47" s="1" t="s">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="E47" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="48" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2979,16 +3009,16 @@
         <v>30</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>448</v>
+        <v>451</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="49" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -2996,16 +3026,16 @@
         <v>30</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="50" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3013,14 +3043,14 @@
         <v>30</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="51" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3028,16 +3058,16 @@
         <v>30</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="E51" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="52" spans="1:5" ht="120" x14ac:dyDescent="0.25">
@@ -3045,16 +3075,16 @@
         <v>30</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>451</v>
+        <v>454</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="53" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3062,14 +3092,14 @@
         <v>30</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="54" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3077,16 +3107,16 @@
         <v>30</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>242</v>
+        <v>246</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>452</v>
+        <v>455</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="55" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -3094,16 +3124,16 @@
         <v>30</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="D55" s="1" t="s">
-        <v>453</v>
+        <v>456</v>
       </c>
       <c r="E55" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="56" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3111,16 +3141,16 @@
         <v>30</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="D56" s="1" t="s">
-        <v>454</v>
+        <v>552</v>
       </c>
       <c r="E56" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="57" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3128,16 +3158,16 @@
         <v>30</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>455</v>
+        <v>457</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="58" spans="1:5" x14ac:dyDescent="0.25">
@@ -3146,56 +3176,56 @@
       </c>
       <c r="B58" s="1"/>
       <c r="C58" s="1" t="s">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>388</v>
+        <v>392</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="60" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="61" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="62" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3203,16 +3233,16 @@
         <v>5</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>426</v>
+        <v>430</v>
       </c>
       <c r="E62" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="63" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3220,16 +3250,16 @@
         <v>5</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E63" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="64" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3237,16 +3267,16 @@
         <v>5</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D64" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E64" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="65" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3254,16 +3284,16 @@
         <v>5</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="D65" s="1" t="s">
-        <v>429</v>
+        <v>433</v>
       </c>
       <c r="E65" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="66" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -3271,16 +3301,16 @@
         <v>5</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>430</v>
+        <v>553</v>
       </c>
       <c r="E66" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="67" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3288,14 +3318,14 @@
         <v>5</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="68" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3303,14 +3333,14 @@
         <v>5</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="69" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -3318,14 +3348,14 @@
         <v>5</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>189</v>
+        <v>193</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="70" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3333,16 +3363,16 @@
         <v>6</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D70" s="1" t="s">
-        <v>431</v>
+        <v>434</v>
       </c>
       <c r="E70" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="71" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3350,16 +3380,16 @@
         <v>6</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E71" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="72" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3367,16 +3397,16 @@
         <v>6</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D72" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E72" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="73" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3384,16 +3414,16 @@
         <v>7</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D73" s="1" t="s">
-        <v>432</v>
+        <v>435</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3401,16 +3431,16 @@
         <v>7</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>427</v>
+        <v>431</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="75" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3418,16 +3448,16 @@
         <v>7</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>428</v>
+        <v>432</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="76" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3435,14 +3465,14 @@
         <v>7</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>190</v>
+        <v>194</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
@@ -3450,7 +3480,7 @@
         <v>32</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="C77" s="1"/>
       <c r="D77" s="1"/>
@@ -3462,11 +3492,11 @@
       </c>
       <c r="B78" s="1"/>
       <c r="C78" s="1" t="s">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
@@ -3475,11 +3505,11 @@
       </c>
       <c r="B79" s="1"/>
       <c r="C79" s="1" t="s">
-        <v>248</v>
+        <v>252</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
@@ -3488,11 +3518,11 @@
       </c>
       <c r="B80" s="1"/>
       <c r="C80" s="1" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
@@ -3501,11 +3531,11 @@
       </c>
       <c r="B81" s="1"/>
       <c r="C81" s="1" t="s">
-        <v>250</v>
+        <v>254</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
@@ -3514,11 +3544,11 @@
       </c>
       <c r="B82" s="1"/>
       <c r="C82" s="1" t="s">
-        <v>251</v>
+        <v>255</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
@@ -3527,13 +3557,13 @@
       </c>
       <c r="B83" s="1"/>
       <c r="C83" s="1" t="s">
-        <v>252</v>
+        <v>256</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
@@ -3542,11 +3572,11 @@
       </c>
       <c r="B84" s="1"/>
       <c r="C84" s="1" t="s">
-        <v>253</v>
+        <v>257</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="85" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3554,14 +3584,14 @@
         <v>34</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1" t="s">
-        <v>538</v>
+        <v>541</v>
       </c>
     </row>
     <row r="86" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3569,16 +3599,16 @@
         <v>34</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>254</v>
+        <v>258</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>457</v>
+        <v>459</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="87" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3586,16 +3616,16 @@
         <v>34</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="D87" s="1" t="s">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="E87" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="88" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3603,16 +3633,16 @@
         <v>34</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="D88" s="1" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="E88" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="89" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -3620,14 +3650,14 @@
         <v>34</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
@@ -3644,16 +3674,16 @@
         <v>36</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="D91" s="1" t="s">
-        <v>460</v>
+        <v>462</v>
       </c>
       <c r="E91" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="92" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3661,14 +3691,14 @@
         <v>36</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -3677,11 +3707,11 @@
       </c>
       <c r="B93" s="1"/>
       <c r="C93" s="1" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="94" spans="1:5" x14ac:dyDescent="0.25">
@@ -3690,13 +3720,13 @@
       </c>
       <c r="B94" s="1"/>
       <c r="C94" s="1" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="D94" s="1" t="s">
-        <v>461</v>
+        <v>463</v>
       </c>
       <c r="E94" s="1" t="s">
-        <v>539</v>
+        <v>542</v>
       </c>
     </row>
     <row r="95" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -3704,7 +3734,7 @@
         <v>38</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="C95" s="1"/>
       <c r="D95" s="1"/>
@@ -3715,7 +3745,7 @@
         <v>39</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="C96" s="1"/>
       <c r="D96" s="1"/>
@@ -3726,14 +3756,14 @@
         <v>40</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>262</v>
+        <v>266</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="98" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3741,16 +3771,16 @@
         <v>40</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="D98" s="1" t="s">
-        <v>462</v>
+        <v>464</v>
       </c>
       <c r="E98" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="99" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3758,14 +3788,14 @@
         <v>40</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="100" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3773,16 +3803,16 @@
         <v>40</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>265</v>
+        <v>269</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>463</v>
+        <v>465</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="101" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -3790,14 +3820,14 @@
         <v>40</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>266</v>
+        <v>270</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="102" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -3805,16 +3835,16 @@
         <v>41</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>267</v>
+        <v>271</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E102" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="103" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -3822,16 +3852,16 @@
         <v>42</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -3839,14 +3869,14 @@
         <v>42</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="105" spans="1:5" ht="210" x14ac:dyDescent="0.25">
@@ -3854,14 +3884,14 @@
         <v>42</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="106" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -3869,16 +3899,16 @@
         <v>43</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>270</v>
+        <v>274</v>
       </c>
       <c r="D106" s="1" t="s">
-        <v>465</v>
+        <v>467</v>
       </c>
       <c r="E106" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="107" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -3886,14 +3916,14 @@
         <v>43</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="108" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3901,7 +3931,7 @@
         <v>44</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="C108" s="1"/>
       <c r="D108" s="1"/>
@@ -3912,7 +3942,7 @@
         <v>45</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="C109" s="1"/>
       <c r="D109" s="1"/>
@@ -3924,11 +3954,11 @@
       </c>
       <c r="B110" s="1"/>
       <c r="C110" s="1" t="s">
-        <v>271</v>
+        <v>275</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -3936,16 +3966,16 @@
         <v>47</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>272</v>
+        <v>276</v>
       </c>
       <c r="D111" s="1" t="s">
-        <v>466</v>
+        <v>468</v>
       </c>
       <c r="E111" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="112" spans="1:5" x14ac:dyDescent="0.25">
@@ -3953,14 +3983,14 @@
         <v>47</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>273</v>
+        <v>277</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="113" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -3968,16 +3998,16 @@
         <v>47</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>274</v>
+        <v>278</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="114" spans="1:5" x14ac:dyDescent="0.25">
@@ -3985,14 +4015,14 @@
         <v>47</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>275</v>
+        <v>279</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="115" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4000,14 +4030,14 @@
         <v>48</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>276</v>
+        <v>280</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="116" spans="1:5" ht="135" x14ac:dyDescent="0.25">
@@ -4015,16 +4045,16 @@
         <v>49</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>277</v>
+        <v>281</v>
       </c>
       <c r="D116" s="1" t="s">
-        <v>468</v>
+        <v>470</v>
       </c>
       <c r="E116" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="117" spans="1:5" ht="285" x14ac:dyDescent="0.25">
@@ -4032,16 +4062,16 @@
         <v>49</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>278</v>
+        <v>282</v>
       </c>
       <c r="D117" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="118" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4049,14 +4079,14 @@
         <v>49</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>279</v>
+        <v>283</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="119" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4064,14 +4094,14 @@
         <v>49</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="120" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -4079,14 +4109,14 @@
         <v>49</v>
       </c>
       <c r="B120" s="1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="121" spans="1:5" x14ac:dyDescent="0.25">
@@ -4104,11 +4134,11 @@
       </c>
       <c r="B122" s="1"/>
       <c r="C122" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="123" spans="1:5" x14ac:dyDescent="0.25">
@@ -4117,11 +4147,11 @@
       </c>
       <c r="B123" s="1"/>
       <c r="C123" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="124" spans="1:5" x14ac:dyDescent="0.25">
@@ -4130,13 +4160,13 @@
       </c>
       <c r="B124" s="1"/>
       <c r="C124" s="1" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="D124" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E124" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="125" spans="1:5" x14ac:dyDescent="0.25">
@@ -4145,11 +4175,11 @@
       </c>
       <c r="B125" s="1"/>
       <c r="C125" s="1" t="s">
-        <v>191</v>
+        <v>195</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="126" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4157,7 +4187,7 @@
         <v>51</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="C126" s="1"/>
       <c r="D126" s="1"/>
@@ -4168,14 +4198,14 @@
         <v>52</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:5" x14ac:dyDescent="0.25">
@@ -4183,14 +4213,14 @@
         <v>52</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.25">
@@ -4198,14 +4228,14 @@
         <v>52</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.25">
@@ -4213,14 +4243,14 @@
         <v>52</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>283</v>
+        <v>287</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.25">
@@ -4228,14 +4258,14 @@
         <v>52</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>284</v>
+        <v>288</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.25">
@@ -4243,14 +4273,14 @@
         <v>52</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.25">
@@ -4258,14 +4288,14 @@
         <v>52</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>286</v>
+        <v>290</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="134" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -4273,281 +4303,279 @@
         <v>52</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="D134" s="1" t="s">
-        <v>470</v>
+        <v>472</v>
       </c>
       <c r="E134" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="B135" s="1"/>
+      <c r="B135" s="1" t="s">
+        <v>154</v>
+      </c>
       <c r="C135" s="1"/>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
     </row>
-    <row r="136" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="B136" s="1" t="s">
-        <v>151</v>
-      </c>
+      <c r="B136" s="1"/>
       <c r="C136" s="1"/>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
     </row>
-    <row r="137" spans="1:5" ht="120" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
         <v>55</v>
       </c>
       <c r="B137" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="C137" s="1" t="s">
-        <v>287</v>
-      </c>
+        <v>155</v>
+      </c>
+      <c r="C137" s="1"/>
       <c r="D137" s="1"/>
-      <c r="E137" s="1" t="s">
-        <v>200</v>
-      </c>
+      <c r="E137" s="1"/>
     </row>
     <row r="138" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B138" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>288</v>
-      </c>
-      <c r="D138" s="1" t="s">
-        <v>471</v>
-      </c>
+        <v>291</v>
+      </c>
+      <c r="D138" s="1"/>
       <c r="E138" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="139" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B139" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>289</v>
+        <v>292</v>
       </c>
       <c r="D139" s="1" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E139" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="140" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="B140" s="1" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>290</v>
+        <v>293</v>
       </c>
       <c r="D140" s="1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E140" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="141" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" ht="120" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
         <v>56</v>
       </c>
       <c r="B141" s="1" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>183</v>
-      </c>
-      <c r="D141" s="1"/>
+        <v>294</v>
+      </c>
+      <c r="D141" s="1" t="s">
+        <v>475</v>
+      </c>
       <c r="E141" s="1" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="142" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B142" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="143" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B143" s="1" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>221</v>
+        <v>186</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="B144" s="1"/>
+      <c r="B144" s="1" t="s">
+        <v>157</v>
+      </c>
       <c r="C144" s="1" t="s">
-        <v>291</v>
+        <v>225</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B145" s="1"/>
       <c r="C145" s="1" t="s">
-        <v>292</v>
+        <v>295</v>
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B146" s="1"/>
       <c r="C146" s="1" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B147" s="1"/>
       <c r="C147" s="1" t="s">
-        <v>184</v>
+        <v>297</v>
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B148" s="1"/>
       <c r="C148" s="1" t="s">
-        <v>294</v>
+        <v>188</v>
       </c>
       <c r="D148" s="1"/>
       <c r="E148" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
-        <v>102</v>
+        <v>58</v>
       </c>
       <c r="B149" s="1"/>
-      <c r="C149" s="1"/>
+      <c r="C149" s="1" t="s">
+        <v>298</v>
+      </c>
       <c r="D149" s="1"/>
-      <c r="E149" s="1"/>
-    </row>
-    <row r="150" spans="1:5" ht="255" x14ac:dyDescent="0.25">
+      <c r="E149" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>197</v>
-      </c>
+        <v>105</v>
+      </c>
+      <c r="B150" s="1"/>
+      <c r="C150" s="1"/>
       <c r="D150" s="1"/>
-      <c r="E150" s="1" t="s">
-        <v>182</v>
-      </c>
+      <c r="E150" s="1"/>
     </row>
     <row r="151" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B151" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C151" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D151" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D151" s="1"/>
       <c r="E151" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="152" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
       <c r="C152" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D152" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D152" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E152" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" ht="255" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="B153" s="1"/>
+      <c r="B153" s="1" t="s">
+        <v>158</v>
+      </c>
       <c r="C153" s="1" t="s">
-        <v>184</v>
+        <v>196</v>
       </c>
       <c r="D153" s="1"/>
       <c r="E153" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -4555,86 +4583,84 @@
         <v>60</v>
       </c>
       <c r="B154" s="1"/>
-      <c r="C154" s="1"/>
+      <c r="C154" s="1" t="s">
+        <v>188</v>
+      </c>
       <c r="D154" s="1"/>
-      <c r="E154" s="1"/>
+      <c r="E154" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
         <v>61</v>
       </c>
       <c r="B155" s="1"/>
-      <c r="C155" s="1" t="s">
-        <v>197</v>
-      </c>
+      <c r="C155" s="1"/>
       <c r="D155" s="1"/>
-      <c r="E155" s="1" t="s">
-        <v>540</v>
-      </c>
+      <c r="E155" s="1"/>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B156" s="1"/>
       <c r="C156" s="1" t="s">
-        <v>183</v>
+        <v>201</v>
       </c>
       <c r="D156" s="1"/>
       <c r="E156" s="1" t="s">
-        <v>204</v>
+        <v>543</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B157" s="1"/>
       <c r="C157" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D157" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>187</v>
+      </c>
+      <c r="D157" s="1"/>
       <c r="E157" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B158" s="1"/>
       <c r="C158" s="1" t="s">
-        <v>295</v>
-      </c>
-      <c r="D158" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D158" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E158" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B159" s="1"/>
       <c r="C159" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="D159" s="1"/>
       <c r="E159" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B160" s="1" t="s">
-        <v>117</v>
-      </c>
+        <v>62</v>
+      </c>
+      <c r="B160" s="1"/>
       <c r="C160" s="1" t="s">
-        <v>192</v>
+        <v>300</v>
       </c>
       <c r="D160" s="1"/>
       <c r="E160" s="1" t="s">
@@ -4646,46 +4672,46 @@
         <v>9</v>
       </c>
       <c r="B161" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C161" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D161" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>196</v>
+      </c>
+      <c r="D161" s="1"/>
       <c r="E161" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="162" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B162" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C162" s="1" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="D162" s="1" t="s">
-        <v>434</v>
+        <v>436</v>
       </c>
       <c r="E162" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
         <v>9</v>
       </c>
       <c r="B163" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C163" s="1" t="s">
-        <v>194</v>
-      </c>
-      <c r="D163" s="1"/>
+        <v>197</v>
+      </c>
+      <c r="D163" s="1" t="s">
+        <v>437</v>
+      </c>
       <c r="E163" s="1" t="s">
         <v>204</v>
       </c>
@@ -4695,14 +4721,14 @@
         <v>9</v>
       </c>
       <c r="B164" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C164" s="1" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="D164" s="1"/>
       <c r="E164" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="165" spans="1:5" x14ac:dyDescent="0.25">
@@ -4710,23 +4736,25 @@
         <v>9</v>
       </c>
       <c r="B165" s="1" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="C165" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="D165" s="1"/>
       <c r="E165" s="1" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
     </row>
     <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
-        <v>110</v>
-      </c>
-      <c r="B166" s="1"/>
+        <v>9</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>120</v>
+      </c>
       <c r="C166" s="1" t="s">
-        <v>389</v>
+        <v>200</v>
       </c>
       <c r="D166" s="1"/>
       <c r="E166" s="1" t="s">
@@ -4735,453 +4763,447 @@
     </row>
     <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B167" s="1"/>
       <c r="C167" s="1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="D167" s="1"/>
       <c r="E167" s="1" t="s">
-        <v>543</v>
+        <v>204</v>
       </c>
     </row>
     <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B168" s="1"/>
       <c r="C168" s="1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="D168" s="1"/>
       <c r="E168" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B169" s="1"/>
       <c r="C169" s="1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="D169" s="1"/>
       <c r="E169" s="1" t="s">
-        <v>200</v>
+        <v>546</v>
       </c>
     </row>
     <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B170" s="1"/>
       <c r="C170" s="1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="D170" s="1"/>
       <c r="E170" s="1" t="s">
-        <v>543</v>
+        <v>204</v>
       </c>
     </row>
     <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B171" s="1"/>
       <c r="C171" s="1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="D171" s="1"/>
       <c r="E171" s="1" t="s">
-        <v>543</v>
+        <v>546</v>
       </c>
     </row>
     <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B172" s="1"/>
       <c r="C172" s="1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
       <c r="D172" s="1"/>
       <c r="E172" s="1" t="s">
-        <v>200</v>
+        <v>546</v>
       </c>
     </row>
     <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="B173" s="1"/>
       <c r="C173" s="1" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="D173" s="1"/>
       <c r="E173" s="1" t="s">
-        <v>543</v>
-      </c>
-    </row>
-    <row r="174" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B174" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>113</v>
+      </c>
+      <c r="B174" s="1"/>
       <c r="C174" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D174" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>400</v>
+      </c>
+      <c r="D174" s="1"/>
       <c r="E174" s="1" t="s">
-        <v>204</v>
+        <v>546</v>
       </c>
     </row>
     <row r="175" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B175" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C175" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D175" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D175" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E175" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="176" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B176" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C176" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D176" s="1"/>
       <c r="E176" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="177" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="B177" s="1" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
       <c r="C177" s="1" t="s">
-        <v>297</v>
+        <v>196</v>
       </c>
       <c r="D177" s="1"/>
       <c r="E177" s="1" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="178" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B178" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B178" s="1"/>
       <c r="C178" s="1" t="s">
-        <v>298</v>
-      </c>
-      <c r="D178" s="1" t="s">
-        <v>474</v>
-      </c>
+        <v>301</v>
+      </c>
+      <c r="D178" s="1"/>
       <c r="E178" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B179" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B179" s="1"/>
       <c r="C179" s="1" t="s">
-        <v>299</v>
-      </c>
-      <c r="D179" s="1"/>
+        <v>302</v>
+      </c>
+      <c r="D179" s="1" t="s">
+        <v>476</v>
+      </c>
       <c r="E179" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="180" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="B180" s="1" t="s">
-        <v>155</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B180" s="1"/>
       <c r="C180" s="1" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="D180" s="1"/>
       <c r="E180" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="181" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="B181" s="1" t="s">
-        <v>156</v>
-      </c>
+        <v>64</v>
+      </c>
+      <c r="B181" s="1"/>
       <c r="C181" s="1" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="D181" s="1" t="s">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="E181" s="1" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
     </row>
     <row r="182" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B182" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="C182" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="D182" s="1"/>
+        <v>305</v>
+      </c>
+      <c r="D182" s="1" t="s">
+        <v>478</v>
+      </c>
       <c r="E182" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="183" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="B183" s="1" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="C183" s="1" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="D183" s="1"/>
       <c r="E183" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="B184" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>161</v>
+      </c>
       <c r="C184" s="1" t="s">
-        <v>304</v>
-      </c>
-      <c r="D184" s="1" t="s">
-        <v>476</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D184" s="1"/>
       <c r="E184" s="1" t="s">
-        <v>539</v>
-      </c>
-    </row>
-    <row r="185" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B185" s="1"/>
       <c r="C185" s="1" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="D185" s="1" t="s">
-        <v>477</v>
+        <v>479</v>
       </c>
       <c r="E185" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="186" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="B186" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="C186" s="1"/>
-      <c r="D186" s="1"/>
-      <c r="E186" s="1"/>
-    </row>
-    <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>67</v>
+      </c>
+      <c r="B186" s="1"/>
+      <c r="C186" s="1" t="s">
+        <v>309</v>
+      </c>
+      <c r="D186" s="1" t="s">
+        <v>480</v>
+      </c>
+      <c r="E186" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="B187" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="C187" s="1" t="s">
-        <v>397</v>
-      </c>
-      <c r="D187" s="1" t="s">
-        <v>529</v>
-      </c>
-      <c r="E187" s="1" t="s">
-        <v>544</v>
-      </c>
+        <v>183</v>
+      </c>
+      <c r="C187" s="1"/>
+      <c r="D187" s="1"/>
+      <c r="E187" s="1"/>
     </row>
     <row r="188" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B188" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C188" s="1" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="D188" s="1" t="s">
-        <v>530</v>
+        <v>532</v>
       </c>
       <c r="E188" s="1" t="s">
-        <v>544</v>
+        <v>547</v>
       </c>
     </row>
     <row r="189" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B189" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C189" s="1" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="D189" s="1" t="s">
-        <v>531</v>
+        <v>533</v>
       </c>
       <c r="E189" s="1" t="s">
-        <v>545</v>
+        <v>547</v>
       </c>
     </row>
     <row r="190" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B190" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C190" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="D190" s="1" t="s">
-        <v>532</v>
+        <v>534</v>
       </c>
       <c r="E190" s="1" t="s">
-        <v>546</v>
+        <v>548</v>
       </c>
     </row>
     <row r="191" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B191" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C191" s="1" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="D191" s="1" t="s">
-        <v>533</v>
+        <v>535</v>
       </c>
       <c r="E191" s="1" t="s">
-        <v>546</v>
+        <v>549</v>
       </c>
     </row>
     <row r="192" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B192" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C192" s="1" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="D192" s="1" t="s">
-        <v>534</v>
+        <v>536</v>
       </c>
       <c r="E192" s="1" t="s">
-        <v>547</v>
+        <v>549</v>
       </c>
     </row>
     <row r="193" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B193" s="1" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="C193" s="1" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="D193" s="1" t="s">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="E193" s="1" t="s">
-        <v>548</v>
-      </c>
-    </row>
-    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="B194" s="1"/>
-      <c r="C194" s="1"/>
-      <c r="D194" s="1"/>
-      <c r="E194" s="1"/>
+        <v>114</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C194" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="D194" s="1" t="s">
+        <v>538</v>
+      </c>
+      <c r="E194" s="1" t="s">
+        <v>551</v>
+      </c>
     </row>
     <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="1" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
       <c r="B195" s="1"/>
-      <c r="C195" s="1" t="s">
-        <v>404</v>
-      </c>
+      <c r="C195" s="1"/>
       <c r="D195" s="1"/>
-      <c r="E195" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="E195" s="1"/>
     </row>
     <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B196" s="1"/>
       <c r="C196" s="1" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="D196" s="1"/>
       <c r="E196" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B197" s="1"/>
       <c r="C197" s="1" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="D197" s="1"/>
       <c r="E197" s="1" t="s">
@@ -5190,89 +5212,89 @@
     </row>
     <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B198" s="1"/>
       <c r="C198" s="1" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="D198" s="1"/>
       <c r="E198" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B199" s="1"/>
       <c r="C199" s="1" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="D199" s="1"/>
       <c r="E199" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B200" s="1"/>
       <c r="C200" s="1" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="D200" s="1"/>
       <c r="E200" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B201" s="1"/>
       <c r="C201" s="1" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="D201" s="1"/>
       <c r="E201" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B202" s="1"/>
       <c r="C202" s="1" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="D202" s="1"/>
       <c r="E202" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B203" s="1"/>
       <c r="C203" s="1" t="s">
-        <v>412</v>
+        <v>415</v>
       </c>
       <c r="D203" s="1"/>
       <c r="E203" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B204" s="1"/>
       <c r="C204" s="1" t="s">
-        <v>413</v>
+        <v>416</v>
       </c>
       <c r="D204" s="1"/>
       <c r="E204" s="1" t="s">
@@ -5281,536 +5303,540 @@
     </row>
     <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B205" s="1"/>
       <c r="C205" s="1" t="s">
-        <v>414</v>
+        <v>417</v>
       </c>
       <c r="D205" s="1"/>
       <c r="E205" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B206" s="1"/>
       <c r="C206" s="1" t="s">
-        <v>415</v>
+        <v>418</v>
       </c>
       <c r="D206" s="1"/>
       <c r="E206" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B207" s="1"/>
       <c r="C207" s="1" t="s">
-        <v>197</v>
+        <v>419</v>
       </c>
       <c r="D207" s="1"/>
       <c r="E207" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B208" s="1"/>
       <c r="C208" s="1" t="s">
-        <v>416</v>
+        <v>201</v>
       </c>
       <c r="D208" s="1"/>
       <c r="E208" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B209" s="1"/>
       <c r="C209" s="1" t="s">
-        <v>417</v>
+        <v>420</v>
       </c>
       <c r="D209" s="1"/>
       <c r="E209" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B210" s="1"/>
       <c r="C210" s="1" t="s">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="D210" s="1"/>
       <c r="E210" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B211" s="1"/>
       <c r="C211" s="1" t="s">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="D211" s="1"/>
       <c r="E211" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B212" s="1"/>
       <c r="C212" s="1" t="s">
-        <v>420</v>
+        <v>423</v>
       </c>
       <c r="D212" s="1"/>
       <c r="E212" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B213" s="1"/>
       <c r="C213" s="1" t="s">
-        <v>421</v>
+        <v>424</v>
       </c>
       <c r="D213" s="1"/>
       <c r="E213" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B214" s="1"/>
       <c r="C214" s="1" t="s">
-        <v>422</v>
+        <v>425</v>
       </c>
       <c r="D214" s="1"/>
       <c r="E214" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B215" s="1"/>
       <c r="C215" s="1" t="s">
-        <v>423</v>
+        <v>426</v>
       </c>
       <c r="D215" s="1"/>
       <c r="E215" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B216" s="1"/>
       <c r="C216" s="1" t="s">
-        <v>424</v>
+        <v>427</v>
       </c>
       <c r="D216" s="1"/>
       <c r="E216" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="1" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="B217" s="1"/>
       <c r="C217" s="1" t="s">
-        <v>425</v>
+        <v>428</v>
       </c>
       <c r="D217" s="1"/>
       <c r="E217" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="1" t="s">
-        <v>66</v>
+        <v>115</v>
       </c>
       <c r="B218" s="1"/>
-      <c r="C218" s="1"/>
+      <c r="C218" s="1" t="s">
+        <v>429</v>
+      </c>
       <c r="D218" s="1"/>
-      <c r="E218" s="1"/>
+      <c r="E218" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B219" s="1"/>
       <c r="C219" s="1"/>
       <c r="D219" s="1"/>
       <c r="E219" s="1"/>
     </row>
-    <row r="220" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B220" s="1" t="s">
-        <v>158</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="B220" s="1"/>
       <c r="C220" s="1"/>
       <c r="D220" s="1"/>
       <c r="E220" s="1"/>
     </row>
-    <row r="221" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A221" s="1" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B221" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C221" s="1" t="s">
-        <v>306</v>
-      </c>
-      <c r="D221" s="1" t="s">
-        <v>478</v>
-      </c>
-      <c r="E221" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="222" spans="1:5" ht="135" x14ac:dyDescent="0.25">
+        <v>162</v>
+      </c>
+      <c r="C221" s="1"/>
+      <c r="D221" s="1"/>
+      <c r="E221" s="1"/>
+    </row>
+    <row r="222" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A222" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B222" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C222" s="1" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="D222" s="1" t="s">
-        <v>479</v>
+        <v>481</v>
       </c>
       <c r="E222" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="223" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A223" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B223" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C223" s="1" t="s">
-        <v>308</v>
-      </c>
-      <c r="D223" s="1"/>
+        <v>311</v>
+      </c>
+      <c r="D223" s="1" t="s">
+        <v>482</v>
+      </c>
       <c r="E223" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="224" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A224" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B224" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C224" s="1" t="s">
-        <v>309</v>
-      </c>
-      <c r="D224" s="1" t="s">
-        <v>480</v>
-      </c>
+        <v>312</v>
+      </c>
+      <c r="D224" s="1"/>
       <c r="E224" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="225" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A225" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B225" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C225" s="1" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="D225" s="1" t="s">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="E225" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="226" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A226" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B226" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C226" s="1" t="s">
-        <v>311</v>
-      </c>
-      <c r="D226" s="1"/>
+        <v>314</v>
+      </c>
+      <c r="D226" s="1" t="s">
+        <v>484</v>
+      </c>
       <c r="E226" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="227" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A227" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B227" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C227" s="1" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="D227" s="1"/>
       <c r="E227" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="228" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A228" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B228" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C228" s="1" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="D228" s="1"/>
       <c r="E228" s="1" t="s">
-        <v>182</v>
+        <v>204</v>
       </c>
     </row>
     <row r="229" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A229" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B229" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C229" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D229" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>201</v>
+      </c>
+      <c r="D229" s="1"/>
       <c r="E229" s="1" t="s">
-        <v>204</v>
+        <v>186</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A230" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B230" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C230" s="1" t="s">
-        <v>192</v>
-      </c>
-      <c r="D230" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D230" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E230" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A231" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B231" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C231" s="1" t="s">
-        <v>313</v>
+        <v>196</v>
       </c>
       <c r="D231" s="1"/>
       <c r="E231" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A232" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B232" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C232" s="1" t="s">
-        <v>314</v>
-      </c>
-      <c r="D232" s="1" t="s">
-        <v>482</v>
-      </c>
+        <v>317</v>
+      </c>
+      <c r="D232" s="1"/>
       <c r="E232" s="1" t="s">
-        <v>536</v>
+        <v>207</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A233" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B233" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C233" s="1" t="s">
-        <v>315</v>
-      </c>
-      <c r="D233" s="1"/>
+        <v>318</v>
+      </c>
+      <c r="D233" s="1" t="s">
+        <v>485</v>
+      </c>
       <c r="E233" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="234" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A234" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B234" s="1" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="C234" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="D234" s="1" t="s">
-        <v>483</v>
-      </c>
+        <v>319</v>
+      </c>
+      <c r="D234" s="1"/>
       <c r="E234" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="235" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A235" s="1" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B235" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="C235" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="D235" s="1"/>
+        <v>320</v>
+      </c>
+      <c r="D235" s="1" t="s">
+        <v>486</v>
+      </c>
       <c r="E235" s="1" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
     </row>
     <row r="236" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A236" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B236" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C236" s="1" t="s">
-        <v>317</v>
-      </c>
-      <c r="D236" s="1" t="s">
-        <v>484</v>
-      </c>
+        <v>265</v>
+      </c>
+      <c r="D236" s="1"/>
       <c r="E236" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="237" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A237" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B237" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C237" s="1" t="s">
-        <v>318</v>
-      </c>
-      <c r="D237" s="1"/>
+        <v>321</v>
+      </c>
+      <c r="D237" s="1" t="s">
+        <v>487</v>
+      </c>
       <c r="E237" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A238" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B238" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C238" s="1" t="s">
-        <v>319</v>
-      </c>
-      <c r="D238" s="1" t="s">
-        <v>485</v>
-      </c>
+        <v>322</v>
+      </c>
+      <c r="D238" s="1"/>
       <c r="E238" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A239" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B239" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C239" s="1" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="D239" s="1" t="s">
-        <v>486</v>
+        <v>488</v>
       </c>
       <c r="E239" s="1" t="s">
-        <v>536</v>
+        <v>205</v>
       </c>
     </row>
     <row r="240" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A240" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B240" s="1" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="C240" s="1" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="D240" s="1" t="s">
-        <v>487</v>
+        <v>489</v>
       </c>
       <c r="E240" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A241" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="B241" s="1"/>
-      <c r="C241" s="1"/>
-      <c r="D241" s="1"/>
-      <c r="E241" s="1"/>
+        <v>72</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C241" s="1" t="s">
+        <v>325</v>
+      </c>
+      <c r="D241" s="1" t="s">
+        <v>490</v>
+      </c>
+      <c r="E241" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B242" s="1"/>
       <c r="C242" s="1"/>
@@ -5819,269 +5845,261 @@
     </row>
     <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="1" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B243" s="1"/>
       <c r="C243" s="1"/>
       <c r="D243" s="1"/>
       <c r="E243" s="1"/>
     </row>
-    <row r="244" spans="1:5" ht="240" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B244" s="1" t="s">
-        <v>161</v>
-      </c>
-      <c r="C244" s="1" t="s">
-        <v>322</v>
-      </c>
-      <c r="D244" s="1" t="s">
-        <v>488</v>
-      </c>
-      <c r="E244" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="245" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>75</v>
+      </c>
+      <c r="B244" s="1"/>
+      <c r="C244" s="1"/>
+      <c r="D244" s="1"/>
+      <c r="E244" s="1"/>
+    </row>
+    <row r="245" spans="1:5" ht="240" x14ac:dyDescent="0.25">
       <c r="A245" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="B245" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="C245" s="1" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="D245" s="1" t="s">
-        <v>489</v>
+        <v>491</v>
       </c>
       <c r="E245" s="1" t="s">
-        <v>536</v>
+        <v>207</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A246" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B246" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C246" s="1" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="D246" s="1" t="s">
-        <v>490</v>
+        <v>492</v>
       </c>
       <c r="E246" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A247" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B247" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C247" s="1" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="D247" s="1" t="s">
-        <v>491</v>
+        <v>493</v>
       </c>
       <c r="E247" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A248" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B248" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C248" s="1" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="D248" s="1" t="s">
-        <v>492</v>
+        <v>494</v>
       </c>
       <c r="E248" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A249" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B249" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C249" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="D249" s="1"/>
+        <v>330</v>
+      </c>
+      <c r="D249" s="1" t="s">
+        <v>495</v>
+      </c>
       <c r="E249" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="250" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A250" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B250" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C250" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="D250" s="1" t="s">
-        <v>493</v>
-      </c>
+        <v>331</v>
+      </c>
+      <c r="D250" s="1"/>
       <c r="E250" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="251" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A251" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B251" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C251" s="1" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="D251" s="1" t="s">
-        <v>494</v>
+        <v>496</v>
       </c>
       <c r="E251" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="252" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A252" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B252" s="1" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="C252" s="1" t="s">
-        <v>268</v>
+        <v>333</v>
       </c>
       <c r="D252" s="1" t="s">
-        <v>495</v>
+        <v>497</v>
       </c>
       <c r="E252" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A253" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="B253" s="1"/>
-      <c r="C253" s="1"/>
-      <c r="D253" s="1"/>
-      <c r="E253" s="1"/>
-    </row>
-    <row r="254" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>77</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="C253" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="D253" s="1" t="s">
+        <v>498</v>
+      </c>
+      <c r="E253" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="B254" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C254" s="1" t="s">
-        <v>330</v>
-      </c>
-      <c r="D254" s="1" t="s">
-        <v>496</v>
-      </c>
-      <c r="E254" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="255" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>78</v>
+      </c>
+      <c r="B254" s="1"/>
+      <c r="C254" s="1"/>
+      <c r="D254" s="1"/>
+      <c r="E254" s="1"/>
+    </row>
+    <row r="255" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A255" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B255" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C255" s="1" t="s">
-        <v>331</v>
-      </c>
-      <c r="D255" s="1"/>
+        <v>334</v>
+      </c>
+      <c r="D255" s="1" t="s">
+        <v>499</v>
+      </c>
       <c r="E255" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="256" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A256" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B256" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C256" s="1" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="D256" s="1"/>
       <c r="E256" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="257" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A257" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B257" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C257" s="1" t="s">
-        <v>333</v>
-      </c>
-      <c r="D257" s="1" t="s">
-        <v>497</v>
-      </c>
+        <v>336</v>
+      </c>
+      <c r="D257" s="1"/>
       <c r="E257" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="258" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A258" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B258" s="1" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="C258" s="1" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="D258" s="1" t="s">
-        <v>498</v>
+        <v>500</v>
       </c>
       <c r="E258" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="259" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A259" s="1" t="s">
-        <v>11</v>
+        <v>79</v>
       </c>
       <c r="B259" s="1" t="s">
-        <v>119</v>
+        <v>167</v>
       </c>
       <c r="C259" s="1" t="s">
-        <v>184</v>
+        <v>338</v>
       </c>
       <c r="D259" s="1" t="s">
-        <v>433</v>
+        <v>501</v>
       </c>
       <c r="E259" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="260" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6089,14 +6107,16 @@
         <v>11</v>
       </c>
       <c r="B260" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C260" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D260" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D260" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E260" s="1" t="s">
-        <v>182</v>
+        <v>208</v>
       </c>
     </row>
     <row r="261" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6104,40 +6124,40 @@
         <v>11</v>
       </c>
       <c r="B261" s="1" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="C261" s="1" t="s">
-        <v>192</v>
+        <v>201</v>
       </c>
       <c r="D261" s="1"/>
       <c r="E261" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="262" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A262" s="1" t="s">
-        <v>78</v>
+        <v>11</v>
       </c>
       <c r="B262" s="1" t="s">
-        <v>164</v>
+        <v>122</v>
       </c>
       <c r="C262" s="1" t="s">
-        <v>335</v>
+        <v>196</v>
       </c>
       <c r="D262" s="1"/>
       <c r="E262" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="263" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A263" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B263" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C263" s="1" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="D263" s="1"/>
       <c r="E263" s="1" t="s">
@@ -6146,303 +6166,309 @@
     </row>
     <row r="264" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A264" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B264" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C264" s="1" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="D264" s="1"/>
       <c r="E264" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="265" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A265" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B265" s="1" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="C265" s="1" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="D265" s="1"/>
       <c r="E265" s="1" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A266" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="B266" s="1"/>
-      <c r="C266" s="1"/>
+        <v>80</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C266" s="1" t="s">
+        <v>342</v>
+      </c>
       <c r="D266" s="1"/>
-      <c r="E266" s="1"/>
-    </row>
-    <row r="267" spans="1:5" ht="165" x14ac:dyDescent="0.25">
+      <c r="E266" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="B267" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="C267" s="1" t="s">
-        <v>339</v>
-      </c>
-      <c r="D267" s="1" t="s">
-        <v>499</v>
-      </c>
-      <c r="E267" s="1" t="s">
-        <v>203</v>
-      </c>
+        <v>81</v>
+      </c>
+      <c r="B267" s="1"/>
+      <c r="C267" s="1"/>
+      <c r="D267" s="1"/>
+      <c r="E267" s="1"/>
     </row>
     <row r="268" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A268" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B268" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C268" s="1" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="D268" s="1" t="s">
-        <v>500</v>
+        <v>502</v>
       </c>
       <c r="E268" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="269" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A269" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B269" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C269" s="1" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="D269" s="1" t="s">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E269" s="1" t="s">
-        <v>199</v>
+        <v>204</v>
       </c>
     </row>
     <row r="270" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A270" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B270" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C270" s="1" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="D270" s="1" t="s">
-        <v>502</v>
+        <v>504</v>
       </c>
       <c r="E270" s="1" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
     </row>
     <row r="271" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A271" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B271" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C271" s="1" t="s">
-        <v>343</v>
-      </c>
-      <c r="D271" s="1"/>
+        <v>346</v>
+      </c>
+      <c r="D271" s="1" t="s">
+        <v>505</v>
+      </c>
       <c r="E271" s="1" t="s">
         <v>204</v>
       </c>
     </row>
     <row r="272" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A272" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B272" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C272" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="D272" s="1" t="s">
-        <v>503</v>
-      </c>
+        <v>347</v>
+      </c>
+      <c r="D272" s="1"/>
       <c r="E272" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="273" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A273" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B273" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C273" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="D273" s="1"/>
+        <v>348</v>
+      </c>
+      <c r="D273" s="1" t="s">
+        <v>506</v>
+      </c>
       <c r="E273" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="274" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A274" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B274" s="1" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="C274" s="1" t="s">
-        <v>346</v>
-      </c>
-      <c r="D274" s="1" t="s">
-        <v>504</v>
-      </c>
+        <v>349</v>
+      </c>
+      <c r="D274" s="1"/>
       <c r="E274" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A275" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="B275" s="1"/>
-      <c r="C275" s="1"/>
-      <c r="D275" s="1"/>
-      <c r="E275" s="1"/>
-    </row>
-    <row r="276" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>82</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C275" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="D275" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="E275" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="B276" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C276" s="1" t="s">
-        <v>347</v>
-      </c>
+        <v>83</v>
+      </c>
+      <c r="B276" s="1"/>
+      <c r="C276" s="1"/>
       <c r="D276" s="1"/>
-      <c r="E276" s="1" t="s">
-        <v>204</v>
-      </c>
+      <c r="E276" s="1"/>
     </row>
     <row r="277" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A277" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B277" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C277" s="1" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="D277" s="1"/>
       <c r="E277" s="1" t="s">
-        <v>539</v>
+        <v>208</v>
       </c>
     </row>
     <row r="278" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A278" s="1" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B278" s="1" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
       <c r="C278" s="1" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="D278" s="1"/>
       <c r="E278" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="279" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A279" s="1" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="B279" s="1" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="C279" s="1" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="D279" s="1"/>
       <c r="E279" s="1" t="s">
-        <v>201</v>
+        <v>208</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A280" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B280" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="C280" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D280" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>354</v>
+      </c>
+      <c r="D280" s="1"/>
       <c r="E280" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="281" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A281" s="1" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B281" s="1" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="C281" s="1" t="s">
-        <v>206</v>
-      </c>
-      <c r="D281" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D281" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E281" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="282" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A282" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B282" s="1" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="C282" s="1" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="D282" s="1"/>
       <c r="E282" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A283" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="B283" s="1"/>
-      <c r="C283" s="1"/>
+        <v>86</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="C283" s="1" t="s">
+        <v>211</v>
+      </c>
       <c r="D283" s="1"/>
-      <c r="E283" s="1"/>
+      <c r="E283" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="1" t="s">
-        <v>107</v>
+        <v>87</v>
       </c>
       <c r="B284" s="1"/>
       <c r="C284" s="1"/>
@@ -6451,709 +6477,701 @@
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="1" t="s">
-        <v>86</v>
+        <v>110</v>
       </c>
       <c r="B285" s="1"/>
-      <c r="C285" s="1" t="s">
-        <v>184</v>
-      </c>
+      <c r="C285" s="1"/>
       <c r="D285" s="1"/>
-      <c r="E285" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="286" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+      <c r="E285" s="1"/>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="B286" s="1" t="s">
-        <v>169</v>
-      </c>
+        <v>88</v>
+      </c>
+      <c r="B286" s="1"/>
       <c r="C286" s="1" t="s">
-        <v>351</v>
-      </c>
-      <c r="D286" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="D286" s="1"/>
       <c r="E286" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="287" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A287" s="1" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B287" s="1" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="C287" s="1" t="s">
-        <v>184</v>
+        <v>355</v>
       </c>
       <c r="D287" s="1" t="s">
-        <v>433</v>
+        <v>436</v>
       </c>
       <c r="E287" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="288" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A288" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B288" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C288" s="1" t="s">
-        <v>352</v>
+        <v>188</v>
       </c>
       <c r="D288" s="1" t="s">
-        <v>505</v>
+        <v>436</v>
       </c>
       <c r="E288" s="1" t="s">
-        <v>541</v>
+        <v>208</v>
       </c>
     </row>
     <row r="289" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A289" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B289" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C289" s="1" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="D289" s="1" t="s">
-        <v>506</v>
+        <v>508</v>
       </c>
       <c r="E289" s="1" t="s">
-        <v>200</v>
+        <v>544</v>
       </c>
     </row>
     <row r="290" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A290" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B290" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C290" s="1" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="D290" s="1" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E290" s="1" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A291" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B291" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C291" s="1" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="D291" s="1" t="s">
-        <v>508</v>
+        <v>510</v>
       </c>
       <c r="E291" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="292" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A292" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B292" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C292" s="1" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="D292" s="1" t="s">
-        <v>509</v>
+        <v>511</v>
       </c>
       <c r="E292" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="293" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A293" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B293" s="1" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="C293" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="D293" s="1" t="s">
+        <v>512</v>
+      </c>
+      <c r="E293" s="1" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+      <c r="A294" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C294" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D293" s="1" t="s">
-        <v>510</v>
-      </c>
-      <c r="E293" s="1" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="294" spans="1:5" ht="75" x14ac:dyDescent="0.25">
-      <c r="A294" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="B294" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C294" s="1" t="s">
-        <v>357</v>
-      </c>
       <c r="D294" s="1" t="s">
-        <v>511</v>
+        <v>513</v>
       </c>
       <c r="E294" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="295" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A295" s="1" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B295" s="1" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="C295" s="1" t="s">
-        <v>184</v>
+        <v>361</v>
       </c>
       <c r="D295" s="1" t="s">
-        <v>512</v>
+        <v>514</v>
       </c>
       <c r="E295" s="1" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="296" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A296" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B296" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C296" s="1" t="s">
-        <v>358</v>
+        <v>188</v>
       </c>
       <c r="D296" s="1" t="s">
-        <v>513</v>
+        <v>515</v>
       </c>
       <c r="E296" s="1" t="s">
-        <v>541</v>
+        <v>208</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A297" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B297" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C297" s="1" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
       <c r="D297" s="1" t="s">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="E297" s="1" t="s">
-        <v>541</v>
-      </c>
-    </row>
-    <row r="298" spans="1:5" ht="90" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A298" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B298" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C298" s="1" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="D298" s="1" t="s">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="E298" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="299" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A299" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B299" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C299" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="D299" s="1"/>
+        <v>364</v>
+      </c>
+      <c r="D299" s="1" t="s">
+        <v>518</v>
+      </c>
       <c r="E299" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A300" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B300" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C300" s="1" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="D300" s="1"/>
       <c r="E300" s="1" t="s">
-        <v>203</v>
+        <v>208</v>
       </c>
     </row>
     <row r="301" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A301" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B301" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C301" s="1" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="D301" s="1"/>
       <c r="E301" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="302" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A302" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B302" s="1" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="C302" s="1" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="D302" s="1"/>
       <c r="E302" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="303" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A303" s="1" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B303" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="C303" s="1" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="D303" s="1"/>
       <c r="E303" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="304" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A304" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B304" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C304" s="1" t="s">
-        <v>366</v>
-      </c>
-      <c r="D304" s="1" t="s">
-        <v>516</v>
-      </c>
+        <v>369</v>
+      </c>
+      <c r="D304" s="1"/>
       <c r="E304" s="1" t="s">
-        <v>542</v>
+        <v>204</v>
       </c>
     </row>
     <row r="305" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A305" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B305" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C305" s="1" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="D305" s="1" t="s">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="E305" s="1" t="s">
-        <v>542</v>
+        <v>545</v>
       </c>
     </row>
     <row r="306" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A306" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B306" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C306" s="1" t="s">
-        <v>303</v>
-      </c>
-      <c r="D306" s="1"/>
+        <v>371</v>
+      </c>
+      <c r="D306" s="1" t="s">
+        <v>520</v>
+      </c>
       <c r="E306" s="1" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="307" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A307" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B307" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C307" s="1" t="s">
-        <v>368</v>
-      </c>
-      <c r="D307" s="1" t="s">
-        <v>518</v>
-      </c>
+        <v>307</v>
+      </c>
+      <c r="D307" s="1"/>
       <c r="E307" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="308" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A308" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B308" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C308" s="1" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="D308" s="1" t="s">
-        <v>519</v>
+        <v>521</v>
       </c>
       <c r="E308" s="1" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="309" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A309" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B309" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C309" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="D309" s="1"/>
+        <v>373</v>
+      </c>
+      <c r="D309" s="1" t="s">
+        <v>522</v>
+      </c>
       <c r="E309" s="1" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
     </row>
     <row r="310" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A310" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B310" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C310" s="1" t="s">
-        <v>370</v>
-      </c>
-      <c r="D310" s="1" t="s">
-        <v>520</v>
-      </c>
+        <v>39</v>
+      </c>
+      <c r="D310" s="1"/>
       <c r="E310" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="311" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A311" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B311" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C311" s="1" t="s">
-        <v>371</v>
-      </c>
-      <c r="D311" s="1"/>
+        <v>374</v>
+      </c>
+      <c r="D311" s="1" t="s">
+        <v>523</v>
+      </c>
       <c r="E311" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="312" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A312" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B312" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C312" s="1" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="D312" s="1"/>
       <c r="E312" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="313" spans="1:5" ht="180" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A313" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B313" s="1" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="C313" s="1" t="s">
-        <v>373</v>
-      </c>
-      <c r="D313" s="1" t="s">
-        <v>521</v>
-      </c>
+        <v>376</v>
+      </c>
+      <c r="D313" s="1"/>
       <c r="E313" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="314" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" ht="180" x14ac:dyDescent="0.25">
       <c r="A314" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="B314" s="1"/>
+        <v>92</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>176</v>
+      </c>
       <c r="C314" s="1" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="D314" s="1" t="s">
-        <v>522</v>
+        <v>524</v>
       </c>
       <c r="E314" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="315" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A315" s="1" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B315" s="1"/>
       <c r="C315" s="1" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="D315" s="1" t="s">
-        <v>523</v>
+        <v>525</v>
       </c>
       <c r="E315" s="1" t="s">
         <v>204</v>
       </c>
     </row>
-    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A316" s="1" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B316" s="1"/>
-      <c r="C316" s="1"/>
-      <c r="D316" s="1"/>
-      <c r="E316" s="1"/>
+      <c r="C316" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="D316" s="1" t="s">
+        <v>526</v>
+      </c>
+      <c r="E316" s="1" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="B317" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="C317" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D317" s="1" t="s">
-        <v>433</v>
-      </c>
-      <c r="E317" s="1" t="s">
-        <v>204</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="B317" s="1"/>
+      <c r="C317" s="1"/>
+      <c r="D317" s="1"/>
+      <c r="E317" s="1"/>
     </row>
     <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B318" s="1" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C318" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="D318" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D318" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E318" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="319" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="1" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B319" s="1" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="C319" s="1" t="s">
-        <v>376</v>
-      </c>
-      <c r="D319" s="1" t="s">
-        <v>524</v>
-      </c>
+        <v>186</v>
+      </c>
+      <c r="D319" s="1"/>
       <c r="E319" s="1" t="s">
-        <v>203</v>
+        <v>186</v>
       </c>
     </row>
     <row r="320" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A320" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B320" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C320" s="1" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="D320" s="1" t="s">
-        <v>525</v>
+        <v>527</v>
       </c>
       <c r="E320" s="1" t="s">
-        <v>200</v>
+        <v>207</v>
       </c>
     </row>
     <row r="321" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A321" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B321" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C321" s="1" t="s">
-        <v>378</v>
-      </c>
-      <c r="D321" s="1"/>
+        <v>381</v>
+      </c>
+      <c r="D321" s="1" t="s">
+        <v>528</v>
+      </c>
       <c r="E321" s="1" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="322" spans="1:5" ht="75" x14ac:dyDescent="0.25">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="B322" s="1" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="C322" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="D322" s="1"/>
+      <c r="E322" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" ht="150" x14ac:dyDescent="0.25">
+      <c r="A323" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C323" s="1"/>
+      <c r="D323" s="1"/>
+      <c r="E323" s="1"/>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A324" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D322" s="1" t="s">
-        <v>526</v>
-      </c>
-      <c r="E322" s="1" t="s">
-        <v>536</v>
-      </c>
-    </row>
-    <row r="323" spans="1:5" ht="60" x14ac:dyDescent="0.25">
-      <c r="A323" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="B323" s="1" t="s">
-        <v>174</v>
-      </c>
-      <c r="C323" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="D323" s="1"/>
-      <c r="E323" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="324" spans="1:5" ht="150" x14ac:dyDescent="0.25">
-      <c r="A324" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="B324" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C324" s="1"/>
+      <c r="B324" s="1"/>
+      <c r="C324" s="1" t="s">
+        <v>382</v>
+      </c>
       <c r="D324" s="1"/>
-      <c r="E324" s="1"/>
+      <c r="E324" s="1" t="s">
+        <v>539</v>
+      </c>
     </row>
     <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B325" s="1"/>
       <c r="C325" s="1" t="s">
-        <v>379</v>
-      </c>
-      <c r="D325" s="1"/>
+        <v>188</v>
+      </c>
+      <c r="D325" s="1" t="s">
+        <v>436</v>
+      </c>
       <c r="E325" s="1" t="s">
-        <v>536</v>
+        <v>208</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B326" s="1"/>
       <c r="C326" s="1" t="s">
-        <v>184</v>
-      </c>
-      <c r="D326" s="1" t="s">
-        <v>433</v>
-      </c>
+        <v>383</v>
+      </c>
+      <c r="D326" s="1"/>
       <c r="E326" s="1" t="s">
-        <v>204</v>
+        <v>540</v>
       </c>
     </row>
     <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="1" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B327" s="1"/>
       <c r="C327" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="D327" s="1"/>
+        <v>384</v>
+      </c>
+      <c r="D327" s="1" t="s">
+        <v>529</v>
+      </c>
       <c r="E327" s="1" t="s">
-        <v>537</v>
+        <v>540</v>
       </c>
     </row>
     <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B328" s="1"/>
-      <c r="C328" s="1" t="s">
-        <v>381</v>
-      </c>
-      <c r="D328" s="1" t="s">
-        <v>527</v>
-      </c>
-      <c r="E328" s="1" t="s">
-        <v>537</v>
-      </c>
-    </row>
-    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="C328" s="1"/>
+      <c r="D328" s="1"/>
+      <c r="E328" s="1"/>
+    </row>
+    <row r="329" spans="1:5" ht="165" x14ac:dyDescent="0.25">
       <c r="A329" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B329" s="1"/>
-      <c r="C329" s="1"/>
-      <c r="D329" s="1"/>
-      <c r="E329" s="1"/>
+      <c r="C329" s="1" t="s">
+        <v>385</v>
+      </c>
+      <c r="D329" s="1" t="s">
+        <v>530</v>
+      </c>
+      <c r="E329" s="1" t="s">
+        <v>207</v>
+      </c>
     </row>
     <row r="330" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A330" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B330" s="1" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="C330" s="1"/>
       <c r="D330" s="1"/>
@@ -7161,17 +7179,17 @@
     </row>
     <row r="331" spans="1:5" ht="75" x14ac:dyDescent="0.25">
       <c r="A331" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B331" s="1" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="C331" s="1" t="s">
-        <v>303</v>
+        <v>307</v>
       </c>
       <c r="D331" s="1"/>
       <c r="E331" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="332" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7179,14 +7197,14 @@
         <v>10</v>
       </c>
       <c r="B332" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C332" s="1" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="D332" s="1"/>
       <c r="E332" s="1" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="333" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7194,14 +7212,14 @@
         <v>10</v>
       </c>
       <c r="B333" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C333" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="D333" s="1"/>
       <c r="E333" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7209,14 +7227,14 @@
         <v>10</v>
       </c>
       <c r="B334" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C334" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
       <c r="D334" s="1"/>
       <c r="E334" s="1" t="s">
-        <v>199</v>
+        <v>203</v>
       </c>
     </row>
     <row r="335" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7224,14 +7242,14 @@
         <v>10</v>
       </c>
       <c r="B335" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C335" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
       <c r="D335" s="1"/>
       <c r="E335" s="1" t="s">
-        <v>200</v>
+        <v>204</v>
       </c>
     </row>
     <row r="336" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7239,14 +7257,14 @@
         <v>10</v>
       </c>
       <c r="B336" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C336" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
       <c r="D336" s="1"/>
       <c r="E336" s="1" t="s">
-        <v>201</v>
+        <v>205</v>
       </c>
     </row>
     <row r="337" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7254,14 +7272,14 @@
         <v>10</v>
       </c>
       <c r="B337" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C337" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
       <c r="D337" s="1"/>
       <c r="E337" s="1" t="s">
-        <v>202</v>
+        <v>206</v>
       </c>
     </row>
     <row r="338" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7269,14 +7287,14 @@
         <v>10</v>
       </c>
       <c r="B338" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C338" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
       <c r="D338" s="1"/>
       <c r="E338" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="339" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7284,14 +7302,14 @@
         <v>10</v>
       </c>
       <c r="B339" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C339" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
       <c r="D339" s="1"/>
       <c r="E339" s="1" t="s">
-        <v>196</v>
+        <v>200</v>
       </c>
     </row>
     <row r="340" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7299,14 +7317,14 @@
         <v>10</v>
       </c>
       <c r="B340" s="1" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="C340" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="D340" s="1"/>
       <c r="E340" s="1" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
     </row>
     <row r="341" spans="1:5" x14ac:dyDescent="0.25">
@@ -7315,11 +7333,11 @@
       </c>
       <c r="B341" s="1"/>
       <c r="C341" s="1" t="s">
-        <v>382</v>
+        <v>386</v>
       </c>
       <c r="D341" s="1"/>
       <c r="E341" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="342" spans="1:5" x14ac:dyDescent="0.25">
@@ -7328,11 +7346,11 @@
       </c>
       <c r="B342" s="1"/>
       <c r="C342" s="1" t="s">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="D342" s="1"/>
       <c r="E342" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="343" spans="1:5" x14ac:dyDescent="0.25">
@@ -7341,16 +7359,16 @@
       </c>
       <c r="B343" s="1"/>
       <c r="C343" s="1" t="s">
-        <v>384</v>
+        <v>388</v>
       </c>
       <c r="D343" s="1"/>
       <c r="E343" s="1" t="s">
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="1" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="B344" s="1"/>
       <c r="C344" s="1"/>
@@ -7359,39 +7377,39 @@
     </row>
     <row r="345" spans="1:5" ht="105" x14ac:dyDescent="0.25">
       <c r="A345" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B345" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C345" s="1" t="s">
-        <v>385</v>
+        <v>389</v>
       </c>
       <c r="D345" s="1" t="s">
-        <v>528</v>
+        <v>531</v>
       </c>
       <c r="E345" s="1" t="s">
-        <v>536</v>
+        <v>539</v>
       </c>
     </row>
     <row r="346" spans="1:5" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B346" s="1" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="C346" s="1" t="s">
-        <v>386</v>
+        <v>390</v>
       </c>
       <c r="D346" s="1"/>
       <c r="E346" s="1" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B347" s="1"/>
       <c r="C347" s="1"/>

--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -12,7 +12,7 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11535"/>
   </bookViews>
   <sheets>
-    <sheet name="ePO Glossary" sheetId="1" r:id="rId1"/>
+    <sheet name="Glossary" sheetId="1" r:id="rId1"/>
     <sheet name="Code Lists" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="0"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2700" uniqueCount="1374">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2709" uniqueCount="1381">
   <si>
     <t>ClassName</t>
   </si>
@@ -887,13 +887,13 @@
     <t>Contractor Legal Form Requirement</t>
   </si>
   <si>
-    <t>Contract Legal Form Requirement Description</t>
+    <t>Contractor Legal Form Requirement Description</t>
   </si>
   <si>
     <t>Payment Arrangements</t>
   </si>
   <si>
-    <t>Sheltered Employement Usage</t>
+    <t>Reserved Execution</t>
   </si>
   <si>
     <t>BroadPlaceOfPerformance</t>
@@ -1465,6 +1465,11 @@
   </si>
   <si>
     <t>Identifies unambiguously and uniquely a particular structure of data inside the group and across all procurement procedures.</t>
+  </si>
+  <si>
+    <t>The type of threshold for an Award Criterion.
+Additional Information
+For example, a minimum score or a maximum number of tenders with the highest score passing.</t>
   </si>
   <si>
     <t>An indication whether any tenderer has been chosen for a contract or framework agreement.
@@ -1508,10 +1513,12 @@
 (WG approval 2019-01-16)</t>
   </si>
   <si>
-    <t>Electronic means are used for requesting and purchasing in the post-award process.</t>
-  </si>
-  <si>
-    <t>Electronic means are used for paying the winner of the contract in the post-award process.</t>
+    <t>Electronic means will be used for requesting and purchasing in the post-award process.
+WG Approval 12/09/2019</t>
+  </si>
+  <si>
+    <t>Electronic means will be used for invoicing in the post-award process.
+WG Approval 12/09/2019</t>
   </si>
   <si>
     <t>The maximum number of times the contract can be renewed. 
@@ -1539,7 +1546,8 @@
 WG Pending of discussion with eForms</t>
   </si>
   <si>
-    <t>&lt;font color="#24292e"&gt;The execution of the contract is restricted to the framework of sheltered employment programmers&lt;/font&gt;.</t>
+    <t>&lt;font color="#24292e"&gt;The execution of the contract is restricted to the framework of sheltered employment programmes&lt;/font&gt;.
+WG Approval 12/09/2019</t>
   </si>
   <si>
     <t>Geopolitical zone where the contract can be executed.
@@ -1552,8 +1560,9 @@
   </si>
   <si>
     <t>The particular conditions and additional information related to the execution of the contract.
-Additional Information: e.g. specific information about the place of performance, intermediary deliverables, compensation for damages, intellectual property rights.
-(WG approval 15-01-2019)</t>
+Additional Information: 
+For example, specific information about the place of performance, intermediary deliverables, compensation for damages, intellectual property rights.
+WG approval 15-01-2019</t>
   </si>
   <si>
     <t>Indicates whether the procuring entity is bound to apply the decision of the jury.</t>
@@ -1806,6 +1815,19 @@
 WG Approval 09/04/2019</t>
   </si>
   <si>
+    <t>The deadline by which the security clearance must be submitted to the buyer.
+WG Approval 12/09/2019</t>
+  </si>
+  <si>
+    <t>Additional information about the security clearance (e.g. which level of security clearance is required, which team members must have it, whether it is necessary already for accessing the procurement documents or only for contract execution).
+WG Approval 12/09/2019</t>
+  </si>
+  <si>
+    <t>The type of threshold for a Selection Criterion.
+Additional Information
+For example, a minimum score or a maximum number of tenders with the highest score passing.</t>
+  </si>
+  <si>
     <t>The estimated proportion foreseen to be subcontracted.</t>
   </si>
   <si>
@@ -4375,6 +4397,15 @@
   </si>
   <si>
     <t>CGA</t>
+  </si>
+  <si>
+    <t>applicability</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>yes</t>
   </si>
   <si>
     <t>Accessibility criteria for persons with disabilities are not included with the following justification.</t>
@@ -4589,10 +4620,10 @@
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D431" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
-  <autoFilter ref="A1:D431"/>
-  <sortState ref="A2:D431">
-    <sortCondition ref="A1:A431"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table13" displayName="Table13" ref="A1:D434" totalsRowShown="0" headerRowDxfId="5" dataDxfId="4">
+  <autoFilter ref="A1:D434"/>
+  <sortState ref="A2:D434">
+    <sortCondition ref="A1:A434"/>
   </sortState>
   <tableColumns count="4">
     <tableColumn id="1" name="CodeListName" dataDxfId="3"/>
@@ -4870,14 +4901,14 @@
   <dimension ref="A1:E335"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" style="1" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="81.140625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="42.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="44.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="81.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="15.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9.140625" style="1"/>
@@ -4943,7 +4974,9 @@
       <c r="C5" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D5" s="2"/>
+      <c r="D5" s="2" t="s">
+        <v>437</v>
+      </c>
       <c r="E5" s="2" t="s">
         <v>210</v>
       </c>
@@ -4975,7 +5008,7 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5019,7 +5052,7 @@
         <v>223</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="E10" s="2" t="s">
         <v>213</v>
@@ -5037,7 +5070,7 @@
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -5062,7 +5095,7 @@
         <v>225</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="E13" s="2" t="s">
         <v>215</v>
@@ -5079,7 +5112,7 @@
         <v>226</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>213</v>
@@ -5096,7 +5129,7 @@
         <v>227</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>214</v>
@@ -5209,7 +5242,7 @@
         <v>232</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="E24" s="2" t="s">
         <v>214</v>
@@ -5250,7 +5283,7 @@
         <v>233</v>
       </c>
       <c r="D27" s="2" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="E27" s="2" t="s">
         <v>215</v>
@@ -5267,7 +5300,7 @@
         <v>234</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="E28" s="2" t="s">
         <v>211</v>
@@ -5340,7 +5373,7 @@
         <v>236</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="E33" s="2" t="s">
         <v>213</v>
@@ -5357,7 +5390,7 @@
         <v>237</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="E34" s="2" t="s">
         <v>215</v>
@@ -5383,7 +5416,7 @@
         <v>238</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="E36" s="2" t="s">
         <v>213</v>
@@ -5399,9 +5432,7 @@
       <c r="C37" s="2" t="s">
         <v>239</v>
       </c>
-      <c r="D37" s="2" t="s">
-        <v>447</v>
-      </c>
+      <c r="D37" s="2"/>
       <c r="E37" s="2" t="s">
         <v>213</v>
       </c>
@@ -5416,7 +5447,9 @@
       <c r="C38" s="2" t="s">
         <v>240</v>
       </c>
-      <c r="D38" s="2"/>
+      <c r="D38" s="2" t="s">
+        <v>448</v>
+      </c>
       <c r="E38" s="2" t="s">
         <v>213</v>
       </c>
@@ -5447,10 +5480,10 @@
         <v>242</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="E40" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="41" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -5464,7 +5497,7 @@
         <v>243</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="E41" s="2" t="s">
         <v>215</v>
@@ -5481,7 +5514,7 @@
         <v>244</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="E42" s="2" t="s">
         <v>213</v>
@@ -5498,7 +5531,7 @@
         <v>245</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="E43" s="2" t="s">
         <v>215</v>
@@ -5515,13 +5548,13 @@
         <v>246</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="E44" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="45" spans="1:5" ht="45" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" ht="60" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
         <v>30</v>
       </c>
@@ -5532,7 +5565,7 @@
         <v>247</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="E45" s="2" t="s">
         <v>210</v>
@@ -5549,7 +5582,7 @@
         <v>248</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="E46" s="2" t="s">
         <v>210</v>
@@ -5566,13 +5599,13 @@
         <v>249</v>
       </c>
       <c r="D47" s="2" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="E47" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="48" spans="1:5" ht="105" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" ht="135" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
         <v>30</v>
       </c>
@@ -5583,7 +5616,7 @@
         <v>250</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="E48" s="2" t="s">
         <v>215</v>
@@ -5738,7 +5771,7 @@
         <v>433</v>
       </c>
       <c r="E58" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="59" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -6039,7 +6072,7 @@
         <v>252</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="E78" s="2" t="s">
         <v>213</v>
@@ -6057,7 +6090,7 @@
       </c>
       <c r="D79" s="2"/>
       <c r="E79" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="80" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -6072,7 +6105,7 @@
       </c>
       <c r="D80" s="2"/>
       <c r="E80" s="2" t="s">
-        <v>548</v>
+        <v>552</v>
       </c>
     </row>
     <row r="81" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -6086,7 +6119,7 @@
         <v>254</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="E81" s="2" t="s">
         <v>211</v>
@@ -6103,7 +6136,7 @@
         <v>255</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="E82" s="2" t="s">
         <v>211</v>
@@ -6120,7 +6153,7 @@
         <v>256</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="E83" s="2" t="s">
         <v>210</v>
@@ -6137,7 +6170,7 @@
         <v>257</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="E84" s="2" t="s">
         <v>210</v>
@@ -6178,7 +6211,7 @@
         <v>259</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="E87" s="2" t="s">
         <v>213</v>
@@ -6221,10 +6254,10 @@
         <v>262</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="E90" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="91" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -6260,7 +6293,7 @@
         <v>263</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="E93" s="2" t="s">
         <v>210</v>
@@ -6277,7 +6310,7 @@
         <v>264</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="E94" s="2" t="s">
         <v>210</v>
@@ -6311,7 +6344,7 @@
         <v>266</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="E96" s="2" t="s">
         <v>215</v>
@@ -6391,7 +6424,7 @@
         <v>268</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="E102" s="2" t="s">
         <v>215</v>
@@ -6409,7 +6442,7 @@
       </c>
       <c r="D103" s="2"/>
       <c r="E103" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="104" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -6423,7 +6456,7 @@
         <v>270</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="E104" s="2" t="s">
         <v>213</v>
@@ -6470,7 +6503,7 @@
         <v>273</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="E107" s="2" t="s">
         <v>215</v>
@@ -6488,7 +6521,7 @@
       </c>
       <c r="D108" s="2"/>
       <c r="E108" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="109" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6503,7 +6536,7 @@
       </c>
       <c r="D109" s="2"/>
       <c r="E109" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="110" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -6518,7 +6551,7 @@
       </c>
       <c r="D110" s="2"/>
       <c r="E110" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="111" spans="1:5" x14ac:dyDescent="0.25">
@@ -6711,7 +6744,7 @@
         <v>119</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="E124" s="2" t="s">
         <v>210</v>
@@ -6746,7 +6779,7 @@
         <v>282</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="E127" s="2" t="s">
         <v>213</v>
@@ -6761,7 +6794,7 @@
         <v>283</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="E128" s="2" t="s">
         <v>215</v>
@@ -6804,7 +6837,7 @@
         <v>285</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="E131" s="2" t="s">
         <v>215</v>
@@ -6821,7 +6854,7 @@
         <v>286</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="E132" s="2" t="s">
         <v>215</v>
@@ -6838,7 +6871,7 @@
         <v>287</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="E133" s="2" t="s">
         <v>208</v>
@@ -7042,7 +7075,7 @@
       </c>
       <c r="D148" s="2"/>
       <c r="E148" s="2" t="s">
-        <v>550</v>
+        <v>554</v>
       </c>
     </row>
     <row r="149" spans="1:5" x14ac:dyDescent="0.25">
@@ -7111,7 +7144,7 @@
       </c>
       <c r="D153" s="2"/>
       <c r="E153" s="2" t="s">
-        <v>546</v>
+        <v>550</v>
       </c>
     </row>
     <row r="154" spans="1:5" x14ac:dyDescent="0.25">
@@ -7137,7 +7170,7 @@
       </c>
       <c r="D155" s="2"/>
       <c r="E155" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="156" spans="1:5" x14ac:dyDescent="0.25">
@@ -7150,7 +7183,7 @@
       </c>
       <c r="D156" s="2"/>
       <c r="E156" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="157" spans="1:5" x14ac:dyDescent="0.25">
@@ -7176,7 +7209,7 @@
       </c>
       <c r="D158" s="2"/>
       <c r="E158" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="159" spans="1:5" x14ac:dyDescent="0.25">
@@ -7189,7 +7222,7 @@
       </c>
       <c r="D159" s="2"/>
       <c r="E159" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="160" spans="1:5" x14ac:dyDescent="0.25">
@@ -7215,7 +7248,7 @@
       </c>
       <c r="D161" s="2"/>
       <c r="E161" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="162" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7246,7 +7279,7 @@
         <v>294</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="E163" s="2" t="s">
         <v>213</v>
@@ -7304,7 +7337,7 @@
         <v>296</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="E167" s="2" t="s">
         <v>213</v>
@@ -7332,7 +7365,7 @@
         <v>298</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="E169" s="2" t="s">
         <v>210</v>
@@ -7347,10 +7380,10 @@
         <v>299</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="E170" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="171" spans="1:5" ht="105" x14ac:dyDescent="0.25">
@@ -7362,7 +7395,7 @@
         <v>300</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="E171" s="2" t="s">
         <v>213</v>
@@ -7377,10 +7410,10 @@
         <v>301</v>
       </c>
       <c r="D172" s="2" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="E172" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="173" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -7392,7 +7425,7 @@
         <v>302</v>
       </c>
       <c r="D173" s="2" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="E173" s="2" t="s">
         <v>213</v>
@@ -7409,7 +7442,7 @@
         <v>303</v>
       </c>
       <c r="D174" s="2" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="E174" s="2" t="s">
         <v>211</v>
@@ -7469,10 +7502,10 @@
         <v>307</v>
       </c>
       <c r="D178" s="2" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="E178" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="179" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -7484,7 +7517,7 @@
         <v>308</v>
       </c>
       <c r="D179" s="2" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="E179" s="2" t="s">
         <v>215</v>
@@ -7512,7 +7545,7 @@
         <v>399</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>538</v>
+        <v>542</v>
       </c>
       <c r="E181" s="2" t="s">
         <v>212</v>
@@ -7529,7 +7562,7 @@
         <v>400</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>539</v>
+        <v>543</v>
       </c>
       <c r="E182" s="2" t="s">
         <v>211</v>
@@ -7546,10 +7579,10 @@
         <v>401</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>540</v>
+        <v>544</v>
       </c>
       <c r="E183" s="2" t="s">
-        <v>554</v>
+        <v>558</v>
       </c>
     </row>
     <row r="184" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7563,10 +7596,10 @@
         <v>402</v>
       </c>
       <c r="D184" s="2" t="s">
-        <v>541</v>
+        <v>545</v>
       </c>
       <c r="E184" s="2" t="s">
-        <v>555</v>
+        <v>559</v>
       </c>
     </row>
     <row r="185" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7580,7 +7613,7 @@
         <v>403</v>
       </c>
       <c r="D185" s="2" t="s">
-        <v>542</v>
+        <v>546</v>
       </c>
       <c r="E185" s="2" t="s">
         <v>212</v>
@@ -7597,10 +7630,10 @@
         <v>404</v>
       </c>
       <c r="D186" s="2" t="s">
-        <v>543</v>
+        <v>547</v>
       </c>
       <c r="E186" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="187" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -7614,7 +7647,7 @@
         <v>405</v>
       </c>
       <c r="D187" s="2" t="s">
-        <v>544</v>
+        <v>548</v>
       </c>
       <c r="E187" s="2" t="s">
         <v>215</v>
@@ -8033,10 +8066,10 @@
         <v>309</v>
       </c>
       <c r="D220" s="2" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="E220" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="221" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -8048,7 +8081,7 @@
         <v>310</v>
       </c>
       <c r="D221" s="2" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="E221" s="2" t="s">
         <v>208</v>
@@ -8065,7 +8098,7 @@
         <v>311</v>
       </c>
       <c r="D222" s="2" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="E222" s="2" t="s">
         <v>213</v>
@@ -8082,7 +8115,7 @@
         <v>312</v>
       </c>
       <c r="D223" s="2" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="E223" s="2" t="s">
         <v>215</v>
@@ -8114,7 +8147,7 @@
         <v>314</v>
       </c>
       <c r="D225" s="2" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="E225" s="2" t="s">
         <v>215</v>
@@ -8178,10 +8211,10 @@
         <v>315</v>
       </c>
       <c r="D229" s="2" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E229" s="2" t="s">
-        <v>551</v>
+        <v>555</v>
       </c>
     </row>
     <row r="230" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -8195,10 +8228,10 @@
         <v>316</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="E230" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="231" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -8212,10 +8245,10 @@
         <v>317</v>
       </c>
       <c r="D231" s="2" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="E231" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="232" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -8229,10 +8262,10 @@
         <v>318</v>
       </c>
       <c r="D232" s="2" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="E232" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="233" spans="1:5" ht="150" x14ac:dyDescent="0.25">
@@ -8246,7 +8279,7 @@
         <v>319</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="E233" s="2" t="s">
         <v>213</v>
@@ -8278,7 +8311,7 @@
         <v>320</v>
       </c>
       <c r="D235" s="2" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="E235" s="2" t="s">
         <v>211</v>
@@ -8310,10 +8343,10 @@
         <v>322</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="E237" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="238" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8327,10 +8360,10 @@
         <v>323</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="E238" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="239" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8344,7 +8377,7 @@
         <v>324</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="E239" s="2" t="s">
         <v>215</v>
@@ -8361,10 +8394,10 @@
         <v>325</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E240" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="241" spans="1:5" x14ac:dyDescent="0.25">
@@ -8405,7 +8438,7 @@
         <v>326</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="E244" s="2" t="s">
         <v>213</v>
@@ -8422,10 +8455,10 @@
         <v>327</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E245" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="246" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8439,10 +8472,10 @@
         <v>328</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="E246" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="247" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8456,10 +8489,10 @@
         <v>329</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="E247" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="248" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8473,10 +8506,10 @@
         <v>330</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="E248" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="249" spans="1:5" ht="30" x14ac:dyDescent="0.25">
@@ -8491,7 +8524,7 @@
       </c>
       <c r="D249" s="2"/>
       <c r="E249" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="250" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -8505,10 +8538,10 @@
         <v>332</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="E250" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="251" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -8522,7 +8555,7 @@
         <v>333</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="E251" s="2" t="s">
         <v>213</v>
@@ -8539,7 +8572,7 @@
         <v>266</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="E252" s="2" t="s">
         <v>215</v>
@@ -8567,7 +8600,7 @@
         <v>334</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="E254" s="2" t="s">
         <v>208</v>
@@ -8614,7 +8647,7 @@
         <v>337</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="E257" s="2" t="s">
         <v>208</v>
@@ -8631,7 +8664,7 @@
         <v>338</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="E258" s="2" t="s">
         <v>215</v>
@@ -8800,7 +8833,7 @@
         <v>342</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="E269" s="2" t="s">
         <v>209</v>
@@ -8862,7 +8895,7 @@
         <v>346</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="E273" s="2" t="s">
         <v>210</v>
@@ -8879,7 +8912,7 @@
         <v>347</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="E274" s="2" t="s">
         <v>215</v>
@@ -8943,7 +8976,7 @@
       </c>
       <c r="D279" s="2"/>
       <c r="E279" s="2" t="s">
-        <v>549</v>
+        <v>553</v>
       </c>
     </row>
     <row r="280" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -8971,7 +9004,9 @@
       <c r="C281" s="2" t="s">
         <v>351</v>
       </c>
-      <c r="D281" s="2"/>
+      <c r="D281" s="2" t="s">
+        <v>516</v>
+      </c>
       <c r="E281" s="2" t="s">
         <v>211</v>
       </c>
@@ -8987,13 +9022,13 @@
         <v>198</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>435</v>
+        <v>517</v>
       </c>
       <c r="E282" s="2" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="283" spans="1:5" ht="60" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:5" ht="90" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
         <v>94</v>
       </c>
@@ -9003,7 +9038,9 @@
       <c r="C283" s="2" t="s">
         <v>218</v>
       </c>
-      <c r="D283" s="2"/>
+      <c r="D283" s="2" t="s">
+        <v>518</v>
+      </c>
       <c r="E283" s="2" t="s">
         <v>210</v>
       </c>
@@ -9020,7 +9057,7 @@
       </c>
       <c r="D284" s="2"/>
       <c r="E284" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="285" spans="1:5" x14ac:dyDescent="0.25">
@@ -9099,10 +9136,10 @@
         <v>354</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>515</v>
+        <v>519</v>
       </c>
       <c r="E290" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="291" spans="1:5" ht="60" x14ac:dyDescent="0.25">
@@ -9116,7 +9153,7 @@
         <v>355</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>516</v>
+        <v>520</v>
       </c>
       <c r="E291" s="2" t="s">
         <v>210</v>
@@ -9133,7 +9170,7 @@
         <v>356</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>517</v>
+        <v>521</v>
       </c>
       <c r="E292" s="2" t="s">
         <v>208</v>
@@ -9150,7 +9187,7 @@
         <v>357</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>518</v>
+        <v>522</v>
       </c>
       <c r="E293" s="2" t="s">
         <v>213</v>
@@ -9167,7 +9204,7 @@
         <v>358</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="E294" s="2" t="s">
         <v>213</v>
@@ -9184,7 +9221,7 @@
         <v>110</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>520</v>
+        <v>524</v>
       </c>
       <c r="E295" s="2" t="s">
         <v>208</v>
@@ -9201,10 +9238,10 @@
         <v>359</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>521</v>
+        <v>525</v>
       </c>
       <c r="E296" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="297" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9218,7 +9255,7 @@
         <v>198</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="E297" s="2" t="s">
         <v>215</v>
@@ -9235,10 +9272,10 @@
         <v>360</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>523</v>
+        <v>527</v>
       </c>
       <c r="E298" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="299" spans="1:5" ht="75" x14ac:dyDescent="0.25">
@@ -9252,10 +9289,10 @@
         <v>361</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>524</v>
+        <v>528</v>
       </c>
       <c r="E299" s="2" t="s">
-        <v>553</v>
+        <v>557</v>
       </c>
     </row>
     <row r="300" spans="1:5" ht="90" x14ac:dyDescent="0.25">
@@ -9269,7 +9306,7 @@
         <v>362</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>525</v>
+        <v>529</v>
       </c>
       <c r="E300" s="2" t="s">
         <v>213</v>
@@ -9361,10 +9398,10 @@
         <v>368</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>526</v>
+        <v>530</v>
       </c>
       <c r="E306" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="307" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9378,10 +9415,10 @@
         <v>369</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>527</v>
+        <v>531</v>
       </c>
       <c r="E307" s="2" t="s">
-        <v>552</v>
+        <v>556</v>
       </c>
     </row>
     <row r="308" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9410,7 +9447,7 @@
         <v>371</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>528</v>
+        <v>532</v>
       </c>
       <c r="E309" s="2" t="s">
         <v>213</v>
@@ -9427,7 +9464,7 @@
         <v>372</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>529</v>
+        <v>533</v>
       </c>
       <c r="E310" s="2" t="s">
         <v>215</v>
@@ -9444,7 +9481,7 @@
         <v>373</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>530</v>
+        <v>534</v>
       </c>
       <c r="E311" s="2" t="s">
         <v>210</v>
@@ -9491,7 +9528,7 @@
         <v>376</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>531</v>
+        <v>535</v>
       </c>
       <c r="E314" s="2" t="s">
         <v>213</v>
@@ -9506,7 +9543,7 @@
         <v>377</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>532</v>
+        <v>536</v>
       </c>
       <c r="E315" s="2" t="s">
         <v>215</v>
@@ -9564,7 +9601,7 @@
         <v>378</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>533</v>
+        <v>537</v>
       </c>
       <c r="E319" s="2" t="s">
         <v>213</v>
@@ -9581,7 +9618,7 @@
         <v>379</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>534</v>
+        <v>538</v>
       </c>
       <c r="E320" s="2" t="s">
         <v>210</v>
@@ -9623,7 +9660,7 @@
       </c>
       <c r="D323" s="2"/>
       <c r="E323" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="324" spans="1:5" x14ac:dyDescent="0.25">
@@ -9651,7 +9688,7 @@
       </c>
       <c r="D325" s="2"/>
       <c r="E325" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="326" spans="1:5" x14ac:dyDescent="0.25">
@@ -9663,10 +9700,10 @@
         <v>382</v>
       </c>
       <c r="D326" s="2" t="s">
-        <v>535</v>
+        <v>539</v>
       </c>
       <c r="E326" s="2" t="s">
-        <v>547</v>
+        <v>551</v>
       </c>
     </row>
     <row r="327" spans="1:5" ht="165" x14ac:dyDescent="0.25">
@@ -9680,7 +9717,7 @@
         <v>383</v>
       </c>
       <c r="D327" s="2" t="s">
-        <v>536</v>
+        <v>540</v>
       </c>
       <c r="E327" s="2" t="s">
         <v>213</v>
@@ -9756,10 +9793,10 @@
         <v>387</v>
       </c>
       <c r="D333" s="2" t="s">
-        <v>537</v>
+        <v>541</v>
       </c>
       <c r="E333" s="2" t="s">
-        <v>545</v>
+        <v>549</v>
       </c>
     </row>
     <row r="334" spans="1:5" ht="45" x14ac:dyDescent="0.25">
@@ -9796,11 +9833,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D431"/>
+  <dimension ref="A1:D434"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -9811,778 +9846,772 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>1373</v>
+        <v>1380</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1372</v>
+        <v>1379</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>1371</v>
+        <v>1378</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>1370</v>
+        <v>1377</v>
       </c>
     </row>
     <row r="2" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>1369</v>
+        <v>1376</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>1368</v>
+        <v>1375</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>1367</v>
+        <v>1374</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>1366</v>
+        <v>1373</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>1365</v>
+        <v>1372</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>1364</v>
+        <v>1371</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="B4" s="2"/>
       <c r="C4" s="2" t="s">
-        <v>1363</v>
+        <v>1370</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>1362</v>
+        <v>1369</v>
       </c>
     </row>
     <row r="5" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="B5" s="2"/>
       <c r="C5" s="2" t="s">
-        <v>1361</v>
+        <v>1368</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>1360</v>
+        <v>1367</v>
       </c>
     </row>
     <row r="6" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>1359</v>
+        <v>1366</v>
       </c>
       <c r="B6" s="2"/>
       <c r="C6" s="2" t="s">
-        <v>1358</v>
+        <v>1365</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>1357</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1364</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>1350</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="B7" s="2"/>
       <c r="C7" s="2" t="s">
-        <v>1356</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1363</v>
+      </c>
+      <c r="D7" s="2"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>1350</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="B8" s="2"/>
       <c r="C8" s="2" t="s">
-        <v>1355</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>1354</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1362</v>
+      </c>
+      <c r="D8" s="2"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
-        <v>1351</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>1350</v>
-      </c>
+        <v>1361</v>
+      </c>
+      <c r="B9" s="2"/>
       <c r="C9" s="2" t="s">
-        <v>1353</v>
-      </c>
-      <c r="D9" s="2" t="s">
-        <v>1232</v>
-      </c>
+        <v>576</v>
+      </c>
+      <c r="D9" s="2"/>
     </row>
     <row r="10" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>1352</v>
+        <v>1360</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>1230</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="11" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>1351</v>
+        <v>1355</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>1350</v>
+        <v>1354</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>1349</v>
+        <v>1359</v>
       </c>
       <c r="D11" s="2" t="s">
+        <v>1358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A12" s="2" t="s">
+        <v>1355</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>1354</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1357</v>
+      </c>
+      <c r="D12" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A12" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2" t="s">
-        <v>1348</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>1347</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B13" s="2"/>
+        <v>1355</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>1354</v>
+      </c>
       <c r="C13" s="2" t="s">
-        <v>1346</v>
+        <v>1356</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>1345</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>1330</v>
-      </c>
-      <c r="B14" s="2"/>
+        <v>1355</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>1354</v>
+      </c>
       <c r="C14" s="2" t="s">
-        <v>1344</v>
+        <v>1353</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>1343</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B15" s="2"/>
       <c r="C15" s="2" t="s">
-        <v>1342</v>
+        <v>1352</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>1341</v>
+        <v>1351</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B16" s="2"/>
       <c r="C16" s="2" t="s">
-        <v>1340</v>
+        <v>1350</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>1339</v>
+        <v>1349</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B17" s="2"/>
       <c r="C17" s="2" t="s">
-        <v>1338</v>
+        <v>1348</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>1337</v>
+        <v>1347</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B18" s="2"/>
       <c r="C18" s="2" t="s">
-        <v>1336</v>
+        <v>1346</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>1335</v>
+        <v>1345</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B19" s="2"/>
       <c r="C19" s="2" t="s">
-        <v>1334</v>
+        <v>1344</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>1333</v>
+        <v>1343</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B20" s="2"/>
       <c r="C20" s="2" t="s">
-        <v>1332</v>
+        <v>1342</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>1331</v>
+        <v>1341</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>1330</v>
+        <v>1334</v>
       </c>
       <c r="B21" s="2"/>
       <c r="C21" s="2" t="s">
-        <v>1329</v>
+        <v>1340</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>1328</v>
+        <v>1339</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>1322</v>
-      </c>
+        <v>1334</v>
+      </c>
+      <c r="B22" s="2"/>
       <c r="C22" s="2" t="s">
-        <v>1327</v>
-      </c>
-      <c r="D22" s="2"/>
+        <v>1338</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>1337</v>
+      </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>1322</v>
-      </c>
+        <v>1334</v>
+      </c>
+      <c r="B23" s="2"/>
       <c r="C23" s="2" t="s">
-        <v>722</v>
-      </c>
-      <c r="D23" s="2"/>
+        <v>1336</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>1335</v>
+      </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>1323</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>1322</v>
-      </c>
+        <v>1334</v>
+      </c>
+      <c r="B24" s="2"/>
       <c r="C24" s="2" t="s">
-        <v>1326</v>
-      </c>
-      <c r="D24" s="2"/>
+        <v>1333</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>1332</v>
+      </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>1325</v>
+        <v>1331</v>
       </c>
       <c r="D25" s="2"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>1324</v>
+        <v>726</v>
       </c>
       <c r="D26" s="2"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>1323</v>
+        <v>1327</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>1322</v>
+        <v>1326</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>1321</v>
+        <v>1330</v>
       </c>
       <c r="D27" s="2"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B28" s="2"/>
+        <v>1327</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>1326</v>
+      </c>
       <c r="C28" s="2" t="s">
-        <v>1320</v>
+        <v>1329</v>
       </c>
       <c r="D28" s="2"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>1319</v>
-      </c>
-      <c r="B29" s="2"/>
+        <v>1327</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>1326</v>
+      </c>
       <c r="C29" s="2" t="s">
-        <v>1318</v>
+        <v>1328</v>
       </c>
       <c r="D29" s="2"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A30" s="2" t="s">
-        <v>1313</v>
-      </c>
-      <c r="B30" s="2"/>
+        <v>1327</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>1326</v>
+      </c>
       <c r="C30" s="2" t="s">
-        <v>1317</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>1316</v>
-      </c>
+        <v>1325</v>
+      </c>
+      <c r="D30" s="2"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>1313</v>
+        <v>1323</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" s="2" t="s">
-        <v>1315</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>1314</v>
-      </c>
+        <v>1324</v>
+      </c>
+      <c r="D31" s="2"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>1313</v>
+        <v>1323</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" s="2" t="s">
-        <v>1312</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>1311</v>
-      </c>
+        <v>1322</v>
+      </c>
+      <c r="D32" s="2"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" s="2" t="s">
-        <v>1310</v>
-      </c>
-      <c r="D33" s="2"/>
+        <v>1321</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>1320</v>
+      </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A34" s="2" t="s">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" s="2" t="s">
-        <v>1309</v>
-      </c>
-      <c r="D34" s="2"/>
+        <v>1319</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>1318</v>
+      </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>1308</v>
+        <v>1317</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" s="2" t="s">
-        <v>1307</v>
-      </c>
-      <c r="D35" s="2"/>
+        <v>1316</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>1315</v>
+      </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>1306</v>
+        <v>1312</v>
       </c>
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
+      <c r="C36" s="2" t="s">
+        <v>1314</v>
+      </c>
       <c r="D36" s="2"/>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A37" s="2" t="s">
-        <v>1275</v>
+        <v>1312</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" s="2" t="s">
-        <v>1305</v>
-      </c>
-      <c r="D37" s="2" t="s">
-        <v>1304</v>
-      </c>
+        <v>1313</v>
+      </c>
+      <c r="D37" s="2"/>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>1275</v>
+        <v>1312</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" s="2" t="s">
-        <v>1303</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>1302</v>
-      </c>
+        <v>1311</v>
+      </c>
+      <c r="D38" s="2"/>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>1275</v>
+        <v>1310</v>
       </c>
       <c r="B39" s="2"/>
-      <c r="C39" s="2" t="s">
-        <v>1301</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>1300</v>
-      </c>
+      <c r="C39" s="2"/>
+      <c r="D39" s="2"/>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" s="2" t="s">
-        <v>1299</v>
+        <v>1309</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>1298</v>
+        <v>1308</v>
       </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" s="2" t="s">
-        <v>1297</v>
+        <v>1307</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>1296</v>
+        <v>1306</v>
       </c>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" s="2" t="s">
-        <v>1295</v>
+        <v>1305</v>
       </c>
       <c r="D42" s="2" t="s">
-        <v>1294</v>
+        <v>1304</v>
       </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" s="2" t="s">
-        <v>1293</v>
+        <v>1303</v>
       </c>
       <c r="D43" s="2" t="s">
-        <v>1292</v>
+        <v>1302</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" s="2" t="s">
-        <v>1229</v>
+        <v>1301</v>
       </c>
       <c r="D44" s="2" t="s">
-        <v>1291</v>
+        <v>1300</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" s="2" t="s">
-        <v>1290</v>
+        <v>1299</v>
       </c>
       <c r="D45" s="2" t="s">
-        <v>1289</v>
+        <v>1298</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" s="2" t="s">
-        <v>1288</v>
+        <v>1297</v>
       </c>
       <c r="D46" s="2" t="s">
-        <v>1287</v>
+        <v>1296</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" s="2" t="s">
-        <v>1286</v>
-      </c>
-      <c r="D47" s="2"/>
+        <v>1233</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>1295</v>
+      </c>
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" s="2" t="s">
-        <v>1285</v>
+        <v>1294</v>
       </c>
       <c r="D48" s="2" t="s">
-        <v>1284</v>
+        <v>1293</v>
       </c>
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A49" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" s="2" t="s">
-        <v>1283</v>
+        <v>1292</v>
       </c>
       <c r="D49" s="2" t="s">
-        <v>1282</v>
+        <v>1291</v>
       </c>
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" s="2" t="s">
-        <v>1281</v>
-      </c>
-      <c r="D50" s="2" t="s">
-        <v>1280</v>
-      </c>
+        <v>1290</v>
+      </c>
+      <c r="D50" s="2"/>
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" s="2" t="s">
-        <v>1279</v>
+        <v>1289</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>1278</v>
+        <v>1288</v>
       </c>
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" s="2" t="s">
-        <v>1220</v>
+        <v>1287</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>1277</v>
+        <v>1286</v>
       </c>
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A53" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" s="2" t="s">
-        <v>1217</v>
+        <v>1285</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>1276</v>
+        <v>1284</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A54" s="2" t="s">
-        <v>1275</v>
+        <v>1279</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" s="2" t="s">
-        <v>1274</v>
+        <v>1283</v>
       </c>
       <c r="D54" s="2" t="s">
-        <v>1273</v>
+        <v>1282</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A55" s="2" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" s="2" t="s">
-        <v>1272</v>
-      </c>
-      <c r="D55" s="2"/>
+        <v>1224</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>1281</v>
+      </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A56" s="2" t="s">
-        <v>1271</v>
+        <v>1279</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" s="2" t="s">
-        <v>1270</v>
-      </c>
-      <c r="D56" s="2"/>
+        <v>1221</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>1280</v>
+      </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A57" s="2" t="s">
-        <v>1261</v>
+        <v>1279</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" s="2" t="s">
-        <v>1269</v>
+        <v>1278</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>1268</v>
+        <v>1277</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A58" s="2" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" s="2" t="s">
-        <v>1267</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>1266</v>
-      </c>
+        <v>1276</v>
+      </c>
+      <c r="D58" s="2"/>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A59" s="2" t="s">
-        <v>1261</v>
+        <v>1275</v>
       </c>
       <c r="B59" s="2"/>
       <c r="C59" s="2" t="s">
-        <v>1265</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>1264</v>
-      </c>
+        <v>1274</v>
+      </c>
+      <c r="D59" s="2"/>
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="2" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="B60" s="2"/>
       <c r="C60" s="2" t="s">
-        <v>1263</v>
+        <v>1273</v>
       </c>
       <c r="D60" s="2" t="s">
-        <v>1262</v>
+        <v>1272</v>
       </c>
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A61" s="2" t="s">
-        <v>1261</v>
+        <v>1265</v>
       </c>
       <c r="B61" s="2"/>
       <c r="C61" s="2" t="s">
-        <v>1260</v>
+        <v>1271</v>
       </c>
       <c r="D61" s="2" t="s">
-        <v>1259</v>
+        <v>1270</v>
       </c>
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A62" s="2" t="s">
-        <v>216</v>
+        <v>1265</v>
       </c>
       <c r="B62" s="2"/>
       <c r="C62" s="2" t="s">
-        <v>1258</v>
+        <v>1269</v>
       </c>
       <c r="D62" s="2" t="s">
-        <v>1257</v>
-      </c>
-    </row>
-    <row r="63" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="2" t="s">
-        <v>216</v>
+        <v>1265</v>
       </c>
       <c r="B63" s="2"/>
       <c r="C63" s="2" t="s">
-        <v>1256</v>
+        <v>1267</v>
       </c>
       <c r="D63" s="2" t="s">
-        <v>1255</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="2" t="s">
-        <v>216</v>
+        <v>1265</v>
       </c>
       <c r="B64" s="2"/>
       <c r="C64" s="2" t="s">
-        <v>1254</v>
+        <v>1264</v>
       </c>
       <c r="D64" s="2" t="s">
-        <v>1253</v>
-      </c>
-    </row>
-    <row r="65" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A65" s="2" t="s">
         <v>216</v>
       </c>
       <c r="B65" s="2"/>
       <c r="C65" s="2" t="s">
-        <v>1252</v>
+        <v>1262</v>
       </c>
       <c r="D65" s="2" t="s">
-        <v>1251</v>
+        <v>1261</v>
       </c>
     </row>
     <row r="66" spans="1:4" ht="45" x14ac:dyDescent="0.25">
@@ -10591,312 +10620,306 @@
       </c>
       <c r="B66" s="2"/>
       <c r="C66" s="2" t="s">
-        <v>1074</v>
+        <v>1260</v>
       </c>
       <c r="D66" s="2" t="s">
-        <v>1250</v>
-      </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A67" s="2" t="s">
-        <v>1241</v>
+        <v>216</v>
       </c>
       <c r="B67" s="2"/>
       <c r="C67" s="2" t="s">
-        <v>1249</v>
+        <v>1258</v>
       </c>
       <c r="D67" s="2" t="s">
-        <v>1248</v>
-      </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A68" s="2" t="s">
-        <v>1241</v>
+        <v>216</v>
       </c>
       <c r="B68" s="2"/>
       <c r="C68" s="2" t="s">
-        <v>1247</v>
+        <v>1256</v>
       </c>
       <c r="D68" s="2" t="s">
-        <v>1246</v>
-      </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A69" s="2" t="s">
-        <v>1241</v>
+        <v>216</v>
       </c>
       <c r="B69" s="2"/>
       <c r="C69" s="2" t="s">
-        <v>1245</v>
+        <v>1078</v>
       </c>
       <c r="D69" s="2" t="s">
-        <v>1244</v>
+        <v>1254</v>
       </c>
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A70" s="2" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="B70" s="2"/>
       <c r="C70" s="2" t="s">
-        <v>1243</v>
+        <v>1253</v>
       </c>
       <c r="D70" s="2" t="s">
-        <v>1242</v>
+        <v>1252</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A71" s="2" t="s">
-        <v>1241</v>
+        <v>1245</v>
       </c>
       <c r="B71" s="2"/>
       <c r="C71" s="2" t="s">
-        <v>1240</v>
+        <v>1251</v>
       </c>
       <c r="D71" s="2" t="s">
-        <v>1239</v>
-      </c>
-    </row>
-    <row r="72" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A72" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B72" s="2" t="s">
-        <v>1237</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="B72" s="2"/>
       <c r="C72" s="2" t="s">
-        <v>1235</v>
+        <v>1249</v>
       </c>
       <c r="D72" s="2" t="s">
-        <v>1234</v>
-      </c>
-    </row>
-    <row r="73" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A73" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B73" s="2" t="s">
-        <v>1237</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="B73" s="2"/>
       <c r="C73" s="2" t="s">
-        <v>1233</v>
+        <v>1247</v>
       </c>
       <c r="D73" s="2" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="74" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A74" s="2" t="s">
-        <v>1238</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>1237</v>
-      </c>
+        <v>1245</v>
+      </c>
+      <c r="B74" s="2"/>
       <c r="C74" s="2" t="s">
-        <v>1231</v>
+        <v>1244</v>
       </c>
       <c r="D74" s="2" t="s">
-        <v>1230</v>
+        <v>1243</v>
       </c>
     </row>
     <row r="75" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A75" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>1238</v>
       </c>
-      <c r="B75" s="2" t="s">
+    </row>
+    <row r="76" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A76" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C76" s="2" t="s">
         <v>1237</v>
       </c>
-      <c r="C75" s="2" t="s">
-        <v>1227</v>
-      </c>
-      <c r="D75" s="2" t="s">
+      <c r="D76" s="2" t="s">
         <v>1236</v>
       </c>
     </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A76" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B76" s="2"/>
-      <c r="C76" s="2" t="s">
+    <row r="77" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A77" s="2" t="s">
+        <v>1242</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>1241</v>
+      </c>
+      <c r="C77" s="2" t="s">
         <v>1235</v>
       </c>
-      <c r="D76" s="2" t="s">
+      <c r="D77" s="2" t="s">
         <v>1234</v>
       </c>
     </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A77" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B77" s="2"/>
-      <c r="C77" s="2" t="s">
-        <v>1233</v>
-      </c>
-      <c r="D77" s="2" t="s">
-        <v>1232</v>
-      </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A78" s="2" t="s">
-        <v>1225</v>
-      </c>
-      <c r="B78" s="2"/>
+        <v>1242</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>1241</v>
+      </c>
       <c r="C78" s="2" t="s">
         <v>1231</v>
       </c>
       <c r="D78" s="2" t="s">
-        <v>1230</v>
+        <v>1240</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A79" s="2" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="B79" s="2"/>
       <c r="C79" s="2" t="s">
-        <v>1229</v>
+        <v>1239</v>
       </c>
       <c r="D79" s="2" t="s">
-        <v>1228</v>
+        <v>1238</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A80" s="2" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="B80" s="2"/>
       <c r="C80" s="2" t="s">
-        <v>1227</v>
+        <v>1237</v>
       </c>
       <c r="D80" s="2" t="s">
-        <v>1226</v>
+        <v>1236</v>
       </c>
     </row>
     <row r="81" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A81" s="2" t="s">
-        <v>1225</v>
+        <v>1229</v>
       </c>
       <c r="B81" s="2"/>
       <c r="C81" s="2" t="s">
-        <v>1224</v>
+        <v>1235</v>
       </c>
       <c r="D81" s="2" t="s">
-        <v>1223</v>
+        <v>1234</v>
       </c>
     </row>
     <row r="82" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A82" s="2" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="B82" s="2"/>
       <c r="C82" s="2" t="s">
-        <v>1222</v>
+        <v>1233</v>
       </c>
       <c r="D82" s="2" t="s">
-        <v>1221</v>
+        <v>1232</v>
       </c>
     </row>
     <row r="83" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A83" s="2" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="B83" s="2"/>
       <c r="C83" s="2" t="s">
-        <v>1220</v>
+        <v>1231</v>
       </c>
       <c r="D83" s="2" t="s">
-        <v>1219</v>
+        <v>1230</v>
       </c>
     </row>
     <row r="84" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A84" s="2" t="s">
-        <v>1218</v>
+        <v>1229</v>
       </c>
       <c r="B84" s="2"/>
       <c r="C84" s="2" t="s">
-        <v>1217</v>
+        <v>1228</v>
       </c>
       <c r="D84" s="2" t="s">
-        <v>1216</v>
+        <v>1227</v>
       </c>
     </row>
     <row r="85" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A85" s="2" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="B85" s="2"/>
       <c r="C85" s="2" t="s">
-        <v>1215</v>
+        <v>1226</v>
       </c>
       <c r="D85" s="2" t="s">
-        <v>1214</v>
+        <v>1225</v>
       </c>
     </row>
     <row r="86" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A86" s="2" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="B86" s="2"/>
       <c r="C86" s="2" t="s">
-        <v>1213</v>
+        <v>1224</v>
       </c>
       <c r="D86" s="2" t="s">
-        <v>1212</v>
+        <v>1223</v>
       </c>
     </row>
     <row r="87" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A87" s="2" t="s">
-        <v>1211</v>
+        <v>1222</v>
       </c>
       <c r="B87" s="2"/>
       <c r="C87" s="2" t="s">
-        <v>1210</v>
+        <v>1221</v>
       </c>
       <c r="D87" s="2" t="s">
-        <v>1209</v>
-      </c>
-    </row>
-    <row r="88" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A88" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B88" s="2" t="s">
-        <v>1101</v>
-      </c>
+        <v>1215</v>
+      </c>
+      <c r="B88" s="2"/>
       <c r="C88" s="2" t="s">
-        <v>1208</v>
+        <v>1219</v>
       </c>
       <c r="D88" s="2" t="s">
-        <v>1207</v>
-      </c>
-    </row>
-    <row r="89" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A89" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B89" s="2" t="s">
-        <v>1101</v>
-      </c>
+        <v>1215</v>
+      </c>
+      <c r="B89" s="2"/>
       <c r="C89" s="2" t="s">
-        <v>1206</v>
+        <v>1217</v>
       </c>
       <c r="D89" s="2" t="s">
-        <v>1205</v>
-      </c>
-    </row>
-    <row r="90" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A90" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B90" s="2" t="s">
-        <v>1101</v>
-      </c>
+        <v>1215</v>
+      </c>
+      <c r="B90" s="2"/>
       <c r="C90" s="2" t="s">
-        <v>1204</v>
+        <v>1214</v>
       </c>
       <c r="D90" s="2" t="s">
-        <v>1203</v>
+        <v>1213</v>
       </c>
     </row>
     <row r="91" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10904,13 +10927,13 @@
         <v>119</v>
       </c>
       <c r="B91" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C91" s="2" t="s">
-        <v>1202</v>
+        <v>1212</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>1201</v>
+        <v>1211</v>
       </c>
     </row>
     <row r="92" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10918,13 +10941,13 @@
         <v>119</v>
       </c>
       <c r="B92" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C92" s="2" t="s">
-        <v>1200</v>
+        <v>1210</v>
       </c>
       <c r="D92" s="2" t="s">
-        <v>1199</v>
+        <v>1209</v>
       </c>
     </row>
     <row r="93" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10932,13 +10955,13 @@
         <v>119</v>
       </c>
       <c r="B93" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>1198</v>
+        <v>1208</v>
       </c>
       <c r="D93" s="2" t="s">
-        <v>1197</v>
+        <v>1207</v>
       </c>
     </row>
     <row r="94" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10946,13 +10969,13 @@
         <v>119</v>
       </c>
       <c r="B94" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C94" s="2" t="s">
-        <v>1196</v>
+        <v>1206</v>
       </c>
       <c r="D94" s="2" t="s">
-        <v>1195</v>
+        <v>1205</v>
       </c>
     </row>
     <row r="95" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10960,13 +10983,13 @@
         <v>119</v>
       </c>
       <c r="B95" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>1194</v>
+        <v>1204</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>1193</v>
+        <v>1203</v>
       </c>
     </row>
     <row r="96" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10974,13 +10997,13 @@
         <v>119</v>
       </c>
       <c r="B96" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>1192</v>
+        <v>1202</v>
       </c>
       <c r="D96" s="2" t="s">
-        <v>1191</v>
+        <v>1201</v>
       </c>
     </row>
     <row r="97" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -10988,13 +11011,13 @@
         <v>119</v>
       </c>
       <c r="B97" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C97" s="2" t="s">
-        <v>1190</v>
+        <v>1200</v>
       </c>
       <c r="D97" s="2" t="s">
-        <v>1189</v>
+        <v>1199</v>
       </c>
     </row>
     <row r="98" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11002,13 +11025,13 @@
         <v>119</v>
       </c>
       <c r="B98" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C98" s="2" t="s">
-        <v>1188</v>
+        <v>1198</v>
       </c>
       <c r="D98" s="2" t="s">
-        <v>1187</v>
+        <v>1197</v>
       </c>
     </row>
     <row r="99" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11016,13 +11039,13 @@
         <v>119</v>
       </c>
       <c r="B99" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C99" s="2" t="s">
-        <v>1186</v>
+        <v>1196</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>1185</v>
+        <v>1195</v>
       </c>
     </row>
     <row r="100" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11030,13 +11053,13 @@
         <v>119</v>
       </c>
       <c r="B100" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C100" s="2" t="s">
-        <v>1184</v>
+        <v>1194</v>
       </c>
       <c r="D100" s="2" t="s">
-        <v>1183</v>
+        <v>1193</v>
       </c>
     </row>
     <row r="101" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11044,13 +11067,13 @@
         <v>119</v>
       </c>
       <c r="B101" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>1182</v>
+        <v>1192</v>
       </c>
       <c r="D101" s="2" t="s">
-        <v>1181</v>
+        <v>1191</v>
       </c>
     </row>
     <row r="102" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11058,13 +11081,13 @@
         <v>119</v>
       </c>
       <c r="B102" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C102" s="2" t="s">
-        <v>1180</v>
+        <v>1190</v>
       </c>
       <c r="D102" s="2" t="s">
-        <v>1179</v>
+        <v>1189</v>
       </c>
     </row>
     <row r="103" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11072,13 +11095,13 @@
         <v>119</v>
       </c>
       <c r="B103" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>1178</v>
+        <v>1188</v>
       </c>
       <c r="D103" s="2" t="s">
-        <v>1177</v>
+        <v>1187</v>
       </c>
     </row>
     <row r="104" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11086,13 +11109,13 @@
         <v>119</v>
       </c>
       <c r="B104" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>1176</v>
+        <v>1186</v>
       </c>
       <c r="D104" s="2" t="s">
-        <v>1175</v>
+        <v>1185</v>
       </c>
     </row>
     <row r="105" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11100,13 +11123,13 @@
         <v>119</v>
       </c>
       <c r="B105" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>1174</v>
+        <v>1184</v>
       </c>
       <c r="D105" s="2" t="s">
-        <v>1173</v>
+        <v>1183</v>
       </c>
     </row>
     <row r="106" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11114,13 +11137,13 @@
         <v>119</v>
       </c>
       <c r="B106" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>1172</v>
+        <v>1182</v>
       </c>
       <c r="D106" s="2" t="s">
-        <v>1171</v>
+        <v>1181</v>
       </c>
     </row>
     <row r="107" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11128,13 +11151,13 @@
         <v>119</v>
       </c>
       <c r="B107" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C107" s="2" t="s">
-        <v>1170</v>
+        <v>1180</v>
       </c>
       <c r="D107" s="2" t="s">
-        <v>1169</v>
+        <v>1179</v>
       </c>
     </row>
     <row r="108" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11142,13 +11165,13 @@
         <v>119</v>
       </c>
       <c r="B108" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>1168</v>
+        <v>1178</v>
       </c>
       <c r="D108" s="2" t="s">
-        <v>1167</v>
+        <v>1177</v>
       </c>
     </row>
     <row r="109" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11156,13 +11179,13 @@
         <v>119</v>
       </c>
       <c r="B109" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C109" s="2" t="s">
-        <v>1166</v>
+        <v>1176</v>
       </c>
       <c r="D109" s="2" t="s">
-        <v>1165</v>
+        <v>1175</v>
       </c>
     </row>
     <row r="110" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11170,13 +11193,13 @@
         <v>119</v>
       </c>
       <c r="B110" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>1164</v>
+        <v>1174</v>
       </c>
       <c r="D110" s="2" t="s">
-        <v>1163</v>
+        <v>1173</v>
       </c>
     </row>
     <row r="111" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11184,13 +11207,13 @@
         <v>119</v>
       </c>
       <c r="B111" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>1162</v>
+        <v>1172</v>
       </c>
       <c r="D111" s="2" t="s">
-        <v>1161</v>
+        <v>1171</v>
       </c>
     </row>
     <row r="112" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11198,13 +11221,13 @@
         <v>119</v>
       </c>
       <c r="B112" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>1160</v>
+        <v>1170</v>
       </c>
       <c r="D112" s="2" t="s">
-        <v>1159</v>
+        <v>1169</v>
       </c>
     </row>
     <row r="113" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11212,13 +11235,13 @@
         <v>119</v>
       </c>
       <c r="B113" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>1158</v>
+        <v>1168</v>
       </c>
       <c r="D113" s="2" t="s">
-        <v>1157</v>
+        <v>1167</v>
       </c>
     </row>
     <row r="114" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11226,13 +11249,13 @@
         <v>119</v>
       </c>
       <c r="B114" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C114" s="2" t="s">
-        <v>1156</v>
+        <v>1166</v>
       </c>
       <c r="D114" s="2" t="s">
-        <v>1155</v>
+        <v>1165</v>
       </c>
     </row>
     <row r="115" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11240,13 +11263,13 @@
         <v>119</v>
       </c>
       <c r="B115" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>1154</v>
+        <v>1164</v>
       </c>
       <c r="D115" s="2" t="s">
-        <v>1153</v>
+        <v>1163</v>
       </c>
     </row>
     <row r="116" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11254,13 +11277,13 @@
         <v>119</v>
       </c>
       <c r="B116" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C116" s="2" t="s">
-        <v>1152</v>
+        <v>1162</v>
       </c>
       <c r="D116" s="2" t="s">
-        <v>1151</v>
+        <v>1161</v>
       </c>
     </row>
     <row r="117" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11268,13 +11291,13 @@
         <v>119</v>
       </c>
       <c r="B117" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>1150</v>
+        <v>1160</v>
       </c>
       <c r="D117" s="2" t="s">
-        <v>1149</v>
+        <v>1159</v>
       </c>
     </row>
     <row r="118" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11282,13 +11305,13 @@
         <v>119</v>
       </c>
       <c r="B118" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C118" s="2" t="s">
-        <v>1148</v>
+        <v>1158</v>
       </c>
       <c r="D118" s="2" t="s">
-        <v>1147</v>
+        <v>1157</v>
       </c>
     </row>
     <row r="119" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11296,13 +11319,13 @@
         <v>119</v>
       </c>
       <c r="B119" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>1146</v>
+        <v>1156</v>
       </c>
       <c r="D119" s="2" t="s">
-        <v>1145</v>
+        <v>1155</v>
       </c>
     </row>
     <row r="120" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11310,13 +11333,13 @@
         <v>119</v>
       </c>
       <c r="B120" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C120" s="2" t="s">
-        <v>1144</v>
+        <v>1154</v>
       </c>
       <c r="D120" s="2" t="s">
-        <v>1143</v>
+        <v>1153</v>
       </c>
     </row>
     <row r="121" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11324,13 +11347,13 @@
         <v>119</v>
       </c>
       <c r="B121" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>1142</v>
+        <v>1152</v>
       </c>
       <c r="D121" s="2" t="s">
-        <v>1141</v>
+        <v>1151</v>
       </c>
     </row>
     <row r="122" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11338,13 +11361,13 @@
         <v>119</v>
       </c>
       <c r="B122" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>1140</v>
+        <v>1150</v>
       </c>
       <c r="D122" s="2" t="s">
-        <v>1139</v>
+        <v>1149</v>
       </c>
     </row>
     <row r="123" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11352,13 +11375,13 @@
         <v>119</v>
       </c>
       <c r="B123" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C123" s="2" t="s">
-        <v>1138</v>
+        <v>1148</v>
       </c>
       <c r="D123" s="2" t="s">
-        <v>1137</v>
+        <v>1147</v>
       </c>
     </row>
     <row r="124" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11366,13 +11389,13 @@
         <v>119</v>
       </c>
       <c r="B124" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>1136</v>
+        <v>1146</v>
       </c>
       <c r="D124" s="2" t="s">
-        <v>1135</v>
+        <v>1145</v>
       </c>
     </row>
     <row r="125" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11380,13 +11403,13 @@
         <v>119</v>
       </c>
       <c r="B125" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>1134</v>
+        <v>1144</v>
       </c>
       <c r="D125" s="2" t="s">
-        <v>1133</v>
+        <v>1143</v>
       </c>
     </row>
     <row r="126" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11394,13 +11417,13 @@
         <v>119</v>
       </c>
       <c r="B126" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C126" s="2" t="s">
-        <v>1132</v>
+        <v>1142</v>
       </c>
       <c r="D126" s="2" t="s">
-        <v>1131</v>
+        <v>1141</v>
       </c>
     </row>
     <row r="127" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11408,13 +11431,13 @@
         <v>119</v>
       </c>
       <c r="B127" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>1130</v>
+        <v>1140</v>
       </c>
       <c r="D127" s="2" t="s">
-        <v>1129</v>
+        <v>1139</v>
       </c>
     </row>
     <row r="128" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11422,13 +11445,13 @@
         <v>119</v>
       </c>
       <c r="B128" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>1088</v>
+        <v>1138</v>
       </c>
       <c r="D128" s="2" t="s">
-        <v>1128</v>
+        <v>1137</v>
       </c>
     </row>
     <row r="129" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11436,13 +11459,13 @@
         <v>119</v>
       </c>
       <c r="B129" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C129" s="2" t="s">
-        <v>1127</v>
+        <v>1136</v>
       </c>
       <c r="D129" s="2" t="s">
-        <v>1126</v>
+        <v>1135</v>
       </c>
     </row>
     <row r="130" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11450,13 +11473,13 @@
         <v>119</v>
       </c>
       <c r="B130" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>1125</v>
+        <v>1134</v>
       </c>
       <c r="D130" s="2" t="s">
-        <v>1124</v>
+        <v>1133</v>
       </c>
     </row>
     <row r="131" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11464,13 +11487,13 @@
         <v>119</v>
       </c>
       <c r="B131" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>1123</v>
+        <v>1092</v>
       </c>
       <c r="D131" s="2" t="s">
-        <v>1122</v>
+        <v>1132</v>
       </c>
     </row>
     <row r="132" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11478,13 +11501,13 @@
         <v>119</v>
       </c>
       <c r="B132" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C132" s="2" t="s">
-        <v>1121</v>
+        <v>1131</v>
       </c>
       <c r="D132" s="2" t="s">
-        <v>1120</v>
+        <v>1130</v>
       </c>
     </row>
     <row r="133" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11492,13 +11515,13 @@
         <v>119</v>
       </c>
       <c r="B133" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>1119</v>
+        <v>1129</v>
       </c>
       <c r="D133" s="2" t="s">
-        <v>1118</v>
+        <v>1128</v>
       </c>
     </row>
     <row r="134" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11506,13 +11529,13 @@
         <v>119</v>
       </c>
       <c r="B134" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>1117</v>
+        <v>1127</v>
       </c>
       <c r="D134" s="2" t="s">
-        <v>1116</v>
+        <v>1126</v>
       </c>
     </row>
     <row r="135" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11520,13 +11543,13 @@
         <v>119</v>
       </c>
       <c r="B135" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C135" s="2" t="s">
-        <v>1115</v>
+        <v>1125</v>
       </c>
       <c r="D135" s="2" t="s">
-        <v>1114</v>
+        <v>1124</v>
       </c>
     </row>
     <row r="136" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11534,13 +11557,13 @@
         <v>119</v>
       </c>
       <c r="B136" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C136" s="2" t="s">
-        <v>1113</v>
+        <v>1123</v>
       </c>
       <c r="D136" s="2" t="s">
-        <v>1112</v>
+        <v>1122</v>
       </c>
     </row>
     <row r="137" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11548,13 +11571,13 @@
         <v>119</v>
       </c>
       <c r="B137" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C137" s="2" t="s">
-        <v>1111</v>
+        <v>1121</v>
       </c>
       <c r="D137" s="2" t="s">
-        <v>1110</v>
+        <v>1120</v>
       </c>
     </row>
     <row r="138" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11562,13 +11585,13 @@
         <v>119</v>
       </c>
       <c r="B138" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C138" s="2" t="s">
-        <v>1109</v>
+        <v>1119</v>
       </c>
       <c r="D138" s="2" t="s">
-        <v>1108</v>
+        <v>1118</v>
       </c>
     </row>
     <row r="139" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11576,13 +11599,13 @@
         <v>119</v>
       </c>
       <c r="B139" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C139" s="2" t="s">
-        <v>1107</v>
+        <v>1117</v>
       </c>
       <c r="D139" s="2" t="s">
-        <v>1106</v>
+        <v>1116</v>
       </c>
     </row>
     <row r="140" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11590,13 +11613,13 @@
         <v>119</v>
       </c>
       <c r="B140" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C140" s="2" t="s">
-        <v>1105</v>
+        <v>1115</v>
       </c>
       <c r="D140" s="2" t="s">
-        <v>1104</v>
+        <v>1114</v>
       </c>
     </row>
     <row r="141" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11604,13 +11627,13 @@
         <v>119</v>
       </c>
       <c r="B141" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C141" s="2" t="s">
-        <v>1103</v>
+        <v>1113</v>
       </c>
       <c r="D141" s="2" t="s">
-        <v>1102</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="142" spans="1:4" ht="60" x14ac:dyDescent="0.25">
@@ -11618,1100 +11641,1114 @@
         <v>119</v>
       </c>
       <c r="B142" s="2" t="s">
-        <v>1101</v>
+        <v>1105</v>
       </c>
       <c r="C142" s="2" t="s">
-        <v>1100</v>
+        <v>1111</v>
       </c>
       <c r="D142" s="2" t="s">
-        <v>1099</v>
-      </c>
-    </row>
-    <row r="143" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A143" s="2" t="s">
-        <v>1088</v>
+        <v>119</v>
       </c>
       <c r="B143" s="2" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="C143" s="2" t="s">
-        <v>1098</v>
+        <v>1109</v>
       </c>
       <c r="D143" s="2" t="s">
-        <v>1097</v>
-      </c>
-    </row>
-    <row r="144" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A144" s="2" t="s">
-        <v>1088</v>
+        <v>119</v>
       </c>
       <c r="B144" s="2" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="C144" s="2" t="s">
-        <v>1096</v>
+        <v>1107</v>
       </c>
       <c r="D144" s="2" t="s">
-        <v>1095</v>
-      </c>
-    </row>
-    <row r="145" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A145" s="2" t="s">
-        <v>1088</v>
+        <v>119</v>
       </c>
       <c r="B145" s="2" t="s">
-        <v>1087</v>
+        <v>1105</v>
       </c>
       <c r="C145" s="2" t="s">
-        <v>1094</v>
+        <v>1104</v>
       </c>
       <c r="D145" s="2" t="s">
-        <v>1093</v>
+        <v>1103</v>
       </c>
     </row>
     <row r="146" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A146" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B146" s="2" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C146" s="2" t="s">
-        <v>1092</v>
+        <v>1102</v>
       </c>
       <c r="D146" s="2" t="s">
-        <v>1091</v>
+        <v>1101</v>
       </c>
     </row>
     <row r="147" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A147" s="2" t="s">
-        <v>1088</v>
+        <v>1092</v>
       </c>
       <c r="B147" s="2" t="s">
-        <v>1087</v>
+        <v>1091</v>
       </c>
       <c r="C147" s="2" t="s">
-        <v>1090</v>
+        <v>1100</v>
       </c>
       <c r="D147" s="2" t="s">
-        <v>1089</v>
+        <v>1099</v>
       </c>
     </row>
     <row r="148" spans="1:4" ht="90" x14ac:dyDescent="0.25">
       <c r="A148" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B148" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C148" s="2" t="s">
+        <v>1098</v>
+      </c>
+      <c r="D148" s="2" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A149" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B149" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>1096</v>
+      </c>
+      <c r="D149" s="2" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A150" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B150" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C150" s="2" t="s">
+        <v>1094</v>
+      </c>
+      <c r="D150" s="2" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" ht="90" x14ac:dyDescent="0.25">
+      <c r="A151" s="2" t="s">
+        <v>1092</v>
+      </c>
+      <c r="B151" s="2" t="s">
+        <v>1091</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>1090</v>
+      </c>
+      <c r="D151" s="2"/>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B152" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C152" s="2" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D152" s="2" t="s">
         <v>1088</v>
       </c>
-      <c r="B148" s="2" t="s">
+    </row>
+    <row r="153" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A153" s="2" t="s">
+        <v>206</v>
+      </c>
+      <c r="B153" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C153" s="2" t="s">
         <v>1087</v>
       </c>
-      <c r="C148" s="2" t="s">
+      <c r="D153" s="2" t="s">
         <v>1086</v>
       </c>
-      <c r="D148" s="2"/>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A149" s="2" t="s">
+    </row>
+    <row r="154" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A154" s="2" t="s">
         <v>206</v>
       </c>
-      <c r="B149" s="2" t="s">
+      <c r="B154" s="2" t="s">
+        <v>1085</v>
+      </c>
+      <c r="C154" s="2" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D154" s="2" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" ht="75" x14ac:dyDescent="0.25">
+      <c r="A155" s="2" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B155" s="2" t="s">
         <v>1081</v>
       </c>
-      <c r="C149" s="2" t="s">
-        <v>1085</v>
-      </c>
-      <c r="D149" s="2" t="s">
-        <v>1084</v>
-      </c>
-    </row>
-    <row r="150" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A150" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B150" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C150" s="2" t="s">
-        <v>1083</v>
-      </c>
-      <c r="D150" s="2" t="s">
-        <v>1082</v>
-      </c>
-    </row>
-    <row r="151" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A151" s="2" t="s">
-        <v>206</v>
-      </c>
-      <c r="B151" s="2" t="s">
-        <v>1081</v>
-      </c>
-      <c r="C151" s="2" t="s">
+      <c r="C155" s="2"/>
+      <c r="D155" s="2"/>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="2" t="s">
+        <v>1079</v>
+      </c>
+      <c r="B156" s="2"/>
+      <c r="C156" s="2" t="s">
         <v>1080</v>
       </c>
-      <c r="D151" s="2" t="s">
+      <c r="D156" s="2"/>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="2" t="s">
         <v>1079</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" ht="75" x14ac:dyDescent="0.25">
-      <c r="A152" s="2" t="s">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2" t="s">
         <v>1078</v>
       </c>
-      <c r="B152" s="2" t="s">
-        <v>1077</v>
-      </c>
-      <c r="C152" s="2"/>
-      <c r="D152" s="2"/>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A153" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B153" s="2"/>
-      <c r="C153" s="2" t="s">
-        <v>1076</v>
-      </c>
-      <c r="D153" s="2"/>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A154" s="2" t="s">
-        <v>1075</v>
-      </c>
-      <c r="B154" s="2"/>
-      <c r="C154" s="2" t="s">
-        <v>1074</v>
-      </c>
-      <c r="D154" s="2"/>
-    </row>
-    <row r="155" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A155" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B155" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C155" s="2" t="s">
-        <v>1073</v>
-      </c>
-      <c r="D155" s="2" t="s">
-        <v>1072</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A156" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B156" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C156" s="2" t="s">
-        <v>1071</v>
-      </c>
-      <c r="D156" s="2" t="s">
-        <v>1070</v>
-      </c>
-    </row>
-    <row r="157" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A157" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B157" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C157" s="2" t="s">
-        <v>1069</v>
-      </c>
-      <c r="D157" s="2" t="s">
-        <v>1068</v>
-      </c>
+      <c r="D157" s="2"/>
     </row>
     <row r="158" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A158" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B158" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C158" s="2" t="s">
-        <v>1067</v>
+        <v>1077</v>
       </c>
       <c r="D158" s="2" t="s">
-        <v>1066</v>
+        <v>1076</v>
       </c>
     </row>
     <row r="159" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A159" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B159" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>1065</v>
+        <v>1075</v>
       </c>
       <c r="D159" s="2" t="s">
-        <v>1064</v>
-      </c>
-    </row>
-    <row r="160" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A160" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B160" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>1063</v>
+        <v>1073</v>
       </c>
       <c r="D160" s="2" t="s">
-        <v>1062</v>
+        <v>1072</v>
       </c>
     </row>
     <row r="161" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A161" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B161" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C161" s="2" t="s">
-        <v>1061</v>
+        <v>1071</v>
       </c>
       <c r="D161" s="2" t="s">
-        <v>1060</v>
+        <v>1070</v>
       </c>
     </row>
     <row r="162" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A162" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B162" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C162" s="2" t="s">
-        <v>1059</v>
+        <v>1069</v>
       </c>
       <c r="D162" s="2" t="s">
-        <v>1058</v>
-      </c>
-    </row>
-    <row r="163" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A163" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B163" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C163" s="2" t="s">
-        <v>1057</v>
+        <v>1067</v>
       </c>
       <c r="D163" s="2" t="s">
-        <v>1056</v>
+        <v>1066</v>
       </c>
     </row>
     <row r="164" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A164" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B164" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>1055</v>
+        <v>1065</v>
       </c>
       <c r="D164" s="2" t="s">
-        <v>1054</v>
+        <v>1064</v>
       </c>
     </row>
     <row r="165" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A165" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B165" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C165" s="2" t="s">
-        <v>1053</v>
+        <v>1063</v>
       </c>
       <c r="D165" s="2" t="s">
-        <v>1052</v>
-      </c>
-    </row>
-    <row r="166" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A166" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B166" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>1051</v>
+        <v>1061</v>
       </c>
       <c r="D166" s="2" t="s">
-        <v>1050</v>
+        <v>1060</v>
       </c>
     </row>
     <row r="167" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A167" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B167" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C167" s="2" t="s">
-        <v>1049</v>
+        <v>1059</v>
       </c>
       <c r="D167" s="2" t="s">
-        <v>1048</v>
+        <v>1058</v>
       </c>
     </row>
     <row r="168" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A168" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B168" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C168" s="2" t="s">
-        <v>1047</v>
+        <v>1057</v>
       </c>
       <c r="D168" s="2" t="s">
-        <v>1046</v>
+        <v>1056</v>
       </c>
     </row>
     <row r="169" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A169" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B169" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C169" s="2" t="s">
-        <v>1045</v>
+        <v>1055</v>
       </c>
       <c r="D169" s="2" t="s">
-        <v>1044</v>
+        <v>1054</v>
       </c>
     </row>
     <row r="170" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A170" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B170" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C170" s="2" t="s">
-        <v>1043</v>
+        <v>1053</v>
       </c>
       <c r="D170" s="2" t="s">
-        <v>1042</v>
-      </c>
-    </row>
-    <row r="171" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A171" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B171" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>1041</v>
+        <v>1051</v>
       </c>
       <c r="D171" s="2" t="s">
-        <v>1040</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="172" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A172" s="2" t="s">
-        <v>1035</v>
+        <v>1039</v>
       </c>
       <c r="B172" s="2" t="s">
-        <v>1034</v>
+        <v>1038</v>
       </c>
       <c r="C172" s="2" t="s">
+        <v>1049</v>
+      </c>
+      <c r="D172" s="2" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A173" s="2" t="s">
         <v>1039</v>
       </c>
-      <c r="D172" s="2" t="s">
+      <c r="B173" s="2" t="s">
         <v>1038</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" ht="45" x14ac:dyDescent="0.25">
-      <c r="A173" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B173" s="2" t="s">
-        <v>1034</v>
-      </c>
       <c r="C173" s="2" t="s">
+        <v>1047</v>
+      </c>
+      <c r="D173" s="2" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A174" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B174" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C174" s="2" t="s">
+        <v>1045</v>
+      </c>
+      <c r="D174" s="2" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A175" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B175" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C175" s="2" t="s">
+        <v>1043</v>
+      </c>
+      <c r="D175" s="2" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A176" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B176" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C176" s="2" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D176" s="2" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+      <c r="A177" s="2" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B177" s="2" t="s">
+        <v>1038</v>
+      </c>
+      <c r="C177" s="2" t="s">
         <v>1037</v>
       </c>
-      <c r="D173" s="2" t="s">
+      <c r="D177" s="2" t="s">
         <v>1036</v>
-      </c>
-    </row>
-    <row r="174" spans="1:4" ht="30" x14ac:dyDescent="0.25">
-      <c r="A174" s="2" t="s">
-        <v>1035</v>
-      </c>
-      <c r="B174" s="2" t="s">
-        <v>1034</v>
-      </c>
-      <c r="C174" s="2" t="s">
-        <v>1033</v>
-      </c>
-      <c r="D174" s="2" t="s">
-        <v>1032</v>
-      </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A175" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B175" s="2"/>
-      <c r="C175" s="2" t="s">
-        <v>1031</v>
-      </c>
-      <c r="D175" s="2"/>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A176" s="2" t="s">
-        <v>1030</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" s="2" t="s">
-        <v>1029</v>
-      </c>
-      <c r="D176" s="2"/>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A177" s="2" t="s">
-        <v>1024</v>
-      </c>
-      <c r="B177" s="2"/>
-      <c r="C177" s="2" t="s">
-        <v>1028</v>
-      </c>
-      <c r="D177" s="2" t="s">
-        <v>1027</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A178" s="2" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="B178" s="2"/>
       <c r="C178" s="2" t="s">
-        <v>1026</v>
-      </c>
-      <c r="D178" s="2" t="s">
-        <v>1025</v>
-      </c>
+        <v>1035</v>
+      </c>
+      <c r="D178" s="2"/>
     </row>
     <row r="179" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A179" s="2" t="s">
-        <v>1024</v>
+        <v>1034</v>
       </c>
       <c r="B179" s="2"/>
       <c r="C179" s="2" t="s">
-        <v>664</v>
-      </c>
-      <c r="D179" s="2" t="s">
-        <v>663</v>
-      </c>
+        <v>1033</v>
+      </c>
+      <c r="D179" s="2"/>
     </row>
     <row r="180" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A180" s="2" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="B180" s="2"/>
       <c r="C180" s="2" t="s">
-        <v>1023</v>
+        <v>1032</v>
       </c>
       <c r="D180" s="2" t="s">
-        <v>1022</v>
+        <v>1031</v>
       </c>
     </row>
     <row r="181" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A181" s="2" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="B181" s="2"/>
       <c r="C181" s="2" t="s">
-        <v>1021</v>
+        <v>1030</v>
       </c>
       <c r="D181" s="2" t="s">
-        <v>1020</v>
+        <v>1029</v>
       </c>
     </row>
     <row r="182" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A182" s="2" t="s">
-        <v>1017</v>
+        <v>1028</v>
       </c>
       <c r="B182" s="2"/>
       <c r="C182" s="2" t="s">
-        <v>1019</v>
+        <v>668</v>
       </c>
       <c r="D182" s="2" t="s">
-        <v>1018</v>
+        <v>667</v>
       </c>
     </row>
     <row r="183" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A183" s="2" t="s">
-        <v>1017</v>
+        <v>1021</v>
       </c>
       <c r="B183" s="2"/>
       <c r="C183" s="2" t="s">
-        <v>1016</v>
+        <v>1027</v>
       </c>
       <c r="D183" s="2" t="s">
-        <v>1015</v>
+        <v>1026</v>
       </c>
     </row>
     <row r="184" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A184" s="2" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="B184" s="2"/>
       <c r="C184" s="2" t="s">
-        <v>1014</v>
-      </c>
-      <c r="D184" s="2"/>
+        <v>1025</v>
+      </c>
+      <c r="D184" s="2" t="s">
+        <v>1024</v>
+      </c>
     </row>
     <row r="185" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A185" s="2" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="B185" s="2"/>
       <c r="C185" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="D185" s="2"/>
+        <v>1023</v>
+      </c>
+      <c r="D185" s="2" t="s">
+        <v>1022</v>
+      </c>
     </row>
     <row r="186" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A186" s="2" t="s">
-        <v>1013</v>
+        <v>1021</v>
       </c>
       <c r="B186" s="2"/>
       <c r="C186" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="D186" s="2"/>
+        <v>1020</v>
+      </c>
+      <c r="D186" s="2" t="s">
+        <v>1019</v>
+      </c>
     </row>
     <row r="187" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A187" s="2" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B187" s="2"/>
       <c r="C187" s="2" t="s">
-        <v>13</v>
+        <v>1018</v>
       </c>
       <c r="D187" s="2"/>
     </row>
     <row r="188" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A188" s="2" t="s">
-        <v>1013</v>
+        <v>1017</v>
       </c>
       <c r="B188" s="2"/>
       <c r="C188" s="2" t="s">
-        <v>1012</v>
+        <v>51</v>
       </c>
       <c r="D188" s="2"/>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A189" s="2" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="B189" s="2"/>
       <c r="C189" s="2" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D189" s="2" t="s">
-        <v>1010</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D189" s="2"/>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A190" s="2" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="B190" s="2"/>
       <c r="C190" s="2" t="s">
-        <v>1009</v>
-      </c>
-      <c r="D190" s="2" t="s">
-        <v>1008</v>
-      </c>
+        <v>13</v>
+      </c>
+      <c r="D190" s="2"/>
     </row>
     <row r="191" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A191" s="2" t="s">
-        <v>993</v>
+        <v>1017</v>
       </c>
       <c r="B191" s="2"/>
       <c r="C191" s="2" t="s">
-        <v>1007</v>
-      </c>
-      <c r="D191" s="2" t="s">
-        <v>1006</v>
-      </c>
+        <v>1016</v>
+      </c>
+      <c r="D191" s="2"/>
     </row>
     <row r="192" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A192" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B192" s="2"/>
       <c r="C192" s="2" t="s">
-        <v>1005</v>
+        <v>1015</v>
       </c>
       <c r="D192" s="2" t="s">
-        <v>1004</v>
+        <v>1014</v>
       </c>
     </row>
     <row r="193" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A193" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B193" s="2"/>
       <c r="C193" s="2" t="s">
-        <v>1003</v>
+        <v>1013</v>
       </c>
       <c r="D193" s="2" t="s">
-        <v>1002</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="194" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A194" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B194" s="2"/>
       <c r="C194" s="2" t="s">
-        <v>1001</v>
+        <v>1011</v>
       </c>
       <c r="D194" s="2" t="s">
-        <v>1000</v>
+        <v>1010</v>
       </c>
     </row>
     <row r="195" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A195" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B195" s="2"/>
       <c r="C195" s="2" t="s">
-        <v>999</v>
+        <v>1009</v>
       </c>
       <c r="D195" s="2" t="s">
-        <v>998</v>
+        <v>1008</v>
       </c>
     </row>
     <row r="196" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A196" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B196" s="2"/>
       <c r="C196" s="2" t="s">
-        <v>997</v>
+        <v>1007</v>
       </c>
       <c r="D196" s="2" t="s">
-        <v>996</v>
+        <v>1006</v>
       </c>
     </row>
     <row r="197" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A197" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B197" s="2"/>
       <c r="C197" s="2" t="s">
-        <v>995</v>
+        <v>1005</v>
       </c>
       <c r="D197" s="2" t="s">
-        <v>994</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="198" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A198" s="2" t="s">
-        <v>993</v>
+        <v>997</v>
       </c>
       <c r="B198" s="2"/>
       <c r="C198" s="2" t="s">
-        <v>992</v>
+        <v>1003</v>
       </c>
       <c r="D198" s="2" t="s">
-        <v>991</v>
+        <v>1002</v>
       </c>
     </row>
     <row r="199" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A199" s="2" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B199" s="2"/>
       <c r="C199" s="2" t="s">
-        <v>990</v>
+        <v>1001</v>
       </c>
       <c r="D199" s="2" t="s">
-        <v>989</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="200" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A200" s="2" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B200" s="2"/>
       <c r="C200" s="2" t="s">
-        <v>988</v>
+        <v>999</v>
       </c>
       <c r="D200" s="2" t="s">
-        <v>987</v>
+        <v>998</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A201" s="2" t="s">
-        <v>986</v>
+        <v>997</v>
       </c>
       <c r="B201" s="2"/>
       <c r="C201" s="2" t="s">
-        <v>985</v>
+        <v>996</v>
       </c>
       <c r="D201" s="2" t="s">
-        <v>984</v>
+        <v>995</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A202" s="2" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="B202" s="2"/>
       <c r="C202" s="2" t="s">
-        <v>983</v>
+        <v>994</v>
       </c>
       <c r="D202" s="2" t="s">
-        <v>982</v>
+        <v>993</v>
       </c>
     </row>
     <row r="203" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A203" s="2" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="B203" s="2"/>
       <c r="C203" s="2" t="s">
-        <v>981</v>
+        <v>992</v>
       </c>
       <c r="D203" s="2" t="s">
-        <v>980</v>
+        <v>991</v>
       </c>
     </row>
     <row r="204" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A204" s="2" t="s">
-        <v>975</v>
+        <v>990</v>
       </c>
       <c r="B204" s="2"/>
       <c r="C204" s="2" t="s">
-        <v>979</v>
+        <v>989</v>
       </c>
       <c r="D204" s="2" t="s">
-        <v>978</v>
+        <v>988</v>
       </c>
     </row>
     <row r="205" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A205" s="2" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B205" s="2"/>
       <c r="C205" s="2" t="s">
-        <v>977</v>
+        <v>987</v>
       </c>
       <c r="D205" s="2" t="s">
-        <v>976</v>
+        <v>986</v>
       </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" s="2" t="s">
-        <v>975</v>
+        <v>979</v>
       </c>
       <c r="B206" s="2"/>
       <c r="C206" s="2" t="s">
-        <v>974</v>
+        <v>985</v>
       </c>
       <c r="D206" s="2" t="s">
-        <v>973</v>
+        <v>984</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" s="2" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="B207" s="2"/>
       <c r="C207" s="2" t="s">
-        <v>972</v>
-      </c>
-      <c r="D207" s="2"/>
+        <v>983</v>
+      </c>
+      <c r="D207" s="2" t="s">
+        <v>982</v>
+      </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" s="2" t="s">
-        <v>971</v>
+        <v>979</v>
       </c>
       <c r="B208" s="2"/>
       <c r="C208" s="2" t="s">
-        <v>970</v>
-      </c>
-      <c r="D208" s="2"/>
+        <v>981</v>
+      </c>
+      <c r="D208" s="2" t="s">
+        <v>980</v>
+      </c>
     </row>
     <row r="209" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A209" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B209" s="2" t="s">
-        <v>966</v>
-      </c>
+        <v>979</v>
+      </c>
+      <c r="B209" s="2"/>
       <c r="C209" s="2" t="s">
-        <v>969</v>
+        <v>978</v>
       </c>
       <c r="D209" s="2" t="s">
-        <v>968</v>
+        <v>977</v>
       </c>
     </row>
     <row r="210" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A210" s="2" t="s">
-        <v>967</v>
-      </c>
-      <c r="B210" s="2" t="s">
-        <v>966</v>
-      </c>
+        <v>975</v>
+      </c>
+      <c r="B210" s="2"/>
       <c r="C210" s="2" t="s">
-        <v>965</v>
-      </c>
-      <c r="D210" s="2" t="s">
-        <v>964</v>
-      </c>
+        <v>976</v>
+      </c>
+      <c r="D210" s="2"/>
     </row>
     <row r="211" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A211" s="2" t="s">
-        <v>960</v>
+        <v>975</v>
       </c>
       <c r="B211" s="2"/>
       <c r="C211" s="2" t="s">
-        <v>963</v>
+        <v>974</v>
       </c>
       <c r="D211" s="2"/>
     </row>
     <row r="212" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A212" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="B212" s="2"/>
+        <v>971</v>
+      </c>
+      <c r="B212" s="2" t="s">
+        <v>970</v>
+      </c>
       <c r="C212" s="2" t="s">
-        <v>962</v>
-      </c>
-      <c r="D212" s="2"/>
+        <v>973</v>
+      </c>
+      <c r="D212" s="2" t="s">
+        <v>972</v>
+      </c>
     </row>
     <row r="213" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A213" s="2" t="s">
-        <v>960</v>
-      </c>
-      <c r="B213" s="2"/>
+        <v>971</v>
+      </c>
+      <c r="B213" s="2" t="s">
+        <v>970</v>
+      </c>
       <c r="C213" s="2" t="s">
-        <v>961</v>
-      </c>
-      <c r="D213" s="2"/>
+        <v>969</v>
+      </c>
+      <c r="D213" s="2" t="s">
+        <v>968</v>
+      </c>
     </row>
     <row r="214" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A214" s="2" t="s">
-        <v>960</v>
+        <v>964</v>
       </c>
       <c r="B214" s="2"/>
       <c r="C214" s="2" t="s">
-        <v>959</v>
+        <v>967</v>
       </c>
       <c r="D214" s="2"/>
     </row>
     <row r="215" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A215" s="2" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B215" s="2"/>
       <c r="C215" s="2" t="s">
-        <v>958</v>
-      </c>
-      <c r="D215" s="2" t="s">
-        <v>957</v>
-      </c>
+        <v>966</v>
+      </c>
+      <c r="D215" s="2"/>
     </row>
     <row r="216" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A216" s="2" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B216" s="2"/>
       <c r="C216" s="2" t="s">
-        <v>956</v>
-      </c>
-      <c r="D216" s="2" t="s">
-        <v>955</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="D216" s="2"/>
     </row>
     <row r="217" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A217" s="2" t="s">
-        <v>948</v>
+        <v>964</v>
       </c>
       <c r="B217" s="2"/>
       <c r="C217" s="2" t="s">
-        <v>954</v>
-      </c>
-      <c r="D217" s="2" t="s">
-        <v>953</v>
-      </c>
+        <v>963</v>
+      </c>
+      <c r="D217" s="2"/>
     </row>
     <row r="218" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A218" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B218" s="2"/>
       <c r="C218" s="2" t="s">
-        <v>952</v>
+        <v>962</v>
       </c>
       <c r="D218" s="2" t="s">
-        <v>951</v>
+        <v>961</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A219" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B219" s="2"/>
       <c r="C219" s="2" t="s">
-        <v>950</v>
+        <v>960</v>
       </c>
       <c r="D219" s="2" t="s">
-        <v>949</v>
+        <v>959</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A220" s="2" t="s">
-        <v>948</v>
+        <v>952</v>
       </c>
       <c r="B220" s="2"/>
       <c r="C220" s="2" t="s">
+        <v>958</v>
+      </c>
+      <c r="D220" s="2" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A221" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B221" s="2"/>
+      <c r="C221" s="2" t="s">
+        <v>956</v>
+      </c>
+      <c r="D221" s="2" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A222" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B222" s="2"/>
+      <c r="C222" s="2" t="s">
+        <v>954</v>
+      </c>
+      <c r="D222" s="2" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A223" s="2" t="s">
+        <v>952</v>
+      </c>
+      <c r="B223" s="2"/>
+      <c r="C223" s="2" t="s">
+        <v>951</v>
+      </c>
+      <c r="D223" s="2" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A224" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B224" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C224" s="2" t="s">
+        <v>950</v>
+      </c>
+      <c r="D224" s="2" t="s">
+        <v>949</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A225" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="B225" s="2" t="s">
+        <v>946</v>
+      </c>
+      <c r="C225" s="2" t="s">
+        <v>948</v>
+      </c>
+      <c r="D225" s="2" t="s">
         <v>947</v>
       </c>
-      <c r="D220" s="2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="221" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A221" s="2" t="s">
+    </row>
+    <row r="226" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+      <c r="A226" s="2" t="s">
         <v>284</v>
       </c>
-      <c r="B221" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C221" s="2" t="s">
+      <c r="B226" s="2" t="s">
         <v>946</v>
       </c>
-      <c r="D221" s="2" t="s">
+      <c r="C226" s="2" t="s">
         <v>945</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A222" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B222" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C222" s="2" t="s">
+      <c r="D226" s="2" t="s">
         <v>944</v>
-      </c>
-      <c r="D222" s="2" t="s">
-        <v>943</v>
-      </c>
-    </row>
-    <row r="223" spans="1:4" ht="60" x14ac:dyDescent="0.25">
-      <c r="A223" s="2" t="s">
-        <v>284</v>
-      </c>
-      <c r="B223" s="2" t="s">
-        <v>942</v>
-      </c>
-      <c r="C223" s="2" t="s">
-        <v>941</v>
-      </c>
-      <c r="D223" s="2" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A224" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="B224" s="2"/>
-      <c r="C224" s="2" t="s">
-        <v>939</v>
-      </c>
-      <c r="D224" s="2" t="s">
-        <v>938</v>
-      </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A225" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="B225" s="2"/>
-      <c r="C225" s="2" t="s">
-        <v>937</v>
-      </c>
-      <c r="D225" s="2" t="s">
-        <v>936</v>
-      </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A226" s="2" t="s">
-        <v>933</v>
-      </c>
-      <c r="B226" s="2"/>
-      <c r="C226" s="2" t="s">
-        <v>935</v>
-      </c>
-      <c r="D226" s="2" t="s">
-        <v>934</v>
       </c>
     </row>
     <row r="227" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A227" s="2" t="s">
-        <v>933</v>
+        <v>937</v>
       </c>
       <c r="B227" s="2"/>
       <c r="C227" s="2" t="s">
-        <v>932</v>
+        <v>943</v>
       </c>
       <c r="D227" s="2" t="s">
-        <v>931</v>
+        <v>942</v>
       </c>
     </row>
     <row r="228" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A228" s="2" t="s">
-        <v>59</v>
+        <v>937</v>
       </c>
       <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-      <c r="D228" s="2"/>
+      <c r="C228" s="2" t="s">
+        <v>941</v>
+      </c>
+      <c r="D228" s="2" t="s">
+        <v>940</v>
+      </c>
     </row>
     <row r="229" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A229" s="2" t="s">
-        <v>61</v>
+        <v>937</v>
       </c>
       <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-      <c r="D229" s="2"/>
+      <c r="C229" s="2" t="s">
+        <v>939</v>
+      </c>
+      <c r="D229" s="2" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="230" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A230" s="2" t="s">
-        <v>930</v>
+        <v>937</v>
       </c>
       <c r="B230" s="2"/>
       <c r="C230" s="2" t="s">
-        <v>929</v>
+        <v>936</v>
       </c>
       <c r="D230" s="2" t="s">
-        <v>928</v>
+        <v>935</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A231" s="2" t="s">
-        <v>927</v>
+        <v>59</v>
       </c>
       <c r="B231" s="2"/>
       <c r="C231" s="2"/>
@@ -12719,7 +12756,7 @@
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A232" s="2" t="s">
-        <v>263</v>
+        <v>61</v>
       </c>
       <c r="B232" s="2"/>
       <c r="C232" s="2"/>
@@ -12727,1869 +12764,1861 @@
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A233" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B233" s="2" t="s">
-        <v>881</v>
-      </c>
+        <v>934</v>
+      </c>
+      <c r="B233" s="2"/>
       <c r="C233" s="2" t="s">
-        <v>926</v>
+        <v>933</v>
       </c>
       <c r="D233" s="2" t="s">
-        <v>925</v>
+        <v>932</v>
       </c>
     </row>
     <row r="234" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A234" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B234" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C234" s="2" t="s">
-        <v>924</v>
-      </c>
-      <c r="D234" s="2" t="s">
-        <v>923</v>
-      </c>
+        <v>931</v>
+      </c>
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+      <c r="D234" s="2"/>
     </row>
     <row r="235" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A235" s="2" t="s">
-        <v>882</v>
-      </c>
-      <c r="B235" s="2" t="s">
-        <v>881</v>
-      </c>
-      <c r="C235" s="2" t="s">
-        <v>922</v>
-      </c>
-      <c r="D235" s="2" t="s">
-        <v>921</v>
-      </c>
+        <v>263</v>
+      </c>
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+      <c r="D235" s="2"/>
     </row>
     <row r="236" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A236" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B236" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C236" s="2" t="s">
-        <v>920</v>
+        <v>930</v>
       </c>
       <c r="D236" s="2" t="s">
-        <v>919</v>
+        <v>929</v>
       </c>
     </row>
     <row r="237" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A237" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B237" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C237" s="2" t="s">
-        <v>918</v>
+        <v>928</v>
       </c>
       <c r="D237" s="2" t="s">
-        <v>917</v>
+        <v>927</v>
       </c>
     </row>
     <row r="238" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A238" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B238" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C238" s="2" t="s">
-        <v>916</v>
+        <v>926</v>
       </c>
       <c r="D238" s="2" t="s">
-        <v>915</v>
+        <v>925</v>
       </c>
     </row>
     <row r="239" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A239" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B239" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C239" s="2" t="s">
-        <v>914</v>
+        <v>924</v>
       </c>
       <c r="D239" s="2" t="s">
-        <v>913</v>
+        <v>923</v>
       </c>
     </row>
     <row r="240" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A240" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B240" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C240" s="2" t="s">
-        <v>912</v>
+        <v>922</v>
       </c>
       <c r="D240" s="2" t="s">
-        <v>911</v>
+        <v>921</v>
       </c>
     </row>
     <row r="241" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A241" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B241" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C241" s="2" t="s">
-        <v>910</v>
+        <v>920</v>
       </c>
       <c r="D241" s="2" t="s">
-        <v>909</v>
+        <v>919</v>
       </c>
     </row>
     <row r="242" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A242" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B242" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C242" s="2" t="s">
-        <v>908</v>
+        <v>918</v>
       </c>
       <c r="D242" s="2" t="s">
-        <v>907</v>
+        <v>917</v>
       </c>
     </row>
     <row r="243" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A243" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B243" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C243" s="2" t="s">
-        <v>906</v>
+        <v>916</v>
       </c>
       <c r="D243" s="2" t="s">
-        <v>905</v>
+        <v>915</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A244" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B244" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C244" s="2" t="s">
-        <v>904</v>
+        <v>914</v>
       </c>
       <c r="D244" s="2" t="s">
-        <v>903</v>
+        <v>913</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A245" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B245" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C245" s="2" t="s">
-        <v>902</v>
+        <v>912</v>
       </c>
       <c r="D245" s="2" t="s">
-        <v>901</v>
+        <v>911</v>
       </c>
     </row>
     <row r="246" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A246" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B246" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C246" s="2" t="s">
-        <v>900</v>
+        <v>910</v>
       </c>
       <c r="D246" s="2" t="s">
-        <v>899</v>
+        <v>909</v>
       </c>
     </row>
     <row r="247" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A247" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B247" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C247" s="2" t="s">
-        <v>898</v>
+        <v>908</v>
       </c>
       <c r="D247" s="2" t="s">
-        <v>897</v>
+        <v>907</v>
       </c>
     </row>
     <row r="248" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A248" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B248" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C248" s="2" t="s">
-        <v>896</v>
+        <v>906</v>
       </c>
       <c r="D248" s="2" t="s">
-        <v>895</v>
+        <v>905</v>
       </c>
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A249" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B249" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C249" s="2" t="s">
-        <v>894</v>
+        <v>904</v>
       </c>
       <c r="D249" s="2" t="s">
-        <v>893</v>
+        <v>903</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A250" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B250" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C250" s="2" t="s">
-        <v>892</v>
+        <v>902</v>
       </c>
       <c r="D250" s="2" t="s">
-        <v>891</v>
+        <v>901</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A251" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B251" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C251" s="2" t="s">
-        <v>890</v>
+        <v>900</v>
       </c>
       <c r="D251" s="2" t="s">
-        <v>889</v>
+        <v>899</v>
       </c>
     </row>
     <row r="252" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A252" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B252" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C252" s="2" t="s">
-        <v>888</v>
+        <v>898</v>
       </c>
       <c r="D252" s="2" t="s">
-        <v>887</v>
+        <v>897</v>
       </c>
     </row>
     <row r="253" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A253" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B253" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C253" s="2" t="s">
-        <v>886</v>
+        <v>896</v>
       </c>
       <c r="D253" s="2" t="s">
-        <v>885</v>
+        <v>895</v>
       </c>
     </row>
     <row r="254" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A254" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B254" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C254" s="2" t="s">
-        <v>884</v>
+        <v>894</v>
       </c>
       <c r="D254" s="2" t="s">
-        <v>883</v>
+        <v>893</v>
       </c>
     </row>
     <row r="255" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A255" s="2" t="s">
-        <v>882</v>
+        <v>886</v>
       </c>
       <c r="B255" s="2" t="s">
-        <v>881</v>
+        <v>885</v>
       </c>
       <c r="C255" s="2" t="s">
-        <v>684</v>
+        <v>892</v>
       </c>
       <c r="D255" s="2" t="s">
-        <v>683</v>
+        <v>891</v>
       </c>
     </row>
     <row r="256" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A256" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B256" s="2"/>
+        <v>886</v>
+      </c>
+      <c r="B256" s="2" t="s">
+        <v>885</v>
+      </c>
       <c r="C256" s="2" t="s">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="D256" s="2" t="s">
-        <v>879</v>
+        <v>889</v>
       </c>
     </row>
     <row r="257" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A257" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B257" s="2"/>
+        <v>886</v>
+      </c>
+      <c r="B257" s="2" t="s">
+        <v>885</v>
+      </c>
       <c r="C257" s="2" t="s">
-        <v>878</v>
+        <v>888</v>
       </c>
       <c r="D257" s="2" t="s">
-        <v>877</v>
+        <v>887</v>
       </c>
     </row>
     <row r="258" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A258" s="2" t="s">
-        <v>876</v>
-      </c>
-      <c r="B258" s="2"/>
+        <v>886</v>
+      </c>
+      <c r="B258" s="2" t="s">
+        <v>885</v>
+      </c>
       <c r="C258" s="2" t="s">
-        <v>664</v>
+        <v>688</v>
       </c>
       <c r="D258" s="2" t="s">
-        <v>875</v>
-      </c>
-    </row>
-    <row r="259" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A259" s="2" t="s">
-        <v>874</v>
-      </c>
-      <c r="B259" s="2" t="s">
-        <v>873</v>
-      </c>
-      <c r="C259" s="2"/>
-      <c r="D259" s="2"/>
+        <v>880</v>
+      </c>
+      <c r="B259" s="2"/>
+      <c r="C259" s="2" t="s">
+        <v>884</v>
+      </c>
+      <c r="D259" s="2" t="s">
+        <v>883</v>
+      </c>
     </row>
     <row r="260" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A260" s="2" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="B260" s="2"/>
       <c r="C260" s="2" t="s">
-        <v>872</v>
+        <v>882</v>
       </c>
       <c r="D260" s="2" t="s">
-        <v>871</v>
-      </c>
-    </row>
-    <row r="261" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>881</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A261" s="2" t="s">
-        <v>868</v>
+        <v>880</v>
       </c>
       <c r="B261" s="2"/>
       <c r="C261" s="2" t="s">
-        <v>870</v>
+        <v>668</v>
       </c>
       <c r="D261" s="2" t="s">
-        <v>869</v>
-      </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+        <v>879</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A262" s="2" t="s">
-        <v>868</v>
-      </c>
-      <c r="B262" s="2"/>
-      <c r="C262" s="2" t="s">
-        <v>684</v>
-      </c>
-      <c r="D262" s="2" t="s">
-        <v>683</v>
-      </c>
+        <v>878</v>
+      </c>
+      <c r="B262" s="2" t="s">
+        <v>877</v>
+      </c>
+      <c r="C262" s="2"/>
+      <c r="D262" s="2"/>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A263" s="2" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="B263" s="2"/>
       <c r="C263" s="2" t="s">
-        <v>867</v>
+        <v>876</v>
       </c>
       <c r="D263" s="2" t="s">
-        <v>866</v>
-      </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+        <v>875</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A264" s="2" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="B264" s="2"/>
       <c r="C264" s="2" t="s">
-        <v>865</v>
+        <v>874</v>
       </c>
       <c r="D264" s="2" t="s">
-        <v>864</v>
+        <v>873</v>
       </c>
     </row>
     <row r="265" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A265" s="2" t="s">
-        <v>853</v>
+        <v>872</v>
       </c>
       <c r="B265" s="2"/>
       <c r="C265" s="2" t="s">
-        <v>863</v>
+        <v>688</v>
       </c>
       <c r="D265" s="2" t="s">
-        <v>862</v>
+        <v>687</v>
       </c>
     </row>
     <row r="266" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A266" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B266" s="2"/>
       <c r="C266" s="2" t="s">
-        <v>861</v>
+        <v>871</v>
       </c>
       <c r="D266" s="2" t="s">
-        <v>860</v>
-      </c>
-    </row>
-    <row r="267" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>870</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A267" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B267" s="2"/>
       <c r="C267" s="2" t="s">
-        <v>859</v>
+        <v>869</v>
       </c>
       <c r="D267" s="2" t="s">
-        <v>858</v>
+        <v>868</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A268" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B268" s="2"/>
       <c r="C268" s="2" t="s">
-        <v>857</v>
+        <v>867</v>
       </c>
       <c r="D268" s="2" t="s">
-        <v>856</v>
+        <v>866</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A269" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B269" s="2"/>
       <c r="C269" s="2" t="s">
-        <v>855</v>
+        <v>865</v>
       </c>
       <c r="D269" s="2" t="s">
-        <v>854</v>
-      </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+        <v>864</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A270" s="2" t="s">
-        <v>853</v>
+        <v>857</v>
       </c>
       <c r="B270" s="2"/>
       <c r="C270" s="2" t="s">
-        <v>684</v>
+        <v>863</v>
       </c>
       <c r="D270" s="2" t="s">
-        <v>683</v>
+        <v>862</v>
       </c>
     </row>
     <row r="271" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A271" s="2" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="B271" s="2"/>
       <c r="C271" s="2" t="s">
-        <v>852</v>
+        <v>861</v>
       </c>
       <c r="D271" s="2" t="s">
-        <v>851</v>
+        <v>860</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A272" s="2" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="B272" s="2"/>
       <c r="C272" s="2" t="s">
-        <v>850</v>
+        <v>859</v>
       </c>
       <c r="D272" s="2" t="s">
-        <v>849</v>
+        <v>858</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A273" s="2" t="s">
-        <v>846</v>
+        <v>857</v>
       </c>
       <c r="B273" s="2"/>
       <c r="C273" s="2" t="s">
-        <v>848</v>
+        <v>688</v>
       </c>
       <c r="D273" s="2" t="s">
-        <v>847</v>
+        <v>687</v>
       </c>
     </row>
     <row r="274" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A274" s="2" t="s">
-        <v>846</v>
+        <v>850</v>
       </c>
       <c r="B274" s="2"/>
       <c r="C274" s="2" t="s">
-        <v>845</v>
+        <v>856</v>
       </c>
       <c r="D274" s="2" t="s">
-        <v>844</v>
-      </c>
-    </row>
-    <row r="275" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A275" s="2" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B275" s="2"/>
       <c r="C275" s="2" t="s">
-        <v>843</v>
+        <v>854</v>
       </c>
       <c r="D275" s="2" t="s">
-        <v>842</v>
-      </c>
-    </row>
-    <row r="276" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>853</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A276" s="2" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B276" s="2"/>
       <c r="C276" s="2" t="s">
-        <v>841</v>
+        <v>852</v>
       </c>
       <c r="D276" s="2" t="s">
-        <v>840</v>
-      </c>
-    </row>
-    <row r="277" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A277" s="2" t="s">
-        <v>839</v>
+        <v>850</v>
       </c>
       <c r="B277" s="2"/>
       <c r="C277" s="2" t="s">
-        <v>838</v>
+        <v>849</v>
       </c>
       <c r="D277" s="2" t="s">
-        <v>837</v>
-      </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+        <v>848</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A278" s="2" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="B278" s="2"/>
       <c r="C278" s="2" t="s">
-        <v>836</v>
+        <v>847</v>
       </c>
       <c r="D278" s="2" t="s">
-        <v>835</v>
-      </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A279" s="2" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="B279" s="2"/>
       <c r="C279" s="2" t="s">
-        <v>834</v>
+        <v>845</v>
       </c>
       <c r="D279" s="2" t="s">
-        <v>833</v>
-      </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A280" s="2" t="s">
-        <v>826</v>
+        <v>843</v>
       </c>
       <c r="B280" s="2"/>
       <c r="C280" s="2" t="s">
-        <v>832</v>
+        <v>842</v>
       </c>
       <c r="D280" s="2" t="s">
-        <v>831</v>
+        <v>841</v>
       </c>
     </row>
     <row r="281" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A281" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B281" s="2"/>
       <c r="C281" s="2" t="s">
-        <v>830</v>
+        <v>840</v>
       </c>
       <c r="D281" s="2" t="s">
-        <v>829</v>
+        <v>839</v>
       </c>
     </row>
     <row r="282" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A282" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B282" s="2"/>
       <c r="C282" s="2" t="s">
-        <v>828</v>
+        <v>838</v>
       </c>
       <c r="D282" s="2" t="s">
-        <v>827</v>
-      </c>
-    </row>
-    <row r="283" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+        <v>837</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A283" s="2" t="s">
-        <v>826</v>
+        <v>830</v>
       </c>
       <c r="B283" s="2"/>
       <c r="C283" s="2" t="s">
-        <v>825</v>
+        <v>836</v>
       </c>
       <c r="D283" s="2" t="s">
-        <v>824</v>
-      </c>
-    </row>
-    <row r="284" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A284" s="2" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="B284" s="2"/>
       <c r="C284" s="2" t="s">
-        <v>823</v>
+        <v>834</v>
       </c>
       <c r="D284" s="2" t="s">
-        <v>822</v>
+        <v>833</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A285" s="2" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="B285" s="2"/>
       <c r="C285" s="2" t="s">
-        <v>821</v>
+        <v>832</v>
       </c>
       <c r="D285" s="2" t="s">
-        <v>820</v>
-      </c>
-    </row>
-    <row r="286" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A286" s="2" t="s">
-        <v>793</v>
+        <v>830</v>
       </c>
       <c r="B286" s="2"/>
       <c r="C286" s="2" t="s">
-        <v>819</v>
+        <v>829</v>
       </c>
       <c r="D286" s="2" t="s">
-        <v>818</v>
+        <v>828</v>
       </c>
     </row>
     <row r="287" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A287" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B287" s="2"/>
       <c r="C287" s="2" t="s">
-        <v>817</v>
+        <v>827</v>
       </c>
       <c r="D287" s="2" t="s">
-        <v>816</v>
-      </c>
-    </row>
-    <row r="288" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A288" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B288" s="2"/>
       <c r="C288" s="2" t="s">
-        <v>815</v>
+        <v>825</v>
       </c>
       <c r="D288" s="2" t="s">
-        <v>814</v>
-      </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+        <v>824</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A289" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B289" s="2"/>
       <c r="C289" s="2" t="s">
-        <v>813</v>
+        <v>823</v>
       </c>
       <c r="D289" s="2" t="s">
-        <v>812</v>
-      </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+        <v>822</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A290" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B290" s="2"/>
       <c r="C290" s="2" t="s">
-        <v>811</v>
+        <v>821</v>
       </c>
       <c r="D290" s="2" t="s">
-        <v>810</v>
-      </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A291" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B291" s="2"/>
       <c r="C291" s="2" t="s">
-        <v>809</v>
+        <v>819</v>
       </c>
       <c r="D291" s="2" t="s">
-        <v>808</v>
+        <v>818</v>
       </c>
     </row>
     <row r="292" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A292" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B292" s="2"/>
       <c r="C292" s="2" t="s">
-        <v>807</v>
+        <v>817</v>
       </c>
       <c r="D292" s="2" t="s">
-        <v>806</v>
+        <v>816</v>
       </c>
     </row>
     <row r="293" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A293" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B293" s="2"/>
       <c r="C293" s="2" t="s">
-        <v>805</v>
+        <v>815</v>
       </c>
       <c r="D293" s="2" t="s">
-        <v>804</v>
+        <v>814</v>
       </c>
     </row>
     <row r="294" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A294" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B294" s="2"/>
       <c r="C294" s="2" t="s">
-        <v>803</v>
+        <v>813</v>
       </c>
       <c r="D294" s="2" t="s">
-        <v>802</v>
+        <v>812</v>
       </c>
     </row>
     <row r="295" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A295" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B295" s="2"/>
       <c r="C295" s="2" t="s">
-        <v>801</v>
+        <v>811</v>
       </c>
       <c r="D295" s="2" t="s">
-        <v>800</v>
+        <v>810</v>
       </c>
     </row>
     <row r="296" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A296" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B296" s="2"/>
       <c r="C296" s="2" t="s">
-        <v>799</v>
+        <v>809</v>
       </c>
       <c r="D296" s="2" t="s">
-        <v>798</v>
+        <v>808</v>
       </c>
     </row>
     <row r="297" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A297" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B297" s="2"/>
       <c r="C297" s="2" t="s">
-        <v>797</v>
+        <v>807</v>
       </c>
       <c r="D297" s="2" t="s">
-        <v>796</v>
+        <v>806</v>
       </c>
     </row>
     <row r="298" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A298" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B298" s="2"/>
       <c r="C298" s="2" t="s">
-        <v>795</v>
+        <v>805</v>
       </c>
       <c r="D298" s="2" t="s">
-        <v>794</v>
+        <v>804</v>
       </c>
     </row>
     <row r="299" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A299" s="2" t="s">
-        <v>793</v>
+        <v>797</v>
       </c>
       <c r="B299" s="2"/>
       <c r="C299" s="2" t="s">
-        <v>792</v>
+        <v>803</v>
       </c>
       <c r="D299" s="2" t="s">
-        <v>791</v>
+        <v>802</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A300" s="2" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B300" s="2"/>
       <c r="C300" s="2" t="s">
-        <v>790</v>
+        <v>801</v>
       </c>
       <c r="D300" s="2" t="s">
-        <v>789</v>
+        <v>800</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A301" s="2" t="s">
-        <v>788</v>
+        <v>797</v>
       </c>
       <c r="B301" s="2"/>
       <c r="C301" s="2" t="s">
-        <v>787</v>
+        <v>799</v>
       </c>
       <c r="D301" s="2" t="s">
-        <v>786</v>
+        <v>798</v>
       </c>
     </row>
     <row r="302" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A302" s="2" t="s">
-        <v>785</v>
-      </c>
-      <c r="B302" s="2" t="s">
-        <v>784</v>
-      </c>
-      <c r="C302" s="2"/>
-      <c r="D302" s="2"/>
+        <v>797</v>
+      </c>
+      <c r="B302" s="2"/>
+      <c r="C302" s="2" t="s">
+        <v>796</v>
+      </c>
+      <c r="D302" s="2" t="s">
+        <v>795</v>
+      </c>
     </row>
     <row r="303" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A303" s="2" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="B303" s="2"/>
       <c r="C303" s="2" t="s">
-        <v>783</v>
+        <v>794</v>
       </c>
       <c r="D303" s="2" t="s">
-        <v>782</v>
+        <v>793</v>
       </c>
     </row>
     <row r="304" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A304" s="2" t="s">
-        <v>781</v>
+        <v>792</v>
       </c>
       <c r="B304" s="2"/>
       <c r="C304" s="2" t="s">
-        <v>780</v>
+        <v>791</v>
       </c>
       <c r="D304" s="2" t="s">
-        <v>779</v>
+        <v>790</v>
       </c>
     </row>
     <row r="305" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A305" s="2" t="s">
-        <v>774</v>
-      </c>
-      <c r="B305" s="2"/>
-      <c r="C305" s="2" t="s">
-        <v>778</v>
-      </c>
-      <c r="D305" s="2" t="s">
-        <v>777</v>
-      </c>
+        <v>789</v>
+      </c>
+      <c r="B305" s="2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C305" s="2"/>
+      <c r="D305" s="2"/>
     </row>
     <row r="306" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A306" s="2" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="B306" s="2"/>
       <c r="C306" s="2" t="s">
-        <v>776</v>
+        <v>787</v>
       </c>
       <c r="D306" s="2" t="s">
-        <v>775</v>
+        <v>786</v>
       </c>
     </row>
     <row r="307" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A307" s="2" t="s">
-        <v>774</v>
+        <v>785</v>
       </c>
       <c r="B307" s="2"/>
       <c r="C307" s="2" t="s">
-        <v>773</v>
+        <v>784</v>
       </c>
       <c r="D307" s="2" t="s">
-        <v>772</v>
+        <v>783</v>
       </c>
     </row>
     <row r="308" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A308" s="2" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="B308" s="2"/>
       <c r="C308" s="2" t="s">
-        <v>771</v>
+        <v>782</v>
       </c>
       <c r="D308" s="2" t="s">
-        <v>770</v>
+        <v>781</v>
       </c>
     </row>
     <row r="309" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A309" s="2" t="s">
-        <v>769</v>
+        <v>778</v>
       </c>
       <c r="B309" s="2"/>
       <c r="C309" s="2" t="s">
-        <v>768</v>
+        <v>780</v>
       </c>
       <c r="D309" s="2" t="s">
-        <v>767</v>
-      </c>
-    </row>
-    <row r="310" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>779</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A310" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B310" s="2" t="s">
-        <v>751</v>
-      </c>
+        <v>778</v>
+      </c>
+      <c r="B310" s="2"/>
       <c r="C310" s="2" t="s">
-        <v>766</v>
+        <v>777</v>
       </c>
       <c r="D310" s="2" t="s">
-        <v>765</v>
-      </c>
-    </row>
-    <row r="311" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A311" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B311" s="2" t="s">
-        <v>751</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="B311" s="2"/>
       <c r="C311" s="2" t="s">
-        <v>764</v>
+        <v>775</v>
       </c>
       <c r="D311" s="2" t="s">
-        <v>763</v>
-      </c>
-    </row>
-    <row r="312" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>774</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A312" s="2" t="s">
-        <v>752</v>
-      </c>
-      <c r="B312" s="2" t="s">
-        <v>751</v>
-      </c>
+        <v>773</v>
+      </c>
+      <c r="B312" s="2"/>
       <c r="C312" s="2" t="s">
-        <v>762</v>
+        <v>772</v>
       </c>
       <c r="D312" s="2" t="s">
-        <v>761</v>
+        <v>771</v>
       </c>
     </row>
     <row r="313" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A313" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B313" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C313" s="2" t="s">
-        <v>760</v>
+        <v>770</v>
       </c>
       <c r="D313" s="2" t="s">
-        <v>759</v>
+        <v>769</v>
       </c>
     </row>
     <row r="314" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A314" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B314" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C314" s="2" t="s">
-        <v>758</v>
+        <v>768</v>
       </c>
       <c r="D314" s="2" t="s">
-        <v>757</v>
+        <v>767</v>
       </c>
     </row>
     <row r="315" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A315" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B315" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C315" s="2" t="s">
-        <v>756</v>
+        <v>766</v>
       </c>
       <c r="D315" s="2" t="s">
-        <v>755</v>
+        <v>765</v>
       </c>
     </row>
     <row r="316" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A316" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B316" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C316" s="2" t="s">
-        <v>754</v>
+        <v>764</v>
       </c>
       <c r="D316" s="2" t="s">
-        <v>753</v>
+        <v>763</v>
       </c>
     </row>
     <row r="317" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A317" s="2" t="s">
-        <v>752</v>
+        <v>756</v>
       </c>
       <c r="B317" s="2" t="s">
-        <v>751</v>
+        <v>755</v>
       </c>
       <c r="C317" s="2" t="s">
-        <v>750</v>
+        <v>762</v>
       </c>
       <c r="D317" s="2" t="s">
-        <v>749</v>
-      </c>
-    </row>
-    <row r="318" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A318" s="2" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B318" s="2" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="C318" s="2" t="s">
-        <v>748</v>
+        <v>760</v>
       </c>
       <c r="D318" s="2" t="s">
-        <v>747</v>
-      </c>
-    </row>
-    <row r="319" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A319" s="2" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B319" s="2" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="C319" s="2" t="s">
-        <v>746</v>
+        <v>758</v>
       </c>
       <c r="D319" s="2" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="320" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>757</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A320" s="2" t="s">
-        <v>742</v>
+        <v>756</v>
       </c>
       <c r="B320" s="2" t="s">
-        <v>741</v>
+        <v>755</v>
       </c>
       <c r="C320" s="2" t="s">
-        <v>744</v>
+        <v>754</v>
       </c>
       <c r="D320" s="2" t="s">
-        <v>743</v>
+        <v>753</v>
       </c>
     </row>
     <row r="321" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A321" s="2" t="s">
-        <v>742</v>
+        <v>746</v>
       </c>
       <c r="B321" s="2" t="s">
-        <v>741</v>
+        <v>745</v>
       </c>
       <c r="C321" s="2" t="s">
-        <v>740</v>
+        <v>752</v>
       </c>
       <c r="D321" s="2" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="322" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A322" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B322" s="2"/>
+        <v>746</v>
+      </c>
+      <c r="B322" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="C322" s="2" t="s">
-        <v>738</v>
+        <v>750</v>
       </c>
       <c r="D322" s="2" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="323" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>749</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A323" s="2" t="s">
-        <v>736</v>
-      </c>
-      <c r="B323" s="2"/>
+        <v>746</v>
+      </c>
+      <c r="B323" s="2" t="s">
+        <v>745</v>
+      </c>
       <c r="C323" s="2" t="s">
-        <v>735</v>
+        <v>748</v>
       </c>
       <c r="D323" s="2" t="s">
-        <v>734</v>
-      </c>
-    </row>
-    <row r="324" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A324" s="2" t="s">
-        <v>729</v>
+        <v>746</v>
       </c>
       <c r="B324" s="2" t="s">
-        <v>728</v>
+        <v>745</v>
       </c>
       <c r="C324" s="2" t="s">
-        <v>733</v>
-      </c>
-      <c r="D324" s="2"/>
+        <v>744</v>
+      </c>
+      <c r="D324" s="2" t="s">
+        <v>743</v>
+      </c>
     </row>
     <row r="325" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A325" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B325" s="2" t="s">
-        <v>728</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="B325" s="2"/>
       <c r="C325" s="2" t="s">
-        <v>732</v>
-      </c>
-      <c r="D325" s="2"/>
+        <v>742</v>
+      </c>
+      <c r="D325" s="2" t="s">
+        <v>741</v>
+      </c>
     </row>
     <row r="326" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A326" s="2" t="s">
-        <v>729</v>
-      </c>
-      <c r="B326" s="2" t="s">
-        <v>728</v>
-      </c>
+        <v>740</v>
+      </c>
+      <c r="B326" s="2"/>
       <c r="C326" s="2" t="s">
-        <v>731</v>
-      </c>
-      <c r="D326" s="2"/>
+        <v>739</v>
+      </c>
+      <c r="D326" s="2" t="s">
+        <v>738</v>
+      </c>
     </row>
     <row r="327" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A327" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B327" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C327" s="2" t="s">
-        <v>730</v>
+        <v>737</v>
       </c>
       <c r="D327" s="2"/>
     </row>
     <row r="328" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A328" s="2" t="s">
-        <v>729</v>
+        <v>733</v>
       </c>
       <c r="B328" s="2" t="s">
-        <v>728</v>
+        <v>732</v>
       </c>
       <c r="C328" s="2" t="s">
-        <v>727</v>
+        <v>736</v>
       </c>
       <c r="D328" s="2"/>
     </row>
-    <row r="329" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A329" s="2" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="B329" s="2" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="C329" s="2" t="s">
-        <v>726</v>
+        <v>735</v>
       </c>
       <c r="D329" s="2"/>
     </row>
-    <row r="330" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A330" s="2" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="B330" s="2" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="C330" s="2" t="s">
-        <v>725</v>
+        <v>734</v>
       </c>
       <c r="D330" s="2"/>
     </row>
-    <row r="331" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A331" s="2" t="s">
-        <v>685</v>
+        <v>733</v>
       </c>
       <c r="B331" s="2" t="s">
-        <v>693</v>
+        <v>732</v>
       </c>
       <c r="C331" s="2" t="s">
-        <v>724</v>
+        <v>731</v>
       </c>
       <c r="D331" s="2"/>
     </row>
     <row r="332" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A332" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B332" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C332" s="2" t="s">
-        <v>723</v>
+        <v>730</v>
       </c>
       <c r="D332" s="2"/>
     </row>
     <row r="333" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A333" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B333" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C333" s="2" t="s">
-        <v>722</v>
+        <v>729</v>
       </c>
       <c r="D333" s="2"/>
     </row>
     <row r="334" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A334" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B334" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C334" s="2" t="s">
-        <v>721</v>
+        <v>728</v>
       </c>
       <c r="D334" s="2"/>
     </row>
     <row r="335" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A335" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B335" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C335" s="2" t="s">
-        <v>720</v>
+        <v>727</v>
       </c>
       <c r="D335" s="2"/>
     </row>
     <row r="336" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A336" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B336" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C336" s="2" t="s">
-        <v>719</v>
+        <v>726</v>
       </c>
       <c r="D336" s="2"/>
     </row>
     <row r="337" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A337" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B337" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C337" s="2" t="s">
-        <v>718</v>
+        <v>725</v>
       </c>
       <c r="D337" s="2"/>
     </row>
     <row r="338" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A338" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B338" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C338" s="2" t="s">
-        <v>717</v>
+        <v>724</v>
       </c>
       <c r="D338" s="2"/>
     </row>
     <row r="339" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A339" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B339" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C339" s="2" t="s">
-        <v>716</v>
+        <v>723</v>
       </c>
       <c r="D339" s="2"/>
     </row>
     <row r="340" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A340" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B340" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C340" s="2" t="s">
-        <v>715</v>
+        <v>722</v>
       </c>
       <c r="D340" s="2"/>
     </row>
     <row r="341" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A341" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B341" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C341" s="2" t="s">
-        <v>714</v>
+        <v>721</v>
       </c>
       <c r="D341" s="2"/>
     </row>
     <row r="342" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A342" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B342" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C342" s="2" t="s">
-        <v>713</v>
+        <v>720</v>
       </c>
       <c r="D342" s="2"/>
     </row>
     <row r="343" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A343" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B343" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C343" s="2" t="s">
-        <v>712</v>
+        <v>719</v>
       </c>
       <c r="D343" s="2"/>
     </row>
     <row r="344" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A344" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B344" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C344" s="2" t="s">
-        <v>711</v>
+        <v>718</v>
       </c>
       <c r="D344" s="2"/>
     </row>
     <row r="345" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A345" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B345" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C345" s="2" t="s">
-        <v>710</v>
+        <v>717</v>
       </c>
       <c r="D345" s="2"/>
     </row>
     <row r="346" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A346" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B346" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C346" s="2" t="s">
-        <v>709</v>
+        <v>716</v>
       </c>
       <c r="D346" s="2"/>
     </row>
     <row r="347" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A347" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B347" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C347" s="2" t="s">
-        <v>708</v>
+        <v>715</v>
       </c>
       <c r="D347" s="2"/>
     </row>
     <row r="348" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A348" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B348" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C348" s="2" t="s">
-        <v>707</v>
+        <v>714</v>
       </c>
       <c r="D348" s="2"/>
     </row>
     <row r="349" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A349" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B349" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C349" s="2" t="s">
-        <v>706</v>
+        <v>713</v>
       </c>
       <c r="D349" s="2"/>
     </row>
     <row r="350" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A350" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B350" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C350" s="2" t="s">
-        <v>705</v>
+        <v>712</v>
       </c>
       <c r="D350" s="2"/>
     </row>
     <row r="351" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A351" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B351" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C351" s="2" t="s">
-        <v>704</v>
+        <v>711</v>
       </c>
       <c r="D351" s="2"/>
     </row>
     <row r="352" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A352" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B352" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C352" s="2" t="s">
-        <v>703</v>
+        <v>710</v>
       </c>
       <c r="D352" s="2"/>
     </row>
     <row r="353" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A353" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B353" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C353" s="2" t="s">
-        <v>702</v>
+        <v>709</v>
       </c>
       <c r="D353" s="2"/>
     </row>
     <row r="354" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A354" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B354" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C354" s="2" t="s">
-        <v>701</v>
+        <v>708</v>
       </c>
       <c r="D354" s="2"/>
     </row>
     <row r="355" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A355" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B355" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C355" s="2" t="s">
-        <v>700</v>
+        <v>707</v>
       </c>
       <c r="D355" s="2"/>
     </row>
     <row r="356" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A356" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B356" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C356" s="2" t="s">
-        <v>699</v>
+        <v>706</v>
       </c>
       <c r="D356" s="2"/>
     </row>
     <row r="357" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A357" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B357" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C357" s="2" t="s">
-        <v>698</v>
+        <v>705</v>
       </c>
       <c r="D357" s="2"/>
     </row>
     <row r="358" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A358" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B358" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C358" s="2" t="s">
-        <v>697</v>
+        <v>704</v>
       </c>
       <c r="D358" s="2"/>
     </row>
     <row r="359" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A359" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B359" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C359" s="2" t="s">
-        <v>696</v>
+        <v>703</v>
       </c>
       <c r="D359" s="2"/>
     </row>
     <row r="360" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A360" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B360" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C360" s="2" t="s">
-        <v>695</v>
+        <v>702</v>
       </c>
       <c r="D360" s="2"/>
     </row>
     <row r="361" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A361" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B361" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C361" s="2" t="s">
-        <v>694</v>
+        <v>701</v>
       </c>
       <c r="D361" s="2"/>
     </row>
     <row r="362" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A362" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B362" s="2" t="s">
-        <v>693</v>
+        <v>697</v>
       </c>
       <c r="C362" s="2" t="s">
-        <v>692</v>
+        <v>700</v>
       </c>
       <c r="D362" s="2"/>
     </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A363" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B363" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="B363" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="C363" s="2" t="s">
-        <v>691</v>
-      </c>
-      <c r="D363" s="2" t="s">
-        <v>690</v>
-      </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+        <v>699</v>
+      </c>
+      <c r="D363" s="2"/>
+    </row>
+    <row r="364" spans="1:4" ht="45" x14ac:dyDescent="0.25">
       <c r="A364" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B364" s="2"/>
+        <v>689</v>
+      </c>
+      <c r="B364" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="C364" s="2" t="s">
+        <v>698</v>
+      </c>
+      <c r="D364" s="2"/>
+    </row>
+    <row r="365" spans="1:4" ht="45" x14ac:dyDescent="0.25">
+      <c r="A365" s="2" t="s">
         <v>689</v>
       </c>
-      <c r="D364" s="2" t="s">
-        <v>688</v>
-      </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A365" s="2" t="s">
-        <v>685</v>
-      </c>
-      <c r="B365" s="2"/>
+      <c r="B365" s="2" t="s">
+        <v>697</v>
+      </c>
       <c r="C365" s="2" t="s">
-        <v>687</v>
-      </c>
-      <c r="D365" s="2" t="s">
-        <v>686</v>
-      </c>
+        <v>696</v>
+      </c>
+      <c r="D365" s="2"/>
     </row>
     <row r="366" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A366" s="2" t="s">
-        <v>685</v>
+        <v>689</v>
       </c>
       <c r="B366" s="2"/>
       <c r="C366" s="2" t="s">
-        <v>684</v>
+        <v>695</v>
       </c>
       <c r="D366" s="2" t="s">
-        <v>683</v>
+        <v>694</v>
       </c>
     </row>
     <row r="367" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A367" s="2" t="s">
-        <v>96</v>
+        <v>689</v>
       </c>
       <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-      <c r="D367" s="2"/>
+      <c r="C367" s="2" t="s">
+        <v>693</v>
+      </c>
+      <c r="D367" s="2" t="s">
+        <v>692</v>
+      </c>
     </row>
     <row r="368" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A368" s="2" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B368" s="2"/>
       <c r="C368" s="2" t="s">
-        <v>682</v>
+        <v>691</v>
       </c>
       <c r="D368" s="2" t="s">
-        <v>681</v>
+        <v>690</v>
       </c>
     </row>
     <row r="369" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A369" s="2" t="s">
-        <v>676</v>
+        <v>689</v>
       </c>
       <c r="B369" s="2"/>
       <c r="C369" s="2" t="s">
-        <v>680</v>
+        <v>688</v>
       </c>
       <c r="D369" s="2" t="s">
-        <v>679</v>
+        <v>687</v>
       </c>
     </row>
     <row r="370" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A370" s="2" t="s">
-        <v>676</v>
+        <v>96</v>
       </c>
       <c r="B370" s="2"/>
-      <c r="C370" s="2" t="s">
-        <v>678</v>
-      </c>
-      <c r="D370" s="2" t="s">
-        <v>677</v>
-      </c>
+      <c r="C370" s="2"/>
+      <c r="D370" s="2"/>
     </row>
     <row r="371" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A371" s="2" t="s">
-        <v>676</v>
+        <v>680</v>
       </c>
       <c r="B371" s="2"/>
       <c r="C371" s="2" t="s">
-        <v>664</v>
+        <v>686</v>
       </c>
       <c r="D371" s="2" t="s">
-        <v>663</v>
+        <v>685</v>
       </c>
     </row>
     <row r="372" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A372" s="2" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="B372" s="2"/>
       <c r="C372" s="2" t="s">
-        <v>675</v>
+        <v>684</v>
       </c>
       <c r="D372" s="2" t="s">
-        <v>674</v>
-      </c>
-    </row>
-    <row r="373" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="373" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A373" s="2" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="B373" s="2"/>
       <c r="C373" s="2" t="s">
-        <v>673</v>
+        <v>682</v>
       </c>
       <c r="D373" s="2" t="s">
-        <v>672</v>
-      </c>
-    </row>
-    <row r="374" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="374" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A374" s="2" t="s">
-        <v>665</v>
+        <v>680</v>
       </c>
       <c r="B374" s="2"/>
       <c r="C374" s="2" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
       <c r="D374" s="2" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="375" spans="1:4" ht="30" x14ac:dyDescent="0.25">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="375" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A375" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B375" s="2"/>
       <c r="C375" s="2" t="s">
-        <v>669</v>
+        <v>679</v>
       </c>
       <c r="D375" s="2" t="s">
-        <v>668</v>
+        <v>678</v>
       </c>
     </row>
     <row r="376" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A376" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B376" s="2"/>
       <c r="C376" s="2" t="s">
-        <v>667</v>
+        <v>677</v>
       </c>
       <c r="D376" s="2" t="s">
-        <v>666</v>
-      </c>
-    </row>
-    <row r="377" spans="1:4" x14ac:dyDescent="0.25">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="377" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A377" s="2" t="s">
-        <v>665</v>
+        <v>669</v>
       </c>
       <c r="B377" s="2"/>
       <c r="C377" s="2" t="s">
-        <v>664</v>
+        <v>675</v>
       </c>
       <c r="D377" s="2" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="378" spans="1:4" x14ac:dyDescent="0.25">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="378" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A378" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B378" s="2"/>
       <c r="C378" s="2" t="s">
-        <v>662</v>
-      </c>
-      <c r="D378" s="2"/>
-    </row>
-    <row r="379" spans="1:4" x14ac:dyDescent="0.25">
+        <v>673</v>
+      </c>
+      <c r="D378" s="2" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="379" spans="1:4" ht="30" x14ac:dyDescent="0.25">
       <c r="A379" s="2" t="s">
-        <v>661</v>
+        <v>669</v>
       </c>
       <c r="B379" s="2"/>
       <c r="C379" s="2" t="s">
-        <v>660</v>
-      </c>
-      <c r="D379" s="2"/>
+        <v>671</v>
+      </c>
+      <c r="D379" s="2" t="s">
+        <v>670</v>
+      </c>
     </row>
     <row r="380" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A380" s="2" t="s">
-        <v>659</v>
+        <v>669</v>
       </c>
       <c r="B380" s="2"/>
       <c r="C380" s="2" t="s">
-        <v>658</v>
-      </c>
-      <c r="D380" s="2"/>
-    </row>
-    <row r="381" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+        <v>668</v>
+      </c>
+      <c r="D380" s="2" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="381" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A381" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B381" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B381" s="2"/>
       <c r="C381" s="2" t="s">
-        <v>657</v>
+        <v>666</v>
       </c>
       <c r="D381" s="2"/>
     </row>
-    <row r="382" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A382" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B382" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>665</v>
+      </c>
+      <c r="B382" s="2"/>
       <c r="C382" s="2" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="D382" s="2"/>
     </row>
-    <row r="383" spans="1:4" ht="60" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A383" s="2" t="s">
-        <v>367</v>
-      </c>
-      <c r="B383" s="2" t="s">
-        <v>654</v>
-      </c>
+        <v>663</v>
+      </c>
+      <c r="B383" s="2"/>
       <c r="C383" s="2" t="s">
-        <v>655</v>
+        <v>662</v>
       </c>
       <c r="D383" s="2"/>
     </row>
@@ -14598,643 +14627,679 @@
         <v>367</v>
       </c>
       <c r="B384" s="2" t="s">
-        <v>654</v>
+        <v>658</v>
       </c>
       <c r="C384" s="2" t="s">
-        <v>653</v>
+        <v>661</v>
       </c>
       <c r="D384" s="2"/>
     </row>
-    <row r="385" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A385" s="2" t="s">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="B385" s="2" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="C385" s="2" t="s">
-        <v>652</v>
-      </c>
-      <c r="D385" s="2" t="s">
-        <v>651</v>
-      </c>
-    </row>
-    <row r="386" spans="1:4" x14ac:dyDescent="0.25">
+        <v>660</v>
+      </c>
+      <c r="D385" s="2"/>
+    </row>
+    <row r="386" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A386" s="2" t="s">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="B386" s="2" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="C386" s="2" t="s">
-        <v>650</v>
-      </c>
-      <c r="D386" s="2" t="s">
-        <v>649</v>
-      </c>
-    </row>
-    <row r="387" spans="1:4" x14ac:dyDescent="0.25">
+        <v>659</v>
+      </c>
+      <c r="D386" s="2"/>
+    </row>
+    <row r="387" spans="1:4" ht="60" x14ac:dyDescent="0.25">
       <c r="A387" s="2" t="s">
-        <v>582</v>
+        <v>367</v>
       </c>
       <c r="B387" s="2" t="s">
-        <v>581</v>
+        <v>658</v>
       </c>
       <c r="C387" s="2" t="s">
-        <v>648</v>
-      </c>
-      <c r="D387" s="2" t="s">
-        <v>647</v>
-      </c>
+        <v>657</v>
+      </c>
+      <c r="D387" s="2"/>
     </row>
     <row r="388" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A388" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B388" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C388" s="2" t="s">
-        <v>646</v>
+        <v>656</v>
       </c>
       <c r="D388" s="2" t="s">
-        <v>645</v>
+        <v>655</v>
       </c>
     </row>
     <row r="389" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A389" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B389" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C389" s="2" t="s">
-        <v>644</v>
+        <v>654</v>
       </c>
       <c r="D389" s="2" t="s">
-        <v>643</v>
+        <v>653</v>
       </c>
     </row>
     <row r="390" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A390" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B390" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C390" s="2" t="s">
-        <v>642</v>
+        <v>652</v>
       </c>
       <c r="D390" s="2" t="s">
-        <v>641</v>
+        <v>651</v>
       </c>
     </row>
     <row r="391" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A391" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B391" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C391" s="2" t="s">
-        <v>640</v>
+        <v>650</v>
       </c>
       <c r="D391" s="2" t="s">
-        <v>639</v>
+        <v>649</v>
       </c>
     </row>
     <row r="392" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A392" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B392" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C392" s="2" t="s">
-        <v>638</v>
+        <v>648</v>
       </c>
       <c r="D392" s="2" t="s">
-        <v>637</v>
+        <v>647</v>
       </c>
     </row>
     <row r="393" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A393" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B393" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C393" s="2" t="s">
-        <v>636</v>
+        <v>646</v>
       </c>
       <c r="D393" s="2" t="s">
-        <v>635</v>
+        <v>645</v>
       </c>
     </row>
     <row r="394" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A394" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B394" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C394" s="2" t="s">
-        <v>634</v>
+        <v>644</v>
       </c>
       <c r="D394" s="2" t="s">
-        <v>633</v>
+        <v>643</v>
       </c>
     </row>
     <row r="395" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A395" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B395" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C395" s="2" t="s">
-        <v>632</v>
+        <v>642</v>
       </c>
       <c r="D395" s="2" t="s">
-        <v>631</v>
+        <v>641</v>
       </c>
     </row>
     <row r="396" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A396" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B396" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C396" s="2" t="s">
-        <v>630</v>
+        <v>640</v>
       </c>
       <c r="D396" s="2" t="s">
-        <v>629</v>
+        <v>639</v>
       </c>
     </row>
     <row r="397" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A397" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B397" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C397" s="2" t="s">
-        <v>628</v>
+        <v>638</v>
       </c>
       <c r="D397" s="2" t="s">
-        <v>627</v>
+        <v>637</v>
       </c>
     </row>
     <row r="398" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A398" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B398" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C398" s="2" t="s">
-        <v>626</v>
+        <v>636</v>
       </c>
       <c r="D398" s="2" t="s">
-        <v>625</v>
+        <v>635</v>
       </c>
     </row>
     <row r="399" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A399" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B399" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C399" s="2" t="s">
-        <v>624</v>
+        <v>634</v>
       </c>
       <c r="D399" s="2" t="s">
-        <v>623</v>
+        <v>633</v>
       </c>
     </row>
     <row r="400" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A400" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B400" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C400" s="2" t="s">
-        <v>622</v>
+        <v>632</v>
       </c>
       <c r="D400" s="2" t="s">
-        <v>621</v>
+        <v>631</v>
       </c>
     </row>
     <row r="401" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A401" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B401" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C401" s="2" t="s">
-        <v>620</v>
+        <v>630</v>
       </c>
       <c r="D401" s="2" t="s">
-        <v>619</v>
+        <v>629</v>
       </c>
     </row>
     <row r="402" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A402" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B402" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C402" s="2" t="s">
-        <v>618</v>
+        <v>628</v>
       </c>
       <c r="D402" s="2" t="s">
-        <v>617</v>
+        <v>627</v>
       </c>
     </row>
     <row r="403" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A403" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B403" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C403" s="2" t="s">
-        <v>616</v>
+        <v>626</v>
       </c>
       <c r="D403" s="2" t="s">
-        <v>615</v>
+        <v>625</v>
       </c>
     </row>
     <row r="404" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A404" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B404" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C404" s="2" t="s">
-        <v>614</v>
+        <v>624</v>
       </c>
       <c r="D404" s="2" t="s">
-        <v>613</v>
+        <v>623</v>
       </c>
     </row>
     <row r="405" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A405" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B405" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C405" s="2" t="s">
-        <v>612</v>
+        <v>622</v>
       </c>
       <c r="D405" s="2" t="s">
-        <v>611</v>
+        <v>621</v>
       </c>
     </row>
     <row r="406" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A406" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B406" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C406" s="2" t="s">
-        <v>610</v>
+        <v>620</v>
       </c>
       <c r="D406" s="2" t="s">
-        <v>609</v>
+        <v>619</v>
       </c>
     </row>
     <row r="407" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A407" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B407" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C407" s="2" t="s">
-        <v>608</v>
+        <v>618</v>
       </c>
       <c r="D407" s="2" t="s">
-        <v>607</v>
+        <v>617</v>
       </c>
     </row>
     <row r="408" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A408" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B408" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C408" s="2" t="s">
-        <v>606</v>
+        <v>616</v>
       </c>
       <c r="D408" s="2" t="s">
-        <v>605</v>
+        <v>615</v>
       </c>
     </row>
     <row r="409" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A409" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B409" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C409" s="2" t="s">
-        <v>604</v>
+        <v>614</v>
       </c>
       <c r="D409" s="2" t="s">
-        <v>603</v>
+        <v>613</v>
       </c>
     </row>
     <row r="410" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A410" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B410" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C410" s="2" t="s">
-        <v>602</v>
+        <v>612</v>
       </c>
       <c r="D410" s="2" t="s">
-        <v>601</v>
+        <v>611</v>
       </c>
     </row>
     <row r="411" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A411" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B411" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C411" s="2" t="s">
-        <v>600</v>
+        <v>610</v>
       </c>
       <c r="D411" s="2" t="s">
-        <v>599</v>
+        <v>609</v>
       </c>
     </row>
     <row r="412" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A412" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B412" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C412" s="2" t="s">
-        <v>598</v>
+        <v>608</v>
       </c>
       <c r="D412" s="2" t="s">
-        <v>597</v>
+        <v>607</v>
       </c>
     </row>
     <row r="413" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A413" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B413" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C413" s="2" t="s">
-        <v>596</v>
+        <v>606</v>
       </c>
       <c r="D413" s="2" t="s">
-        <v>595</v>
+        <v>605</v>
       </c>
     </row>
     <row r="414" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A414" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B414" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C414" s="2" t="s">
-        <v>594</v>
+        <v>604</v>
       </c>
       <c r="D414" s="2" t="s">
-        <v>593</v>
+        <v>603</v>
       </c>
     </row>
     <row r="415" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A415" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B415" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C415" s="2" t="s">
-        <v>592</v>
+        <v>602</v>
       </c>
       <c r="D415" s="2" t="s">
-        <v>591</v>
+        <v>601</v>
       </c>
     </row>
     <row r="416" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A416" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B416" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C416" s="2" t="s">
-        <v>590</v>
+        <v>600</v>
       </c>
       <c r="D416" s="2" t="s">
-        <v>589</v>
+        <v>599</v>
       </c>
     </row>
     <row r="417" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A417" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B417" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C417" s="2" t="s">
-        <v>588</v>
+        <v>598</v>
       </c>
       <c r="D417" s="2" t="s">
-        <v>587</v>
+        <v>597</v>
       </c>
     </row>
     <row r="418" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A418" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B418" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C418" s="2" t="s">
-        <v>586</v>
+        <v>596</v>
       </c>
       <c r="D418" s="2" t="s">
-        <v>585</v>
+        <v>595</v>
       </c>
     </row>
     <row r="419" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A419" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B419" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C419" s="2" t="s">
-        <v>584</v>
+        <v>594</v>
       </c>
       <c r="D419" s="2" t="s">
-        <v>583</v>
+        <v>593</v>
       </c>
     </row>
     <row r="420" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A420" s="2" t="s">
-        <v>582</v>
+        <v>586</v>
       </c>
       <c r="B420" s="2" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C420" s="2" t="s">
-        <v>580</v>
+        <v>592</v>
       </c>
       <c r="D420" s="2" t="s">
-        <v>579</v>
+        <v>591</v>
       </c>
     </row>
     <row r="421" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A421" s="2" t="s">
-        <v>578</v>
-      </c>
-      <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-      <c r="D421" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="B421" s="2" t="s">
+        <v>585</v>
+      </c>
+      <c r="C421" s="2" t="s">
+        <v>590</v>
+      </c>
+      <c r="D421" s="2" t="s">
+        <v>589</v>
+      </c>
     </row>
     <row r="422" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A422" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B422" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="B422" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="C422" s="2" t="s">
-        <v>577</v>
+        <v>588</v>
       </c>
       <c r="D422" s="2" t="s">
-        <v>576</v>
+        <v>587</v>
       </c>
     </row>
     <row r="423" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A423" s="2" t="s">
-        <v>573</v>
-      </c>
-      <c r="B423" s="2"/>
+        <v>586</v>
+      </c>
+      <c r="B423" s="2" t="s">
+        <v>585</v>
+      </c>
       <c r="C423" s="2" t="s">
-        <v>575</v>
+        <v>584</v>
       </c>
       <c r="D423" s="2" t="s">
-        <v>574</v>
+        <v>583</v>
       </c>
     </row>
     <row r="424" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A424" s="2" t="s">
-        <v>573</v>
+        <v>582</v>
       </c>
       <c r="B424" s="2"/>
-      <c r="C424" s="2" t="s">
-        <v>572</v>
-      </c>
-      <c r="D424" s="2" t="s">
-        <v>571</v>
-      </c>
+      <c r="C424" s="2"/>
+      <c r="D424" s="2"/>
     </row>
     <row r="425" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A425" s="2" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="B425" s="2"/>
       <c r="C425" s="2" t="s">
-        <v>570</v>
+        <v>581</v>
       </c>
       <c r="D425" s="2" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
     </row>
     <row r="426" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A426" s="2" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="B426" s="2"/>
       <c r="C426" s="2" t="s">
-        <v>568</v>
+        <v>579</v>
       </c>
       <c r="D426" s="2" t="s">
-        <v>567</v>
+        <v>578</v>
       </c>
     </row>
     <row r="427" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A427" s="2" t="s">
-        <v>558</v>
+        <v>577</v>
       </c>
       <c r="B427" s="2"/>
       <c r="C427" s="2" t="s">
-        <v>566</v>
+        <v>576</v>
       </c>
       <c r="D427" s="2" t="s">
-        <v>565</v>
+        <v>575</v>
       </c>
     </row>
     <row r="428" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A428" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B428" s="2"/>
       <c r="C428" s="2" t="s">
-        <v>564</v>
+        <v>574</v>
       </c>
       <c r="D428" s="2" t="s">
-        <v>563</v>
+        <v>573</v>
       </c>
     </row>
     <row r="429" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A429" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B429" s="2"/>
       <c r="C429" s="2" t="s">
-        <v>562</v>
+        <v>572</v>
       </c>
       <c r="D429" s="2" t="s">
-        <v>561</v>
+        <v>571</v>
       </c>
     </row>
     <row r="430" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A430" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B430" s="2"/>
       <c r="C430" s="2" t="s">
-        <v>560</v>
+        <v>570</v>
       </c>
       <c r="D430" s="2" t="s">
-        <v>559</v>
+        <v>569</v>
       </c>
     </row>
     <row r="431" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A431" s="2" t="s">
-        <v>558</v>
+        <v>562</v>
       </c>
       <c r="B431" s="2"/>
       <c r="C431" s="2" t="s">
-        <v>557</v>
+        <v>568</v>
       </c>
       <c r="D431" s="2" t="s">
-        <v>556</v>
+        <v>567</v>
+      </c>
+    </row>
+    <row r="432" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A432" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B432" s="2"/>
+      <c r="C432" s="2" t="s">
+        <v>566</v>
+      </c>
+      <c r="D432" s="2" t="s">
+        <v>565</v>
+      </c>
+    </row>
+    <row r="433" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A433" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B433" s="2"/>
+      <c r="C433" s="2" t="s">
+        <v>564</v>
+      </c>
+      <c r="D433" s="2" t="s">
+        <v>563</v>
+      </c>
+    </row>
+    <row r="434" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A434" s="2" t="s">
+        <v>562</v>
+      </c>
+      <c r="B434" s="2"/>
+      <c r="C434" s="2" t="s">
+        <v>561</v>
+      </c>
+      <c r="D434" s="2" t="s">
+        <v>560</v>
       </c>
     </row>
   </sheetData>

--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16187,4 +16187,210 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{6B7056DC-5189-4C60-ACF8-795E25874340}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D76B89A2-BE64-4875-BBE3-AA1D9821A596}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B25B31F0-17C1-4BED-A002-7337DA28B6C3}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17082,4 +17082,210 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F9BA40CF-F81B-4D4C-AFB3-DAB77A896ED2}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2D6F20E1-F5DB-4050-B254-B88EA74D3B6D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{142391D4-7C99-4CDE-A56C-84C986AADF56}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17213,4 +17213,210 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="6d4e96bf94687d15d23c3e62fa47a898">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="54b98240f759ae7ad30666c32981af06" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E6571C8E-297E-4467-A79A-DE8866E8ADE5}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{48E78FEB-F68C-47F2-A726-BDC92958A0A5}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7AA5795A-3F0E-4A46-A495-541D5241ACF9}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17232,4 +17232,210 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="6" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="cb8996f3c460f686c4ceead8a704479d">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="319a6b9d4f2405982df31065c3fa6c19" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{A3DDB82F-BC75-49B6-8984-0F282FAEC7C6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F1CFCC90-A9EF-4D69-A828-22DFAC0C871C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FA8D1E65-E584-4C3E-914E-955AA11E9E05}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17253,4 +17253,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{436FCD39-90E8-4A5F-B340-8D972979DF05}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{73CBADC9-7DFB-452A-924A-AB661299665D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{907972C6-B96C-4FF4-A67C-213863918DF9}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17498,4 +17498,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bf4e89828d0d3cc2fc23292c739d613">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffc63a8b47298d93c51fdc2582bdfc36" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{4EDA8ADC-AD37-4DD9-BC39-F65CDDDE3BBE}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{934275A9-B475-435D-A0F0-94EFD4C69FCF}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{5E92BE6C-AAE3-4AF9-A67D-30F767C19908}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17066,4 +17066,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{410ECD06-3EB0-4C00-A783-BC2AA8781B7D}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9C5E9E5A-8BEA-4EAC-9A03-8C975F9ED3DB}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{60E224A5-FA93-442C-9D79-9619851CFB21}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -17044,4 +17044,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="3bf4e89828d0d3cc2fc23292c739d613">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="ffc63a8b47298d93c51fdc2582bdfc36" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Shared With" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Shared With Details" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Content Type"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Title"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C097FD38-9CEB-4FFE-A357-4F7772C23AE6}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{024643C7-4629-42A7-955C-CBD3FDE5A63B}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3E0CE605-5806-4FE0-89CF-39D9335E80FB}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16239,4 +16239,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{16AA7D85-20B3-40A5-A00C-591E482AEB40}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{18D167E2-A43F-4388-93A6-071550F29F83}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{366FE0F4-B40A-466F-84C6-414FF3831535}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -15809,4 +15809,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{8609CF5A-911A-47CB-AE47-BBC3209FD57B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46EA3E5F-013D-404D-BAE0-C6F20B997769}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19881CB7-C69F-43BE-BC99-E69DBEACE039}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16402,4 +16402,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B4325F63-2A7B-4075-AF53-3749A7E1A2D1}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B69D3F6E-FD35-4D5A-BC82-A8B1B4F6359D}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{B21C3B27-C8C7-4603-89BA-EF21FFB55D56}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16269,4 +16269,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44B45D1E-68BF-4628-B8B2-1C407D32DE58}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CD4C9568-0FCE-4C12-85B5-67028475387C}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F30E3B-716E-44F0-8813-C6FF9F34BB5E}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16601,4 +16601,224 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="8" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d7c6d164ce608ee723b755b228343acc">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="482f54bb829ce17340fa5bd58c600f61" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DBF9A83D-1F04-4AD0-B561-171684AFBA1B}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{2EAECE2C-0A7C-4B91-B87C-3C5C6779DA66}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{C8331EAA-493B-4BBA-A46B-E1795E2EBF12}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16447,4 +16447,236 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
+</file>
+
+<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0b552c268e14c49f727da8a4278bee4">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0145bd77e5eea22887f69a1ea8dc854b" ns2:_="" ns3:_="">
+    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
+    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
+    <xsd:element name="properties">
+      <xsd:complexType>
+        <xsd:sequence>
+          <xsd:element name="documentManagement">
+            <xsd:complexType>
+              <xsd:all>
+                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
+                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
+                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
+              </xsd:all>
+            </xsd:complexType>
+          </xsd:element>
+        </xsd:sequence>
+      </xsd:complexType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
+    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
+      <xsd:complexType>
+        <xsd:complexContent>
+          <xsd:extension base="dms:UserMulti">
+            <xsd:sequence>
+              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
+                <xsd:complexType>
+                  <xsd:sequence>
+                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
+                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
+                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
+                  </xsd:sequence>
+                </xsd:complexType>
+              </xsd:element>
+            </xsd:sequence>
+          </xsd:extension>
+        </xsd:complexContent>
+      </xsd:complexType>
+    </xsd:element>
+    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Note">
+          <xsd:maxLength value="255"/>
+        </xsd:restriction>
+      </xsd:simpleType>
+    </xsd:element>
+  </xsd:schema>
+  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
+    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
+    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
+    <xsd:element name="coreProperties" type="CT_coreProperties"/>
+    <xsd:complexType name="CT_coreProperties">
+      <xsd:all>
+        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
+        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
+        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
+        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
+          <xsd:annotation>
+            <xsd:documentation>
+                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
+                    </xsd:documentation>
+          </xsd:annotation>
+        </xsd:element>
+        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
+        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
+      </xsd:all>
+    </xsd:complexType>
+  </xsd:schema>
+  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
+    <xs:element name="Person">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:DisplayName" minOccurs="0"/>
+          <xs:element ref="pc:AccountId" minOccurs="0"/>
+          <xs:element ref="pc:AccountType" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="DisplayName" type="xs:string"/>
+    <xs:element name="AccountId" type="xs:string"/>
+    <xs:element name="AccountType" type="xs:string"/>
+    <xs:element name="BDCAssociatedEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+        <xs:attribute ref="pc:EntityNamespace"/>
+        <xs:attribute ref="pc:EntityName"/>
+        <xs:attribute ref="pc:SystemInstanceName"/>
+        <xs:attribute ref="pc:AssociationName"/>
+      </xs:complexType>
+    </xs:element>
+    <xs:attribute name="EntityNamespace" type="xs:string"/>
+    <xs:attribute name="EntityName" type="xs:string"/>
+    <xs:attribute name="SystemInstanceName" type="xs:string"/>
+    <xs:attribute name="AssociationName" type="xs:string"/>
+    <xs:element name="BDCEntity">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
+          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
+          <xs:element ref="pc:EntityId1" minOccurs="0"/>
+          <xs:element ref="pc:EntityId2" minOccurs="0"/>
+          <xs:element ref="pc:EntityId3" minOccurs="0"/>
+          <xs:element ref="pc:EntityId4" minOccurs="0"/>
+          <xs:element ref="pc:EntityId5" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="EntityDisplayName" type="xs:string"/>
+    <xs:element name="EntityInstanceReference" type="xs:string"/>
+    <xs:element name="EntityId1" type="xs:string"/>
+    <xs:element name="EntityId2" type="xs:string"/>
+    <xs:element name="EntityId3" type="xs:string"/>
+    <xs:element name="EntityId4" type="xs:string"/>
+    <xs:element name="EntityId5" type="xs:string"/>
+    <xs:element name="Terms">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermInfo">
+      <xs:complexType>
+        <xs:sequence>
+          <xs:element ref="pc:TermName" minOccurs="0"/>
+          <xs:element ref="pc:TermId" minOccurs="0"/>
+        </xs:sequence>
+      </xs:complexType>
+    </xs:element>
+    <xs:element name="TermName" type="xs:string"/>
+    <xs:element name="TermId" type="xs:string"/>
+  </xs:schema>
+</ct:contentTypeSchema>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4C23DF-C9CA-4A58-AA9C-5812A1C0B558}"/>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9524C3-124A-4281-928E-24B7F48564E3}"/>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9785A4BD-15A8-4292-AC7A-34627A038E56}"/>
 </file>
--- a/v2.0.1/02-Glossary/ePO-Glossary.xlsx
+++ b/v2.0.1/02-Glossary/ePO-Glossary.xlsx
@@ -16447,236 +16447,4 @@
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Documento" ma:contentTypeID="0x0101001D0A01FC211A0A44AF46DCFC7788647F" ma:contentTypeVersion="10" ma:contentTypeDescription="Crear nuevo documento." ma:contentTypeScope="" ma:versionID="d0b552c268e14c49f727da8a4278bee4">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" xmlns:ns3="56068758-a483-4a4b-84d7-1662caf98f10" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="0145bd77e5eea22887f69a1ea8dc854b" ns2:_="" ns3:_="">
-    <xsd:import namespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64"/>
-    <xsd:import namespace="56068758-a483-4a4b-84d7-1662caf98f10"/>
-    <xsd:element name="properties">
-      <xsd:complexType>
-        <xsd:sequence>
-          <xsd:element name="documentManagement">
-            <xsd:complexType>
-              <xsd:all>
-                <xsd:element ref="ns2:MediaServiceMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceFastMetadata" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoTags" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithUsers" minOccurs="0"/>
-                <xsd:element ref="ns3:SharedWithDetails" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceOCR" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceAutoKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceKeyPoints" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceGenerationTime" minOccurs="0"/>
-                <xsd:element ref="ns2:MediaServiceEventHashCode" minOccurs="0"/>
-              </xsd:all>
-            </xsd:complexType>
-          </xsd:element>
-        </xsd:sequence>
-      </xsd:complexType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="8a9dc265-2a70-4a01-bf40-b0bb55b38d64" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="MediaServiceMetadata" ma:index="8" nillable="true" ma:displayName="MediaServiceMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceFastMetadata" ma:index="9" nillable="true" ma:displayName="MediaServiceFastMetadata" ma:description="" ma:hidden="true" ma:internalName="MediaServiceFastMetadata" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoTags" ma:index="10" nillable="true" ma:displayName="MediaServiceAutoTags" ma:description="" ma:internalName="MediaServiceAutoTags" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceOCR" ma:index="13" nillable="true" ma:displayName="MediaServiceOCR" ma:internalName="MediaServiceOCR" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceAutoKeyPoints" ma:index="14" nillable="true" ma:displayName="MediaServiceAutoKeyPoints" ma:hidden="true" ma:internalName="MediaServiceAutoKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceKeyPoints" ma:index="15" nillable="true" ma:displayName="KeyPoints" ma:internalName="MediaServiceKeyPoints" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceGenerationTime" ma:index="16" nillable="true" ma:displayName="MediaServiceGenerationTime" ma:hidden="true" ma:internalName="MediaServiceGenerationTime" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-    <xsd:element name="MediaServiceEventHashCode" ma:index="17" nillable="true" ma:displayName="MediaServiceEventHashCode" ma:hidden="true" ma:internalName="MediaServiceEventHashCode" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Text"/>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:dms="http://schemas.microsoft.com/office/2006/documentManagement/types" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" targetNamespace="56068758-a483-4a4b-84d7-1662caf98f10" elementFormDefault="qualified">
-    <xsd:import namespace="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <xsd:import namespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <xsd:element name="SharedWithUsers" ma:index="11" nillable="true" ma:displayName="Compartido con" ma:internalName="SharedWithUsers" ma:readOnly="true">
-      <xsd:complexType>
-        <xsd:complexContent>
-          <xsd:extension base="dms:UserMulti">
-            <xsd:sequence>
-              <xsd:element name="UserInfo" minOccurs="0" maxOccurs="unbounded">
-                <xsd:complexType>
-                  <xsd:sequence>
-                    <xsd:element name="DisplayName" type="xsd:string" minOccurs="0"/>
-                    <xsd:element name="AccountId" type="dms:UserId" minOccurs="0" nillable="true"/>
-                    <xsd:element name="AccountType" type="xsd:string" minOccurs="0"/>
-                  </xsd:sequence>
-                </xsd:complexType>
-              </xsd:element>
-            </xsd:sequence>
-          </xsd:extension>
-        </xsd:complexContent>
-      </xsd:complexType>
-    </xsd:element>
-    <xsd:element name="SharedWithDetails" ma:index="12" nillable="true" ma:displayName="Detalles de uso compartido" ma:internalName="SharedWithDetails" ma:readOnly="true">
-      <xsd:simpleType>
-        <xsd:restriction base="dms:Note">
-          <xsd:maxLength value="255"/>
-        </xsd:restriction>
-      </xsd:simpleType>
-    </xsd:element>
-  </xsd:schema>
-  <xsd:schema xmlns="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:dc="http://purl.org/dc/elements/1.1/" xmlns:dcterms="http://purl.org/dc/terms/" xmlns:odoc="http://schemas.microsoft.com/internal/obd" targetNamespace="http://schemas.openxmlformats.org/package/2006/metadata/core-properties" elementFormDefault="qualified" attributeFormDefault="unqualified" blockDefault="#all">
-    <xsd:import namespace="http://purl.org/dc/elements/1.1/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dc.xsd"/>
-    <xsd:import namespace="http://purl.org/dc/terms/" schemaLocation="http://dublincore.org/schemas/xmls/qdc/2003/04/02/dcterms.xsd"/>
-    <xsd:element name="coreProperties" type="CT_coreProperties"/>
-    <xsd:complexType name="CT_coreProperties">
-      <xsd:all>
-        <xsd:element ref="dc:creator" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dcterms:created" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:identifier" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentType" minOccurs="0" maxOccurs="1" type="xsd:string" ma:index="0" ma:displayName="Tipo de contenido"/>
-        <xsd:element ref="dc:title" minOccurs="0" maxOccurs="1" ma:index="4" ma:displayName="Título"/>
-        <xsd:element ref="dc:subject" minOccurs="0" maxOccurs="1"/>
-        <xsd:element ref="dc:description" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="keywords" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dc:language" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="category" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="version" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element name="revision" minOccurs="0" maxOccurs="1" type="xsd:string">
-          <xsd:annotation>
-            <xsd:documentation>
-                        This value indicates the number of saves or revisions. The application is responsible for updating this value after each revision.
-                    </xsd:documentation>
-          </xsd:annotation>
-        </xsd:element>
-        <xsd:element name="lastModifiedBy" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-        <xsd:element ref="dcterms:modified" minOccurs="0" maxOccurs="1"/>
-        <xsd:element name="contentStatus" minOccurs="0" maxOccurs="1" type="xsd:string"/>
-      </xsd:all>
-    </xsd:complexType>
-  </xsd:schema>
-  <xs:schema xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" xmlns:xs="http://www.w3.org/2001/XMLSchema" targetNamespace="http://schemas.microsoft.com/office/infopath/2007/PartnerControls" elementFormDefault="qualified" attributeFormDefault="unqualified">
-    <xs:element name="Person">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:DisplayName" minOccurs="0"/>
-          <xs:element ref="pc:AccountId" minOccurs="0"/>
-          <xs:element ref="pc:AccountType" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="DisplayName" type="xs:string"/>
-    <xs:element name="AccountId" type="xs:string"/>
-    <xs:element name="AccountType" type="xs:string"/>
-    <xs:element name="BDCAssociatedEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:BDCEntity" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-        <xs:attribute ref="pc:EntityNamespace"/>
-        <xs:attribute ref="pc:EntityName"/>
-        <xs:attribute ref="pc:SystemInstanceName"/>
-        <xs:attribute ref="pc:AssociationName"/>
-      </xs:complexType>
-    </xs:element>
-    <xs:attribute name="EntityNamespace" type="xs:string"/>
-    <xs:attribute name="EntityName" type="xs:string"/>
-    <xs:attribute name="SystemInstanceName" type="xs:string"/>
-    <xs:attribute name="AssociationName" type="xs:string"/>
-    <xs:element name="BDCEntity">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:EntityDisplayName" minOccurs="0"/>
-          <xs:element ref="pc:EntityInstanceReference" minOccurs="0"/>
-          <xs:element ref="pc:EntityId1" minOccurs="0"/>
-          <xs:element ref="pc:EntityId2" minOccurs="0"/>
-          <xs:element ref="pc:EntityId3" minOccurs="0"/>
-          <xs:element ref="pc:EntityId4" minOccurs="0"/>
-          <xs:element ref="pc:EntityId5" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="EntityDisplayName" type="xs:string"/>
-    <xs:element name="EntityInstanceReference" type="xs:string"/>
-    <xs:element name="EntityId1" type="xs:string"/>
-    <xs:element name="EntityId2" type="xs:string"/>
-    <xs:element name="EntityId3" type="xs:string"/>
-    <xs:element name="EntityId4" type="xs:string"/>
-    <xs:element name="EntityId5" type="xs:string"/>
-    <xs:element name="Terms">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermInfo" minOccurs="0" maxOccurs="unbounded"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermInfo">
-      <xs:complexType>
-        <xs:sequence>
-          <xs:element ref="pc:TermName" minOccurs="0"/>
-          <xs:element ref="pc:TermId" minOccurs="0"/>
-        </xs:sequence>
-      </xs:complexType>
-    </xs:element>
-    <xs:element name="TermName" type="xs:string"/>
-    <xs:element name="TermId" type="xs:string"/>
-  </xs:schema>
-</ct:contentTypeSchema>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
-</file>
-
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EB4C23DF-C9CA-4A58-AA9C-5812A1C0B558}"/>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7F9524C3-124A-4281-928E-24B7F48564E3}"/>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9785A4BD-15A8-4292-AC7A-34627A038E56}"/>
 </file>